--- a/Исходный_Шаблон.xlsx
+++ b/Исходный_Шаблон.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\Repository\s.panin\daily_duty\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56A14C57-3D64-4BFC-A922-DA0B7DD4F40E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D761AA-B8B7-42B5-AF61-621DC2DC4297}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="721" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="721" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="График" sheetId="12" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="74">
   <si>
     <t>=</t>
   </si>
@@ -244,6 +244,9 @@
   </si>
   <si>
     <t>Харчо</t>
+  </si>
+  <si>
+    <t>Общее</t>
   </si>
 </sst>
 </file>
@@ -1444,7 +1447,7 @@
   </sheetPr>
   <dimension ref="A1:AG65"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="0" defaultGridColor="0" view="pageBreakPreview" colorId="21" zoomScale="85" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showOutlineSymbols="0" defaultGridColor="0" view="pageBreakPreview" topLeftCell="A4" colorId="21" zoomScale="85" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
@@ -2761,8 +2764,8 @@
   </sheetPr>
   <dimension ref="A1:CP67"/>
   <sheetViews>
-    <sheetView showOutlineSymbols="0" defaultGridColor="0" view="pageBreakPreview" topLeftCell="A4" colorId="21" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Z27" sqref="Z27"/>
+    <sheetView tabSelected="1" showOutlineSymbols="0" defaultGridColor="0" view="pageBreakPreview" colorId="21" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3296,7 +3299,7 @@
       </c>
       <c r="D8" s="104"/>
       <c r="E8" s="15">
-        <f>SUM(G8,I8)</f>
+        <f>SUM(G8,I8,K8)</f>
         <v>0</v>
       </c>
       <c r="F8" s="74" t="s">
@@ -3693,7 +3696,7 @@
       </c>
       <c r="D14" s="105"/>
       <c r="E14" s="15">
-        <f>SUM(G14,I14)</f>
+        <f>SUM(G14,I14,K14)</f>
         <v>0</v>
       </c>
       <c r="F14" s="74" t="s">
@@ -4096,9 +4099,14 @@
     </row>
     <row r="22" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="75"/>
-      <c r="C22" s="71"/>
+      <c r="C22" s="71" t="s">
+        <v>73</v>
+      </c>
       <c r="D22" s="71"/>
-      <c r="E22" s="15"/>
+      <c r="E22" s="15">
+        <f>SUM(E8,E14,E20)</f>
+        <v>0</v>
+      </c>
       <c r="F22" s="74"/>
       <c r="G22" s="15"/>
       <c r="H22" s="74"/>

--- a/Исходный_Шаблон.xlsx
+++ b/Исходный_Шаблон.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\Repository\s.panin\daily_duty\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F5D404-3A36-456A-9EDB-B4CA60148DA8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E7965F-7A71-4E98-93C1-A0C0D38ED40F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="721" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="76">
   <si>
     <t>=</t>
   </si>
@@ -32,9 +32,6 @@
     <t>Продукты, употребляемые в завтрак, обед и ужин</t>
   </si>
   <si>
-    <t>Пример питания из расчета</t>
-  </si>
-  <si>
     <t>Цена</t>
   </si>
   <si>
@@ -50,9 +47,6 @@
     <t>суббота</t>
   </si>
   <si>
-    <t>ходовых</t>
-  </si>
-  <si>
     <t>супы на усмотрение участников</t>
   </si>
   <si>
@@ -68,18 +62,12 @@
     <t xml:space="preserve">докупается в походе </t>
   </si>
   <si>
-    <t>похода</t>
-  </si>
-  <si>
     <t>Обед.</t>
   </si>
   <si>
     <t>Перекус.</t>
   </si>
   <si>
-    <t>учасников</t>
-  </si>
-  <si>
     <t>Кетчуп</t>
   </si>
   <si>
@@ -113,12 +101,6 @@
     <t>каждый выбирает на себя сам</t>
   </si>
   <si>
-    <t>ходового дня на</t>
-  </si>
-  <si>
-    <t xml:space="preserve">участников похода </t>
-  </si>
-  <si>
     <t>Кол-во</t>
   </si>
   <si>
@@ -137,9 +119,6 @@
     <t>пятница</t>
   </si>
   <si>
-    <t>дней</t>
-  </si>
-  <si>
     <t>понедельник</t>
   </si>
   <si>
@@ -147,9 +126,6 @@
   </si>
   <si>
     <t>Гречка</t>
-  </si>
-  <si>
-    <t>участников</t>
   </si>
   <si>
     <t>Бутерброд с сыром</t>
@@ -237,9 +213,6 @@
     <t>Общее</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>Каша с мясом</t>
   </si>
   <si>
@@ -253,6 +226,33 @@
   </si>
   <si>
     <t>Соль</t>
+  </si>
+  <si>
+    <t>Андреев В</t>
+  </si>
+  <si>
+    <t>6-7</t>
+  </si>
+  <si>
+    <t>Андреев Дом</t>
+  </si>
+  <si>
+    <t>участников на данный день</t>
+  </si>
+  <si>
+    <t>порций</t>
+  </si>
+  <si>
+    <t>Коэфф</t>
+  </si>
+  <si>
+    <t>Стульникова</t>
+  </si>
+  <si>
+    <t>Рассчет питания согласно графику дежурств</t>
+  </si>
+  <si>
+    <t>Коэффициент Стульникова</t>
   </si>
 </sst>
 </file>
@@ -263,7 +263,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <name val="Tahoma"/>
@@ -355,22 +355,8 @@
       <charset val="204"/>
     </font>
     <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FFC00000"/>
-      <name val="Arial Cyr"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color rgb="FF008000"/>
-      <name val="Arial Cyr"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Arial Cyr"/>
       <charset val="204"/>
     </font>
@@ -379,13 +365,6 @@
       <color rgb="FFFF0000"/>
       <name val="Arial Cyr"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FFC00000"/>
-      <name val="Arial Cyr"/>
     </font>
     <font>
       <b/>
@@ -399,6 +378,13 @@
       <b/>
       <i/>
       <sz val="10"/>
+      <name val="Arial Cyr"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
       <name val="Arial Cyr"/>
       <charset val="204"/>
     </font>
@@ -830,7 +816,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="193">
+  <cellXfs count="197">
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -890,7 +876,7 @@
     <xf numFmtId="1" fontId="15" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -899,7 +885,7 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="19" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -936,7 +922,7 @@
       <alignment horizontal="right" indent="7"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -946,7 +932,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -962,7 +948,7 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
@@ -980,7 +966,7 @@
     <xf numFmtId="1" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1038,7 +1024,7 @@
     <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -1094,14 +1080,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1158,53 +1138,15 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1225,9 +1167,6 @@
     <xf numFmtId="0" fontId="8" fillId="10" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1253,9 +1192,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1292,21 +1228,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1333,6 +1260,75 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1653,8 +1649,8 @@
   </sheetPr>
   <dimension ref="A1:AG65"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="0" defaultGridColor="0" view="pageBreakPreview" topLeftCell="A4" colorId="21" zoomScale="85" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" showOutlineSymbols="0" defaultGridColor="0" view="pageBreakPreview" topLeftCell="B4" colorId="21" zoomScale="85" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1668,21 +1664,21 @@
   <sheetData>
     <row r="1" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="125" t="s">
-        <v>64</v>
-      </c>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="126"/>
-      <c r="J2" s="126"/>
+      <c r="D2" s="170" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="171"/>
+      <c r="F2" s="171"/>
+      <c r="G2" s="171"/>
+      <c r="H2" s="171"/>
+      <c r="I2" s="171"/>
+      <c r="J2" s="171"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="66"/>
@@ -1693,9 +1689,9 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
-      <c r="H3" s="127"/>
+      <c r="F3" s="172"/>
+      <c r="G3" s="172"/>
+      <c r="H3" s="172"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -1707,7 +1703,7 @@
       <c r="B4" s="30"/>
       <c r="C4" s="30"/>
       <c r="D4" s="67" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E4" s="30"/>
       <c r="F4" s="30"/>
@@ -1722,42 +1718,42 @@
     <row r="5" spans="1:33" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="67" t="s">
-        <v>41</v>
+      <c r="D5" s="194" t="s">
+        <v>70</v>
       </c>
       <c r="E5" s="62"/>
       <c r="F5" s="74" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G5" s="75" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="K5" s="75" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="L5" s="75" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="M5" s="75" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N5" s="75" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="P5" s="79" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="Q5" s="79" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="R5" s="79"/>
       <c r="S5" s="79"/>
@@ -1771,7 +1767,7 @@
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="73" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E6" s="62"/>
       <c r="F6" s="74">
@@ -1806,7 +1802,7 @@
       </c>
       <c r="Q6" s="80">
         <f>P6/D6</f>
-        <v>4</v>
+        <v>5.2771608874425556E-4</v>
       </c>
       <c r="R6">
         <f>COUNTA(F8:N34)</f>
@@ -1830,19 +1826,19 @@
       <c r="N7" s="86"/>
     </row>
     <row r="8" spans="1:33" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="128">
+      <c r="A8" s="173">
         <v>5</v>
       </c>
       <c r="B8" s="76" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="77" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D8" s="93"/>
-      <c r="E8" s="121"/>
-      <c r="F8" s="123"/>
-      <c r="G8" s="122"/>
+      <c r="E8" s="119"/>
+      <c r="F8" s="121"/>
+      <c r="G8" s="120"/>
       <c r="H8" s="94"/>
       <c r="I8" s="95"/>
       <c r="J8" s="95"/>
@@ -1860,17 +1856,17 @@
       <c r="AG8" s="86"/>
     </row>
     <row r="9" spans="1:33" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="129"/>
+      <c r="A9" s="174"/>
       <c r="B9" s="77">
         <v>4</v>
       </c>
       <c r="C9" s="77" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D9" s="93"/>
-      <c r="E9" s="115"/>
-      <c r="F9" s="124"/>
-      <c r="G9" s="110"/>
+      <c r="E9" s="113"/>
+      <c r="F9" s="122"/>
+      <c r="G9" s="108"/>
       <c r="H9" s="100"/>
       <c r="I9" s="100"/>
       <c r="J9" s="98"/>
@@ -1887,26 +1883,28 @@
       <c r="AE9" s="30"/>
     </row>
     <row r="10" spans="1:33" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="129"/>
+      <c r="A10" s="174"/>
       <c r="B10" s="78"/>
-      <c r="C10" s="151" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="152"/>
-      <c r="E10" s="153" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" s="107" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10" s="154"/>
-      <c r="H10" s="155"/>
-      <c r="I10" s="156"/>
-      <c r="J10" s="157"/>
-      <c r="K10" s="157"/>
-      <c r="L10" s="157"/>
-      <c r="M10" s="158"/>
-      <c r="N10" s="158"/>
+      <c r="C10" s="133" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="150">
+        <v>6</v>
+      </c>
+      <c r="E10" s="134" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="105" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="135"/>
+      <c r="H10" s="136"/>
+      <c r="I10" s="137"/>
+      <c r="J10" s="138"/>
+      <c r="K10" s="138"/>
+      <c r="L10" s="138"/>
+      <c r="M10" s="139"/>
+      <c r="N10" s="139"/>
       <c r="Z10" s="41"/>
       <c r="AA10" s="31"/>
       <c r="AB10" s="7"/>
@@ -1915,28 +1913,30 @@
       <c r="AE10" s="30"/>
     </row>
     <row r="11" spans="1:33" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="129"/>
+      <c r="A11" s="174"/>
       <c r="B11" s="77" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C11" s="77" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="144"/>
-      <c r="E11" s="145" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="111"/>
-      <c r="G11" s="146" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" s="147"/>
-      <c r="I11" s="148"/>
-      <c r="J11" s="149"/>
-      <c r="K11" s="149"/>
-      <c r="L11" s="149"/>
-      <c r="M11" s="150"/>
-      <c r="N11" s="150"/>
+        <v>23</v>
+      </c>
+      <c r="D11" s="189">
+        <v>6</v>
+      </c>
+      <c r="E11" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="109"/>
+      <c r="G11" s="128" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="129"/>
+      <c r="I11" s="130"/>
+      <c r="J11" s="131"/>
+      <c r="K11" s="131"/>
+      <c r="L11" s="131"/>
+      <c r="M11" s="132"/>
+      <c r="N11" s="132"/>
       <c r="Y11" s="41"/>
       <c r="Z11" s="41"/>
       <c r="AA11" s="31"/>
@@ -1946,22 +1946,24 @@
       <c r="AE11" s="30"/>
     </row>
     <row r="12" spans="1:33" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="129"/>
+      <c r="A12" s="174"/>
       <c r="B12" s="77">
         <v>5</v>
       </c>
       <c r="C12" s="77" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="101"/>
-      <c r="E12" s="102" t="s">
-        <v>68</v>
-      </c>
-      <c r="F12" s="104"/>
-      <c r="G12" s="106" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12" s="105"/>
+        <v>47</v>
+      </c>
+      <c r="D12" s="190">
+        <v>6</v>
+      </c>
+      <c r="E12" s="101" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="102"/>
+      <c r="G12" s="104" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="103"/>
       <c r="I12" s="100"/>
       <c r="J12" s="98"/>
       <c r="K12" s="98"/>
@@ -1977,26 +1979,28 @@
       <c r="AE12" s="30"/>
     </row>
     <row r="13" spans="1:33" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="129"/>
+      <c r="A13" s="174"/>
       <c r="B13" s="78"/>
       <c r="C13" s="78" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="162"/>
-      <c r="E13" s="163" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="164"/>
-      <c r="G13" s="107" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" s="165"/>
-      <c r="I13" s="156"/>
-      <c r="J13" s="157"/>
-      <c r="K13" s="157"/>
-      <c r="L13" s="157"/>
-      <c r="M13" s="158"/>
-      <c r="N13" s="158"/>
+        <v>48</v>
+      </c>
+      <c r="D13" s="190">
+        <v>6</v>
+      </c>
+      <c r="E13" s="143" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="144"/>
+      <c r="G13" s="105" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="145"/>
+      <c r="I13" s="137"/>
+      <c r="J13" s="138"/>
+      <c r="K13" s="138"/>
+      <c r="L13" s="138"/>
+      <c r="M13" s="139"/>
+      <c r="N13" s="139"/>
       <c r="Y13" s="41"/>
       <c r="Z13" s="41"/>
       <c r="AA13" s="31"/>
@@ -2006,28 +2010,30 @@
       <c r="AE13" s="30"/>
     </row>
     <row r="14" spans="1:33" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="129"/>
+      <c r="A14" s="174"/>
       <c r="B14" s="11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="144"/>
-      <c r="E14" s="159" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="148"/>
-      <c r="G14" s="108"/>
-      <c r="H14" s="146" t="s">
-        <v>73</v>
-      </c>
-      <c r="I14" s="160"/>
-      <c r="J14" s="161"/>
-      <c r="K14" s="161"/>
-      <c r="L14" s="149"/>
-      <c r="M14" s="150"/>
-      <c r="N14" s="150"/>
+        <v>23</v>
+      </c>
+      <c r="D14" s="190">
+        <v>6</v>
+      </c>
+      <c r="E14" s="140" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="130"/>
+      <c r="G14" s="106"/>
+      <c r="H14" s="128" t="s">
+        <v>64</v>
+      </c>
+      <c r="I14" s="141"/>
+      <c r="J14" s="142"/>
+      <c r="K14" s="142"/>
+      <c r="L14" s="131"/>
+      <c r="M14" s="132"/>
+      <c r="N14" s="132"/>
       <c r="Y14" s="7"/>
       <c r="Z14" s="7"/>
       <c r="AA14" s="41"/>
@@ -2037,23 +2043,25 @@
       <c r="AE14" s="30"/>
     </row>
     <row r="15" spans="1:33" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="129"/>
+      <c r="A15" s="174"/>
       <c r="B15" s="11">
         <v>6</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="101"/>
-      <c r="E15" s="142" t="s">
-        <v>39</v>
+        <v>47</v>
+      </c>
+      <c r="D15" s="190">
+        <v>6</v>
+      </c>
+      <c r="E15" s="125" t="s">
+        <v>32</v>
       </c>
       <c r="F15" s="100"/>
-      <c r="G15" s="109"/>
-      <c r="H15" s="146" t="s">
-        <v>73</v>
-      </c>
-      <c r="I15" s="110"/>
+      <c r="G15" s="107"/>
+      <c r="H15" s="128" t="s">
+        <v>64</v>
+      </c>
+      <c r="I15" s="108"/>
       <c r="J15" s="95"/>
       <c r="K15" s="96"/>
       <c r="L15" s="98"/>
@@ -2068,26 +2076,28 @@
       <c r="AE15" s="30"/>
     </row>
     <row r="16" spans="1:33" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="129"/>
+      <c r="A16" s="174"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="152"/>
-      <c r="E16" s="167" t="s">
-        <v>46</v>
-      </c>
-      <c r="F16" s="156"/>
-      <c r="G16" s="168"/>
-      <c r="H16" s="146" t="s">
-        <v>73</v>
-      </c>
-      <c r="I16" s="169"/>
-      <c r="J16" s="170"/>
-      <c r="K16" s="158"/>
-      <c r="L16" s="157"/>
-      <c r="M16" s="158"/>
-      <c r="N16" s="158"/>
+        <v>48</v>
+      </c>
+      <c r="D16" s="190">
+        <v>6</v>
+      </c>
+      <c r="E16" s="147" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="137"/>
+      <c r="G16" s="148"/>
+      <c r="H16" s="128" t="s">
+        <v>64</v>
+      </c>
+      <c r="I16" s="149"/>
+      <c r="J16" s="150"/>
+      <c r="K16" s="139"/>
+      <c r="L16" s="138"/>
+      <c r="M16" s="139"/>
+      <c r="N16" s="139"/>
       <c r="Y16" s="7"/>
       <c r="Z16" s="7"/>
       <c r="AA16" s="41"/>
@@ -2097,28 +2107,30 @@
       <c r="AE16" s="30"/>
     </row>
     <row r="17" spans="1:33" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="129"/>
+      <c r="A17" s="174"/>
       <c r="B17" s="11" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="144"/>
-      <c r="E17" s="192" t="s">
-        <v>62</v>
-      </c>
-      <c r="F17" s="148"/>
-      <c r="G17" s="148"/>
-      <c r="H17" s="111"/>
-      <c r="I17" s="146" t="s">
-        <v>58</v>
-      </c>
-      <c r="J17" s="166"/>
-      <c r="K17" s="150"/>
-      <c r="L17" s="149"/>
-      <c r="M17" s="150"/>
-      <c r="N17" s="150"/>
+        <v>23</v>
+      </c>
+      <c r="D17" s="190">
+        <v>6</v>
+      </c>
+      <c r="E17" s="169" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="130"/>
+      <c r="G17" s="130"/>
+      <c r="H17" s="109"/>
+      <c r="I17" s="128" t="s">
+        <v>50</v>
+      </c>
+      <c r="J17" s="146"/>
+      <c r="K17" s="132"/>
+      <c r="L17" s="131"/>
+      <c r="M17" s="132"/>
+      <c r="N17" s="132"/>
       <c r="Y17" s="7"/>
       <c r="Z17" s="7"/>
       <c r="AA17" s="41"/>
@@ -2128,24 +2140,26 @@
       <c r="AE17" s="30"/>
     </row>
     <row r="18" spans="1:33" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="129"/>
+      <c r="A18" s="174"/>
       <c r="B18" s="11">
         <v>7</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="101"/>
-      <c r="E18" s="143" t="s">
-        <v>66</v>
+        <v>47</v>
+      </c>
+      <c r="D18" s="190">
+        <v>6</v>
+      </c>
+      <c r="E18" s="126" t="s">
+        <v>58</v>
       </c>
       <c r="F18" s="98"/>
       <c r="G18" s="98"/>
-      <c r="H18" s="112"/>
-      <c r="I18" s="106" t="s">
-        <v>58</v>
-      </c>
-      <c r="J18" s="113"/>
+      <c r="H18" s="110"/>
+      <c r="I18" s="104" t="s">
+        <v>50</v>
+      </c>
+      <c r="J18" s="111"/>
       <c r="K18" s="95"/>
       <c r="L18" s="98"/>
       <c r="M18" s="96"/>
@@ -2159,26 +2173,28 @@
       <c r="AE18" s="30"/>
     </row>
     <row r="19" spans="1:33" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="129"/>
+      <c r="A19" s="174"/>
       <c r="B19" s="15"/>
       <c r="C19" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="152"/>
-      <c r="E19" s="163" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" s="156"/>
-      <c r="G19" s="156"/>
-      <c r="H19" s="164"/>
-      <c r="I19" s="107" t="s">
-        <v>58</v>
-      </c>
-      <c r="J19" s="169"/>
-      <c r="K19" s="170"/>
-      <c r="L19" s="157"/>
-      <c r="M19" s="158"/>
-      <c r="N19" s="158"/>
+        <v>48</v>
+      </c>
+      <c r="D19" s="190">
+        <v>6</v>
+      </c>
+      <c r="E19" s="143" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="137"/>
+      <c r="G19" s="137"/>
+      <c r="H19" s="144"/>
+      <c r="I19" s="105" t="s">
+        <v>50</v>
+      </c>
+      <c r="J19" s="149"/>
+      <c r="K19" s="150"/>
+      <c r="L19" s="138"/>
+      <c r="M19" s="139"/>
+      <c r="N19" s="139"/>
       <c r="Y19" s="7"/>
       <c r="Z19" s="7"/>
       <c r="AA19" s="41"/>
@@ -2188,28 +2204,30 @@
       <c r="AE19" s="30"/>
     </row>
     <row r="20" spans="1:33" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="129"/>
+      <c r="A20" s="174"/>
       <c r="B20" s="11" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="144"/>
-      <c r="E20" s="145" t="s">
-        <v>40</v>
-      </c>
-      <c r="F20" s="148"/>
-      <c r="G20" s="148"/>
-      <c r="H20" s="171"/>
-      <c r="I20" s="111"/>
-      <c r="J20" s="146" t="s">
-        <v>57</v>
-      </c>
-      <c r="K20" s="166"/>
-      <c r="L20" s="149"/>
-      <c r="M20" s="150"/>
-      <c r="N20" s="150"/>
+        <v>23</v>
+      </c>
+      <c r="D20" s="190">
+        <v>6</v>
+      </c>
+      <c r="E20" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="130"/>
+      <c r="G20" s="130"/>
+      <c r="H20" s="151"/>
+      <c r="I20" s="109"/>
+      <c r="J20" s="128" t="s">
+        <v>49</v>
+      </c>
+      <c r="K20" s="146"/>
+      <c r="L20" s="131"/>
+      <c r="M20" s="132"/>
+      <c r="N20" s="132"/>
       <c r="Y20" s="7"/>
       <c r="Z20" s="7"/>
       <c r="AA20" s="41"/>
@@ -2219,25 +2237,27 @@
       <c r="AE20" s="30"/>
     </row>
     <row r="21" spans="1:33" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="129"/>
+      <c r="A21" s="174"/>
       <c r="B21" s="11">
         <v>8</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" s="101"/>
-      <c r="E21" s="102" t="s">
-        <v>68</v>
+        <v>47</v>
+      </c>
+      <c r="D21" s="190">
+        <v>6</v>
+      </c>
+      <c r="E21" s="101" t="s">
+        <v>60</v>
       </c>
       <c r="F21" s="100"/>
       <c r="G21" s="100"/>
       <c r="H21" s="99"/>
-      <c r="I21" s="104"/>
-      <c r="J21" s="106" t="s">
-        <v>57</v>
-      </c>
-      <c r="K21" s="113"/>
+      <c r="I21" s="102"/>
+      <c r="J21" s="104" t="s">
+        <v>49</v>
+      </c>
+      <c r="K21" s="111"/>
       <c r="L21" s="98"/>
       <c r="M21" s="96"/>
       <c r="N21" s="96"/>
@@ -2250,26 +2270,28 @@
       <c r="AE21" s="30"/>
     </row>
     <row r="22" spans="1:33" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="129"/>
+      <c r="A22" s="174"/>
       <c r="B22" s="15"/>
       <c r="C22" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" s="152"/>
-      <c r="E22" s="167" t="s">
-        <v>46</v>
-      </c>
-      <c r="F22" s="156"/>
-      <c r="G22" s="156"/>
-      <c r="H22" s="173"/>
-      <c r="I22" s="164"/>
-      <c r="J22" s="107" t="s">
-        <v>57</v>
-      </c>
-      <c r="K22" s="174"/>
-      <c r="L22" s="157"/>
-      <c r="M22" s="158"/>
-      <c r="N22" s="158"/>
+        <v>48</v>
+      </c>
+      <c r="D22" s="190">
+        <v>6</v>
+      </c>
+      <c r="E22" s="147" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="137"/>
+      <c r="G22" s="137"/>
+      <c r="H22" s="153"/>
+      <c r="I22" s="144"/>
+      <c r="J22" s="105" t="s">
+        <v>49</v>
+      </c>
+      <c r="K22" s="154"/>
+      <c r="L22" s="138"/>
+      <c r="M22" s="139"/>
+      <c r="N22" s="139"/>
       <c r="Y22" s="7"/>
       <c r="Z22" s="7"/>
       <c r="AA22" s="41"/>
@@ -2279,28 +2301,30 @@
       <c r="AE22" s="30"/>
     </row>
     <row r="23" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="129"/>
+      <c r="A23" s="174"/>
       <c r="B23" s="77" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="77" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="190">
+        <v>6</v>
+      </c>
+      <c r="E23" s="140" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" s="131"/>
+      <c r="G23" s="131"/>
+      <c r="H23" s="131"/>
+      <c r="I23" s="131"/>
+      <c r="J23" s="112"/>
+      <c r="K23" s="128" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="77" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" s="144"/>
-      <c r="E23" s="159" t="s">
-        <v>49</v>
-      </c>
-      <c r="F23" s="149"/>
-      <c r="G23" s="149"/>
-      <c r="H23" s="149"/>
-      <c r="I23" s="149"/>
-      <c r="J23" s="114"/>
-      <c r="K23" s="146" t="s">
-        <v>59</v>
-      </c>
-      <c r="L23" s="172"/>
-      <c r="M23" s="150"/>
-      <c r="N23" s="150"/>
+      <c r="L23" s="152"/>
+      <c r="M23" s="132"/>
+      <c r="N23" s="132"/>
       <c r="Y23" s="30"/>
       <c r="Z23" s="30"/>
       <c r="AA23" s="30"/>
@@ -2310,26 +2334,28 @@
       <c r="AE23" s="30"/>
     </row>
     <row r="24" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="129"/>
+      <c r="A24" s="174"/>
       <c r="B24" s="77">
         <v>9</v>
       </c>
       <c r="C24" s="77" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24" s="101"/>
-      <c r="E24" s="142" t="s">
-        <v>39</v>
+        <v>47</v>
+      </c>
+      <c r="D24" s="190">
+        <v>6</v>
+      </c>
+      <c r="E24" s="125" t="s">
+        <v>32</v>
       </c>
       <c r="F24" s="98"/>
       <c r="G24" s="98"/>
       <c r="H24" s="98"/>
       <c r="I24" s="98"/>
-      <c r="J24" s="115"/>
-      <c r="K24" s="106" t="s">
-        <v>59</v>
-      </c>
-      <c r="L24" s="116"/>
+      <c r="J24" s="113"/>
+      <c r="K24" s="104" t="s">
+        <v>51</v>
+      </c>
+      <c r="L24" s="114"/>
       <c r="M24" s="96"/>
       <c r="N24" s="96"/>
       <c r="Y24" s="30"/>
@@ -2341,26 +2367,28 @@
       <c r="AE24" s="30"/>
     </row>
     <row r="25" spans="1:33" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="129"/>
+      <c r="A25" s="174"/>
       <c r="B25" s="78"/>
       <c r="C25" s="78" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25" s="177"/>
-      <c r="E25" s="163" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25" s="157"/>
-      <c r="G25" s="157"/>
-      <c r="H25" s="157"/>
-      <c r="I25" s="157"/>
-      <c r="J25" s="178"/>
-      <c r="K25" s="107" t="s">
-        <v>59</v>
-      </c>
-      <c r="L25" s="179"/>
-      <c r="M25" s="158"/>
-      <c r="N25" s="158"/>
+        <v>48</v>
+      </c>
+      <c r="D25" s="150">
+        <v>7</v>
+      </c>
+      <c r="E25" s="143" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="138"/>
+      <c r="G25" s="138"/>
+      <c r="H25" s="138"/>
+      <c r="I25" s="138"/>
+      <c r="J25" s="156"/>
+      <c r="K25" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="L25" s="157"/>
+      <c r="M25" s="139"/>
+      <c r="N25" s="139"/>
       <c r="Y25" s="30"/>
       <c r="Z25" s="30"/>
       <c r="AA25" s="30"/>
@@ -2370,28 +2398,30 @@
       <c r="AE25" s="30"/>
     </row>
     <row r="26" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="129"/>
+      <c r="A26" s="174"/>
       <c r="B26" s="77" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C26" s="77" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" s="175"/>
-      <c r="E26" s="192" t="s">
-        <v>62</v>
-      </c>
-      <c r="F26" s="149"/>
-      <c r="G26" s="149"/>
-      <c r="H26" s="149"/>
-      <c r="I26" s="149"/>
-      <c r="J26" s="149"/>
-      <c r="K26" s="114"/>
-      <c r="L26" s="146" t="s">
-        <v>24</v>
-      </c>
-      <c r="M26" s="176"/>
-      <c r="N26" s="150"/>
+        <v>23</v>
+      </c>
+      <c r="D26" s="142">
+        <v>7</v>
+      </c>
+      <c r="E26" s="169" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" s="131"/>
+      <c r="G26" s="131"/>
+      <c r="H26" s="131"/>
+      <c r="I26" s="131"/>
+      <c r="J26" s="131"/>
+      <c r="K26" s="112"/>
+      <c r="L26" s="185" t="s">
+        <v>67</v>
+      </c>
+      <c r="M26" s="155"/>
+      <c r="N26" s="132"/>
       <c r="Y26" s="30"/>
       <c r="Z26" s="30"/>
       <c r="AA26" s="30"/>
@@ -2401,27 +2431,29 @@
       <c r="AE26" s="41"/>
     </row>
     <row r="27" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="129"/>
+      <c r="A27" s="174"/>
       <c r="B27" s="77">
         <v>10</v>
       </c>
       <c r="C27" s="77" t="s">
-        <v>55</v>
-      </c>
-      <c r="D27" s="103"/>
-      <c r="E27" s="143" t="s">
-        <v>66</v>
+        <v>47</v>
+      </c>
+      <c r="D27" s="95">
+        <v>7</v>
+      </c>
+      <c r="E27" s="126" t="s">
+        <v>58</v>
       </c>
       <c r="F27" s="98"/>
       <c r="G27" s="98"/>
       <c r="H27" s="98"/>
       <c r="I27" s="98"/>
       <c r="J27" s="98"/>
-      <c r="K27" s="115"/>
-      <c r="L27" s="106" t="s">
-        <v>24</v>
-      </c>
-      <c r="M27" s="117"/>
+      <c r="K27" s="113"/>
+      <c r="L27" s="186" t="s">
+        <v>67</v>
+      </c>
+      <c r="M27" s="115"/>
       <c r="N27" s="96"/>
       <c r="Y27" s="30"/>
       <c r="Z27" s="30"/>
@@ -2432,26 +2464,28 @@
       <c r="AE27" s="41"/>
     </row>
     <row r="28" spans="1:33" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="129"/>
+      <c r="A28" s="174"/>
       <c r="B28" s="78"/>
       <c r="C28" s="78" t="s">
-        <v>56</v>
-      </c>
-      <c r="D28" s="180"/>
-      <c r="E28" s="167" t="s">
-        <v>46</v>
-      </c>
-      <c r="F28" s="157"/>
-      <c r="G28" s="157"/>
-      <c r="H28" s="157"/>
-      <c r="I28" s="157"/>
-      <c r="J28" s="157"/>
-      <c r="K28" s="178"/>
-      <c r="L28" s="107" t="s">
-        <v>24</v>
-      </c>
-      <c r="M28" s="181"/>
-      <c r="N28" s="158"/>
+        <v>48</v>
+      </c>
+      <c r="D28" s="192">
+        <v>7</v>
+      </c>
+      <c r="E28" s="147" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" s="138"/>
+      <c r="G28" s="138"/>
+      <c r="H28" s="138"/>
+      <c r="I28" s="138"/>
+      <c r="J28" s="138"/>
+      <c r="K28" s="156"/>
+      <c r="L28" s="187" t="s">
+        <v>69</v>
+      </c>
+      <c r="M28" s="158"/>
+      <c r="N28" s="139"/>
       <c r="Y28" s="30"/>
       <c r="Z28" s="30"/>
       <c r="AA28" s="30"/>
@@ -2461,28 +2495,30 @@
       <c r="AE28" s="41"/>
     </row>
     <row r="29" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="129"/>
+      <c r="A29" s="174"/>
       <c r="B29" s="77" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="77" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="193">
         <v>7</v>
       </c>
-      <c r="C29" s="77" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" s="149"/>
-      <c r="E29" s="145" t="s">
-        <v>40</v>
-      </c>
-      <c r="F29" s="149"/>
-      <c r="G29" s="149"/>
-      <c r="H29" s="149"/>
-      <c r="I29" s="149"/>
-      <c r="J29" s="149"/>
-      <c r="K29" s="149"/>
-      <c r="L29" s="114"/>
-      <c r="M29" s="146" t="s">
-        <v>34</v>
-      </c>
-      <c r="N29" s="176"/>
+      <c r="E29" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29" s="131"/>
+      <c r="G29" s="131"/>
+      <c r="H29" s="131"/>
+      <c r="I29" s="131"/>
+      <c r="J29" s="131"/>
+      <c r="K29" s="131"/>
+      <c r="L29" s="112"/>
+      <c r="M29" s="188" t="s">
+        <v>69</v>
+      </c>
+      <c r="N29" s="155"/>
       <c r="Y29" s="30"/>
       <c r="Z29" s="30"/>
       <c r="AA29" s="30"/>
@@ -2493,16 +2529,18 @@
       <c r="AF29" s="41"/>
     </row>
     <row r="30" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="129"/>
+      <c r="A30" s="174"/>
       <c r="B30" s="77">
         <v>11</v>
       </c>
       <c r="C30" s="77" t="s">
-        <v>55</v>
-      </c>
-      <c r="D30" s="98"/>
-      <c r="E30" s="102" t="s">
-        <v>68</v>
+        <v>47</v>
+      </c>
+      <c r="D30" s="190">
+        <v>6</v>
+      </c>
+      <c r="E30" s="101" t="s">
+        <v>60</v>
       </c>
       <c r="F30" s="98"/>
       <c r="G30" s="98"/>
@@ -2510,11 +2548,11 @@
       <c r="I30" s="98"/>
       <c r="J30" s="98"/>
       <c r="K30" s="98"/>
-      <c r="L30" s="115"/>
-      <c r="M30" s="106" t="s">
-        <v>73</v>
-      </c>
-      <c r="N30" s="117"/>
+      <c r="L30" s="113"/>
+      <c r="M30" s="104" t="s">
+        <v>20</v>
+      </c>
+      <c r="N30" s="115"/>
       <c r="Y30" s="30"/>
       <c r="Z30" s="30"/>
       <c r="AA30" s="30"/>
@@ -2525,26 +2563,28 @@
       <c r="AF30" s="41"/>
     </row>
     <row r="31" spans="1:33" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="129"/>
+      <c r="A31" s="174"/>
       <c r="B31" s="78"/>
       <c r="C31" s="78" t="s">
-        <v>56</v>
-      </c>
-      <c r="D31" s="157"/>
-      <c r="E31" s="163" t="s">
-        <v>21</v>
-      </c>
-      <c r="F31" s="157"/>
-      <c r="G31" s="157"/>
-      <c r="H31" s="157"/>
-      <c r="I31" s="157"/>
-      <c r="J31" s="157"/>
-      <c r="K31" s="157"/>
-      <c r="L31" s="178"/>
-      <c r="M31" s="107" t="s">
-        <v>58</v>
-      </c>
-      <c r="N31" s="181"/>
+        <v>48</v>
+      </c>
+      <c r="D31" s="191">
+        <v>6</v>
+      </c>
+      <c r="E31" s="143" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" s="138"/>
+      <c r="G31" s="138"/>
+      <c r="H31" s="138"/>
+      <c r="I31" s="138"/>
+      <c r="J31" s="138"/>
+      <c r="K31" s="138"/>
+      <c r="L31" s="156"/>
+      <c r="M31" s="105" t="s">
+        <v>20</v>
+      </c>
+      <c r="N31" s="158"/>
       <c r="Y31" s="30"/>
       <c r="Z31" s="30"/>
       <c r="AA31" s="30"/>
@@ -2555,27 +2595,29 @@
       <c r="AF31" s="41"/>
     </row>
     <row r="32" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="129"/>
+      <c r="A32" s="174"/>
       <c r="B32" s="77" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C32" s="77" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" s="149"/>
-      <c r="E32" s="159" t="s">
-        <v>49</v>
-      </c>
-      <c r="F32" s="149"/>
-      <c r="G32" s="149"/>
-      <c r="H32" s="149"/>
-      <c r="I32" s="149"/>
-      <c r="J32" s="149"/>
-      <c r="K32" s="149"/>
-      <c r="L32" s="149"/>
-      <c r="M32" s="118"/>
-      <c r="N32" s="146" t="s">
-        <v>57</v>
+        <v>23</v>
+      </c>
+      <c r="D32" s="189">
+        <v>6</v>
+      </c>
+      <c r="E32" s="140" t="s">
+        <v>41</v>
+      </c>
+      <c r="F32" s="131"/>
+      <c r="G32" s="131"/>
+      <c r="H32" s="131"/>
+      <c r="I32" s="131"/>
+      <c r="J32" s="131"/>
+      <c r="K32" s="131"/>
+      <c r="L32" s="131"/>
+      <c r="M32" s="116"/>
+      <c r="N32" s="128" t="s">
+        <v>20</v>
       </c>
       <c r="Y32" s="30"/>
       <c r="Z32" s="30"/>
@@ -2587,16 +2629,18 @@
       <c r="AG32" s="41"/>
     </row>
     <row r="33" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="129"/>
+      <c r="A33" s="174"/>
       <c r="B33" s="77">
         <v>12</v>
       </c>
       <c r="C33" s="77" t="s">
-        <v>55</v>
-      </c>
-      <c r="D33" s="98"/>
-      <c r="E33" s="142" t="s">
-        <v>39</v>
+        <v>47</v>
+      </c>
+      <c r="D33" s="190">
+        <v>6</v>
+      </c>
+      <c r="E33" s="125" t="s">
+        <v>32</v>
       </c>
       <c r="F33" s="98"/>
       <c r="G33" s="98"/>
@@ -2605,9 +2649,9 @@
       <c r="J33" s="98"/>
       <c r="K33" s="98"/>
       <c r="L33" s="98"/>
-      <c r="M33" s="119"/>
-      <c r="N33" s="106" t="s">
-        <v>24</v>
+      <c r="M33" s="117"/>
+      <c r="N33" s="104" t="s">
+        <v>49</v>
       </c>
       <c r="Y33" s="30"/>
       <c r="Z33" s="30"/>
@@ -2619,10 +2663,10 @@
       <c r="AG33" s="41"/>
     </row>
     <row r="34" spans="1:33" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="129"/>
+      <c r="A34" s="174"/>
       <c r="B34" s="77"/>
       <c r="C34" s="77" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D34" s="98"/>
       <c r="E34" s="99"/>
@@ -2633,8 +2677,8 @@
       <c r="J34" s="98"/>
       <c r="K34" s="98"/>
       <c r="L34" s="98"/>
-      <c r="M34" s="119"/>
-      <c r="N34" s="120"/>
+      <c r="M34" s="117"/>
+      <c r="N34" s="118"/>
     </row>
     <row r="35" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="30"/>
@@ -2970,8 +3014,8 @@
   </sheetPr>
   <dimension ref="A1:CP69"/>
   <sheetViews>
-    <sheetView showOutlineSymbols="0" defaultGridColor="0" view="pageBreakPreview" colorId="21" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="Q68" sqref="Q68"/>
+    <sheetView showOutlineSymbols="0" defaultGridColor="0" view="pageBreakPreview" topLeftCell="A40" colorId="21" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="Q69" sqref="Q69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2986,7 +3030,8 @@
     <col min="10" max="10" width="6.6640625" customWidth="1"/>
     <col min="11" max="11" width="10.1640625" customWidth="1"/>
     <col min="12" max="12" width="6.6640625" customWidth="1"/>
-    <col min="13" max="14" width="10.1640625" customWidth="1"/>
+    <col min="13" max="13" width="10.1640625" customWidth="1"/>
+    <col min="14" max="14" width="14.33203125" customWidth="1"/>
     <col min="15" max="15" width="9.6640625" customWidth="1"/>
     <col min="16" max="16" width="6.6640625" customWidth="1"/>
     <col min="17" max="17" width="17.1640625" customWidth="1"/>
@@ -3059,14 +3104,14 @@
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="58" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E2" s="58"/>
       <c r="F2" s="58"/>
       <c r="G2" s="58"/>
       <c r="H2" s="26"/>
       <c r="I2" s="26" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="J2" s="26"/>
       <c r="K2" s="27"/>
@@ -3195,36 +3240,32 @@
       <c r="CO4" s="68"/>
       <c r="CP4" s="68"/>
     </row>
-    <row r="5" spans="1:94" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="138" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="138"/>
-      <c r="D5" s="138"/>
-      <c r="E5" s="139"/>
-      <c r="F5" s="24">
+    <row r="5" spans="1:94" ht="35.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="195" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="195"/>
+      <c r="D5" s="195"/>
+      <c r="E5" s="195"/>
+      <c r="F5" s="195"/>
+      <c r="G5" s="195"/>
+      <c r="H5" s="195"/>
+      <c r="I5" s="196"/>
+      <c r="J5" s="24">
         <v>1</v>
       </c>
-      <c r="G5" s="140" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="140"/>
-      <c r="I5" s="140"/>
-      <c r="J5" s="24">
-        <v>6</v>
-      </c>
-      <c r="K5" s="141" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" s="131"/>
-      <c r="M5" s="131"/>
-      <c r="N5" s="131"/>
-      <c r="O5" s="130" t="s">
-        <v>67</v>
-      </c>
-      <c r="P5" s="130"/>
-      <c r="Q5" s="130"/>
-      <c r="R5" s="130"/>
+      <c r="K5" s="175" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" s="176"/>
+      <c r="M5" s="176"/>
+      <c r="N5" s="176"/>
+      <c r="O5" s="177" t="s">
+        <v>59</v>
+      </c>
+      <c r="P5" s="177"/>
+      <c r="Q5" s="177"/>
+      <c r="R5" s="177"/>
       <c r="S5" s="21"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
@@ -3404,11 +3445,11 @@
       <c r="E7" s="68"/>
       <c r="F7" s="68"/>
       <c r="G7" s="68" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H7" s="68"/>
       <c r="I7" s="68" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="J7" s="68"/>
       <c r="K7" s="68"/>
@@ -3500,10 +3541,10 @@
       <c r="B8" s="23">
         <v>1</v>
       </c>
-      <c r="C8" s="132" t="s">
-        <v>72</v>
-      </c>
-      <c r="D8" s="132"/>
+      <c r="C8" s="178" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="178"/>
       <c r="E8" s="14">
         <f>SUM(G8,I8,K8)</f>
         <v>0</v>
@@ -3515,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="71" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I8" s="6">
         <v>0</v>
@@ -3750,18 +3791,18 @@
       <c r="B11" s="72">
         <v>2</v>
       </c>
-      <c r="C11" s="131" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="131"/>
+      <c r="C11" s="176" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="176"/>
       <c r="E11" s="43"/>
-      <c r="F11" s="131" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="131"/>
-      <c r="H11" s="131"/>
-      <c r="I11" s="131"/>
-      <c r="J11" s="131"/>
+      <c r="F11" s="176" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="176"/>
+      <c r="H11" s="176"/>
+      <c r="I11" s="176"/>
+      <c r="J11" s="176"/>
       <c r="K11" s="68"/>
       <c r="L11" s="68"/>
       <c r="M11" s="68"/>
@@ -3849,15 +3890,15 @@
       <c r="E13" s="14"/>
       <c r="F13" s="68"/>
       <c r="G13" s="53" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="H13" s="68"/>
       <c r="I13" s="53" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="J13" s="68"/>
       <c r="K13" s="68" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="L13" s="68"/>
       <c r="M13" s="68"/>
@@ -3897,10 +3938,10 @@
       <c r="B14" s="63">
         <v>3</v>
       </c>
-      <c r="C14" s="133" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="133"/>
+      <c r="C14" s="179" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="179"/>
       <c r="E14" s="14">
         <f>SUM(G14,I14,K14)</f>
         <v>0</v>
@@ -3912,13 +3953,13 @@
         <v>0</v>
       </c>
       <c r="H14" s="71" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I14" s="29">
         <v>0</v>
       </c>
       <c r="J14" s="71" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="K14" s="81">
         <v>0</v>
@@ -4051,18 +4092,18 @@
       <c r="B17" s="72">
         <v>4</v>
       </c>
-      <c r="C17" s="131" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="131"/>
+      <c r="C17" s="176" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="176"/>
       <c r="E17" s="43"/>
-      <c r="F17" s="131" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" s="131"/>
-      <c r="H17" s="131"/>
-      <c r="I17" s="131"/>
-      <c r="J17" s="131"/>
+      <c r="F17" s="176" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="176"/>
+      <c r="H17" s="176"/>
+      <c r="I17" s="176"/>
+      <c r="J17" s="176"/>
       <c r="K17" s="68"/>
       <c r="L17" s="68"/>
       <c r="M17" s="68"/>
@@ -4150,18 +4191,20 @@
       <c r="E19" s="14"/>
       <c r="F19" s="68"/>
       <c r="G19" s="53" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H19" s="68"/>
       <c r="I19" s="53" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="J19" s="68"/>
       <c r="K19" s="68" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="L19" s="68"/>
-      <c r="M19" s="68"/>
+      <c r="M19" s="123" t="s">
+        <v>22</v>
+      </c>
       <c r="N19" s="68"/>
       <c r="O19" s="68"/>
       <c r="P19" s="68"/>
@@ -4198,10 +4241,10 @@
       <c r="B20" s="28">
         <v>5</v>
       </c>
-      <c r="C20" s="137" t="s">
-        <v>71</v>
-      </c>
-      <c r="D20" s="137"/>
+      <c r="C20" s="180" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="180"/>
       <c r="E20" s="14">
         <f>SUM(G20,I20,K20)</f>
         <v>0</v>
@@ -4213,19 +4256,24 @@
         <v>0</v>
       </c>
       <c r="H20" s="71" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I20" s="20">
         <v>0</v>
       </c>
       <c r="J20" s="71" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="K20" s="8">
         <v>0</v>
       </c>
-      <c r="L20" s="68"/>
-      <c r="M20" s="68"/>
+      <c r="L20" s="124" t="s">
+        <v>18</v>
+      </c>
+      <c r="M20" s="14">
+        <f>G20+I20</f>
+        <v>0</v>
+      </c>
       <c r="N20" s="68"/>
       <c r="O20" s="68"/>
       <c r="P20" s="68"/>
@@ -4306,7 +4354,7 @@
     <row r="22" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="72"/>
       <c r="C22" s="68" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D22" s="68"/>
       <c r="E22" s="14">
@@ -4316,14 +4364,14 @@
       <c r="F22" s="71"/>
       <c r="G22" s="14"/>
       <c r="H22" s="71"/>
-      <c r="I22" s="135" t="s">
-        <v>31</v>
-      </c>
-      <c r="J22" s="135"/>
-      <c r="K22" s="136" t="s">
-        <v>31</v>
-      </c>
-      <c r="L22" s="136"/>
+      <c r="I22" s="181" t="s">
+        <v>25</v>
+      </c>
+      <c r="J22" s="181"/>
+      <c r="K22" s="182" t="s">
+        <v>72</v>
+      </c>
+      <c r="L22" s="182"/>
       <c r="M22" s="68"/>
       <c r="N22" s="68"/>
       <c r="O22" s="68"/>
@@ -4365,15 +4413,15 @@
       <c r="F23" s="68"/>
       <c r="G23" s="68"/>
       <c r="H23" s="2"/>
-      <c r="I23" s="135" t="s">
-        <v>8</v>
-      </c>
-      <c r="J23" s="135"/>
-      <c r="K23" s="135" t="s">
-        <v>17</v>
-      </c>
-      <c r="L23" s="135"/>
-      <c r="M23" s="135"/>
+      <c r="I23" s="181" t="s">
+        <v>71</v>
+      </c>
+      <c r="J23" s="181"/>
+      <c r="K23" s="181" t="s">
+        <v>73</v>
+      </c>
+      <c r="L23" s="181"/>
+      <c r="M23" s="181"/>
       <c r="N23" s="68"/>
       <c r="O23" s="68"/>
       <c r="P23" s="68"/>
@@ -4414,25 +4462,21 @@
       <c r="F24" s="68"/>
       <c r="G24" s="68"/>
       <c r="H24" s="68"/>
-      <c r="I24" s="71" t="s">
-        <v>37</v>
-      </c>
+      <c r="I24" s="71"/>
       <c r="J24" s="68"/>
-      <c r="K24" s="136" t="s">
-        <v>14</v>
-      </c>
-      <c r="L24" s="136"/>
+      <c r="K24" s="182"/>
+      <c r="L24" s="182"/>
       <c r="M24" s="68"/>
       <c r="N24" s="68"/>
       <c r="O24" s="68"/>
       <c r="P24" s="68"/>
-      <c r="Q24" s="131" t="s">
-        <v>6</v>
-      </c>
-      <c r="R24" s="131"/>
-      <c r="S24" s="131"/>
+      <c r="Q24" s="176" t="s">
+        <v>5</v>
+      </c>
+      <c r="R24" s="176"/>
+      <c r="S24" s="176"/>
       <c r="T24" s="68" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U24" s="68"/>
       <c r="V24" s="68"/>
@@ -4509,7 +4553,7 @@
         <v>1</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D26" s="25"/>
       <c r="E26" s="68"/>
@@ -4558,27 +4602,27 @@
       <c r="C27" s="10">
         <v>1</v>
       </c>
-      <c r="D27" s="134" t="s">
-        <v>40</v>
-      </c>
-      <c r="E27" s="134"/>
-      <c r="F27" s="134"/>
+      <c r="D27" s="183" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="183"/>
+      <c r="F27" s="183"/>
       <c r="G27" s="14">
         <v>40</v>
       </c>
       <c r="H27" s="71" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I27" s="33">
         <f>G20</f>
         <v>0</v>
       </c>
       <c r="J27" s="71" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="K27" s="14">
         <f>J5</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L27" s="71" t="s">
         <v>0</v>
@@ -4627,27 +4671,27 @@
       <c r="C28" s="10">
         <v>2</v>
       </c>
-      <c r="D28" s="132" t="s">
-        <v>49</v>
-      </c>
-      <c r="E28" s="132"/>
-      <c r="F28" s="132"/>
+      <c r="D28" s="178" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" s="178"/>
+      <c r="F28" s="178"/>
       <c r="G28" s="14">
         <v>40</v>
       </c>
       <c r="H28" s="71" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I28" s="56">
         <f>I20</f>
         <v>0</v>
       </c>
       <c r="J28" s="71" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="K28" s="14">
         <f>J5</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L28" s="71" t="s">
         <v>0</v>
@@ -4697,7 +4741,7 @@
         <v>3</v>
       </c>
       <c r="D29" s="68" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E29" s="68"/>
       <c r="F29" s="68"/>
@@ -4705,18 +4749,18 @@
         <v>40</v>
       </c>
       <c r="H29" s="71" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I29" s="34">
-        <f>E20</f>
+        <f>M20</f>
         <v>0</v>
       </c>
       <c r="J29" s="71" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="K29" s="14">
         <f>J5</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L29" s="71" t="s">
         <v>0</v>
@@ -4766,7 +4810,7 @@
         <v>4</v>
       </c>
       <c r="D30" s="83" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E30" s="83"/>
       <c r="F30" s="68"/>
@@ -4774,18 +4818,18 @@
         <v>80</v>
       </c>
       <c r="H30" s="71" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I30" s="34">
         <f>K20</f>
         <v>0</v>
       </c>
       <c r="J30" s="71" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="K30" s="14">
         <f>J5</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L30" s="71" t="s">
         <v>0</v>
@@ -4834,27 +4878,27 @@
       <c r="C31" s="10">
         <v>5</v>
       </c>
-      <c r="D31" s="131" t="s">
-        <v>48</v>
-      </c>
-      <c r="E31" s="131"/>
-      <c r="F31" s="131"/>
+      <c r="D31" s="176" t="s">
+        <v>40</v>
+      </c>
+      <c r="E31" s="176"/>
+      <c r="F31" s="176"/>
       <c r="G31" s="14">
         <v>100</v>
       </c>
       <c r="H31" s="71" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I31" s="14">
         <f>E20</f>
         <v>0</v>
       </c>
       <c r="J31" s="71" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="K31" s="14">
         <f>J5</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L31" s="71" t="s">
         <v>0</v>
@@ -4873,7 +4917,7 @@
         <v>0</v>
       </c>
       <c r="R31" s="68" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="S31" s="84">
         <f>ROUNDUP(Q31, 0)</f>
@@ -4910,27 +4954,27 @@
       <c r="C32" s="10">
         <v>6</v>
       </c>
-      <c r="D32" s="131" t="s">
-        <v>33</v>
-      </c>
-      <c r="E32" s="131"/>
-      <c r="F32" s="131"/>
+      <c r="D32" s="176" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="176"/>
+      <c r="F32" s="176"/>
       <c r="G32" s="14">
         <v>2</v>
       </c>
       <c r="H32" s="71" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I32" s="14">
         <f>E20</f>
         <v>0</v>
       </c>
       <c r="J32" s="71" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="K32" s="14">
         <f>J5</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L32" s="71" t="s">
         <v>0</v>
@@ -4976,11 +5020,11 @@
       <c r="C33" s="10">
         <v>7</v>
       </c>
-      <c r="D33" s="131" t="s">
-        <v>43</v>
-      </c>
-      <c r="E33" s="131"/>
-      <c r="F33" s="131"/>
+      <c r="D33" s="176" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" s="176"/>
+      <c r="F33" s="176"/>
       <c r="G33" s="14"/>
       <c r="H33" s="71"/>
       <c r="I33" s="14"/>
@@ -5069,10 +5113,10 @@
       <c r="B35" s="72">
         <v>2</v>
       </c>
-      <c r="C35" s="131" t="s">
-        <v>16</v>
-      </c>
-      <c r="D35" s="131"/>
+      <c r="C35" s="176" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="176"/>
       <c r="E35" s="68"/>
       <c r="F35" s="68"/>
       <c r="G35" s="68"/>
@@ -5163,18 +5207,18 @@
       <c r="B37" s="63">
         <v>3</v>
       </c>
-      <c r="C37" s="133" t="s">
-        <v>15</v>
-      </c>
-      <c r="D37" s="133"/>
+      <c r="C37" s="179" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="179"/>
       <c r="E37" s="68"/>
-      <c r="F37" s="131" t="s">
-        <v>9</v>
-      </c>
-      <c r="G37" s="131"/>
-      <c r="H37" s="131"/>
-      <c r="I37" s="131"/>
-      <c r="J37" s="131"/>
+      <c r="F37" s="176" t="s">
+        <v>7</v>
+      </c>
+      <c r="G37" s="176"/>
+      <c r="H37" s="176"/>
+      <c r="I37" s="176"/>
+      <c r="J37" s="176"/>
       <c r="K37" s="68"/>
       <c r="L37" s="68"/>
       <c r="M37" s="68"/>
@@ -5215,27 +5259,27 @@
       <c r="C38" s="10">
         <v>1</v>
       </c>
-      <c r="D38" s="131" t="s">
-        <v>19</v>
-      </c>
-      <c r="E38" s="131"/>
-      <c r="F38" s="131"/>
+      <c r="D38" s="176" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" s="176"/>
+      <c r="F38" s="176"/>
       <c r="G38" s="14">
         <v>50</v>
       </c>
       <c r="H38" s="71" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I38" s="14">
         <f>E14</f>
         <v>0</v>
       </c>
       <c r="J38" s="71" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="K38" s="14">
         <f>J5</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L38" s="71" t="s">
         <v>0</v>
@@ -5285,7 +5329,7 @@
         <v>2</v>
       </c>
       <c r="D39" s="70" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E39" s="70"/>
       <c r="F39" s="68"/>
@@ -5293,18 +5337,18 @@
         <v>0.5</v>
       </c>
       <c r="H39" s="71" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I39" s="14">
         <f>G14</f>
         <v>0</v>
       </c>
       <c r="J39" s="71" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="K39" s="14">
         <f>J5</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L39" s="71" t="s">
         <v>0</v>
@@ -5351,7 +5395,7 @@
         <v>3</v>
       </c>
       <c r="D40" s="48" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E40" s="48"/>
       <c r="F40" s="68"/>
@@ -5359,18 +5403,18 @@
         <v>0.5</v>
       </c>
       <c r="H40" s="71" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I40" s="14">
         <f>I14</f>
         <v>0</v>
       </c>
       <c r="J40" s="71" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="K40" s="14">
         <f>J5</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L40" s="71" t="s">
         <v>0</v>
@@ -5395,7 +5439,7 @@
         <v>4</v>
       </c>
       <c r="D41" s="82" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E41" s="82"/>
       <c r="F41" s="68"/>
@@ -5403,18 +5447,18 @@
         <v>0.5</v>
       </c>
       <c r="H41" s="71" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I41" s="14">
         <f>K14</f>
         <v>0</v>
       </c>
       <c r="J41" s="71" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="K41" s="14">
         <f>J5</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L41" s="71" t="s">
         <v>0</v>
@@ -5438,27 +5482,27 @@
       <c r="C42" s="10">
         <v>5</v>
       </c>
-      <c r="D42" s="131" t="s">
-        <v>25</v>
-      </c>
-      <c r="E42" s="131"/>
-      <c r="F42" s="131"/>
+      <c r="D42" s="176" t="s">
+        <v>21</v>
+      </c>
+      <c r="E42" s="176"/>
+      <c r="F42" s="176"/>
       <c r="G42" s="14">
         <v>2</v>
       </c>
       <c r="H42" s="71" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I42" s="14">
         <f>E14</f>
         <v>0</v>
       </c>
       <c r="J42" s="71" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="K42" s="14">
         <f>J5</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L42" s="71" t="s">
         <v>0</v>
@@ -5485,27 +5529,27 @@
       <c r="C43" s="10">
         <v>6</v>
       </c>
-      <c r="D43" s="131" t="s">
-        <v>10</v>
-      </c>
-      <c r="E43" s="131"/>
-      <c r="F43" s="131"/>
+      <c r="D43" s="176" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="176"/>
+      <c r="F43" s="176"/>
       <c r="G43" s="17">
         <v>0.25</v>
       </c>
       <c r="H43" s="71" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I43" s="14">
         <f>E14</f>
         <v>0</v>
       </c>
       <c r="J43" s="71" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="K43" s="14">
         <f>J5</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L43" s="71" t="s">
         <v>0</v>
@@ -5522,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="R43" s="68" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="S43" s="68"/>
       <c r="T43" s="16"/>
@@ -5534,11 +5578,11 @@
       <c r="C44" s="10">
         <v>7</v>
       </c>
-      <c r="D44" s="131" t="s">
-        <v>43</v>
-      </c>
-      <c r="E44" s="131"/>
-      <c r="F44" s="131"/>
+      <c r="D44" s="176" t="s">
+        <v>35</v>
+      </c>
+      <c r="E44" s="176"/>
+      <c r="F44" s="176"/>
       <c r="G44" s="68"/>
       <c r="H44" s="68"/>
       <c r="I44" s="68"/>
@@ -5583,10 +5627,10 @@
       <c r="B46" s="72">
         <v>4</v>
       </c>
-      <c r="C46" s="131" t="s">
-        <v>16</v>
-      </c>
-      <c r="D46" s="131"/>
+      <c r="C46" s="176" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="176"/>
       <c r="E46" s="68"/>
       <c r="F46" s="68"/>
       <c r="G46" s="68"/>
@@ -5633,10 +5677,10 @@
       <c r="B48" s="23">
         <v>5</v>
       </c>
-      <c r="C48" s="132" t="s">
-        <v>56</v>
-      </c>
-      <c r="D48" s="132"/>
+      <c r="C48" s="178" t="s">
+        <v>48</v>
+      </c>
+      <c r="D48" s="178"/>
       <c r="E48" s="68"/>
       <c r="F48" s="68"/>
       <c r="G48" s="68"/>
@@ -5661,27 +5705,27 @@
       <c r="C49" s="10">
         <v>1</v>
       </c>
-      <c r="D49" s="134" t="s">
-        <v>21</v>
-      </c>
-      <c r="E49" s="134"/>
-      <c r="F49" s="134"/>
+      <c r="D49" s="183" t="s">
+        <v>17</v>
+      </c>
+      <c r="E49" s="183"/>
+      <c r="F49" s="183"/>
       <c r="G49" s="14">
         <v>90</v>
       </c>
       <c r="H49" s="71" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I49" s="46">
         <f>G8</f>
         <v>0</v>
       </c>
       <c r="J49" s="71" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="K49" s="14">
         <f>J5</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L49" s="71" t="s">
         <v>0</v>
@@ -5708,27 +5752,27 @@
       <c r="C50" s="10">
         <v>2</v>
       </c>
-      <c r="D50" s="132" t="s">
-        <v>46</v>
-      </c>
-      <c r="E50" s="132"/>
-      <c r="F50" s="132"/>
+      <c r="D50" s="178" t="s">
+        <v>38</v>
+      </c>
+      <c r="E50" s="178"/>
+      <c r="F50" s="178"/>
       <c r="G50" s="14">
         <v>80</v>
       </c>
       <c r="H50" s="71" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I50" s="4">
         <f>I8</f>
         <v>0</v>
       </c>
       <c r="J50" s="71" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="K50" s="14">
         <f>J5</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L50" s="71" t="s">
         <v>0</v>
@@ -5756,7 +5800,7 @@
         <v>3</v>
       </c>
       <c r="D51" s="68" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="E51" s="68"/>
       <c r="F51" s="68"/>
@@ -5764,18 +5808,18 @@
         <v>25</v>
       </c>
       <c r="H51" s="71" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I51" s="14">
         <f>E8</f>
         <v>0</v>
       </c>
       <c r="J51" s="71" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="K51" s="14">
         <f>J5</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L51" s="71" t="s">
         <v>0</v>
@@ -5802,27 +5846,27 @@
       <c r="C52" s="10">
         <v>4</v>
       </c>
-      <c r="D52" s="131" t="s">
-        <v>23</v>
-      </c>
-      <c r="E52" s="131"/>
-      <c r="F52" s="131"/>
+      <c r="D52" s="176" t="s">
+        <v>19</v>
+      </c>
+      <c r="E52" s="176"/>
+      <c r="F52" s="176"/>
       <c r="G52" s="14">
         <v>25</v>
       </c>
       <c r="H52" s="71" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I52" s="14">
         <f>E8</f>
         <v>0</v>
       </c>
       <c r="J52" s="71" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="K52" s="14">
         <f>J5</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L52" s="71" t="s">
         <v>0</v>
@@ -5849,27 +5893,27 @@
       <c r="C53" s="10">
         <v>5</v>
       </c>
-      <c r="D53" s="131" t="s">
-        <v>5</v>
-      </c>
-      <c r="E53" s="131"/>
-      <c r="F53" s="131"/>
+      <c r="D53" s="176" t="s">
+        <v>4</v>
+      </c>
+      <c r="E53" s="176"/>
+      <c r="F53" s="176"/>
       <c r="G53" s="14">
         <v>25</v>
       </c>
       <c r="H53" s="71" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I53" s="14">
         <f>E8</f>
         <v>0</v>
       </c>
       <c r="J53" s="71" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="K53" s="14">
         <f>J5</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L53" s="71" t="s">
         <v>0</v>
@@ -5896,27 +5940,27 @@
       <c r="C54" s="10">
         <v>6</v>
       </c>
-      <c r="D54" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="E54" s="131"/>
-      <c r="F54" s="131"/>
+      <c r="D54" s="176" t="s">
+        <v>34</v>
+      </c>
+      <c r="E54" s="176"/>
+      <c r="F54" s="176"/>
       <c r="G54" s="14">
         <v>40</v>
       </c>
       <c r="H54" s="71" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I54" s="14">
         <f>E8</f>
         <v>0</v>
       </c>
       <c r="J54" s="71" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="K54" s="14">
         <f>J5</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L54" s="71" t="s">
         <v>0</v>
@@ -5943,27 +5987,27 @@
       <c r="C55" s="10">
         <v>7</v>
       </c>
-      <c r="D55" s="131" t="s">
-        <v>33</v>
-      </c>
-      <c r="E55" s="131"/>
-      <c r="F55" s="131"/>
+      <c r="D55" s="176" t="s">
+        <v>27</v>
+      </c>
+      <c r="E55" s="176"/>
+      <c r="F55" s="176"/>
       <c r="G55" s="14">
         <v>2</v>
       </c>
       <c r="H55" s="71" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I55" s="14">
         <f>E8</f>
         <v>0</v>
       </c>
       <c r="J55" s="71" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="K55" s="14">
         <f>J5</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L55" s="71" t="s">
         <v>0</v>
@@ -5990,11 +6034,11 @@
       <c r="C56" s="10">
         <v>8</v>
       </c>
-      <c r="D56" s="131" t="s">
-        <v>43</v>
-      </c>
-      <c r="E56" s="131"/>
-      <c r="F56" s="131"/>
+      <c r="D56" s="176" t="s">
+        <v>35</v>
+      </c>
+      <c r="E56" s="176"/>
+      <c r="F56" s="176"/>
       <c r="G56" s="68"/>
       <c r="H56" s="68"/>
       <c r="I56" s="68"/>
@@ -6060,17 +6104,17 @@
     </row>
     <row r="59" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="72"/>
-      <c r="C59" s="131" t="s">
+      <c r="C59" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="D59" s="131"/>
-      <c r="E59" s="131"/>
-      <c r="F59" s="131"/>
-      <c r="G59" s="131"/>
-      <c r="H59" s="131"/>
-      <c r="I59" s="131"/>
-      <c r="J59" s="131"/>
-      <c r="K59" s="131"/>
+      <c r="D59" s="176"/>
+      <c r="E59" s="176"/>
+      <c r="F59" s="176"/>
+      <c r="G59" s="176"/>
+      <c r="H59" s="176"/>
+      <c r="I59" s="176"/>
+      <c r="J59" s="176"/>
+      <c r="K59" s="176"/>
       <c r="L59" s="68"/>
       <c r="M59" s="68"/>
       <c r="N59" s="68"/>
@@ -6111,38 +6155,38 @@
       <c r="C61" s="10">
         <v>1</v>
       </c>
-      <c r="D61" s="131" t="s">
-        <v>45</v>
-      </c>
-      <c r="E61" s="131"/>
-      <c r="F61" s="131"/>
+      <c r="D61" s="176" t="s">
+        <v>37</v>
+      </c>
+      <c r="E61" s="176"/>
+      <c r="F61" s="176"/>
       <c r="G61" s="14">
         <v>25</v>
       </c>
       <c r="H61" s="71" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I61" s="17">
         <v>0.66</v>
       </c>
       <c r="J61" s="71" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="K61" s="14">
         <f>J5</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L61" s="71" t="s">
         <v>0</v>
       </c>
       <c r="M61" s="72">
         <f>PRODUCT(G61,I61,K61)</f>
-        <v>99</v>
+        <v>16.5</v>
       </c>
       <c r="P61" s="68"/>
       <c r="Q61" s="14">
         <f>M61</f>
-        <v>99</v>
+        <v>16.5</v>
       </c>
       <c r="R61" s="68"/>
       <c r="S61" s="68"/>
@@ -6156,7 +6200,7 @@
         <v>2</v>
       </c>
       <c r="D62" s="64" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E62" s="68"/>
       <c r="F62" s="68"/>
@@ -6167,7 +6211,7 @@
       <c r="K62" s="14"/>
       <c r="L62" s="71"/>
       <c r="M62" s="9" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="P62" s="68"/>
       <c r="Q62" s="14"/>
@@ -6182,43 +6226,43 @@
       <c r="C63" s="10">
         <v>3</v>
       </c>
-      <c r="D63" s="131" t="s">
-        <v>43</v>
-      </c>
-      <c r="E63" s="131"/>
-      <c r="F63" s="131"/>
+      <c r="D63" s="176" t="s">
+        <v>35</v>
+      </c>
+      <c r="E63" s="176"/>
+      <c r="F63" s="176"/>
       <c r="G63" s="32">
         <v>0.16</v>
       </c>
       <c r="H63" s="71" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I63" s="32">
         <v>1</v>
       </c>
       <c r="J63" s="71" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="K63" s="14">
         <f>J5</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L63" s="71" t="s">
         <v>0</v>
       </c>
       <c r="M63" s="17">
         <f>PRODUCT(G63,I63,K63)</f>
-        <v>0.96</v>
-      </c>
-      <c r="N63" s="130"/>
-      <c r="O63" s="130"/>
+        <v>0.16</v>
+      </c>
+      <c r="N63" s="177"/>
+      <c r="O63" s="177"/>
       <c r="P63" s="68"/>
       <c r="Q63" s="14">
         <f>M63</f>
-        <v>0.96</v>
+        <v>0.16</v>
       </c>
       <c r="R63" s="68" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="S63" s="68"/>
       <c r="T63" s="55"/>
@@ -6230,11 +6274,11 @@
       <c r="C64" s="37">
         <v>4</v>
       </c>
-      <c r="D64" s="131" t="s">
-        <v>18</v>
-      </c>
-      <c r="E64" s="131"/>
-      <c r="F64" s="131"/>
+      <c r="D64" s="176" t="s">
+        <v>14</v>
+      </c>
+      <c r="E64" s="176"/>
+      <c r="F64" s="176"/>
       <c r="G64" s="68"/>
       <c r="H64" s="68"/>
       <c r="I64" s="68"/>
@@ -6242,14 +6286,14 @@
       <c r="K64" s="68"/>
       <c r="L64" s="68"/>
       <c r="M64" s="68"/>
-      <c r="N64" s="130"/>
-      <c r="O64" s="130"/>
+      <c r="N64" s="177"/>
+      <c r="O64" s="177"/>
       <c r="P64" s="68"/>
       <c r="Q64" s="14">
         <v>1</v>
       </c>
       <c r="R64" s="68" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="S64" s="68"/>
       <c r="T64" s="55"/>
@@ -6261,11 +6305,11 @@
       <c r="C65" s="10">
         <v>5</v>
       </c>
-      <c r="D65" s="131" t="s">
-        <v>4</v>
-      </c>
-      <c r="E65" s="131"/>
-      <c r="F65" s="131"/>
+      <c r="D65" s="176" t="s">
+        <v>3</v>
+      </c>
+      <c r="E65" s="176"/>
+      <c r="F65" s="176"/>
       <c r="G65" s="68"/>
       <c r="H65" s="68"/>
       <c r="I65" s="68"/>
@@ -6274,7 +6318,7 @@
       <c r="L65" s="68"/>
       <c r="M65" s="68"/>
       <c r="N65" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O65" s="1"/>
       <c r="P65" s="68"/>
@@ -6285,76 +6329,76 @@
       <c r="U65" s="68"/>
       <c r="V65" s="68"/>
     </row>
-    <row r="66" spans="1:22" s="191" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="182"/>
-      <c r="B66" s="183"/>
-      <c r="C66" s="184">
+    <row r="66" spans="1:22" s="168" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="159"/>
+      <c r="B66" s="160"/>
+      <c r="C66" s="161">
         <v>6</v>
       </c>
-      <c r="D66" s="185" t="s">
-        <v>75</v>
-      </c>
-      <c r="E66" s="185"/>
-      <c r="F66" s="185"/>
-      <c r="G66" s="186">
+      <c r="D66" s="162" t="s">
+        <v>66</v>
+      </c>
+      <c r="E66" s="162"/>
+      <c r="F66" s="162"/>
+      <c r="G66" s="163">
         <v>10</v>
       </c>
-      <c r="H66" s="187" t="s">
-        <v>50</v>
-      </c>
-      <c r="I66" s="188">
+      <c r="H66" s="164" t="s">
+        <v>42</v>
+      </c>
+      <c r="I66" s="165">
         <v>1</v>
       </c>
-      <c r="J66" s="187" t="s">
-        <v>50</v>
-      </c>
-      <c r="K66" s="186">
+      <c r="J66" s="164" t="s">
+        <v>42</v>
+      </c>
+      <c r="K66" s="163">
         <f>J5</f>
-        <v>6</v>
-      </c>
-      <c r="L66" s="187" t="s">
-        <v>0</v>
-      </c>
-      <c r="M66" s="183">
+        <v>1</v>
+      </c>
+      <c r="L66" s="164" t="s">
+        <v>0</v>
+      </c>
+      <c r="M66" s="160">
         <f>PRODUCT(G66,I66,K66)</f>
-        <v>60</v>
-      </c>
-      <c r="N66" s="189"/>
-      <c r="O66" s="189"/>
-      <c r="P66" s="185"/>
+        <v>10</v>
+      </c>
+      <c r="N66" s="166"/>
+      <c r="O66" s="166"/>
+      <c r="P66" s="162"/>
       <c r="Q66" s="14">
         <f>M66</f>
-        <v>60</v>
-      </c>
-      <c r="R66" s="185"/>
-      <c r="S66" s="185"/>
-      <c r="T66" s="190"/>
-      <c r="U66" s="185"/>
-      <c r="V66" s="185"/>
-    </row>
-    <row r="67" spans="1:22" s="191" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="182"/>
-      <c r="B67" s="183"/>
-      <c r="C67" s="184"/>
-      <c r="D67" s="185"/>
-      <c r="E67" s="185"/>
-      <c r="F67" s="185"/>
-      <c r="G67" s="186"/>
-      <c r="H67" s="187"/>
-      <c r="I67" s="188"/>
-      <c r="J67" s="187"/>
-      <c r="K67" s="186"/>
-      <c r="L67" s="187"/>
-      <c r="M67" s="183"/>
-      <c r="N67" s="189"/>
-      <c r="O67" s="189"/>
-      <c r="P67" s="185"/>
+        <v>10</v>
+      </c>
+      <c r="R66" s="162"/>
+      <c r="S66" s="162"/>
+      <c r="T66" s="167"/>
+      <c r="U66" s="162"/>
+      <c r="V66" s="162"/>
+    </row>
+    <row r="67" spans="1:22" s="168" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="159"/>
+      <c r="B67" s="160"/>
+      <c r="C67" s="161"/>
+      <c r="D67" s="162"/>
+      <c r="E67" s="162"/>
+      <c r="F67" s="162"/>
+      <c r="G67" s="163"/>
+      <c r="H67" s="164"/>
+      <c r="I67" s="165"/>
+      <c r="J67" s="164"/>
+      <c r="K67" s="163"/>
+      <c r="L67" s="164"/>
+      <c r="M67" s="160"/>
+      <c r="N67" s="166"/>
+      <c r="O67" s="166"/>
+      <c r="P67" s="162"/>
       <c r="Q67" s="14"/>
-      <c r="R67" s="185"/>
-      <c r="S67" s="185"/>
-      <c r="T67" s="190"/>
-      <c r="U67" s="185"/>
-      <c r="V67" s="185"/>
+      <c r="R67" s="162"/>
+      <c r="S67" s="162"/>
+      <c r="T67" s="167"/>
+      <c r="U67" s="162"/>
+      <c r="V67" s="162"/>
     </row>
     <row r="68" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="72"/>
@@ -6373,8 +6417,8 @@
       <c r="O68" s="68"/>
       <c r="P68" s="68"/>
       <c r="Q68" s="14">
-        <f>SUM(Q27,Q28,M31,Q27,Q38,Q42,Q49,Q50,Q52,Q53,Q54,Q55,Q61,Q29,Q30,Q66)+Q51</f>
-        <v>159</v>
+        <f>SUM(Q27,Q28,M31,Q38,Q42,Q49,Q50,Q52,Q53,Q54,Q55,Q61,Q29,Q30,Q66)+Q51</f>
+        <v>26.5</v>
       </c>
       <c r="R68" s="68"/>
       <c r="S68" s="68"/>
@@ -6385,18 +6429,26 @@
     <row r="69" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="O5:R5"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="Q24:S24"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="F11:J11"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="D64:F64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="D65:F65"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="C59:K59"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="F37:J37"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="C46:D46"/>
     <mergeCell ref="D54:F54"/>
     <mergeCell ref="I22:J22"/>
     <mergeCell ref="K22:L22"/>
@@ -6409,30 +6461,22 @@
     <mergeCell ref="D52:F52"/>
     <mergeCell ref="D53:F53"/>
     <mergeCell ref="D28:F28"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="F37:J37"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="C46:D46"/>
     <mergeCell ref="D27:F27"/>
-    <mergeCell ref="N63:O63"/>
-    <mergeCell ref="D64:F64"/>
-    <mergeCell ref="N64:O64"/>
-    <mergeCell ref="D65:F65"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="C59:K59"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="O5:R5"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="F5:I5"/>
   </mergeCells>
   <pageMargins left="0.3" right="0.28999999999999998" top="0.25" bottom="0.31" header="0.37" footer="0.31"/>
-  <pageSetup paperSize="9" scale="45" orientation="landscape" useFirstPageNumber="1" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="44" orientation="landscape" useFirstPageNumber="1" verticalDpi="0" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="20" max="1048575" man="1"/>

--- a/Исходный_Шаблон.xlsx
+++ b/Исходный_Шаблон.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\Repository\s.panin\daily_duty\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E7965F-7A71-4E98-93C1-A0C0D38ED40F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{522423C3-4ABB-4F5C-A82B-87A15C49A509}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="721" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,12 +19,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">График!$A$1:$N$34</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="75">
   <si>
     <t>=</t>
   </si>
@@ -228,15 +228,9 @@
     <t>Соль</t>
   </si>
   <si>
-    <t>Андреев В</t>
-  </si>
-  <si>
     <t>6-7</t>
   </si>
   <si>
-    <t>Андреев Дом</t>
-  </si>
-  <si>
     <t>участников на данный день</t>
   </si>
   <si>
@@ -253,6 +247,9 @@
   </si>
   <si>
     <t>Коэффициент Стульникова</t>
+  </si>
+  <si>
+    <t>!!! Версия !!!</t>
   </si>
 </sst>
 </file>
@@ -487,7 +484,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -812,11 +809,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="197">
+  <cellXfs count="199">
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -1261,6 +1273,45 @@
     <xf numFmtId="0" fontId="2" fillId="16" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1275,6 +1326,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -1282,6 +1336,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1289,46 +1347,6 @@
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1649,49 +1667,53 @@
   </sheetPr>
   <dimension ref="A1:AG65"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="0" defaultGridColor="0" view="pageBreakPreview" topLeftCell="B4" colorId="21" zoomScale="85" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="N34" sqref="N34"/>
+    <sheetView tabSelected="1" showOutlineSymbols="0" defaultGridColor="0" view="pageBreakPreview" topLeftCell="A4" colorId="21" zoomScale="85" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="19.83203125" customWidth="1"/>
-    <col min="4" max="4" width="20.5" customWidth="1"/>
+    <col min="2" max="3" width="19.77734375" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" customWidth="1"/>
     <col min="5" max="5" width="20.6640625" customWidth="1"/>
-    <col min="6" max="13" width="20.5" customWidth="1"/>
-    <col min="14" max="28" width="17.1640625" customWidth="1"/>
+    <col min="6" max="13" width="20.44140625" customWidth="1"/>
+    <col min="14" max="28" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="170" t="s">
+    <row r="2" spans="1:33" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="182">
+        <v>2</v>
+      </c>
+      <c r="D2" s="183" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="171"/>
-      <c r="F2" s="171"/>
-      <c r="G2" s="171"/>
-      <c r="H2" s="171"/>
-      <c r="I2" s="171"/>
-      <c r="J2" s="171"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
+      <c r="H2" s="184"/>
+      <c r="I2" s="184"/>
+      <c r="J2" s="184"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="66"/>
       <c r="N2" s="66"/>
     </row>
-    <row r="3" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="172"/>
-      <c r="G3" s="172"/>
-      <c r="H3" s="172"/>
+      <c r="F3" s="185"/>
+      <c r="G3" s="185"/>
+      <c r="H3" s="185"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -1699,7 +1721,7 @@
       <c r="M3" s="66"/>
       <c r="N3" s="66"/>
     </row>
-    <row r="4" spans="1:33" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="30"/>
       <c r="C4" s="30"/>
       <c r="D4" s="67" t="s">
@@ -1715,11 +1737,11 @@
       <c r="L4" s="30"/>
       <c r="N4" s="66"/>
     </row>
-    <row r="5" spans="1:33" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" ht="56" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="194" t="s">
-        <v>70</v>
+      <c r="D5" s="181" t="s">
+        <v>68</v>
       </c>
       <c r="E5" s="62"/>
       <c r="F5" s="74" t="s">
@@ -1763,11 +1785,11 @@
       <c r="W5" s="79"/>
       <c r="X5" s="79"/>
     </row>
-    <row r="6" spans="1:33" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="73" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E6" s="62"/>
       <c r="F6" s="74">
@@ -1809,7 +1831,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:33" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="40"/>
       <c r="B7" s="50"/>
       <c r="C7" s="50"/>
@@ -1825,9 +1847,9 @@
       <c r="M7" s="86"/>
       <c r="N7" s="86"/>
     </row>
-    <row r="8" spans="1:33" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="173">
-        <v>5</v>
+    <row r="8" spans="1:33" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="186">
+        <v>6</v>
       </c>
       <c r="B8" s="76" t="s">
         <v>6</v>
@@ -1855,8 +1877,8 @@
       <c r="AE8" s="1"/>
       <c r="AG8" s="86"/>
     </row>
-    <row r="9" spans="1:33" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="174"/>
+    <row r="9" spans="1:33" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="187"/>
       <c r="B9" s="77">
         <v>4</v>
       </c>
@@ -1882,8 +1904,8 @@
       <c r="AD9" s="30"/>
       <c r="AE9" s="30"/>
     </row>
-    <row r="10" spans="1:33" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="174"/>
+    <row r="10" spans="1:33" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="187"/>
       <c r="B10" s="78"/>
       <c r="C10" s="133" t="s">
         <v>48</v>
@@ -1912,15 +1934,15 @@
       <c r="AD10" s="30"/>
       <c r="AE10" s="30"/>
     </row>
-    <row r="11" spans="1:33" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="174"/>
+    <row r="11" spans="1:33" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="187"/>
       <c r="B11" s="77" t="s">
         <v>46</v>
       </c>
       <c r="C11" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="189">
+      <c r="D11" s="176">
         <v>6</v>
       </c>
       <c r="E11" s="127" t="s">
@@ -1945,15 +1967,15 @@
       <c r="AD11" s="30"/>
       <c r="AE11" s="30"/>
     </row>
-    <row r="12" spans="1:33" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="174"/>
+    <row r="12" spans="1:33" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="187"/>
       <c r="B12" s="77">
         <v>5</v>
       </c>
       <c r="C12" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="190">
+      <c r="D12" s="177">
         <v>6</v>
       </c>
       <c r="E12" s="101" t="s">
@@ -1978,13 +2000,13 @@
       <c r="AD12" s="30"/>
       <c r="AE12" s="30"/>
     </row>
-    <row r="13" spans="1:33" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="174"/>
+    <row r="13" spans="1:33" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="187"/>
       <c r="B13" s="78"/>
       <c r="C13" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="190">
+      <c r="D13" s="177">
         <v>6</v>
       </c>
       <c r="E13" s="143" t="s">
@@ -2009,15 +2031,15 @@
       <c r="AD13" s="30"/>
       <c r="AE13" s="30"/>
     </row>
-    <row r="14" spans="1:33" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="174"/>
+    <row r="14" spans="1:33" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="187"/>
       <c r="B14" s="11" t="s">
         <v>31</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="190">
+      <c r="D14" s="177">
         <v>6</v>
       </c>
       <c r="E14" s="140" t="s">
@@ -2042,15 +2064,15 @@
       <c r="AD14" s="85"/>
       <c r="AE14" s="30"/>
     </row>
-    <row r="15" spans="1:33" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="174"/>
+    <row r="15" spans="1:33" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="187"/>
       <c r="B15" s="11">
         <v>6</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="190">
+      <c r="D15" s="177">
         <v>6</v>
       </c>
       <c r="E15" s="125" t="s">
@@ -2075,13 +2097,13 @@
       <c r="AD15" s="85"/>
       <c r="AE15" s="30"/>
     </row>
-    <row r="16" spans="1:33" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="174"/>
+    <row r="16" spans="1:33" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="187"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="190">
+      <c r="D16" s="177">
         <v>6</v>
       </c>
       <c r="E16" s="147" t="s">
@@ -2106,15 +2128,15 @@
       <c r="AD16" s="85"/>
       <c r="AE16" s="30"/>
     </row>
-    <row r="17" spans="1:33" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="174"/>
+    <row r="17" spans="1:33" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="187"/>
       <c r="B17" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="190">
+      <c r="D17" s="177">
         <v>6</v>
       </c>
       <c r="E17" s="169" t="s">
@@ -2139,15 +2161,15 @@
       <c r="AD17" s="85"/>
       <c r="AE17" s="30"/>
     </row>
-    <row r="18" spans="1:33" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="174"/>
+    <row r="18" spans="1:33" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="187"/>
       <c r="B18" s="11">
         <v>7</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="190">
+      <c r="D18" s="177">
         <v>6</v>
       </c>
       <c r="E18" s="126" t="s">
@@ -2172,13 +2194,13 @@
       <c r="AD18" s="85"/>
       <c r="AE18" s="30"/>
     </row>
-    <row r="19" spans="1:33" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="174"/>
+    <row r="19" spans="1:33" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="187"/>
       <c r="B19" s="15"/>
       <c r="C19" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="190">
+      <c r="D19" s="177">
         <v>6</v>
       </c>
       <c r="E19" s="143" t="s">
@@ -2203,15 +2225,15 @@
       <c r="AD19" s="85"/>
       <c r="AE19" s="30"/>
     </row>
-    <row r="20" spans="1:33" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="174"/>
+    <row r="20" spans="1:33" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="187"/>
       <c r="B20" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="190">
+      <c r="D20" s="177">
         <v>6</v>
       </c>
       <c r="E20" s="127" t="s">
@@ -2236,15 +2258,15 @@
       <c r="AD20" s="85"/>
       <c r="AE20" s="30"/>
     </row>
-    <row r="21" spans="1:33" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="174"/>
+    <row r="21" spans="1:33" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="187"/>
       <c r="B21" s="11">
         <v>8</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="190">
+      <c r="D21" s="177">
         <v>6</v>
       </c>
       <c r="E21" s="101" t="s">
@@ -2269,13 +2291,13 @@
       <c r="AD21" s="85"/>
       <c r="AE21" s="30"/>
     </row>
-    <row r="22" spans="1:33" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="174"/>
+    <row r="22" spans="1:33" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="187"/>
       <c r="B22" s="15"/>
       <c r="C22" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="190">
+      <c r="D22" s="177">
         <v>6</v>
       </c>
       <c r="E22" s="147" t="s">
@@ -2300,15 +2322,15 @@
       <c r="AD22" s="85"/>
       <c r="AE22" s="30"/>
     </row>
-    <row r="23" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="174"/>
+    <row r="23" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="187"/>
       <c r="B23" s="77" t="s">
         <v>43</v>
       </c>
       <c r="C23" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="190">
+      <c r="D23" s="177">
         <v>6</v>
       </c>
       <c r="E23" s="140" t="s">
@@ -2333,15 +2355,15 @@
       <c r="AD23" s="41"/>
       <c r="AE23" s="30"/>
     </row>
-    <row r="24" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="174"/>
+    <row r="24" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="187"/>
       <c r="B24" s="77">
         <v>9</v>
       </c>
       <c r="C24" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="D24" s="190">
+      <c r="D24" s="177">
         <v>6</v>
       </c>
       <c r="E24" s="125" t="s">
@@ -2366,14 +2388,14 @@
       <c r="AD24" s="41"/>
       <c r="AE24" s="30"/>
     </row>
-    <row r="25" spans="1:33" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="174"/>
+    <row r="25" spans="1:33" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="187"/>
       <c r="B25" s="78"/>
       <c r="C25" s="78" t="s">
         <v>48</v>
       </c>
       <c r="D25" s="150">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E25" s="143" t="s">
         <v>17</v>
@@ -2383,8 +2405,8 @@
       <c r="H25" s="138"/>
       <c r="I25" s="138"/>
       <c r="J25" s="156"/>
-      <c r="K25" s="184" t="s">
-        <v>67</v>
+      <c r="K25" s="171" t="s">
+        <v>51</v>
       </c>
       <c r="L25" s="157"/>
       <c r="M25" s="139"/>
@@ -2397,8 +2419,8 @@
       <c r="AD25" s="92"/>
       <c r="AE25" s="30"/>
     </row>
-    <row r="26" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="174"/>
+    <row r="26" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="187"/>
       <c r="B26" s="77" t="s">
         <v>30</v>
       </c>
@@ -2406,7 +2428,7 @@
         <v>23</v>
       </c>
       <c r="D26" s="142">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E26" s="169" t="s">
         <v>54</v>
@@ -2417,8 +2439,8 @@
       <c r="I26" s="131"/>
       <c r="J26" s="131"/>
       <c r="K26" s="112"/>
-      <c r="L26" s="185" t="s">
-        <v>67</v>
+      <c r="L26" s="172" t="s">
+        <v>28</v>
       </c>
       <c r="M26" s="155"/>
       <c r="N26" s="132"/>
@@ -2430,8 +2452,8 @@
       <c r="AD26" s="30"/>
       <c r="AE26" s="41"/>
     </row>
-    <row r="27" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="174"/>
+    <row r="27" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="187"/>
       <c r="B27" s="77">
         <v>10</v>
       </c>
@@ -2439,7 +2461,7 @@
         <v>47</v>
       </c>
       <c r="D27" s="95">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E27" s="126" t="s">
         <v>58</v>
@@ -2450,8 +2472,8 @@
       <c r="I27" s="98"/>
       <c r="J27" s="98"/>
       <c r="K27" s="113"/>
-      <c r="L27" s="186" t="s">
-        <v>67</v>
+      <c r="L27" s="173" t="s">
+        <v>64</v>
       </c>
       <c r="M27" s="115"/>
       <c r="N27" s="96"/>
@@ -2463,14 +2485,14 @@
       <c r="AD27" s="30"/>
       <c r="AE27" s="41"/>
     </row>
-    <row r="28" spans="1:33" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="174"/>
+    <row r="28" spans="1:33" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="187"/>
       <c r="B28" s="78"/>
       <c r="C28" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="D28" s="192">
-        <v>7</v>
+      <c r="D28" s="179">
+        <v>6</v>
       </c>
       <c r="E28" s="147" t="s">
         <v>38</v>
@@ -2481,8 +2503,8 @@
       <c r="I28" s="138"/>
       <c r="J28" s="138"/>
       <c r="K28" s="156"/>
-      <c r="L28" s="187" t="s">
-        <v>69</v>
+      <c r="L28" s="174" t="s">
+        <v>50</v>
       </c>
       <c r="M28" s="158"/>
       <c r="N28" s="139"/>
@@ -2494,16 +2516,16 @@
       <c r="AD28" s="30"/>
       <c r="AE28" s="41"/>
     </row>
-    <row r="29" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="174"/>
+    <row r="29" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="187"/>
       <c r="B29" s="77" t="s">
         <v>6</v>
       </c>
       <c r="C29" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="193">
-        <v>7</v>
+      <c r="D29" s="180">
+        <v>6</v>
       </c>
       <c r="E29" s="127" t="s">
         <v>33</v>
@@ -2515,8 +2537,8 @@
       <c r="J29" s="131"/>
       <c r="K29" s="131"/>
       <c r="L29" s="112"/>
-      <c r="M29" s="188" t="s">
-        <v>69</v>
+      <c r="M29" s="175" t="s">
+        <v>49</v>
       </c>
       <c r="N29" s="155"/>
       <c r="Y29" s="30"/>
@@ -2528,15 +2550,15 @@
       <c r="AE29" s="30"/>
       <c r="AF29" s="41"/>
     </row>
-    <row r="30" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="174"/>
+    <row r="30" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="187"/>
       <c r="B30" s="77">
         <v>11</v>
       </c>
       <c r="C30" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="D30" s="190">
+      <c r="D30" s="177">
         <v>6</v>
       </c>
       <c r="E30" s="101" t="s">
@@ -2562,13 +2584,13 @@
       <c r="AE30" s="30"/>
       <c r="AF30" s="41"/>
     </row>
-    <row r="31" spans="1:33" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="174"/>
+    <row r="31" spans="1:33" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="187"/>
       <c r="B31" s="78"/>
       <c r="C31" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="D31" s="191">
+      <c r="D31" s="178">
         <v>6</v>
       </c>
       <c r="E31" s="143" t="s">
@@ -2594,15 +2616,15 @@
       <c r="AE31" s="30"/>
       <c r="AF31" s="41"/>
     </row>
-    <row r="32" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="174"/>
+    <row r="32" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="187"/>
       <c r="B32" s="77" t="s">
         <v>46</v>
       </c>
       <c r="C32" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="D32" s="189">
+      <c r="D32" s="176">
         <v>6</v>
       </c>
       <c r="E32" s="140" t="s">
@@ -2628,15 +2650,15 @@
       <c r="AE32" s="30"/>
       <c r="AG32" s="41"/>
     </row>
-    <row r="33" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="174"/>
+    <row r="33" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="187"/>
       <c r="B33" s="77">
         <v>12</v>
       </c>
       <c r="C33" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="D33" s="190">
+      <c r="D33" s="177">
         <v>6</v>
       </c>
       <c r="E33" s="125" t="s">
@@ -2651,7 +2673,7 @@
       <c r="L33" s="98"/>
       <c r="M33" s="117"/>
       <c r="N33" s="104" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="Y33" s="30"/>
       <c r="Z33" s="30"/>
@@ -2662,8 +2684,8 @@
       <c r="AE33" s="30"/>
       <c r="AG33" s="41"/>
     </row>
-    <row r="34" spans="1:33" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="174"/>
+    <row r="34" spans="1:33" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="187"/>
       <c r="B34" s="77"/>
       <c r="C34" s="77" t="s">
         <v>48</v>
@@ -2680,7 +2702,7 @@
       <c r="M34" s="117"/>
       <c r="N34" s="118"/>
     </row>
-    <row r="35" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
       <c r="D35" s="30"/>
@@ -2693,7 +2715,7 @@
       <c r="K35" s="30"/>
       <c r="L35" s="30"/>
     </row>
-    <row r="36" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
       <c r="D36" s="30"/>
@@ -2706,7 +2728,7 @@
       <c r="K36" s="30"/>
       <c r="L36" s="30"/>
     </row>
-    <row r="37" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="30"/>
       <c r="C37" s="30"/>
       <c r="D37" s="30"/>
@@ -2719,7 +2741,7 @@
       <c r="K37" s="30"/>
       <c r="L37" s="30"/>
     </row>
-    <row r="38" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="30"/>
       <c r="C38" s="30"/>
       <c r="D38" s="30"/>
@@ -2731,7 +2753,7 @@
       <c r="K38" s="30"/>
       <c r="L38" s="30"/>
     </row>
-    <row r="39" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="30"/>
       <c r="C39" s="30"/>
       <c r="D39" s="59"/>
@@ -2744,7 +2766,7 @@
       <c r="K39" s="30"/>
       <c r="L39" s="30"/>
     </row>
-    <row r="40" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="30"/>
       <c r="C40" s="30"/>
       <c r="D40" s="59"/>
@@ -2757,7 +2779,7 @@
       <c r="K40" s="30"/>
       <c r="L40" s="30"/>
     </row>
-    <row r="41" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="30"/>
       <c r="C41" s="30"/>
       <c r="D41" s="59"/>
@@ -2770,7 +2792,7 @@
       <c r="K41" s="30"/>
       <c r="L41" s="30"/>
     </row>
-    <row r="42" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="30"/>
       <c r="C42" s="30"/>
       <c r="D42" s="59"/>
@@ -2783,7 +2805,7 @@
       <c r="K42" s="30"/>
       <c r="L42" s="30"/>
     </row>
-    <row r="43" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="30"/>
       <c r="C43" s="30"/>
       <c r="D43" s="59"/>
@@ -2794,7 +2816,7 @@
       <c r="K43" s="30"/>
       <c r="L43" s="30"/>
     </row>
-    <row r="44" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="30"/>
       <c r="C44" s="30"/>
       <c r="D44" s="54"/>
@@ -2805,7 +2827,7 @@
       <c r="K44" s="30"/>
       <c r="L44" s="30"/>
     </row>
-    <row r="45" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="30"/>
       <c r="C45" s="30"/>
       <c r="D45" s="59"/>
@@ -2818,7 +2840,7 @@
       <c r="K45" s="30"/>
       <c r="L45" s="30"/>
     </row>
-    <row r="46" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="30"/>
       <c r="C46" s="30"/>
       <c r="D46" s="59"/>
@@ -2831,7 +2853,7 @@
       <c r="K46" s="30"/>
       <c r="L46" s="30"/>
     </row>
-    <row r="47" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="30"/>
       <c r="C47" s="30"/>
       <c r="D47" s="59"/>
@@ -2844,7 +2866,7 @@
       <c r="K47" s="30"/>
       <c r="L47" s="30"/>
     </row>
-    <row r="48" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="30"/>
       <c r="C48" s="30"/>
       <c r="D48" s="59"/>
@@ -2857,7 +2879,7 @@
       <c r="K48" s="30"/>
       <c r="L48" s="30"/>
     </row>
-    <row r="49" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="30"/>
       <c r="C49" s="30"/>
       <c r="F49" s="30"/>
@@ -2868,7 +2890,7 @@
       <c r="K49" s="30"/>
       <c r="L49" s="30"/>
     </row>
-    <row r="50" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="30"/>
       <c r="C50" s="30"/>
       <c r="D50" s="57"/>
@@ -2881,7 +2903,7 @@
       <c r="K50" s="30"/>
       <c r="L50" s="30"/>
     </row>
-    <row r="51" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="30"/>
       <c r="C51" s="30"/>
       <c r="D51" s="57"/>
@@ -2894,7 +2916,7 @@
       <c r="K51" s="30"/>
       <c r="L51" s="30"/>
     </row>
-    <row r="52" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="30"/>
       <c r="C52" s="30"/>
       <c r="D52" s="57"/>
@@ -2907,7 +2929,7 @@
       <c r="K52" s="30"/>
       <c r="L52" s="30"/>
     </row>
-    <row r="53" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="30"/>
       <c r="C53" s="30"/>
       <c r="D53" s="57"/>
@@ -2920,7 +2942,7 @@
       <c r="K53" s="30"/>
       <c r="L53" s="30"/>
     </row>
-    <row r="54" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="30"/>
       <c r="C54" s="30"/>
       <c r="D54" s="57"/>
@@ -2933,7 +2955,7 @@
       <c r="K54" s="30"/>
       <c r="L54" s="30"/>
     </row>
-    <row r="55" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="30"/>
       <c r="C55" s="30"/>
       <c r="D55" s="57"/>
@@ -2946,7 +2968,7 @@
       <c r="K55" s="30"/>
       <c r="L55" s="30"/>
     </row>
-    <row r="56" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="30"/>
       <c r="C56" s="30"/>
       <c r="D56" s="57"/>
@@ -2959,39 +2981,39 @@
       <c r="K56" s="30"/>
       <c r="L56" s="30"/>
     </row>
-    <row r="57" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D57" s="49"/>
       <c r="E57" s="42"/>
     </row>
-    <row r="58" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D58" s="49"/>
       <c r="E58" s="42"/>
     </row>
-    <row r="59" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D59" s="49"/>
       <c r="E59" s="42"/>
     </row>
-    <row r="60" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D60" s="49"/>
       <c r="E60" s="42"/>
     </row>
-    <row r="61" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D61" s="49"/>
       <c r="E61" s="42"/>
     </row>
-    <row r="62" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D62" s="49"/>
       <c r="E62" s="42"/>
     </row>
-    <row r="63" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D63" s="49"/>
       <c r="E63" s="42"/>
     </row>
-    <row r="64" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D64" s="49"/>
       <c r="E64" s="42"/>
     </row>
-    <row r="65" spans="4:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="4:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D65" s="49"/>
       <c r="E65" s="42"/>
     </row>
@@ -3002,7 +3024,7 @@
     <mergeCell ref="A8:A34"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="60" orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="61" orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -3014,33 +3036,33 @@
   </sheetPr>
   <dimension ref="A1:CP69"/>
   <sheetViews>
-    <sheetView showOutlineSymbols="0" defaultGridColor="0" view="pageBreakPreview" topLeftCell="A40" colorId="21" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="Q69" sqref="Q69"/>
+    <sheetView showOutlineSymbols="0" defaultGridColor="0" view="pageBreakPreview" colorId="21" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="7.83203125" customWidth="1"/>
+    <col min="1" max="2" width="7.77734375" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="5" width="10.1640625" customWidth="1"/>
-    <col min="6" max="6" width="18.83203125" customWidth="1"/>
-    <col min="7" max="7" width="10.1640625" customWidth="1"/>
+    <col min="4" max="5" width="10.109375" customWidth="1"/>
+    <col min="6" max="6" width="18.77734375" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" customWidth="1"/>
     <col min="8" max="8" width="6.6640625" customWidth="1"/>
-    <col min="9" max="9" width="10.1640625" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" customWidth="1"/>
     <col min="10" max="10" width="6.6640625" customWidth="1"/>
-    <col min="11" max="11" width="10.1640625" customWidth="1"/>
+    <col min="11" max="11" width="10.109375" customWidth="1"/>
     <col min="12" max="12" width="6.6640625" customWidth="1"/>
-    <col min="13" max="13" width="10.1640625" customWidth="1"/>
+    <col min="13" max="13" width="10.109375" customWidth="1"/>
     <col min="14" max="14" width="14.33203125" customWidth="1"/>
     <col min="15" max="15" width="9.6640625" customWidth="1"/>
     <col min="16" max="16" width="6.6640625" customWidth="1"/>
-    <col min="17" max="17" width="17.1640625" customWidth="1"/>
-    <col min="18" max="18" width="10.1640625" customWidth="1"/>
-    <col min="19" max="19" width="7.83203125" customWidth="1"/>
+    <col min="17" max="17" width="17.109375" customWidth="1"/>
+    <col min="18" max="18" width="10.109375" customWidth="1"/>
+    <col min="19" max="19" width="7.77734375" customWidth="1"/>
     <col min="20" max="20" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:94" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:94" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="27">
         <v>6</v>
       </c>
@@ -3099,7 +3121,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:94" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:94" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -3120,12 +3142,17 @@
       <c r="N2" s="27"/>
       <c r="O2" s="27"/>
       <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
+      <c r="Q2" s="170" t="s">
+        <v>74</v>
+      </c>
+      <c r="R2" s="182">
+        <f>График!C2</f>
+        <v>2</v>
+      </c>
       <c r="S2" s="27"/>
       <c r="T2" s="27"/>
     </row>
-    <row r="3" spans="1:94" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:94" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="27"/>
       <c r="C3" s="27"/>
       <c r="D3" s="27"/>
@@ -3146,7 +3173,7 @@
       <c r="S3" s="27"/>
       <c r="T3" s="27"/>
     </row>
-    <row r="4" spans="1:94" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:94" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="72"/>
       <c r="C4" s="68"/>
       <c r="D4" s="68"/>
@@ -3240,32 +3267,32 @@
       <c r="CO4" s="68"/>
       <c r="CP4" s="68"/>
     </row>
-    <row r="5" spans="1:94" ht="35.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="195" t="s">
-        <v>74</v>
-      </c>
-      <c r="C5" s="195"/>
-      <c r="D5" s="195"/>
-      <c r="E5" s="195"/>
-      <c r="F5" s="195"/>
-      <c r="G5" s="195"/>
-      <c r="H5" s="195"/>
-      <c r="I5" s="196"/>
+    <row r="5" spans="1:94" ht="35.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="188" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="188"/>
+      <c r="D5" s="188"/>
+      <c r="E5" s="188"/>
+      <c r="F5" s="188"/>
+      <c r="G5" s="188"/>
+      <c r="H5" s="188"/>
+      <c r="I5" s="193"/>
       <c r="J5" s="24">
         <v>1</v>
       </c>
-      <c r="K5" s="175" t="s">
-        <v>75</v>
-      </c>
-      <c r="L5" s="176"/>
-      <c r="M5" s="176"/>
-      <c r="N5" s="176"/>
-      <c r="O5" s="177" t="s">
+      <c r="K5" s="189" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" s="190"/>
+      <c r="M5" s="190"/>
+      <c r="N5" s="190"/>
+      <c r="O5" s="191" t="s">
         <v>59</v>
       </c>
-      <c r="P5" s="177"/>
-      <c r="Q5" s="177"/>
-      <c r="R5" s="177"/>
+      <c r="P5" s="191"/>
+      <c r="Q5" s="191"/>
+      <c r="R5" s="191"/>
       <c r="S5" s="21"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
@@ -3343,7 +3370,7 @@
       <c r="CO5" s="68"/>
       <c r="CP5" s="68"/>
     </row>
-    <row r="6" spans="1:94" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:94" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B6" s="72"/>
       <c r="C6" s="68"/>
       <c r="D6" s="68"/>
@@ -3438,7 +3465,7 @@
       <c r="CO6" s="68"/>
       <c r="CP6" s="68"/>
     </row>
-    <row r="7" spans="1:94" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:94" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="72"/>
       <c r="C7" s="68"/>
       <c r="D7" s="68"/>
@@ -3537,14 +3564,14 @@
       <c r="CO7" s="68"/>
       <c r="CP7" s="68"/>
     </row>
-    <row r="8" spans="1:94" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:94" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" s="23">
         <v>1</v>
       </c>
-      <c r="C8" s="178" t="s">
+      <c r="C8" s="192" t="s">
         <v>63</v>
       </c>
-      <c r="D8" s="178"/>
+      <c r="D8" s="192"/>
       <c r="E8" s="14">
         <f>SUM(G8,I8,K8)</f>
         <v>0</v>
@@ -3647,7 +3674,7 @@
       <c r="CO8" s="68"/>
       <c r="CP8" s="68"/>
     </row>
-    <row r="9" spans="1:94" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:94" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B9" s="72"/>
       <c r="C9" s="68"/>
       <c r="D9" s="68"/>
@@ -3742,7 +3769,7 @@
       <c r="CO9" s="68"/>
       <c r="CP9" s="68"/>
     </row>
-    <row r="10" spans="1:94" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:94" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="72"/>
       <c r="C10" s="68"/>
       <c r="D10" s="68"/>
@@ -3787,22 +3814,22 @@
       <c r="AQ10" s="68"/>
       <c r="AR10" s="68"/>
     </row>
-    <row r="11" spans="1:94" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:94" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="72">
         <v>2</v>
       </c>
-      <c r="C11" s="176" t="s">
+      <c r="C11" s="190" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="176"/>
+      <c r="D11" s="190"/>
       <c r="E11" s="43"/>
-      <c r="F11" s="176" t="s">
+      <c r="F11" s="190" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="176"/>
-      <c r="H11" s="176"/>
-      <c r="I11" s="176"/>
-      <c r="J11" s="176"/>
+      <c r="G11" s="190"/>
+      <c r="H11" s="190"/>
+      <c r="I11" s="190"/>
+      <c r="J11" s="190"/>
       <c r="K11" s="68"/>
       <c r="L11" s="68"/>
       <c r="M11" s="68"/>
@@ -3838,7 +3865,7 @@
       <c r="AQ11" s="68"/>
       <c r="AR11" s="68"/>
     </row>
-    <row r="12" spans="1:94" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:94" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="72"/>
       <c r="C12" s="68"/>
       <c r="D12" s="68"/>
@@ -3883,7 +3910,7 @@
       <c r="AQ12" s="68"/>
       <c r="AR12" s="68"/>
     </row>
-    <row r="13" spans="1:94" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:94" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B13" s="72"/>
       <c r="C13" s="68"/>
       <c r="D13" s="68"/>
@@ -3934,14 +3961,14 @@
       <c r="AQ13" s="68"/>
       <c r="AR13" s="68"/>
     </row>
-    <row r="14" spans="1:94" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:94" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="63">
         <v>3</v>
       </c>
-      <c r="C14" s="179" t="s">
+      <c r="C14" s="195" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="179"/>
+      <c r="D14" s="195"/>
       <c r="E14" s="14">
         <f>SUM(G14,I14,K14)</f>
         <v>0</v>
@@ -3998,7 +4025,7 @@
       <c r="AQ14" s="68"/>
       <c r="AR14" s="68"/>
     </row>
-    <row r="15" spans="1:94" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:94" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B15" s="72"/>
       <c r="C15" s="68"/>
       <c r="D15" s="68"/>
@@ -4043,7 +4070,7 @@
       <c r="AQ15" s="68"/>
       <c r="AR15" s="68"/>
     </row>
-    <row r="16" spans="1:94" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:94" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="72"/>
       <c r="C16" s="68"/>
       <c r="D16" s="68"/>
@@ -4088,22 +4115,22 @@
       <c r="AQ16" s="68"/>
       <c r="AR16" s="68"/>
     </row>
-    <row r="17" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="72">
         <v>4</v>
       </c>
-      <c r="C17" s="176" t="s">
+      <c r="C17" s="190" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="176"/>
+      <c r="D17" s="190"/>
       <c r="E17" s="43"/>
-      <c r="F17" s="176" t="s">
+      <c r="F17" s="190" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="176"/>
-      <c r="H17" s="176"/>
-      <c r="I17" s="176"/>
-      <c r="J17" s="176"/>
+      <c r="G17" s="190"/>
+      <c r="H17" s="190"/>
+      <c r="I17" s="190"/>
+      <c r="J17" s="190"/>
       <c r="K17" s="68"/>
       <c r="L17" s="68"/>
       <c r="M17" s="68"/>
@@ -4139,7 +4166,7 @@
       <c r="AQ17" s="68"/>
       <c r="AR17" s="68"/>
     </row>
-    <row r="18" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="72"/>
       <c r="C18" s="68"/>
       <c r="D18" s="68"/>
@@ -4184,7 +4211,7 @@
       <c r="AQ18" s="68"/>
       <c r="AR18" s="68"/>
     </row>
-    <row r="19" spans="2:44" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:44" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B19" s="72"/>
       <c r="C19" s="68"/>
       <c r="D19" s="68"/>
@@ -4237,14 +4264,14 @@
       <c r="AQ19" s="68"/>
       <c r="AR19" s="68"/>
     </row>
-    <row r="20" spans="2:44" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:44" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B20" s="28">
         <v>5</v>
       </c>
-      <c r="C20" s="180" t="s">
+      <c r="C20" s="196" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="180"/>
+      <c r="D20" s="196"/>
       <c r="E20" s="14">
         <f>SUM(G20,I20,K20)</f>
         <v>0</v>
@@ -4306,7 +4333,7 @@
       <c r="AQ20" s="68"/>
       <c r="AR20" s="68"/>
     </row>
-    <row r="21" spans="2:44" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:44" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B21" s="72"/>
       <c r="C21" s="68"/>
       <c r="D21" s="68"/>
@@ -4351,7 +4378,7 @@
       <c r="AQ21" s="68"/>
       <c r="AR21" s="68"/>
     </row>
-    <row r="22" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="72"/>
       <c r="C22" s="68" t="s">
         <v>61</v>
@@ -4364,14 +4391,14 @@
       <c r="F22" s="71"/>
       <c r="G22" s="14"/>
       <c r="H22" s="71"/>
-      <c r="I22" s="181" t="s">
+      <c r="I22" s="197" t="s">
         <v>25</v>
       </c>
-      <c r="J22" s="181"/>
-      <c r="K22" s="182" t="s">
-        <v>72</v>
-      </c>
-      <c r="L22" s="182"/>
+      <c r="J22" s="197"/>
+      <c r="K22" s="198" t="s">
+        <v>70</v>
+      </c>
+      <c r="L22" s="198"/>
       <c r="M22" s="68"/>
       <c r="N22" s="68"/>
       <c r="O22" s="68"/>
@@ -4405,7 +4432,7 @@
       <c r="AQ22" s="68"/>
       <c r="AR22" s="68"/>
     </row>
-    <row r="23" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="72"/>
       <c r="C23" s="68"/>
       <c r="D23" s="68"/>
@@ -4413,15 +4440,15 @@
       <c r="F23" s="68"/>
       <c r="G23" s="68"/>
       <c r="H23" s="2"/>
-      <c r="I23" s="181" t="s">
+      <c r="I23" s="197" t="s">
+        <v>69</v>
+      </c>
+      <c r="J23" s="197"/>
+      <c r="K23" s="197" t="s">
         <v>71</v>
       </c>
-      <c r="J23" s="181"/>
-      <c r="K23" s="181" t="s">
-        <v>73</v>
-      </c>
-      <c r="L23" s="181"/>
-      <c r="M23" s="181"/>
+      <c r="L23" s="197"/>
+      <c r="M23" s="197"/>
       <c r="N23" s="68"/>
       <c r="O23" s="68"/>
       <c r="P23" s="68"/>
@@ -4454,7 +4481,7 @@
       <c r="AQ23" s="68"/>
       <c r="AR23" s="68"/>
     </row>
-    <row r="24" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="72"/>
       <c r="C24" s="68"/>
       <c r="D24" s="68"/>
@@ -4464,17 +4491,17 @@
       <c r="H24" s="68"/>
       <c r="I24" s="71"/>
       <c r="J24" s="68"/>
-      <c r="K24" s="182"/>
-      <c r="L24" s="182"/>
+      <c r="K24" s="198"/>
+      <c r="L24" s="198"/>
       <c r="M24" s="68"/>
       <c r="N24" s="68"/>
       <c r="O24" s="68"/>
       <c r="P24" s="68"/>
-      <c r="Q24" s="176" t="s">
+      <c r="Q24" s="190" t="s">
         <v>5</v>
       </c>
-      <c r="R24" s="176"/>
-      <c r="S24" s="176"/>
+      <c r="R24" s="190"/>
+      <c r="S24" s="190"/>
       <c r="T24" s="68" t="s">
         <v>2</v>
       </c>
@@ -4503,7 +4530,7 @@
       <c r="AQ24" s="68"/>
       <c r="AR24" s="68"/>
     </row>
-    <row r="25" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="72"/>
       <c r="C25" s="68"/>
       <c r="D25" s="68"/>
@@ -4548,7 +4575,7 @@
       <c r="AQ25" s="68"/>
       <c r="AR25" s="68"/>
     </row>
-    <row r="26" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="45">
         <v>1</v>
       </c>
@@ -4597,16 +4624,16 @@
       <c r="AQ26" s="68"/>
       <c r="AR26" s="68"/>
     </row>
-    <row r="27" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="72"/>
       <c r="C27" s="10">
         <v>1</v>
       </c>
-      <c r="D27" s="183" t="s">
+      <c r="D27" s="194" t="s">
         <v>33</v>
       </c>
-      <c r="E27" s="183"/>
-      <c r="F27" s="183"/>
+      <c r="E27" s="194"/>
+      <c r="F27" s="194"/>
       <c r="G27" s="14">
         <v>40</v>
       </c>
@@ -4666,16 +4693,16 @@
       <c r="AQ27" s="68"/>
       <c r="AR27" s="68"/>
     </row>
-    <row r="28" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="72"/>
       <c r="C28" s="10">
         <v>2</v>
       </c>
-      <c r="D28" s="178" t="s">
+      <c r="D28" s="192" t="s">
         <v>41</v>
       </c>
-      <c r="E28" s="178"/>
-      <c r="F28" s="178"/>
+      <c r="E28" s="192"/>
+      <c r="F28" s="192"/>
       <c r="G28" s="14">
         <v>40</v>
       </c>
@@ -4735,7 +4762,7 @@
       <c r="AQ28" s="68"/>
       <c r="AR28" s="68"/>
     </row>
-    <row r="29" spans="2:44" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:44" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B29" s="72"/>
       <c r="C29" s="10">
         <v>3</v>
@@ -4804,7 +4831,7 @@
       <c r="AQ29" s="68"/>
       <c r="AR29" s="68"/>
     </row>
-    <row r="30" spans="2:44" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:44" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B30" s="72"/>
       <c r="C30" s="10">
         <v>4</v>
@@ -4873,16 +4900,16 @@
       <c r="AQ30" s="68"/>
       <c r="AR30" s="68"/>
     </row>
-    <row r="31" spans="2:44" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:44" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B31" s="72"/>
       <c r="C31" s="10">
         <v>5</v>
       </c>
-      <c r="D31" s="176" t="s">
+      <c r="D31" s="190" t="s">
         <v>40</v>
       </c>
-      <c r="E31" s="176"/>
-      <c r="F31" s="176"/>
+      <c r="E31" s="190"/>
+      <c r="F31" s="190"/>
       <c r="G31" s="14">
         <v>100</v>
       </c>
@@ -4949,16 +4976,16 @@
       <c r="AQ31" s="68"/>
       <c r="AR31" s="68"/>
     </row>
-    <row r="32" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="72"/>
       <c r="C32" s="10">
         <v>6</v>
       </c>
-      <c r="D32" s="176" t="s">
+      <c r="D32" s="190" t="s">
         <v>27</v>
       </c>
-      <c r="E32" s="176"/>
-      <c r="F32" s="176"/>
+      <c r="E32" s="190"/>
+      <c r="F32" s="190"/>
       <c r="G32" s="14">
         <v>2</v>
       </c>
@@ -5015,16 +5042,16 @@
       <c r="AQ32" s="68"/>
       <c r="AR32" s="68"/>
     </row>
-    <row r="33" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="72"/>
       <c r="C33" s="10">
         <v>7</v>
       </c>
-      <c r="D33" s="176" t="s">
+      <c r="D33" s="190" t="s">
         <v>35</v>
       </c>
-      <c r="E33" s="176"/>
-      <c r="F33" s="176"/>
+      <c r="E33" s="190"/>
+      <c r="F33" s="190"/>
       <c r="G33" s="14"/>
       <c r="H33" s="71"/>
       <c r="I33" s="14"/>
@@ -5064,7 +5091,7 @@
       <c r="AQ33" s="68"/>
       <c r="AR33" s="68"/>
     </row>
-    <row r="34" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="89"/>
       <c r="C34" s="10"/>
       <c r="D34" s="90"/>
@@ -5109,14 +5136,14 @@
       <c r="AQ34" s="90"/>
       <c r="AR34" s="90"/>
     </row>
-    <row r="35" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="72">
         <v>2</v>
       </c>
-      <c r="C35" s="176" t="s">
+      <c r="C35" s="190" t="s">
         <v>13</v>
       </c>
-      <c r="D35" s="176"/>
+      <c r="D35" s="190"/>
       <c r="E35" s="68"/>
       <c r="F35" s="68"/>
       <c r="G35" s="68"/>
@@ -5158,7 +5185,7 @@
       <c r="AQ35" s="68"/>
       <c r="AR35" s="68"/>
     </row>
-    <row r="36" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="89"/>
       <c r="C36" s="90"/>
       <c r="D36" s="90"/>
@@ -5203,22 +5230,22 @@
       <c r="AQ36" s="90"/>
       <c r="AR36" s="90"/>
     </row>
-    <row r="37" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="63">
         <v>3</v>
       </c>
-      <c r="C37" s="179" t="s">
+      <c r="C37" s="195" t="s">
         <v>12</v>
       </c>
-      <c r="D37" s="179"/>
+      <c r="D37" s="195"/>
       <c r="E37" s="68"/>
-      <c r="F37" s="176" t="s">
+      <c r="F37" s="190" t="s">
         <v>7</v>
       </c>
-      <c r="G37" s="176"/>
-      <c r="H37" s="176"/>
-      <c r="I37" s="176"/>
-      <c r="J37" s="176"/>
+      <c r="G37" s="190"/>
+      <c r="H37" s="190"/>
+      <c r="I37" s="190"/>
+      <c r="J37" s="190"/>
       <c r="K37" s="68"/>
       <c r="L37" s="68"/>
       <c r="M37" s="68"/>
@@ -5254,16 +5281,16 @@
       <c r="AQ37" s="68"/>
       <c r="AR37" s="68"/>
     </row>
-    <row r="38" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="72"/>
       <c r="C38" s="10">
         <v>1</v>
       </c>
-      <c r="D38" s="176" t="s">
+      <c r="D38" s="190" t="s">
         <v>15</v>
       </c>
-      <c r="E38" s="176"/>
-      <c r="F38" s="176"/>
+      <c r="E38" s="190"/>
+      <c r="F38" s="190"/>
       <c r="G38" s="14">
         <v>50</v>
       </c>
@@ -5323,7 +5350,7 @@
       <c r="AQ38" s="68"/>
       <c r="AR38" s="68"/>
     </row>
-    <row r="39" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="72"/>
       <c r="C39" s="10">
         <v>2</v>
@@ -5389,7 +5416,7 @@
       <c r="AQ39" s="68"/>
       <c r="AR39" s="68"/>
     </row>
-    <row r="40" spans="2:44" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:44" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B40" s="72"/>
       <c r="C40" s="10">
         <v>3</v>
@@ -5433,7 +5460,7 @@
       <c r="U40" s="68"/>
       <c r="V40" s="68"/>
     </row>
-    <row r="41" spans="2:44" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:44" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B41" s="72"/>
       <c r="C41" s="10">
         <v>4</v>
@@ -5477,16 +5504,16 @@
       <c r="U41" s="68"/>
       <c r="V41" s="68"/>
     </row>
-    <row r="42" spans="2:44" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:44" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B42" s="72"/>
       <c r="C42" s="10">
         <v>5</v>
       </c>
-      <c r="D42" s="176" t="s">
+      <c r="D42" s="190" t="s">
         <v>21</v>
       </c>
-      <c r="E42" s="176"/>
-      <c r="F42" s="176"/>
+      <c r="E42" s="190"/>
+      <c r="F42" s="190"/>
       <c r="G42" s="14">
         <v>2</v>
       </c>
@@ -5524,16 +5551,16 @@
       <c r="U42" s="68"/>
       <c r="V42" s="68"/>
     </row>
-    <row r="43" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B43" s="72"/>
       <c r="C43" s="10">
         <v>6</v>
       </c>
-      <c r="D43" s="176" t="s">
+      <c r="D43" s="190" t="s">
         <v>8</v>
       </c>
-      <c r="E43" s="176"/>
-      <c r="F43" s="176"/>
+      <c r="E43" s="190"/>
+      <c r="F43" s="190"/>
       <c r="G43" s="17">
         <v>0.25</v>
       </c>
@@ -5573,16 +5600,16 @@
       <c r="U43" s="68"/>
       <c r="V43" s="68"/>
     </row>
-    <row r="44" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B44" s="72"/>
       <c r="C44" s="10">
         <v>7</v>
       </c>
-      <c r="D44" s="176" t="s">
+      <c r="D44" s="190" t="s">
         <v>35</v>
       </c>
-      <c r="E44" s="176"/>
-      <c r="F44" s="176"/>
+      <c r="E44" s="190"/>
+      <c r="F44" s="190"/>
       <c r="G44" s="68"/>
       <c r="H44" s="68"/>
       <c r="I44" s="68"/>
@@ -5600,7 +5627,7 @@
       <c r="U44" s="68"/>
       <c r="V44" s="68"/>
     </row>
-    <row r="45" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B45" s="89"/>
       <c r="C45" s="10"/>
       <c r="D45" s="90"/>
@@ -5623,14 +5650,14 @@
       <c r="U45" s="90"/>
       <c r="V45" s="90"/>
     </row>
-    <row r="46" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B46" s="72">
         <v>4</v>
       </c>
-      <c r="C46" s="176" t="s">
+      <c r="C46" s="190" t="s">
         <v>13</v>
       </c>
-      <c r="D46" s="176"/>
+      <c r="D46" s="190"/>
       <c r="E46" s="68"/>
       <c r="F46" s="68"/>
       <c r="G46" s="68"/>
@@ -5650,7 +5677,7 @@
       <c r="U46" s="68"/>
       <c r="V46" s="68"/>
     </row>
-    <row r="47" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B47" s="89"/>
       <c r="C47" s="10"/>
       <c r="D47" s="90"/>
@@ -5673,14 +5700,14 @@
       <c r="U47" s="90"/>
       <c r="V47" s="90"/>
     </row>
-    <row r="48" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B48" s="23">
         <v>5</v>
       </c>
-      <c r="C48" s="178" t="s">
+      <c r="C48" s="192" t="s">
         <v>48</v>
       </c>
-      <c r="D48" s="178"/>
+      <c r="D48" s="192"/>
       <c r="E48" s="68"/>
       <c r="F48" s="68"/>
       <c r="G48" s="68"/>
@@ -5700,16 +5727,16 @@
       <c r="U48" s="68"/>
       <c r="V48" s="68"/>
     </row>
-    <row r="49" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B49" s="72"/>
       <c r="C49" s="10">
         <v>1</v>
       </c>
-      <c r="D49" s="183" t="s">
+      <c r="D49" s="194" t="s">
         <v>17</v>
       </c>
-      <c r="E49" s="183"/>
-      <c r="F49" s="183"/>
+      <c r="E49" s="194"/>
+      <c r="F49" s="194"/>
       <c r="G49" s="14">
         <v>90</v>
       </c>
@@ -5747,16 +5774,16 @@
       <c r="U49" s="68"/>
       <c r="V49" s="68"/>
     </row>
-    <row r="50" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B50" s="72"/>
       <c r="C50" s="10">
         <v>2</v>
       </c>
-      <c r="D50" s="178" t="s">
+      <c r="D50" s="192" t="s">
         <v>38</v>
       </c>
-      <c r="E50" s="178"/>
-      <c r="F50" s="178"/>
+      <c r="E50" s="192"/>
+      <c r="F50" s="192"/>
       <c r="G50" s="14">
         <v>80</v>
       </c>
@@ -5794,7 +5821,7 @@
       <c r="U50" s="68"/>
       <c r="V50" s="68"/>
     </row>
-    <row r="51" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B51" s="72"/>
       <c r="C51" s="10">
         <v>3</v>
@@ -5841,16 +5868,16 @@
       <c r="U51" s="68"/>
       <c r="V51" s="68"/>
     </row>
-    <row r="52" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B52" s="72"/>
       <c r="C52" s="10">
         <v>4</v>
       </c>
-      <c r="D52" s="176" t="s">
+      <c r="D52" s="190" t="s">
         <v>19</v>
       </c>
-      <c r="E52" s="176"/>
-      <c r="F52" s="176"/>
+      <c r="E52" s="190"/>
+      <c r="F52" s="190"/>
       <c r="G52" s="14">
         <v>25</v>
       </c>
@@ -5888,16 +5915,16 @@
       <c r="U52" s="68"/>
       <c r="V52" s="68"/>
     </row>
-    <row r="53" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B53" s="72"/>
       <c r="C53" s="10">
         <v>5</v>
       </c>
-      <c r="D53" s="176" t="s">
+      <c r="D53" s="190" t="s">
         <v>4</v>
       </c>
-      <c r="E53" s="176"/>
-      <c r="F53" s="176"/>
+      <c r="E53" s="190"/>
+      <c r="F53" s="190"/>
       <c r="G53" s="14">
         <v>25</v>
       </c>
@@ -5935,16 +5962,16 @@
       <c r="U53" s="68"/>
       <c r="V53" s="68"/>
     </row>
-    <row r="54" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B54" s="72"/>
       <c r="C54" s="10">
         <v>6</v>
       </c>
-      <c r="D54" s="176" t="s">
+      <c r="D54" s="190" t="s">
         <v>34</v>
       </c>
-      <c r="E54" s="176"/>
-      <c r="F54" s="176"/>
+      <c r="E54" s="190"/>
+      <c r="F54" s="190"/>
       <c r="G54" s="14">
         <v>40</v>
       </c>
@@ -5982,16 +6009,16 @@
       <c r="U54" s="68"/>
       <c r="V54" s="68"/>
     </row>
-    <row r="55" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B55" s="72"/>
       <c r="C55" s="10">
         <v>7</v>
       </c>
-      <c r="D55" s="176" t="s">
+      <c r="D55" s="190" t="s">
         <v>27</v>
       </c>
-      <c r="E55" s="176"/>
-      <c r="F55" s="176"/>
+      <c r="E55" s="190"/>
+      <c r="F55" s="190"/>
       <c r="G55" s="14">
         <v>2</v>
       </c>
@@ -6029,16 +6056,16 @@
       <c r="U55" s="68"/>
       <c r="V55" s="68"/>
     </row>
-    <row r="56" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B56" s="72"/>
       <c r="C56" s="10">
         <v>8</v>
       </c>
-      <c r="D56" s="176" t="s">
+      <c r="D56" s="190" t="s">
         <v>35</v>
       </c>
-      <c r="E56" s="176"/>
-      <c r="F56" s="176"/>
+      <c r="E56" s="190"/>
+      <c r="F56" s="190"/>
       <c r="G56" s="68"/>
       <c r="H56" s="68"/>
       <c r="I56" s="68"/>
@@ -6056,7 +6083,7 @@
       <c r="U56" s="68"/>
       <c r="V56" s="68"/>
     </row>
-    <row r="57" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B57" s="72"/>
       <c r="C57" s="68"/>
       <c r="D57" s="68"/>
@@ -6079,7 +6106,7 @@
       <c r="U57" s="68"/>
       <c r="V57" s="68"/>
     </row>
-    <row r="58" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B58" s="72"/>
       <c r="C58" s="68"/>
       <c r="D58" s="68"/>
@@ -6102,19 +6129,19 @@
       <c r="U58" s="68"/>
       <c r="V58" s="68"/>
     </row>
-    <row r="59" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B59" s="72"/>
-      <c r="C59" s="176" t="s">
+      <c r="C59" s="190" t="s">
         <v>1</v>
       </c>
-      <c r="D59" s="176"/>
-      <c r="E59" s="176"/>
-      <c r="F59" s="176"/>
-      <c r="G59" s="176"/>
-      <c r="H59" s="176"/>
-      <c r="I59" s="176"/>
-      <c r="J59" s="176"/>
-      <c r="K59" s="176"/>
+      <c r="D59" s="190"/>
+      <c r="E59" s="190"/>
+      <c r="F59" s="190"/>
+      <c r="G59" s="190"/>
+      <c r="H59" s="190"/>
+      <c r="I59" s="190"/>
+      <c r="J59" s="190"/>
+      <c r="K59" s="190"/>
       <c r="L59" s="68"/>
       <c r="M59" s="68"/>
       <c r="N59" s="68"/>
@@ -6127,7 +6154,7 @@
       <c r="U59" s="68"/>
       <c r="V59" s="68"/>
     </row>
-    <row r="60" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B60" s="72"/>
       <c r="C60" s="68"/>
       <c r="D60" s="68"/>
@@ -6150,16 +6177,16 @@
       <c r="U60" s="68"/>
       <c r="V60" s="68"/>
     </row>
-    <row r="61" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B61" s="72"/>
       <c r="C61" s="10">
         <v>1</v>
       </c>
-      <c r="D61" s="176" t="s">
+      <c r="D61" s="190" t="s">
         <v>37</v>
       </c>
-      <c r="E61" s="176"/>
-      <c r="F61" s="176"/>
+      <c r="E61" s="190"/>
+      <c r="F61" s="190"/>
       <c r="G61" s="14">
         <v>25</v>
       </c>
@@ -6194,7 +6221,7 @@
       <c r="U61" s="68"/>
       <c r="V61" s="68"/>
     </row>
-    <row r="62" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B62" s="72"/>
       <c r="C62" s="37">
         <v>2</v>
@@ -6221,16 +6248,16 @@
       <c r="U62" s="68"/>
       <c r="V62" s="68"/>
     </row>
-    <row r="63" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B63" s="72"/>
       <c r="C63" s="10">
         <v>3</v>
       </c>
-      <c r="D63" s="176" t="s">
+      <c r="D63" s="190" t="s">
         <v>35</v>
       </c>
-      <c r="E63" s="176"/>
-      <c r="F63" s="176"/>
+      <c r="E63" s="190"/>
+      <c r="F63" s="190"/>
       <c r="G63" s="32">
         <v>0.16</v>
       </c>
@@ -6254,8 +6281,8 @@
         <f>PRODUCT(G63,I63,K63)</f>
         <v>0.16</v>
       </c>
-      <c r="N63" s="177"/>
-      <c r="O63" s="177"/>
+      <c r="N63" s="191"/>
+      <c r="O63" s="191"/>
       <c r="P63" s="68"/>
       <c r="Q63" s="14">
         <f>M63</f>
@@ -6269,16 +6296,16 @@
       <c r="U63" s="68"/>
       <c r="V63" s="68"/>
     </row>
-    <row r="64" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B64" s="72"/>
       <c r="C64" s="37">
         <v>4</v>
       </c>
-      <c r="D64" s="176" t="s">
+      <c r="D64" s="190" t="s">
         <v>14</v>
       </c>
-      <c r="E64" s="176"/>
-      <c r="F64" s="176"/>
+      <c r="E64" s="190"/>
+      <c r="F64" s="190"/>
       <c r="G64" s="68"/>
       <c r="H64" s="68"/>
       <c r="I64" s="68"/>
@@ -6286,8 +6313,8 @@
       <c r="K64" s="68"/>
       <c r="L64" s="68"/>
       <c r="M64" s="68"/>
-      <c r="N64" s="177"/>
-      <c r="O64" s="177"/>
+      <c r="N64" s="191"/>
+      <c r="O64" s="191"/>
       <c r="P64" s="68"/>
       <c r="Q64" s="14">
         <v>1</v>
@@ -6300,16 +6327,16 @@
       <c r="U64" s="68"/>
       <c r="V64" s="68"/>
     </row>
-    <row r="65" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B65" s="72"/>
       <c r="C65" s="10">
         <v>5</v>
       </c>
-      <c r="D65" s="176" t="s">
+      <c r="D65" s="190" t="s">
         <v>3</v>
       </c>
-      <c r="E65" s="176"/>
-      <c r="F65" s="176"/>
+      <c r="E65" s="190"/>
+      <c r="F65" s="190"/>
       <c r="G65" s="68"/>
       <c r="H65" s="68"/>
       <c r="I65" s="68"/>
@@ -6329,7 +6356,7 @@
       <c r="U65" s="68"/>
       <c r="V65" s="68"/>
     </row>
-    <row r="66" spans="1:22" s="168" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:22" s="168" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="159"/>
       <c r="B66" s="160"/>
       <c r="C66" s="161">
@@ -6376,7 +6403,7 @@
       <c r="U66" s="162"/>
       <c r="V66" s="162"/>
     </row>
-    <row r="67" spans="1:22" s="168" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:22" s="168" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="159"/>
       <c r="B67" s="160"/>
       <c r="C67" s="161"/>
@@ -6400,7 +6427,7 @@
       <c r="U67" s="162"/>
       <c r="V67" s="162"/>
     </row>
-    <row r="68" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B68" s="72"/>
       <c r="C68" s="37"/>
       <c r="D68" s="68"/>
@@ -6426,7 +6453,7 @@
       <c r="U68" s="68"/>
       <c r="V68" s="68"/>
     </row>
-    <row r="69" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="45">
     <mergeCell ref="N63:O63"/>
@@ -6450,11 +6477,6 @@
     <mergeCell ref="D44:F44"/>
     <mergeCell ref="C46:D46"/>
     <mergeCell ref="D54:F54"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="K24:L24"/>
     <mergeCell ref="C48:D48"/>
     <mergeCell ref="D49:F49"/>
     <mergeCell ref="D50:F50"/>
@@ -6469,6 +6491,11 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="F17:J17"/>
     <mergeCell ref="C20:D20"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="K24:L24"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="K5:N5"/>
     <mergeCell ref="O5:R5"/>
@@ -6476,7 +6503,7 @@
     <mergeCell ref="F5:I5"/>
   </mergeCells>
   <pageMargins left="0.3" right="0.28999999999999998" top="0.25" bottom="0.31" header="0.37" footer="0.31"/>
-  <pageSetup paperSize="9" scale="44" orientation="landscape" useFirstPageNumber="1" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="42" orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="20" max="1048575" man="1"/>

--- a/Исходный_Шаблон.xlsx
+++ b/Исходный_Шаблон.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\Repository\s.panin\daily_duty\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{522423C3-4ABB-4F5C-A82B-87A15C49A509}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B0DE934-4720-48FD-9F7D-CDDDF5E2E1E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="721" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="721" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="График" sheetId="12" r:id="rId1"/>
@@ -19,8 +19,43 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">График!$A$1:$N$34</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>User</author>
+  </authors>
+  <commentList>
+    <comment ref="P6" authorId="0" shapeId="0" xr:uid="{5F7825A9-55F1-4E2D-9B89-CE99E7421D9B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Убедитесь, что в диапазон попали все необходимые ячейки
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -228,9 +263,6 @@
     <t>Соль</t>
   </si>
   <si>
-    <t>6-7</t>
-  </si>
-  <si>
     <t>участников на данный день</t>
   </si>
   <si>
@@ -250,6 +282,9 @@
   </si>
   <si>
     <t>!!! Версия !!!</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
 </sst>
 </file>
@@ -260,7 +295,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <name val="Tahoma"/>
@@ -384,6 +419,12 @@
       <sz val="14"/>
       <name val="Arial Cyr"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="17">
@@ -1328,25 +1369,25 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1661,33 +1702,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0708DEA-9196-4B02-8A2A-B717733C0E32}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0708DEA-9196-4B02-8A2A-B717733C0E32}">
   <sheetPr codeName="Лист1">
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AG65"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" defaultGridColor="0" view="pageBreakPreview" topLeftCell="A4" colorId="21" zoomScale="85" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="19.77734375" customWidth="1"/>
-    <col min="4" max="4" width="20.44140625" customWidth="1"/>
+    <col min="2" max="3" width="19.83203125" customWidth="1"/>
+    <col min="4" max="4" width="20.5" customWidth="1"/>
     <col min="5" max="5" width="20.6640625" customWidth="1"/>
-    <col min="6" max="13" width="20.44140625" customWidth="1"/>
-    <col min="14" max="28" width="17.109375" customWidth="1"/>
+    <col min="6" max="13" width="20.5" customWidth="1"/>
+    <col min="14" max="28" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:33" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:33" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C2" s="182">
         <v>2</v>
@@ -1706,7 +1747,7 @@
       <c r="M2" s="66"/>
       <c r="N2" s="66"/>
     </row>
-    <row r="3" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -1721,7 +1762,7 @@
       <c r="M3" s="66"/>
       <c r="N3" s="66"/>
     </row>
-    <row r="4" spans="1:33" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:33" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="30"/>
       <c r="C4" s="30"/>
       <c r="D4" s="67" t="s">
@@ -1737,11 +1778,11 @@
       <c r="L4" s="30"/>
       <c r="N4" s="66"/>
     </row>
-    <row r="5" spans="1:33" ht="56" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" ht="56.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="181" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E5" s="62"/>
       <c r="F5" s="74" t="s">
@@ -1785,11 +1826,11 @@
       <c r="W5" s="79"/>
       <c r="X5" s="79"/>
     </row>
-    <row r="6" spans="1:33" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="73" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E6" s="62"/>
       <c r="F6" s="74">
@@ -1820,18 +1861,15 @@
         <v>12</v>
       </c>
       <c r="P6">
+        <f>COUNT(D8:D111)</f>
         <v>24</v>
       </c>
       <c r="Q6" s="80">
         <f>P6/D6</f>
-        <v>5.2771608874425556E-4</v>
-      </c>
-      <c r="R6">
-        <f>COUNTA(F8:N34)</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="40"/>
       <c r="B7" s="50"/>
       <c r="C7" s="50"/>
@@ -1847,7 +1885,7 @@
       <c r="M7" s="86"/>
       <c r="N7" s="86"/>
     </row>
-    <row r="8" spans="1:33" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:33" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="186">
         <v>6</v>
       </c>
@@ -1877,9 +1915,10 @@
       <c r="AE8" s="1"/>
       <c r="AG8" s="86"/>
     </row>
-    <row r="9" spans="1:33" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="187"/>
       <c r="B9" s="77">
+        <f>F6</f>
         <v>4</v>
       </c>
       <c r="C9" s="77" t="s">
@@ -1904,7 +1943,7 @@
       <c r="AD9" s="30"/>
       <c r="AE9" s="30"/>
     </row>
-    <row r="10" spans="1:33" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:33" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="187"/>
       <c r="B10" s="78"/>
       <c r="C10" s="133" t="s">
@@ -1934,7 +1973,7 @@
       <c r="AD10" s="30"/>
       <c r="AE10" s="30"/>
     </row>
-    <row r="11" spans="1:33" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="187"/>
       <c r="B11" s="77" t="s">
         <v>46</v>
@@ -1967,9 +2006,10 @@
       <c r="AD11" s="30"/>
       <c r="AE11" s="30"/>
     </row>
-    <row r="12" spans="1:33" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="187"/>
       <c r="B12" s="77">
+        <f>G6</f>
         <v>5</v>
       </c>
       <c r="C12" s="77" t="s">
@@ -2000,7 +2040,7 @@
       <c r="AD12" s="30"/>
       <c r="AE12" s="30"/>
     </row>
-    <row r="13" spans="1:33" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="187"/>
       <c r="B13" s="78"/>
       <c r="C13" s="78" t="s">
@@ -2031,7 +2071,7 @@
       <c r="AD13" s="30"/>
       <c r="AE13" s="30"/>
     </row>
-    <row r="14" spans="1:33" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="187"/>
       <c r="B14" s="11" t="s">
         <v>31</v>
@@ -2064,9 +2104,10 @@
       <c r="AD14" s="85"/>
       <c r="AE14" s="30"/>
     </row>
-    <row r="15" spans="1:33" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="187"/>
       <c r="B15" s="11">
+        <f>H6</f>
         <v>6</v>
       </c>
       <c r="C15" s="11" t="s">
@@ -2097,7 +2138,7 @@
       <c r="AD15" s="85"/>
       <c r="AE15" s="30"/>
     </row>
-    <row r="16" spans="1:33" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:33" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="187"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15" t="s">
@@ -2128,7 +2169,7 @@
       <c r="AD16" s="85"/>
       <c r="AE16" s="30"/>
     </row>
-    <row r="17" spans="1:33" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="187"/>
       <c r="B17" s="11" t="s">
         <v>29</v>
@@ -2161,9 +2202,10 @@
       <c r="AD17" s="85"/>
       <c r="AE17" s="30"/>
     </row>
-    <row r="18" spans="1:33" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="187"/>
       <c r="B18" s="11">
+        <f>I6</f>
         <v>7</v>
       </c>
       <c r="C18" s="11" t="s">
@@ -2194,7 +2236,7 @@
       <c r="AD18" s="85"/>
       <c r="AE18" s="30"/>
     </row>
-    <row r="19" spans="1:33" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:33" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="187"/>
       <c r="B19" s="15"/>
       <c r="C19" s="15" t="s">
@@ -2225,7 +2267,7 @@
       <c r="AD19" s="85"/>
       <c r="AE19" s="30"/>
     </row>
-    <row r="20" spans="1:33" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="187"/>
       <c r="B20" s="11" t="s">
         <v>16</v>
@@ -2258,9 +2300,10 @@
       <c r="AD20" s="85"/>
       <c r="AE20" s="30"/>
     </row>
-    <row r="21" spans="1:33" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="187"/>
       <c r="B21" s="11">
+        <f>J6</f>
         <v>8</v>
       </c>
       <c r="C21" s="11" t="s">
@@ -2291,7 +2334,7 @@
       <c r="AD21" s="85"/>
       <c r="AE21" s="30"/>
     </row>
-    <row r="22" spans="1:33" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:33" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="187"/>
       <c r="B22" s="15"/>
       <c r="C22" s="15" t="s">
@@ -2322,7 +2365,7 @@
       <c r="AD22" s="85"/>
       <c r="AE22" s="30"/>
     </row>
-    <row r="23" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="187"/>
       <c r="B23" s="77" t="s">
         <v>43</v>
@@ -2355,9 +2398,10 @@
       <c r="AD23" s="41"/>
       <c r="AE23" s="30"/>
     </row>
-    <row r="24" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="187"/>
       <c r="B24" s="77">
+        <f>K6</f>
         <v>9</v>
       </c>
       <c r="C24" s="77" t="s">
@@ -2388,7 +2432,7 @@
       <c r="AD24" s="41"/>
       <c r="AE24" s="30"/>
     </row>
-    <row r="25" spans="1:33" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:33" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="187"/>
       <c r="B25" s="78"/>
       <c r="C25" s="78" t="s">
@@ -2419,7 +2463,7 @@
       <c r="AD25" s="92"/>
       <c r="AE25" s="30"/>
     </row>
-    <row r="26" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="187"/>
       <c r="B26" s="77" t="s">
         <v>30</v>
@@ -2452,9 +2496,10 @@
       <c r="AD26" s="30"/>
       <c r="AE26" s="41"/>
     </row>
-    <row r="27" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="187"/>
       <c r="B27" s="77">
+        <f>L6</f>
         <v>10</v>
       </c>
       <c r="C27" s="77" t="s">
@@ -2485,7 +2530,7 @@
       <c r="AD27" s="30"/>
       <c r="AE27" s="41"/>
     </row>
-    <row r="28" spans="1:33" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:33" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="187"/>
       <c r="B28" s="78"/>
       <c r="C28" s="78" t="s">
@@ -2516,7 +2561,7 @@
       <c r="AD28" s="30"/>
       <c r="AE28" s="41"/>
     </row>
-    <row r="29" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="187"/>
       <c r="B29" s="77" t="s">
         <v>6</v>
@@ -2550,9 +2595,10 @@
       <c r="AE29" s="30"/>
       <c r="AF29" s="41"/>
     </row>
-    <row r="30" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="187"/>
       <c r="B30" s="77">
+        <f>M6</f>
         <v>11</v>
       </c>
       <c r="C30" s="77" t="s">
@@ -2584,7 +2630,7 @@
       <c r="AE30" s="30"/>
       <c r="AF30" s="41"/>
     </row>
-    <row r="31" spans="1:33" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:33" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="187"/>
       <c r="B31" s="78"/>
       <c r="C31" s="78" t="s">
@@ -2616,7 +2662,7 @@
       <c r="AE31" s="30"/>
       <c r="AF31" s="41"/>
     </row>
-    <row r="32" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="187"/>
       <c r="B32" s="77" t="s">
         <v>46</v>
@@ -2650,9 +2696,10 @@
       <c r="AE32" s="30"/>
       <c r="AG32" s="41"/>
     </row>
-    <row r="33" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="187"/>
       <c r="B33" s="77">
+        <f>N6</f>
         <v>12</v>
       </c>
       <c r="C33" s="77" t="s">
@@ -2684,7 +2731,7 @@
       <c r="AE33" s="30"/>
       <c r="AG33" s="41"/>
     </row>
-    <row r="34" spans="1:33" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:33" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="187"/>
       <c r="B34" s="77"/>
       <c r="C34" s="77" t="s">
@@ -2702,7 +2749,7 @@
       <c r="M34" s="117"/>
       <c r="N34" s="118"/>
     </row>
-    <row r="35" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
       <c r="D35" s="30"/>
@@ -2715,7 +2762,7 @@
       <c r="K35" s="30"/>
       <c r="L35" s="30"/>
     </row>
-    <row r="36" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
       <c r="D36" s="30"/>
@@ -2728,7 +2775,7 @@
       <c r="K36" s="30"/>
       <c r="L36" s="30"/>
     </row>
-    <row r="37" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="30"/>
       <c r="C37" s="30"/>
       <c r="D37" s="30"/>
@@ -2741,7 +2788,7 @@
       <c r="K37" s="30"/>
       <c r="L37" s="30"/>
     </row>
-    <row r="38" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="30"/>
       <c r="C38" s="30"/>
       <c r="D38" s="30"/>
@@ -2753,7 +2800,7 @@
       <c r="K38" s="30"/>
       <c r="L38" s="30"/>
     </row>
-    <row r="39" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="30"/>
       <c r="C39" s="30"/>
       <c r="D39" s="59"/>
@@ -2766,7 +2813,7 @@
       <c r="K39" s="30"/>
       <c r="L39" s="30"/>
     </row>
-    <row r="40" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="30"/>
       <c r="C40" s="30"/>
       <c r="D40" s="59"/>
@@ -2779,7 +2826,7 @@
       <c r="K40" s="30"/>
       <c r="L40" s="30"/>
     </row>
-    <row r="41" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="30"/>
       <c r="C41" s="30"/>
       <c r="D41" s="59"/>
@@ -2792,7 +2839,7 @@
       <c r="K41" s="30"/>
       <c r="L41" s="30"/>
     </row>
-    <row r="42" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="30"/>
       <c r="C42" s="30"/>
       <c r="D42" s="59"/>
@@ -2805,7 +2852,7 @@
       <c r="K42" s="30"/>
       <c r="L42" s="30"/>
     </row>
-    <row r="43" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="30"/>
       <c r="C43" s="30"/>
       <c r="D43" s="59"/>
@@ -2816,7 +2863,7 @@
       <c r="K43" s="30"/>
       <c r="L43" s="30"/>
     </row>
-    <row r="44" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="30"/>
       <c r="C44" s="30"/>
       <c r="D44" s="54"/>
@@ -2827,7 +2874,7 @@
       <c r="K44" s="30"/>
       <c r="L44" s="30"/>
     </row>
-    <row r="45" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="30"/>
       <c r="C45" s="30"/>
       <c r="D45" s="59"/>
@@ -2840,7 +2887,7 @@
       <c r="K45" s="30"/>
       <c r="L45" s="30"/>
     </row>
-    <row r="46" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="30"/>
       <c r="C46" s="30"/>
       <c r="D46" s="59"/>
@@ -2853,7 +2900,7 @@
       <c r="K46" s="30"/>
       <c r="L46" s="30"/>
     </row>
-    <row r="47" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="30"/>
       <c r="C47" s="30"/>
       <c r="D47" s="59"/>
@@ -2866,7 +2913,7 @@
       <c r="K47" s="30"/>
       <c r="L47" s="30"/>
     </row>
-    <row r="48" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="30"/>
       <c r="C48" s="30"/>
       <c r="D48" s="59"/>
@@ -2879,7 +2926,7 @@
       <c r="K48" s="30"/>
       <c r="L48" s="30"/>
     </row>
-    <row r="49" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="30"/>
       <c r="C49" s="30"/>
       <c r="F49" s="30"/>
@@ -2890,7 +2937,7 @@
       <c r="K49" s="30"/>
       <c r="L49" s="30"/>
     </row>
-    <row r="50" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="30"/>
       <c r="C50" s="30"/>
       <c r="D50" s="57"/>
@@ -2903,7 +2950,7 @@
       <c r="K50" s="30"/>
       <c r="L50" s="30"/>
     </row>
-    <row r="51" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="30"/>
       <c r="C51" s="30"/>
       <c r="D51" s="57"/>
@@ -2916,7 +2963,7 @@
       <c r="K51" s="30"/>
       <c r="L51" s="30"/>
     </row>
-    <row r="52" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="30"/>
       <c r="C52" s="30"/>
       <c r="D52" s="57"/>
@@ -2929,7 +2976,7 @@
       <c r="K52" s="30"/>
       <c r="L52" s="30"/>
     </row>
-    <row r="53" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="30"/>
       <c r="C53" s="30"/>
       <c r="D53" s="57"/>
@@ -2942,7 +2989,7 @@
       <c r="K53" s="30"/>
       <c r="L53" s="30"/>
     </row>
-    <row r="54" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="30"/>
       <c r="C54" s="30"/>
       <c r="D54" s="57"/>
@@ -2955,7 +3002,7 @@
       <c r="K54" s="30"/>
       <c r="L54" s="30"/>
     </row>
-    <row r="55" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="30"/>
       <c r="C55" s="30"/>
       <c r="D55" s="57"/>
@@ -2968,7 +3015,7 @@
       <c r="K55" s="30"/>
       <c r="L55" s="30"/>
     </row>
-    <row r="56" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="30"/>
       <c r="C56" s="30"/>
       <c r="D56" s="57"/>
@@ -2981,39 +3028,39 @@
       <c r="K56" s="30"/>
       <c r="L56" s="30"/>
     </row>
-    <row r="57" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D57" s="49"/>
       <c r="E57" s="42"/>
     </row>
-    <row r="58" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D58" s="49"/>
       <c r="E58" s="42"/>
     </row>
-    <row r="59" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D59" s="49"/>
       <c r="E59" s="42"/>
     </row>
-    <row r="60" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D60" s="49"/>
       <c r="E60" s="42"/>
     </row>
-    <row r="61" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D61" s="49"/>
       <c r="E61" s="42"/>
     </row>
-    <row r="62" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D62" s="49"/>
       <c r="E62" s="42"/>
     </row>
-    <row r="63" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D63" s="49"/>
       <c r="E63" s="42"/>
     </row>
-    <row r="64" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D64" s="49"/>
       <c r="E64" s="42"/>
     </row>
-    <row r="65" spans="4:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="4:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D65" s="49"/>
       <c r="E65" s="42"/>
     </row>
@@ -3024,8 +3071,15 @@
     <mergeCell ref="A8:A34"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="61" orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="60" orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="5" max="16383" man="1"/>
+  </rowBreaks>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="15" max="1048575" man="1"/>
+  </colBreaks>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3040,29 +3094,29 @@
       <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="7.77734375" customWidth="1"/>
+    <col min="1" max="2" width="7.83203125" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="5" width="10.109375" customWidth="1"/>
-    <col min="6" max="6" width="18.77734375" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" customWidth="1"/>
+    <col min="4" max="5" width="10.1640625" customWidth="1"/>
+    <col min="6" max="6" width="18.83203125" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" customWidth="1"/>
     <col min="8" max="8" width="6.6640625" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" customWidth="1"/>
+    <col min="9" max="9" width="10.1640625" customWidth="1"/>
     <col min="10" max="10" width="6.6640625" customWidth="1"/>
-    <col min="11" max="11" width="10.109375" customWidth="1"/>
+    <col min="11" max="11" width="10.1640625" customWidth="1"/>
     <col min="12" max="12" width="6.6640625" customWidth="1"/>
-    <col min="13" max="13" width="10.109375" customWidth="1"/>
+    <col min="13" max="13" width="10.1640625" customWidth="1"/>
     <col min="14" max="14" width="14.33203125" customWidth="1"/>
     <col min="15" max="15" width="9.6640625" customWidth="1"/>
     <col min="16" max="16" width="6.6640625" customWidth="1"/>
-    <col min="17" max="17" width="17.109375" customWidth="1"/>
-    <col min="18" max="18" width="10.109375" customWidth="1"/>
-    <col min="19" max="19" width="7.77734375" customWidth="1"/>
+    <col min="17" max="17" width="17.1640625" customWidth="1"/>
+    <col min="18" max="18" width="10.1640625" customWidth="1"/>
+    <col min="19" max="19" width="7.83203125" customWidth="1"/>
     <col min="20" max="20" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:94" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:94" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="27">
         <v>6</v>
       </c>
@@ -3121,7 +3175,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:94" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:94" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -3143,7 +3197,7 @@
       <c r="O2" s="27"/>
       <c r="P2" s="27"/>
       <c r="Q2" s="170" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R2" s="182">
         <f>График!C2</f>
@@ -3152,7 +3206,7 @@
       <c r="S2" s="27"/>
       <c r="T2" s="27"/>
     </row>
-    <row r="3" spans="1:94" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:94" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="27"/>
       <c r="C3" s="27"/>
       <c r="D3" s="27"/>
@@ -3173,7 +3227,7 @@
       <c r="S3" s="27"/>
       <c r="T3" s="27"/>
     </row>
-    <row r="4" spans="1:94" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:94" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="72"/>
       <c r="C4" s="68"/>
       <c r="D4" s="68"/>
@@ -3267,32 +3321,32 @@
       <c r="CO4" s="68"/>
       <c r="CP4" s="68"/>
     </row>
-    <row r="5" spans="1:94" ht="35.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="188" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" s="188"/>
-      <c r="D5" s="188"/>
-      <c r="E5" s="188"/>
-      <c r="F5" s="188"/>
-      <c r="G5" s="188"/>
-      <c r="H5" s="188"/>
-      <c r="I5" s="193"/>
+    <row r="5" spans="1:94" ht="35.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="196" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="196"/>
+      <c r="D5" s="196"/>
+      <c r="E5" s="196"/>
+      <c r="F5" s="196"/>
+      <c r="G5" s="196"/>
+      <c r="H5" s="196"/>
+      <c r="I5" s="198"/>
       <c r="J5" s="24">
         <v>1</v>
       </c>
-      <c r="K5" s="189" t="s">
-        <v>73</v>
-      </c>
-      <c r="L5" s="190"/>
-      <c r="M5" s="190"/>
-      <c r="N5" s="190"/>
-      <c r="O5" s="191" t="s">
+      <c r="K5" s="197" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" s="189"/>
+      <c r="M5" s="189"/>
+      <c r="N5" s="189"/>
+      <c r="O5" s="188" t="s">
         <v>59</v>
       </c>
-      <c r="P5" s="191"/>
-      <c r="Q5" s="191"/>
-      <c r="R5" s="191"/>
+      <c r="P5" s="188"/>
+      <c r="Q5" s="188"/>
+      <c r="R5" s="188"/>
       <c r="S5" s="21"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
@@ -3370,7 +3424,7 @@
       <c r="CO5" s="68"/>
       <c r="CP5" s="68"/>
     </row>
-    <row r="6" spans="1:94" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:94" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B6" s="72"/>
       <c r="C6" s="68"/>
       <c r="D6" s="68"/>
@@ -3465,7 +3519,7 @@
       <c r="CO6" s="68"/>
       <c r="CP6" s="68"/>
     </row>
-    <row r="7" spans="1:94" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:94" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="72"/>
       <c r="C7" s="68"/>
       <c r="D7" s="68"/>
@@ -3564,14 +3618,14 @@
       <c r="CO7" s="68"/>
       <c r="CP7" s="68"/>
     </row>
-    <row r="8" spans="1:94" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:94" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="23">
         <v>1</v>
       </c>
-      <c r="C8" s="192" t="s">
+      <c r="C8" s="191" t="s">
         <v>63</v>
       </c>
-      <c r="D8" s="192"/>
+      <c r="D8" s="191"/>
       <c r="E8" s="14">
         <f>SUM(G8,I8,K8)</f>
         <v>0</v>
@@ -3674,7 +3728,7 @@
       <c r="CO8" s="68"/>
       <c r="CP8" s="68"/>
     </row>
-    <row r="9" spans="1:94" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:94" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B9" s="72"/>
       <c r="C9" s="68"/>
       <c r="D9" s="68"/>
@@ -3769,7 +3823,7 @@
       <c r="CO9" s="68"/>
       <c r="CP9" s="68"/>
     </row>
-    <row r="10" spans="1:94" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:94" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="72"/>
       <c r="C10" s="68"/>
       <c r="D10" s="68"/>
@@ -3814,22 +3868,22 @@
       <c r="AQ10" s="68"/>
       <c r="AR10" s="68"/>
     </row>
-    <row r="11" spans="1:94" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:94" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="72">
         <v>2</v>
       </c>
-      <c r="C11" s="190" t="s">
+      <c r="C11" s="189" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="190"/>
+      <c r="D11" s="189"/>
       <c r="E11" s="43"/>
-      <c r="F11" s="190" t="s">
+      <c r="F11" s="189" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="190"/>
-      <c r="H11" s="190"/>
-      <c r="I11" s="190"/>
-      <c r="J11" s="190"/>
+      <c r="G11" s="189"/>
+      <c r="H11" s="189"/>
+      <c r="I11" s="189"/>
+      <c r="J11" s="189"/>
       <c r="K11" s="68"/>
       <c r="L11" s="68"/>
       <c r="M11" s="68"/>
@@ -3865,7 +3919,7 @@
       <c r="AQ11" s="68"/>
       <c r="AR11" s="68"/>
     </row>
-    <row r="12" spans="1:94" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:94" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="72"/>
       <c r="C12" s="68"/>
       <c r="D12" s="68"/>
@@ -3910,7 +3964,7 @@
       <c r="AQ12" s="68"/>
       <c r="AR12" s="68"/>
     </row>
-    <row r="13" spans="1:94" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:94" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="72"/>
       <c r="C13" s="68"/>
       <c r="D13" s="68"/>
@@ -3961,14 +4015,14 @@
       <c r="AQ13" s="68"/>
       <c r="AR13" s="68"/>
     </row>
-    <row r="14" spans="1:94" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:94" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="63">
         <v>3</v>
       </c>
-      <c r="C14" s="195" t="s">
+      <c r="C14" s="190" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="195"/>
+      <c r="D14" s="190"/>
       <c r="E14" s="14">
         <f>SUM(G14,I14,K14)</f>
         <v>0</v>
@@ -4025,7 +4079,7 @@
       <c r="AQ14" s="68"/>
       <c r="AR14" s="68"/>
     </row>
-    <row r="15" spans="1:94" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:94" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B15" s="72"/>
       <c r="C15" s="68"/>
       <c r="D15" s="68"/>
@@ -4070,7 +4124,7 @@
       <c r="AQ15" s="68"/>
       <c r="AR15" s="68"/>
     </row>
-    <row r="16" spans="1:94" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:94" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="72"/>
       <c r="C16" s="68"/>
       <c r="D16" s="68"/>
@@ -4115,22 +4169,22 @@
       <c r="AQ16" s="68"/>
       <c r="AR16" s="68"/>
     </row>
-    <row r="17" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="72">
         <v>4</v>
       </c>
-      <c r="C17" s="190" t="s">
+      <c r="C17" s="189" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="190"/>
+      <c r="D17" s="189"/>
       <c r="E17" s="43"/>
-      <c r="F17" s="190" t="s">
+      <c r="F17" s="189" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="190"/>
-      <c r="H17" s="190"/>
-      <c r="I17" s="190"/>
-      <c r="J17" s="190"/>
+      <c r="G17" s="189"/>
+      <c r="H17" s="189"/>
+      <c r="I17" s="189"/>
+      <c r="J17" s="189"/>
       <c r="K17" s="68"/>
       <c r="L17" s="68"/>
       <c r="M17" s="68"/>
@@ -4166,7 +4220,7 @@
       <c r="AQ17" s="68"/>
       <c r="AR17" s="68"/>
     </row>
-    <row r="18" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="72"/>
       <c r="C18" s="68"/>
       <c r="D18" s="68"/>
@@ -4211,7 +4265,7 @@
       <c r="AQ18" s="68"/>
       <c r="AR18" s="68"/>
     </row>
-    <row r="19" spans="2:44" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:44" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="72"/>
       <c r="C19" s="68"/>
       <c r="D19" s="68"/>
@@ -4264,14 +4318,14 @@
       <c r="AQ19" s="68"/>
       <c r="AR19" s="68"/>
     </row>
-    <row r="20" spans="2:44" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:44" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="28">
         <v>5</v>
       </c>
-      <c r="C20" s="196" t="s">
+      <c r="C20" s="193" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="196"/>
+      <c r="D20" s="193"/>
       <c r="E20" s="14">
         <f>SUM(G20,I20,K20)</f>
         <v>0</v>
@@ -4333,7 +4387,7 @@
       <c r="AQ20" s="68"/>
       <c r="AR20" s="68"/>
     </row>
-    <row r="21" spans="2:44" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:44" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B21" s="72"/>
       <c r="C21" s="68"/>
       <c r="D21" s="68"/>
@@ -4378,7 +4432,7 @@
       <c r="AQ21" s="68"/>
       <c r="AR21" s="68"/>
     </row>
-    <row r="22" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="72"/>
       <c r="C22" s="68" t="s">
         <v>61</v>
@@ -4391,14 +4445,14 @@
       <c r="F22" s="71"/>
       <c r="G22" s="14"/>
       <c r="H22" s="71"/>
-      <c r="I22" s="197" t="s">
+      <c r="I22" s="194" t="s">
         <v>25</v>
       </c>
-      <c r="J22" s="197"/>
-      <c r="K22" s="198" t="s">
-        <v>70</v>
-      </c>
-      <c r="L22" s="198"/>
+      <c r="J22" s="194"/>
+      <c r="K22" s="195" t="s">
+        <v>69</v>
+      </c>
+      <c r="L22" s="195"/>
       <c r="M22" s="68"/>
       <c r="N22" s="68"/>
       <c r="O22" s="68"/>
@@ -4432,7 +4486,7 @@
       <c r="AQ22" s="68"/>
       <c r="AR22" s="68"/>
     </row>
-    <row r="23" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="72"/>
       <c r="C23" s="68"/>
       <c r="D23" s="68"/>
@@ -4440,15 +4494,15 @@
       <c r="F23" s="68"/>
       <c r="G23" s="68"/>
       <c r="H23" s="2"/>
-      <c r="I23" s="197" t="s">
-        <v>69</v>
-      </c>
-      <c r="J23" s="197"/>
-      <c r="K23" s="197" t="s">
-        <v>71</v>
-      </c>
-      <c r="L23" s="197"/>
-      <c r="M23" s="197"/>
+      <c r="I23" s="194" t="s">
+        <v>68</v>
+      </c>
+      <c r="J23" s="194"/>
+      <c r="K23" s="194" t="s">
+        <v>70</v>
+      </c>
+      <c r="L23" s="194"/>
+      <c r="M23" s="194"/>
       <c r="N23" s="68"/>
       <c r="O23" s="68"/>
       <c r="P23" s="68"/>
@@ -4481,7 +4535,7 @@
       <c r="AQ23" s="68"/>
       <c r="AR23" s="68"/>
     </row>
-    <row r="24" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="72"/>
       <c r="C24" s="68"/>
       <c r="D24" s="68"/>
@@ -4491,17 +4545,17 @@
       <c r="H24" s="68"/>
       <c r="I24" s="71"/>
       <c r="J24" s="68"/>
-      <c r="K24" s="198"/>
-      <c r="L24" s="198"/>
+      <c r="K24" s="195"/>
+      <c r="L24" s="195"/>
       <c r="M24" s="68"/>
       <c r="N24" s="68"/>
       <c r="O24" s="68"/>
       <c r="P24" s="68"/>
-      <c r="Q24" s="190" t="s">
+      <c r="Q24" s="189" t="s">
         <v>5</v>
       </c>
-      <c r="R24" s="190"/>
-      <c r="S24" s="190"/>
+      <c r="R24" s="189"/>
+      <c r="S24" s="189"/>
       <c r="T24" s="68" t="s">
         <v>2</v>
       </c>
@@ -4530,7 +4584,7 @@
       <c r="AQ24" s="68"/>
       <c r="AR24" s="68"/>
     </row>
-    <row r="25" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="72"/>
       <c r="C25" s="68"/>
       <c r="D25" s="68"/>
@@ -4575,7 +4629,7 @@
       <c r="AQ25" s="68"/>
       <c r="AR25" s="68"/>
     </row>
-    <row r="26" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="45">
         <v>1</v>
       </c>
@@ -4624,16 +4678,16 @@
       <c r="AQ26" s="68"/>
       <c r="AR26" s="68"/>
     </row>
-    <row r="27" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="72"/>
       <c r="C27" s="10">
         <v>1</v>
       </c>
-      <c r="D27" s="194" t="s">
+      <c r="D27" s="192" t="s">
         <v>33</v>
       </c>
-      <c r="E27" s="194"/>
-      <c r="F27" s="194"/>
+      <c r="E27" s="192"/>
+      <c r="F27" s="192"/>
       <c r="G27" s="14">
         <v>40</v>
       </c>
@@ -4693,16 +4747,16 @@
       <c r="AQ27" s="68"/>
       <c r="AR27" s="68"/>
     </row>
-    <row r="28" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="72"/>
       <c r="C28" s="10">
         <v>2</v>
       </c>
-      <c r="D28" s="192" t="s">
+      <c r="D28" s="191" t="s">
         <v>41</v>
       </c>
-      <c r="E28" s="192"/>
-      <c r="F28" s="192"/>
+      <c r="E28" s="191"/>
+      <c r="F28" s="191"/>
       <c r="G28" s="14">
         <v>40</v>
       </c>
@@ -4762,7 +4816,7 @@
       <c r="AQ28" s="68"/>
       <c r="AR28" s="68"/>
     </row>
-    <row r="29" spans="2:44" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:44" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="72"/>
       <c r="C29" s="10">
         <v>3</v>
@@ -4831,7 +4885,7 @@
       <c r="AQ29" s="68"/>
       <c r="AR29" s="68"/>
     </row>
-    <row r="30" spans="2:44" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:44" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="72"/>
       <c r="C30" s="10">
         <v>4</v>
@@ -4900,16 +4954,16 @@
       <c r="AQ30" s="68"/>
       <c r="AR30" s="68"/>
     </row>
-    <row r="31" spans="2:44" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:44" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B31" s="72"/>
       <c r="C31" s="10">
         <v>5</v>
       </c>
-      <c r="D31" s="190" t="s">
+      <c r="D31" s="189" t="s">
         <v>40</v>
       </c>
-      <c r="E31" s="190"/>
-      <c r="F31" s="190"/>
+      <c r="E31" s="189"/>
+      <c r="F31" s="189"/>
       <c r="G31" s="14">
         <v>100</v>
       </c>
@@ -4976,16 +5030,16 @@
       <c r="AQ31" s="68"/>
       <c r="AR31" s="68"/>
     </row>
-    <row r="32" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="72"/>
       <c r="C32" s="10">
         <v>6</v>
       </c>
-      <c r="D32" s="190" t="s">
+      <c r="D32" s="189" t="s">
         <v>27</v>
       </c>
-      <c r="E32" s="190"/>
-      <c r="F32" s="190"/>
+      <c r="E32" s="189"/>
+      <c r="F32" s="189"/>
       <c r="G32" s="14">
         <v>2</v>
       </c>
@@ -5042,16 +5096,16 @@
       <c r="AQ32" s="68"/>
       <c r="AR32" s="68"/>
     </row>
-    <row r="33" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="72"/>
       <c r="C33" s="10">
         <v>7</v>
       </c>
-      <c r="D33" s="190" t="s">
+      <c r="D33" s="189" t="s">
         <v>35</v>
       </c>
-      <c r="E33" s="190"/>
-      <c r="F33" s="190"/>
+      <c r="E33" s="189"/>
+      <c r="F33" s="189"/>
       <c r="G33" s="14"/>
       <c r="H33" s="71"/>
       <c r="I33" s="14"/>
@@ -5091,7 +5145,7 @@
       <c r="AQ33" s="68"/>
       <c r="AR33" s="68"/>
     </row>
-    <row r="34" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="89"/>
       <c r="C34" s="10"/>
       <c r="D34" s="90"/>
@@ -5136,14 +5190,14 @@
       <c r="AQ34" s="90"/>
       <c r="AR34" s="90"/>
     </row>
-    <row r="35" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="72">
         <v>2</v>
       </c>
-      <c r="C35" s="190" t="s">
+      <c r="C35" s="189" t="s">
         <v>13</v>
       </c>
-      <c r="D35" s="190"/>
+      <c r="D35" s="189"/>
       <c r="E35" s="68"/>
       <c r="F35" s="68"/>
       <c r="G35" s="68"/>
@@ -5185,7 +5239,7 @@
       <c r="AQ35" s="68"/>
       <c r="AR35" s="68"/>
     </row>
-    <row r="36" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="89"/>
       <c r="C36" s="90"/>
       <c r="D36" s="90"/>
@@ -5230,22 +5284,22 @@
       <c r="AQ36" s="90"/>
       <c r="AR36" s="90"/>
     </row>
-    <row r="37" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="63">
         <v>3</v>
       </c>
-      <c r="C37" s="195" t="s">
+      <c r="C37" s="190" t="s">
         <v>12</v>
       </c>
-      <c r="D37" s="195"/>
+      <c r="D37" s="190"/>
       <c r="E37" s="68"/>
-      <c r="F37" s="190" t="s">
+      <c r="F37" s="189" t="s">
         <v>7</v>
       </c>
-      <c r="G37" s="190"/>
-      <c r="H37" s="190"/>
-      <c r="I37" s="190"/>
-      <c r="J37" s="190"/>
+      <c r="G37" s="189"/>
+      <c r="H37" s="189"/>
+      <c r="I37" s="189"/>
+      <c r="J37" s="189"/>
       <c r="K37" s="68"/>
       <c r="L37" s="68"/>
       <c r="M37" s="68"/>
@@ -5281,16 +5335,16 @@
       <c r="AQ37" s="68"/>
       <c r="AR37" s="68"/>
     </row>
-    <row r="38" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="72"/>
       <c r="C38" s="10">
         <v>1</v>
       </c>
-      <c r="D38" s="190" t="s">
+      <c r="D38" s="189" t="s">
         <v>15</v>
       </c>
-      <c r="E38" s="190"/>
-      <c r="F38" s="190"/>
+      <c r="E38" s="189"/>
+      <c r="F38" s="189"/>
       <c r="G38" s="14">
         <v>50</v>
       </c>
@@ -5350,7 +5404,7 @@
       <c r="AQ38" s="68"/>
       <c r="AR38" s="68"/>
     </row>
-    <row r="39" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="72"/>
       <c r="C39" s="10">
         <v>2</v>
@@ -5416,7 +5470,7 @@
       <c r="AQ39" s="68"/>
       <c r="AR39" s="68"/>
     </row>
-    <row r="40" spans="2:44" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:44" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="72"/>
       <c r="C40" s="10">
         <v>3</v>
@@ -5460,7 +5514,7 @@
       <c r="U40" s="68"/>
       <c r="V40" s="68"/>
     </row>
-    <row r="41" spans="2:44" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:44" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="72"/>
       <c r="C41" s="10">
         <v>4</v>
@@ -5504,16 +5558,16 @@
       <c r="U41" s="68"/>
       <c r="V41" s="68"/>
     </row>
-    <row r="42" spans="2:44" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:44" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B42" s="72"/>
       <c r="C42" s="10">
         <v>5</v>
       </c>
-      <c r="D42" s="190" t="s">
+      <c r="D42" s="189" t="s">
         <v>21</v>
       </c>
-      <c r="E42" s="190"/>
-      <c r="F42" s="190"/>
+      <c r="E42" s="189"/>
+      <c r="F42" s="189"/>
       <c r="G42" s="14">
         <v>2</v>
       </c>
@@ -5551,16 +5605,16 @@
       <c r="U42" s="68"/>
       <c r="V42" s="68"/>
     </row>
-    <row r="43" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="72"/>
       <c r="C43" s="10">
         <v>6</v>
       </c>
-      <c r="D43" s="190" t="s">
+      <c r="D43" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="E43" s="190"/>
-      <c r="F43" s="190"/>
+      <c r="E43" s="189"/>
+      <c r="F43" s="189"/>
       <c r="G43" s="17">
         <v>0.25</v>
       </c>
@@ -5600,16 +5654,16 @@
       <c r="U43" s="68"/>
       <c r="V43" s="68"/>
     </row>
-    <row r="44" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="72"/>
       <c r="C44" s="10">
         <v>7</v>
       </c>
-      <c r="D44" s="190" t="s">
+      <c r="D44" s="189" t="s">
         <v>35</v>
       </c>
-      <c r="E44" s="190"/>
-      <c r="F44" s="190"/>
+      <c r="E44" s="189"/>
+      <c r="F44" s="189"/>
       <c r="G44" s="68"/>
       <c r="H44" s="68"/>
       <c r="I44" s="68"/>
@@ -5627,7 +5681,7 @@
       <c r="U44" s="68"/>
       <c r="V44" s="68"/>
     </row>
-    <row r="45" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="89"/>
       <c r="C45" s="10"/>
       <c r="D45" s="90"/>
@@ -5650,14 +5704,14 @@
       <c r="U45" s="90"/>
       <c r="V45" s="90"/>
     </row>
-    <row r="46" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="72">
         <v>4</v>
       </c>
-      <c r="C46" s="190" t="s">
+      <c r="C46" s="189" t="s">
         <v>13</v>
       </c>
-      <c r="D46" s="190"/>
+      <c r="D46" s="189"/>
       <c r="E46" s="68"/>
       <c r="F46" s="68"/>
       <c r="G46" s="68"/>
@@ -5677,7 +5731,7 @@
       <c r="U46" s="68"/>
       <c r="V46" s="68"/>
     </row>
-    <row r="47" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="89"/>
       <c r="C47" s="10"/>
       <c r="D47" s="90"/>
@@ -5700,14 +5754,14 @@
       <c r="U47" s="90"/>
       <c r="V47" s="90"/>
     </row>
-    <row r="48" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="23">
         <v>5</v>
       </c>
-      <c r="C48" s="192" t="s">
+      <c r="C48" s="191" t="s">
         <v>48</v>
       </c>
-      <c r="D48" s="192"/>
+      <c r="D48" s="191"/>
       <c r="E48" s="68"/>
       <c r="F48" s="68"/>
       <c r="G48" s="68"/>
@@ -5727,16 +5781,16 @@
       <c r="U48" s="68"/>
       <c r="V48" s="68"/>
     </row>
-    <row r="49" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="72"/>
       <c r="C49" s="10">
         <v>1</v>
       </c>
-      <c r="D49" s="194" t="s">
+      <c r="D49" s="192" t="s">
         <v>17</v>
       </c>
-      <c r="E49" s="194"/>
-      <c r="F49" s="194"/>
+      <c r="E49" s="192"/>
+      <c r="F49" s="192"/>
       <c r="G49" s="14">
         <v>90</v>
       </c>
@@ -5774,16 +5828,16 @@
       <c r="U49" s="68"/>
       <c r="V49" s="68"/>
     </row>
-    <row r="50" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="72"/>
       <c r="C50" s="10">
         <v>2</v>
       </c>
-      <c r="D50" s="192" t="s">
+      <c r="D50" s="191" t="s">
         <v>38</v>
       </c>
-      <c r="E50" s="192"/>
-      <c r="F50" s="192"/>
+      <c r="E50" s="191"/>
+      <c r="F50" s="191"/>
       <c r="G50" s="14">
         <v>80</v>
       </c>
@@ -5821,7 +5875,7 @@
       <c r="U50" s="68"/>
       <c r="V50" s="68"/>
     </row>
-    <row r="51" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="72"/>
       <c r="C51" s="10">
         <v>3</v>
@@ -5868,16 +5922,16 @@
       <c r="U51" s="68"/>
       <c r="V51" s="68"/>
     </row>
-    <row r="52" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="72"/>
       <c r="C52" s="10">
         <v>4</v>
       </c>
-      <c r="D52" s="190" t="s">
+      <c r="D52" s="189" t="s">
         <v>19</v>
       </c>
-      <c r="E52" s="190"/>
-      <c r="F52" s="190"/>
+      <c r="E52" s="189"/>
+      <c r="F52" s="189"/>
       <c r="G52" s="14">
         <v>25</v>
       </c>
@@ -5915,16 +5969,16 @@
       <c r="U52" s="68"/>
       <c r="V52" s="68"/>
     </row>
-    <row r="53" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="72"/>
       <c r="C53" s="10">
         <v>5</v>
       </c>
-      <c r="D53" s="190" t="s">
+      <c r="D53" s="189" t="s">
         <v>4</v>
       </c>
-      <c r="E53" s="190"/>
-      <c r="F53" s="190"/>
+      <c r="E53" s="189"/>
+      <c r="F53" s="189"/>
       <c r="G53" s="14">
         <v>25</v>
       </c>
@@ -5962,16 +6016,16 @@
       <c r="U53" s="68"/>
       <c r="V53" s="68"/>
     </row>
-    <row r="54" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="72"/>
       <c r="C54" s="10">
         <v>6</v>
       </c>
-      <c r="D54" s="190" t="s">
+      <c r="D54" s="189" t="s">
         <v>34</v>
       </c>
-      <c r="E54" s="190"/>
-      <c r="F54" s="190"/>
+      <c r="E54" s="189"/>
+      <c r="F54" s="189"/>
       <c r="G54" s="14">
         <v>40</v>
       </c>
@@ -6009,16 +6063,16 @@
       <c r="U54" s="68"/>
       <c r="V54" s="68"/>
     </row>
-    <row r="55" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="72"/>
       <c r="C55" s="10">
         <v>7</v>
       </c>
-      <c r="D55" s="190" t="s">
+      <c r="D55" s="189" t="s">
         <v>27</v>
       </c>
-      <c r="E55" s="190"/>
-      <c r="F55" s="190"/>
+      <c r="E55" s="189"/>
+      <c r="F55" s="189"/>
       <c r="G55" s="14">
         <v>2</v>
       </c>
@@ -6056,16 +6110,16 @@
       <c r="U55" s="68"/>
       <c r="V55" s="68"/>
     </row>
-    <row r="56" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="72"/>
       <c r="C56" s="10">
         <v>8</v>
       </c>
-      <c r="D56" s="190" t="s">
+      <c r="D56" s="189" t="s">
         <v>35</v>
       </c>
-      <c r="E56" s="190"/>
-      <c r="F56" s="190"/>
+      <c r="E56" s="189"/>
+      <c r="F56" s="189"/>
       <c r="G56" s="68"/>
       <c r="H56" s="68"/>
       <c r="I56" s="68"/>
@@ -6083,7 +6137,7 @@
       <c r="U56" s="68"/>
       <c r="V56" s="68"/>
     </row>
-    <row r="57" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="72"/>
       <c r="C57" s="68"/>
       <c r="D57" s="68"/>
@@ -6106,7 +6160,7 @@
       <c r="U57" s="68"/>
       <c r="V57" s="68"/>
     </row>
-    <row r="58" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="72"/>
       <c r="C58" s="68"/>
       <c r="D58" s="68"/>
@@ -6129,19 +6183,19 @@
       <c r="U58" s="68"/>
       <c r="V58" s="68"/>
     </row>
-    <row r="59" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="72"/>
-      <c r="C59" s="190" t="s">
+      <c r="C59" s="189" t="s">
         <v>1</v>
       </c>
-      <c r="D59" s="190"/>
-      <c r="E59" s="190"/>
-      <c r="F59" s="190"/>
-      <c r="G59" s="190"/>
-      <c r="H59" s="190"/>
-      <c r="I59" s="190"/>
-      <c r="J59" s="190"/>
-      <c r="K59" s="190"/>
+      <c r="D59" s="189"/>
+      <c r="E59" s="189"/>
+      <c r="F59" s="189"/>
+      <c r="G59" s="189"/>
+      <c r="H59" s="189"/>
+      <c r="I59" s="189"/>
+      <c r="J59" s="189"/>
+      <c r="K59" s="189"/>
       <c r="L59" s="68"/>
       <c r="M59" s="68"/>
       <c r="N59" s="68"/>
@@ -6154,7 +6208,7 @@
       <c r="U59" s="68"/>
       <c r="V59" s="68"/>
     </row>
-    <row r="60" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="72"/>
       <c r="C60" s="68"/>
       <c r="D60" s="68"/>
@@ -6177,16 +6231,16 @@
       <c r="U60" s="68"/>
       <c r="V60" s="68"/>
     </row>
-    <row r="61" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="72"/>
       <c r="C61" s="10">
         <v>1</v>
       </c>
-      <c r="D61" s="190" t="s">
+      <c r="D61" s="189" t="s">
         <v>37</v>
       </c>
-      <c r="E61" s="190"/>
-      <c r="F61" s="190"/>
+      <c r="E61" s="189"/>
+      <c r="F61" s="189"/>
       <c r="G61" s="14">
         <v>25</v>
       </c>
@@ -6221,7 +6275,7 @@
       <c r="U61" s="68"/>
       <c r="V61" s="68"/>
     </row>
-    <row r="62" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="72"/>
       <c r="C62" s="37">
         <v>2</v>
@@ -6248,16 +6302,16 @@
       <c r="U62" s="68"/>
       <c r="V62" s="68"/>
     </row>
-    <row r="63" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="72"/>
       <c r="C63" s="10">
         <v>3</v>
       </c>
-      <c r="D63" s="190" t="s">
+      <c r="D63" s="189" t="s">
         <v>35</v>
       </c>
-      <c r="E63" s="190"/>
-      <c r="F63" s="190"/>
+      <c r="E63" s="189"/>
+      <c r="F63" s="189"/>
       <c r="G63" s="32">
         <v>0.16</v>
       </c>
@@ -6281,8 +6335,8 @@
         <f>PRODUCT(G63,I63,K63)</f>
         <v>0.16</v>
       </c>
-      <c r="N63" s="191"/>
-      <c r="O63" s="191"/>
+      <c r="N63" s="188"/>
+      <c r="O63" s="188"/>
       <c r="P63" s="68"/>
       <c r="Q63" s="14">
         <f>M63</f>
@@ -6296,16 +6350,16 @@
       <c r="U63" s="68"/>
       <c r="V63" s="68"/>
     </row>
-    <row r="64" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="72"/>
       <c r="C64" s="37">
         <v>4</v>
       </c>
-      <c r="D64" s="190" t="s">
+      <c r="D64" s="189" t="s">
         <v>14</v>
       </c>
-      <c r="E64" s="190"/>
-      <c r="F64" s="190"/>
+      <c r="E64" s="189"/>
+      <c r="F64" s="189"/>
       <c r="G64" s="68"/>
       <c r="H64" s="68"/>
       <c r="I64" s="68"/>
@@ -6313,8 +6367,8 @@
       <c r="K64" s="68"/>
       <c r="L64" s="68"/>
       <c r="M64" s="68"/>
-      <c r="N64" s="191"/>
-      <c r="O64" s="191"/>
+      <c r="N64" s="188"/>
+      <c r="O64" s="188"/>
       <c r="P64" s="68"/>
       <c r="Q64" s="14">
         <v>1</v>
@@ -6327,16 +6381,16 @@
       <c r="U64" s="68"/>
       <c r="V64" s="68"/>
     </row>
-    <row r="65" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="72"/>
       <c r="C65" s="10">
         <v>5</v>
       </c>
-      <c r="D65" s="190" t="s">
+      <c r="D65" s="189" t="s">
         <v>3</v>
       </c>
-      <c r="E65" s="190"/>
-      <c r="F65" s="190"/>
+      <c r="E65" s="189"/>
+      <c r="F65" s="189"/>
       <c r="G65" s="68"/>
       <c r="H65" s="68"/>
       <c r="I65" s="68"/>
@@ -6356,7 +6410,7 @@
       <c r="U65" s="68"/>
       <c r="V65" s="68"/>
     </row>
-    <row r="66" spans="1:22" s="168" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:22" s="168" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="159"/>
       <c r="B66" s="160"/>
       <c r="C66" s="161">
@@ -6403,7 +6457,7 @@
       <c r="U66" s="162"/>
       <c r="V66" s="162"/>
     </row>
-    <row r="67" spans="1:22" s="168" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:22" s="168" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="159"/>
       <c r="B67" s="160"/>
       <c r="C67" s="161"/>
@@ -6427,7 +6481,7 @@
       <c r="U67" s="162"/>
       <c r="V67" s="162"/>
     </row>
-    <row r="68" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="72"/>
       <c r="C68" s="37"/>
       <c r="D68" s="68"/>
@@ -6453,9 +6507,38 @@
       <c r="U68" s="68"/>
       <c r="V68" s="68"/>
     </row>
-    <row r="69" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="O5:R5"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="D53:F53"/>
     <mergeCell ref="N63:O63"/>
     <mergeCell ref="D64:F64"/>
     <mergeCell ref="N64:O64"/>
@@ -6472,38 +6555,9 @@
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="F37:J37"/>
     <mergeCell ref="D38:F38"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="D53:F53"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="Q24:S24"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="F11:J11"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="O5:R5"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="F5:I5"/>
   </mergeCells>
   <pageMargins left="0.3" right="0.28999999999999998" top="0.25" bottom="0.31" header="0.37" footer="0.31"/>
-  <pageSetup paperSize="9" scale="42" orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="44" orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="20" max="1048575" man="1"/>

--- a/Исходный_Шаблон.xlsx
+++ b/Исходный_Шаблон.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\Repository\s.panin\daily_duty\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B805523D-1B31-401D-934E-42E398D3E537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88DBFC88-2CDF-469C-8E29-0AB3DEB471D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="721" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="75">
   <si>
     <t>=</t>
   </si>
@@ -1265,25 +1265,25 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1605,7 +1605,7 @@
   <dimension ref="A1:AG87"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" defaultGridColor="0" view="pageBreakPreview" topLeftCell="A12" colorId="21" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2982,7 +2982,9 @@
       <c r="D34" s="152">
         <v>7</v>
       </c>
-      <c r="E34" s="119"/>
+      <c r="E34" s="105" t="s">
+        <v>32</v>
+      </c>
       <c r="F34" s="117"/>
       <c r="G34" s="117"/>
       <c r="H34" s="117"/>
@@ -5111,31 +5113,31 @@
       <c r="CP4" s="54"/>
     </row>
     <row r="5" spans="1:94" ht="35.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="164" t="s">
+      <c r="B5" s="172" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="164"/>
-      <c r="D5" s="164"/>
-      <c r="E5" s="164"/>
-      <c r="F5" s="164"/>
-      <c r="G5" s="164"/>
-      <c r="H5" s="164"/>
-      <c r="I5" s="169"/>
+      <c r="C5" s="172"/>
+      <c r="D5" s="172"/>
+      <c r="E5" s="172"/>
+      <c r="F5" s="172"/>
+      <c r="G5" s="172"/>
+      <c r="H5" s="172"/>
+      <c r="I5" s="174"/>
       <c r="J5" s="20">
         <v>1</v>
       </c>
-      <c r="K5" s="165" t="s">
+      <c r="K5" s="173" t="s">
         <v>70</v>
       </c>
-      <c r="L5" s="166"/>
-      <c r="M5" s="166"/>
-      <c r="N5" s="166"/>
-      <c r="O5" s="167" t="s">
+      <c r="L5" s="165"/>
+      <c r="M5" s="165"/>
+      <c r="N5" s="165"/>
+      <c r="O5" s="164" t="s">
         <v>57</v>
       </c>
-      <c r="P5" s="167"/>
-      <c r="Q5" s="167"/>
-      <c r="R5" s="167"/>
+      <c r="P5" s="164"/>
+      <c r="Q5" s="164"/>
+      <c r="R5" s="164"/>
       <c r="S5" s="17"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
@@ -5411,10 +5413,10 @@
       <c r="B8" s="19">
         <v>1</v>
       </c>
-      <c r="C8" s="168" t="s">
+      <c r="C8" s="167" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="168"/>
+      <c r="D8" s="167"/>
       <c r="E8" s="12">
         <f>SUM(G8,I8,K8)</f>
         <v>0</v>
@@ -5661,18 +5663,18 @@
       <c r="B11" s="58">
         <v>2</v>
       </c>
-      <c r="C11" s="166" t="s">
+      <c r="C11" s="165" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="166"/>
+      <c r="D11" s="165"/>
       <c r="E11" s="37"/>
-      <c r="F11" s="166" t="s">
+      <c r="F11" s="165" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="166"/>
-      <c r="H11" s="166"/>
-      <c r="I11" s="166"/>
-      <c r="J11" s="166"/>
+      <c r="G11" s="165"/>
+      <c r="H11" s="165"/>
+      <c r="I11" s="165"/>
+      <c r="J11" s="165"/>
       <c r="K11" s="54"/>
       <c r="L11" s="54"/>
       <c r="M11" s="54"/>
@@ -5808,10 +5810,10 @@
       <c r="B14" s="50">
         <v>3</v>
       </c>
-      <c r="C14" s="171" t="s">
+      <c r="C14" s="166" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="171"/>
+      <c r="D14" s="166"/>
       <c r="E14" s="12">
         <f>SUM(G14,I14,K14)</f>
         <v>0</v>
@@ -5962,18 +5964,18 @@
       <c r="B17" s="58">
         <v>4</v>
       </c>
-      <c r="C17" s="166" t="s">
+      <c r="C17" s="165" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="166"/>
+      <c r="D17" s="165"/>
       <c r="E17" s="37"/>
-      <c r="F17" s="166" t="s">
+      <c r="F17" s="165" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="166"/>
-      <c r="H17" s="166"/>
-      <c r="I17" s="166"/>
-      <c r="J17" s="166"/>
+      <c r="G17" s="165"/>
+      <c r="H17" s="165"/>
+      <c r="I17" s="165"/>
+      <c r="J17" s="165"/>
       <c r="K17" s="54"/>
       <c r="L17" s="54"/>
       <c r="M17" s="54"/>
@@ -6111,10 +6113,10 @@
       <c r="B20" s="24">
         <v>5</v>
       </c>
-      <c r="C20" s="172" t="s">
+      <c r="C20" s="169" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="172"/>
+      <c r="D20" s="169"/>
       <c r="E20" s="12">
         <f>SUM(G20,I20,K20)</f>
         <v>0</v>
@@ -6234,14 +6236,14 @@
       <c r="F22" s="57"/>
       <c r="G22" s="12"/>
       <c r="H22" s="57"/>
-      <c r="I22" s="173" t="s">
+      <c r="I22" s="170" t="s">
         <v>25</v>
       </c>
-      <c r="J22" s="173"/>
-      <c r="K22" s="174" t="s">
+      <c r="J22" s="170"/>
+      <c r="K22" s="171" t="s">
         <v>67</v>
       </c>
-      <c r="L22" s="174"/>
+      <c r="L22" s="171"/>
       <c r="M22" s="54"/>
       <c r="N22" s="54"/>
       <c r="O22" s="54"/>
@@ -6283,15 +6285,15 @@
       <c r="F23" s="54"/>
       <c r="G23" s="54"/>
       <c r="H23" s="2"/>
-      <c r="I23" s="173" t="s">
+      <c r="I23" s="170" t="s">
         <v>66</v>
       </c>
-      <c r="J23" s="173"/>
-      <c r="K23" s="173" t="s">
+      <c r="J23" s="170"/>
+      <c r="K23" s="170" t="s">
         <v>68</v>
       </c>
-      <c r="L23" s="173"/>
-      <c r="M23" s="173"/>
+      <c r="L23" s="170"/>
+      <c r="M23" s="170"/>
       <c r="N23" s="54"/>
       <c r="O23" s="54"/>
       <c r="P23" s="54"/>
@@ -6334,17 +6336,17 @@
       <c r="H24" s="54"/>
       <c r="I24" s="57"/>
       <c r="J24" s="54"/>
-      <c r="K24" s="174"/>
-      <c r="L24" s="174"/>
+      <c r="K24" s="171"/>
+      <c r="L24" s="171"/>
       <c r="M24" s="54"/>
       <c r="N24" s="54"/>
       <c r="O24" s="54"/>
       <c r="P24" s="54"/>
-      <c r="Q24" s="166" t="s">
+      <c r="Q24" s="165" t="s">
         <v>5</v>
       </c>
-      <c r="R24" s="166"/>
-      <c r="S24" s="166"/>
+      <c r="R24" s="165"/>
+      <c r="S24" s="165"/>
       <c r="T24" s="54" t="s">
         <v>2</v>
       </c>
@@ -6472,11 +6474,11 @@
       <c r="C27" s="9">
         <v>1</v>
       </c>
-      <c r="D27" s="170" t="s">
+      <c r="D27" s="168" t="s">
         <v>33</v>
       </c>
-      <c r="E27" s="170"/>
-      <c r="F27" s="170"/>
+      <c r="E27" s="168"/>
+      <c r="F27" s="168"/>
       <c r="G27" s="12">
         <v>40</v>
       </c>
@@ -6541,11 +6543,11 @@
       <c r="C28" s="9">
         <v>2</v>
       </c>
-      <c r="D28" s="168" t="s">
+      <c r="D28" s="167" t="s">
         <v>41</v>
       </c>
-      <c r="E28" s="168"/>
-      <c r="F28" s="168"/>
+      <c r="E28" s="167"/>
+      <c r="F28" s="167"/>
       <c r="G28" s="12">
         <v>40</v>
       </c>
@@ -6748,11 +6750,11 @@
       <c r="C31" s="9">
         <v>5</v>
       </c>
-      <c r="D31" s="166" t="s">
+      <c r="D31" s="165" t="s">
         <v>40</v>
       </c>
-      <c r="E31" s="166"/>
-      <c r="F31" s="166"/>
+      <c r="E31" s="165"/>
+      <c r="F31" s="165"/>
       <c r="G31" s="12">
         <v>100</v>
       </c>
@@ -6824,11 +6826,11 @@
       <c r="C32" s="9">
         <v>6</v>
       </c>
-      <c r="D32" s="166" t="s">
+      <c r="D32" s="165" t="s">
         <v>27</v>
       </c>
-      <c r="E32" s="166"/>
-      <c r="F32" s="166"/>
+      <c r="E32" s="165"/>
+      <c r="F32" s="165"/>
       <c r="G32" s="12">
         <v>2</v>
       </c>
@@ -6890,11 +6892,11 @@
       <c r="C33" s="9">
         <v>7</v>
       </c>
-      <c r="D33" s="166" t="s">
+      <c r="D33" s="165" t="s">
         <v>35</v>
       </c>
-      <c r="E33" s="166"/>
-      <c r="F33" s="166"/>
+      <c r="E33" s="165"/>
+      <c r="F33" s="165"/>
       <c r="G33" s="12"/>
       <c r="H33" s="57"/>
       <c r="I33" s="12"/>
@@ -6983,10 +6985,10 @@
       <c r="B35" s="58">
         <v>2</v>
       </c>
-      <c r="C35" s="166" t="s">
+      <c r="C35" s="165" t="s">
         <v>13</v>
       </c>
-      <c r="D35" s="166"/>
+      <c r="D35" s="165"/>
       <c r="E35" s="54"/>
       <c r="F35" s="54"/>
       <c r="G35" s="54"/>
@@ -7077,18 +7079,18 @@
       <c r="B37" s="50">
         <v>3</v>
       </c>
-      <c r="C37" s="171" t="s">
+      <c r="C37" s="166" t="s">
         <v>12</v>
       </c>
-      <c r="D37" s="171"/>
+      <c r="D37" s="166"/>
       <c r="E37" s="54"/>
-      <c r="F37" s="166" t="s">
+      <c r="F37" s="165" t="s">
         <v>7</v>
       </c>
-      <c r="G37" s="166"/>
-      <c r="H37" s="166"/>
-      <c r="I37" s="166"/>
-      <c r="J37" s="166"/>
+      <c r="G37" s="165"/>
+      <c r="H37" s="165"/>
+      <c r="I37" s="165"/>
+      <c r="J37" s="165"/>
       <c r="K37" s="54"/>
       <c r="L37" s="54"/>
       <c r="M37" s="54"/>
@@ -7129,11 +7131,11 @@
       <c r="C38" s="9">
         <v>1</v>
       </c>
-      <c r="D38" s="166" t="s">
+      <c r="D38" s="165" t="s">
         <v>15</v>
       </c>
-      <c r="E38" s="166"/>
-      <c r="F38" s="166"/>
+      <c r="E38" s="165"/>
+      <c r="F38" s="165"/>
       <c r="G38" s="12">
         <v>50</v>
       </c>
@@ -7352,11 +7354,11 @@
       <c r="C42" s="9">
         <v>5</v>
       </c>
-      <c r="D42" s="166" t="s">
+      <c r="D42" s="165" t="s">
         <v>21</v>
       </c>
-      <c r="E42" s="166"/>
-      <c r="F42" s="166"/>
+      <c r="E42" s="165"/>
+      <c r="F42" s="165"/>
       <c r="G42" s="12">
         <v>2</v>
       </c>
@@ -7399,11 +7401,11 @@
       <c r="C43" s="9">
         <v>6</v>
       </c>
-      <c r="D43" s="166" t="s">
+      <c r="D43" s="165" t="s">
         <v>8</v>
       </c>
-      <c r="E43" s="166"/>
-      <c r="F43" s="166"/>
+      <c r="E43" s="165"/>
+      <c r="F43" s="165"/>
       <c r="G43" s="14">
         <v>0.25</v>
       </c>
@@ -7448,11 +7450,11 @@
       <c r="C44" s="9">
         <v>7</v>
       </c>
-      <c r="D44" s="166" t="s">
+      <c r="D44" s="165" t="s">
         <v>35</v>
       </c>
-      <c r="E44" s="166"/>
-      <c r="F44" s="166"/>
+      <c r="E44" s="165"/>
+      <c r="F44" s="165"/>
       <c r="G44" s="54"/>
       <c r="H44" s="54"/>
       <c r="I44" s="54"/>
@@ -7497,10 +7499,10 @@
       <c r="B46" s="58">
         <v>4</v>
       </c>
-      <c r="C46" s="166" t="s">
+      <c r="C46" s="165" t="s">
         <v>13</v>
       </c>
-      <c r="D46" s="166"/>
+      <c r="D46" s="165"/>
       <c r="E46" s="54"/>
       <c r="F46" s="54"/>
       <c r="G46" s="54"/>
@@ -7547,10 +7549,10 @@
       <c r="B48" s="19">
         <v>5</v>
       </c>
-      <c r="C48" s="168" t="s">
+      <c r="C48" s="167" t="s">
         <v>48</v>
       </c>
-      <c r="D48" s="168"/>
+      <c r="D48" s="167"/>
       <c r="E48" s="54"/>
       <c r="F48" s="54"/>
       <c r="G48" s="54"/>
@@ -7575,11 +7577,11 @@
       <c r="C49" s="9">
         <v>1</v>
       </c>
-      <c r="D49" s="170" t="s">
+      <c r="D49" s="168" t="s">
         <v>17</v>
       </c>
-      <c r="E49" s="170"/>
-      <c r="F49" s="170"/>
+      <c r="E49" s="168"/>
+      <c r="F49" s="168"/>
       <c r="G49" s="12">
         <v>90</v>
       </c>
@@ -7622,11 +7624,11 @@
       <c r="C50" s="9">
         <v>2</v>
       </c>
-      <c r="D50" s="168" t="s">
+      <c r="D50" s="167" t="s">
         <v>38</v>
       </c>
-      <c r="E50" s="168"/>
-      <c r="F50" s="168"/>
+      <c r="E50" s="167"/>
+      <c r="F50" s="167"/>
       <c r="G50" s="12">
         <v>80</v>
       </c>
@@ -7716,11 +7718,11 @@
       <c r="C52" s="9">
         <v>4</v>
       </c>
-      <c r="D52" s="166" t="s">
+      <c r="D52" s="165" t="s">
         <v>19</v>
       </c>
-      <c r="E52" s="166"/>
-      <c r="F52" s="166"/>
+      <c r="E52" s="165"/>
+      <c r="F52" s="165"/>
       <c r="G52" s="12">
         <v>25</v>
       </c>
@@ -7763,11 +7765,11 @@
       <c r="C53" s="9">
         <v>5</v>
       </c>
-      <c r="D53" s="166" t="s">
+      <c r="D53" s="165" t="s">
         <v>4</v>
       </c>
-      <c r="E53" s="166"/>
-      <c r="F53" s="166"/>
+      <c r="E53" s="165"/>
+      <c r="F53" s="165"/>
       <c r="G53" s="12">
         <v>25</v>
       </c>
@@ -7810,11 +7812,11 @@
       <c r="C54" s="9">
         <v>6</v>
       </c>
-      <c r="D54" s="166" t="s">
+      <c r="D54" s="165" t="s">
         <v>34</v>
       </c>
-      <c r="E54" s="166"/>
-      <c r="F54" s="166"/>
+      <c r="E54" s="165"/>
+      <c r="F54" s="165"/>
       <c r="G54" s="12">
         <v>40</v>
       </c>
@@ -7857,11 +7859,11 @@
       <c r="C55" s="9">
         <v>7</v>
       </c>
-      <c r="D55" s="166" t="s">
+      <c r="D55" s="165" t="s">
         <v>27</v>
       </c>
-      <c r="E55" s="166"/>
-      <c r="F55" s="166"/>
+      <c r="E55" s="165"/>
+      <c r="F55" s="165"/>
       <c r="G55" s="12">
         <v>2</v>
       </c>
@@ -7904,11 +7906,11 @@
       <c r="C56" s="9">
         <v>8</v>
       </c>
-      <c r="D56" s="166" t="s">
+      <c r="D56" s="165" t="s">
         <v>35</v>
       </c>
-      <c r="E56" s="166"/>
-      <c r="F56" s="166"/>
+      <c r="E56" s="165"/>
+      <c r="F56" s="165"/>
       <c r="G56" s="54"/>
       <c r="H56" s="54"/>
       <c r="I56" s="54"/>
@@ -7974,17 +7976,17 @@
     </row>
     <row r="59" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="58"/>
-      <c r="C59" s="166" t="s">
+      <c r="C59" s="165" t="s">
         <v>1</v>
       </c>
-      <c r="D59" s="166"/>
-      <c r="E59" s="166"/>
-      <c r="F59" s="166"/>
-      <c r="G59" s="166"/>
-      <c r="H59" s="166"/>
-      <c r="I59" s="166"/>
-      <c r="J59" s="166"/>
-      <c r="K59" s="166"/>
+      <c r="D59" s="165"/>
+      <c r="E59" s="165"/>
+      <c r="F59" s="165"/>
+      <c r="G59" s="165"/>
+      <c r="H59" s="165"/>
+      <c r="I59" s="165"/>
+      <c r="J59" s="165"/>
+      <c r="K59" s="165"/>
       <c r="L59" s="54"/>
       <c r="M59" s="54"/>
       <c r="N59" s="54"/>
@@ -8025,11 +8027,11 @@
       <c r="C61" s="9">
         <v>1</v>
       </c>
-      <c r="D61" s="166" t="s">
+      <c r="D61" s="165" t="s">
         <v>37</v>
       </c>
-      <c r="E61" s="166"/>
-      <c r="F61" s="166"/>
+      <c r="E61" s="165"/>
+      <c r="F61" s="165"/>
       <c r="G61" s="12">
         <v>25</v>
       </c>
@@ -8096,11 +8098,11 @@
       <c r="C63" s="9">
         <v>3</v>
       </c>
-      <c r="D63" s="166" t="s">
+      <c r="D63" s="165" t="s">
         <v>35</v>
       </c>
-      <c r="E63" s="166"/>
-      <c r="F63" s="166"/>
+      <c r="E63" s="165"/>
+      <c r="F63" s="165"/>
       <c r="G63" s="27">
         <v>0.16</v>
       </c>
@@ -8124,8 +8126,8 @@
         <f>PRODUCT(G63,I63,K63)</f>
         <v>0.16</v>
       </c>
-      <c r="N63" s="167"/>
-      <c r="O63" s="167"/>
+      <c r="N63" s="164"/>
+      <c r="O63" s="164"/>
       <c r="P63" s="54"/>
       <c r="Q63" s="12">
         <f>M63</f>
@@ -8144,11 +8146,11 @@
       <c r="C64" s="32">
         <v>4</v>
       </c>
-      <c r="D64" s="166" t="s">
+      <c r="D64" s="165" t="s">
         <v>14</v>
       </c>
-      <c r="E64" s="166"/>
-      <c r="F64" s="166"/>
+      <c r="E64" s="165"/>
+      <c r="F64" s="165"/>
       <c r="G64" s="54"/>
       <c r="H64" s="54"/>
       <c r="I64" s="54"/>
@@ -8156,8 +8158,8 @@
       <c r="K64" s="54"/>
       <c r="L64" s="54"/>
       <c r="M64" s="54"/>
-      <c r="N64" s="167"/>
-      <c r="O64" s="167"/>
+      <c r="N64" s="164"/>
+      <c r="O64" s="164"/>
       <c r="P64" s="54"/>
       <c r="Q64" s="12">
         <v>1</v>
@@ -8175,11 +8177,11 @@
       <c r="C65" s="9">
         <v>5</v>
       </c>
-      <c r="D65" s="166" t="s">
+      <c r="D65" s="165" t="s">
         <v>3</v>
       </c>
-      <c r="E65" s="166"/>
-      <c r="F65" s="166"/>
+      <c r="E65" s="165"/>
+      <c r="F65" s="165"/>
       <c r="G65" s="54"/>
       <c r="H65" s="54"/>
       <c r="I65" s="54"/>
@@ -8299,6 +8301,35 @@
     <row r="69" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="O5:R5"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="D53:F53"/>
     <mergeCell ref="N63:O63"/>
     <mergeCell ref="D64:F64"/>
     <mergeCell ref="N64:O64"/>
@@ -8315,35 +8346,6 @@
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="F37:J37"/>
     <mergeCell ref="D38:F38"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="D53:F53"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="Q24:S24"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="F11:J11"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="O5:R5"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="F5:I5"/>
   </mergeCells>
   <pageMargins left="0.3" right="0.28999999999999998" top="0.25" bottom="0.31" header="0.37" footer="0.31"/>
   <pageSetup paperSize="9" scale="44" orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>

--- a/Исходный_Шаблон.xlsx
+++ b/Исходный_Шаблон.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\Repository\s.panin\daily_duty\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88DBFC88-2CDF-469C-8E29-0AB3DEB471D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE8BC04-D70D-4958-A746-A068BA646735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="721" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="721" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="График" sheetId="12" r:id="rId1"/>
@@ -284,7 +284,7 @@
     <t>График дежурств отъезд 23 мая 2025г</t>
   </si>
   <si>
-    <t>Володя Н</t>
+    <t>Без супа</t>
   </si>
 </sst>
 </file>
@@ -389,7 +389,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -458,31 +458,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7030A0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -831,7 +807,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="175">
+  <cellXfs count="173">
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -1041,9 +1017,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1103,15 +1076,6 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1150,9 +1114,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1160,9 +1121,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1216,9 +1174,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1249,6 +1204,24 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1259,9 +1232,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1604,8 +1574,8 @@
   </sheetPr>
   <dimension ref="A1:AG87"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="0" defaultGridColor="0" view="pageBreakPreview" topLeftCell="A12" colorId="21" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" showOutlineSymbols="0" defaultGridColor="0" view="pageBreakPreview" topLeftCell="A39" colorId="21" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="J50" sqref="J50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1625,18 +1595,18 @@
       <c r="B2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="154">
+      <c r="C2" s="147">
         <v>2</v>
       </c>
-      <c r="D2" s="159" t="s">
+      <c r="D2" s="158" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
-      <c r="J2" s="160"/>
+      <c r="E2" s="159"/>
+      <c r="F2" s="159"/>
+      <c r="G2" s="159"/>
+      <c r="H2" s="159"/>
+      <c r="I2" s="159"/>
+      <c r="J2" s="159"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="52"/>
@@ -1647,9 +1617,9 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="161"/>
-      <c r="G3" s="161"/>
-      <c r="H3" s="161"/>
+      <c r="F3" s="160"/>
+      <c r="G3" s="160"/>
+      <c r="H3" s="160"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -1658,10 +1628,10 @@
       <c r="N3" s="52"/>
     </row>
     <row r="4" spans="1:33" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="157" t="s">
+      <c r="B4" s="150" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="157" t="s">
+      <c r="C4" s="150" t="s">
         <v>25</v>
       </c>
       <c r="D4" s="53" t="s">
@@ -1678,13 +1648,13 @@
       <c r="N4" s="52"/>
     </row>
     <row r="5" spans="1:33" ht="56.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="158" t="s">
+      <c r="B5" s="151" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="158" t="s">
+      <c r="C5" s="151" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="153" t="s">
+      <c r="D5" s="146" t="s">
         <v>65</v>
       </c>
       <c r="E5" s="49"/>
@@ -1762,13 +1732,13 @@
       </c>
     </row>
     <row r="6" spans="1:33" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="157">
+      <c r="B6" s="150">
         <f>COUNT(D8:D111)</f>
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C6" s="67">
         <f>B6/D6</f>
-        <v>9.5714285714285712</v>
+        <v>9.4285714285714288</v>
       </c>
       <c r="D6" s="10">
         <v>7</v>
@@ -1864,7 +1834,7 @@
       <c r="N7" s="69"/>
     </row>
     <row r="8" spans="1:33" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="155"/>
+      <c r="A8" s="148"/>
       <c r="B8" s="61" t="str">
         <f>F5</f>
         <v>пятница</v>
@@ -1873,9 +1843,9 @@
         <v>23</v>
       </c>
       <c r="D8" s="74"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="100"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="99"/>
       <c r="H8" s="75"/>
       <c r="I8" s="76"/>
       <c r="J8" s="76"/>
@@ -1903,7 +1873,7 @@
       <c r="AG8" s="69"/>
     </row>
     <row r="9" spans="1:33" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="156"/>
+      <c r="A9" s="149"/>
       <c r="B9" s="62">
         <f>F6</f>
         <v>23</v>
@@ -1912,9 +1882,9 @@
         <v>47</v>
       </c>
       <c r="D9" s="74"/>
-      <c r="E9" s="94"/>
-      <c r="F9" s="102"/>
-      <c r="G9" s="89"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="101"/>
+      <c r="G9" s="88"/>
       <c r="H9" s="81"/>
       <c r="I9" s="81"/>
       <c r="J9" s="79"/>
@@ -1941,42 +1911,42 @@
       <c r="AE9" s="26"/>
     </row>
     <row r="10" spans="1:33" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="156"/>
+      <c r="A10" s="149"/>
       <c r="B10" s="63"/>
-      <c r="C10" s="113" t="s">
+      <c r="C10" s="109" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="129"/>
-      <c r="E10" s="123"/>
-      <c r="F10" s="86"/>
-      <c r="G10" s="114"/>
-      <c r="H10" s="115"/>
-      <c r="I10" s="116"/>
-      <c r="J10" s="117"/>
-      <c r="K10" s="117"/>
-      <c r="L10" s="117"/>
-      <c r="M10" s="118"/>
-      <c r="N10" s="118"/>
-      <c r="O10" s="118"/>
-      <c r="P10" s="118"/>
-      <c r="Q10" s="118"/>
-      <c r="R10" s="118"/>
-      <c r="S10" s="118"/>
-      <c r="T10" s="118"/>
-      <c r="U10" s="118"/>
-      <c r="V10" s="118"/>
-      <c r="W10" s="118"/>
-      <c r="X10" s="118"/>
-      <c r="Y10" s="118"/>
-      <c r="Z10" s="118"/>
-      <c r="AA10" s="118"/>
-      <c r="AB10" s="118"/>
-      <c r="AC10" s="118"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="118"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="110"/>
+      <c r="H10" s="111"/>
+      <c r="I10" s="112"/>
+      <c r="J10" s="113"/>
+      <c r="K10" s="113"/>
+      <c r="L10" s="113"/>
+      <c r="M10" s="114"/>
+      <c r="N10" s="114"/>
+      <c r="O10" s="114"/>
+      <c r="P10" s="114"/>
+      <c r="Q10" s="114"/>
+      <c r="R10" s="114"/>
+      <c r="S10" s="114"/>
+      <c r="T10" s="114"/>
+      <c r="U10" s="114"/>
+      <c r="V10" s="114"/>
+      <c r="W10" s="114"/>
+      <c r="X10" s="114"/>
+      <c r="Y10" s="114"/>
+      <c r="Z10" s="114"/>
+      <c r="AA10" s="114"/>
+      <c r="AB10" s="114"/>
+      <c r="AC10" s="114"/>
       <c r="AD10" s="26"/>
       <c r="AE10" s="26"/>
     </row>
     <row r="11" spans="1:33" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="162">
+      <c r="A11" s="161">
         <v>7</v>
       </c>
       <c r="B11" s="62" t="str">
@@ -1986,23 +1956,23 @@
       <c r="C11" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="150">
+      <c r="D11" s="143">
         <v>7</v>
       </c>
-      <c r="E11" s="107" t="s">
+      <c r="E11" s="152" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="90"/>
-      <c r="G11" s="108" t="s">
+      <c r="F11" s="89"/>
+      <c r="G11" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="109"/>
-      <c r="I11" s="110"/>
-      <c r="J11" s="111"/>
-      <c r="K11" s="111"/>
-      <c r="L11" s="111"/>
-      <c r="M11" s="112"/>
-      <c r="N11" s="112"/>
+      <c r="H11" s="105"/>
+      <c r="I11" s="106"/>
+      <c r="J11" s="107"/>
+      <c r="K11" s="107"/>
+      <c r="L11" s="107"/>
+      <c r="M11" s="108"/>
+      <c r="N11" s="108"/>
       <c r="O11" s="78"/>
       <c r="P11" s="78"/>
       <c r="Q11" s="78"/>
@@ -2022,7 +1992,7 @@
       <c r="AE11" s="26"/>
     </row>
     <row r="12" spans="1:33" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="162"/>
+      <c r="A12" s="161"/>
       <c r="B12" s="62">
         <f>G6</f>
         <v>24</v>
@@ -2030,17 +2000,17 @@
       <c r="C12" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="151">
+      <c r="D12" s="144">
         <v>7</v>
       </c>
-      <c r="E12" s="82" t="s">
-        <v>58</v>
-      </c>
-      <c r="F12" s="83"/>
-      <c r="G12" s="85" t="s">
+      <c r="E12" s="80" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="82"/>
+      <c r="G12" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="84"/>
+      <c r="H12" s="83"/>
       <c r="I12" s="81"/>
       <c r="J12" s="79"/>
       <c r="K12" s="79"/>
@@ -2066,48 +2036,48 @@
       <c r="AE12" s="26"/>
     </row>
     <row r="13" spans="1:33" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="162"/>
+      <c r="A13" s="161"/>
       <c r="B13" s="63"/>
       <c r="C13" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="151">
+      <c r="D13" s="144">
         <v>7</v>
       </c>
-      <c r="E13" s="122" t="s">
+      <c r="E13" s="153" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="123"/>
-      <c r="G13" s="86" t="s">
+      <c r="F13" s="118"/>
+      <c r="G13" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="124"/>
-      <c r="I13" s="116"/>
-      <c r="J13" s="117"/>
-      <c r="K13" s="117"/>
-      <c r="L13" s="117"/>
-      <c r="M13" s="118"/>
-      <c r="N13" s="118"/>
-      <c r="O13" s="118"/>
-      <c r="P13" s="118"/>
-      <c r="Q13" s="118"/>
-      <c r="R13" s="118"/>
-      <c r="S13" s="118"/>
-      <c r="T13" s="118"/>
-      <c r="U13" s="118"/>
-      <c r="V13" s="118"/>
-      <c r="W13" s="118"/>
-      <c r="X13" s="118"/>
-      <c r="Y13" s="118"/>
-      <c r="Z13" s="118"/>
-      <c r="AA13" s="118"/>
-      <c r="AB13" s="118"/>
-      <c r="AC13" s="118"/>
+      <c r="H13" s="119"/>
+      <c r="I13" s="112"/>
+      <c r="J13" s="113"/>
+      <c r="K13" s="113"/>
+      <c r="L13" s="113"/>
+      <c r="M13" s="114"/>
+      <c r="N13" s="114"/>
+      <c r="O13" s="114"/>
+      <c r="P13" s="114"/>
+      <c r="Q13" s="114"/>
+      <c r="R13" s="114"/>
+      <c r="S13" s="114"/>
+      <c r="T13" s="114"/>
+      <c r="U13" s="114"/>
+      <c r="V13" s="114"/>
+      <c r="W13" s="114"/>
+      <c r="X13" s="114"/>
+      <c r="Y13" s="114"/>
+      <c r="Z13" s="114"/>
+      <c r="AA13" s="114"/>
+      <c r="AB13" s="114"/>
+      <c r="AC13" s="114"/>
       <c r="AD13" s="26"/>
       <c r="AE13" s="26"/>
     </row>
     <row r="14" spans="1:33" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="162"/>
+      <c r="A14" s="161"/>
       <c r="B14" s="62" t="str">
         <f>H5</f>
         <v>воскресенье</v>
@@ -2115,23 +2085,23 @@
       <c r="C14" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="151">
+      <c r="D14" s="144">
         <v>7</v>
       </c>
-      <c r="E14" s="119" t="s">
+      <c r="E14" s="154" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="110"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="108" t="s">
+      <c r="F14" s="106"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="104" t="s">
         <v>62</v>
       </c>
-      <c r="I14" s="120"/>
-      <c r="J14" s="121"/>
-      <c r="K14" s="121"/>
-      <c r="L14" s="111"/>
-      <c r="M14" s="112"/>
-      <c r="N14" s="112"/>
+      <c r="I14" s="116"/>
+      <c r="J14" s="117"/>
+      <c r="K14" s="117"/>
+      <c r="L14" s="107"/>
+      <c r="M14" s="108"/>
+      <c r="N14" s="108"/>
       <c r="O14" s="78"/>
       <c r="P14" s="78"/>
       <c r="Q14" s="78"/>
@@ -2151,7 +2121,7 @@
       <c r="AE14" s="26"/>
     </row>
     <row r="15" spans="1:33" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="162"/>
+      <c r="A15" s="161"/>
       <c r="B15" s="62">
         <f>H6</f>
         <v>25</v>
@@ -2159,18 +2129,18 @@
       <c r="C15" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="151">
+      <c r="D15" s="144">
         <v>7</v>
       </c>
-      <c r="E15" s="105" t="s">
-        <v>32</v>
+      <c r="E15" s="80" t="s">
+        <v>74</v>
       </c>
       <c r="F15" s="81"/>
-      <c r="G15" s="88"/>
-      <c r="H15" s="85" t="s">
+      <c r="G15" s="87"/>
+      <c r="H15" s="84" t="s">
         <v>62</v>
       </c>
-      <c r="I15" s="89"/>
+      <c r="I15" s="88"/>
       <c r="J15" s="76"/>
       <c r="K15" s="77"/>
       <c r="L15" s="79"/>
@@ -2195,48 +2165,48 @@
       <c r="AE15" s="26"/>
     </row>
     <row r="16" spans="1:33" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="162"/>
+      <c r="A16" s="161"/>
       <c r="B16" s="63"/>
       <c r="C16" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="151">
+      <c r="D16" s="144">
         <v>7</v>
       </c>
-      <c r="E16" s="126" t="s">
+      <c r="E16" s="155" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="116"/>
-      <c r="G16" s="127"/>
-      <c r="H16" s="86" t="s">
+      <c r="F16" s="112"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="I16" s="128"/>
-      <c r="J16" s="129"/>
-      <c r="K16" s="118"/>
-      <c r="L16" s="117"/>
-      <c r="M16" s="118"/>
-      <c r="N16" s="118"/>
-      <c r="O16" s="118"/>
-      <c r="P16" s="118"/>
-      <c r="Q16" s="118"/>
-      <c r="R16" s="118"/>
-      <c r="S16" s="118"/>
-      <c r="T16" s="118"/>
-      <c r="U16" s="118"/>
-      <c r="V16" s="118"/>
-      <c r="W16" s="118"/>
-      <c r="X16" s="118"/>
-      <c r="Y16" s="118"/>
-      <c r="Z16" s="118"/>
-      <c r="AA16" s="118"/>
-      <c r="AB16" s="118"/>
-      <c r="AC16" s="118"/>
+      <c r="I16" s="122"/>
+      <c r="J16" s="123"/>
+      <c r="K16" s="114"/>
+      <c r="L16" s="113"/>
+      <c r="M16" s="114"/>
+      <c r="N16" s="114"/>
+      <c r="O16" s="114"/>
+      <c r="P16" s="114"/>
+      <c r="Q16" s="114"/>
+      <c r="R16" s="114"/>
+      <c r="S16" s="114"/>
+      <c r="T16" s="114"/>
+      <c r="U16" s="114"/>
+      <c r="V16" s="114"/>
+      <c r="W16" s="114"/>
+      <c r="X16" s="114"/>
+      <c r="Y16" s="114"/>
+      <c r="Z16" s="114"/>
+      <c r="AA16" s="114"/>
+      <c r="AB16" s="114"/>
+      <c r="AC16" s="114"/>
       <c r="AD16" s="68"/>
       <c r="AE16" s="26"/>
     </row>
     <row r="17" spans="1:33" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="162"/>
+      <c r="A17" s="161"/>
       <c r="B17" s="62" t="str">
         <f>I5</f>
         <v>понедельник</v>
@@ -2244,23 +2214,23 @@
       <c r="C17" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="151">
+      <c r="D17" s="144">
         <v>7</v>
       </c>
-      <c r="E17" s="148" t="s">
-        <v>53</v>
-      </c>
-      <c r="F17" s="110"/>
-      <c r="G17" s="110"/>
-      <c r="H17" s="90"/>
-      <c r="I17" s="108" t="s">
-        <v>50</v>
-      </c>
-      <c r="J17" s="125"/>
-      <c r="K17" s="112"/>
-      <c r="L17" s="111"/>
-      <c r="M17" s="112"/>
-      <c r="N17" s="112"/>
+      <c r="E17" s="152" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="106"/>
+      <c r="G17" s="106"/>
+      <c r="H17" s="89"/>
+      <c r="I17" s="104" t="s">
+        <v>49</v>
+      </c>
+      <c r="J17" s="120"/>
+      <c r="K17" s="108"/>
+      <c r="L17" s="107"/>
+      <c r="M17" s="108"/>
+      <c r="N17" s="108"/>
       <c r="O17" s="78"/>
       <c r="P17" s="78"/>
       <c r="Q17" s="78"/>
@@ -2280,7 +2250,7 @@
       <c r="AE17" s="26"/>
     </row>
     <row r="18" spans="1:33" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="162"/>
+      <c r="A18" s="161"/>
       <c r="B18" s="62">
         <f>I6</f>
         <v>26</v>
@@ -2288,19 +2258,19 @@
       <c r="C18" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="151">
+      <c r="D18" s="144">
         <v>7</v>
       </c>
-      <c r="E18" s="106" t="s">
-        <v>56</v>
+      <c r="E18" s="80" t="s">
+        <v>74</v>
       </c>
       <c r="F18" s="79"/>
       <c r="G18" s="79"/>
-      <c r="H18" s="91"/>
-      <c r="I18" s="85" t="s">
-        <v>50</v>
-      </c>
-      <c r="J18" s="92"/>
+      <c r="H18" s="90"/>
+      <c r="I18" s="84" t="s">
+        <v>49</v>
+      </c>
+      <c r="J18" s="91"/>
       <c r="K18" s="76"/>
       <c r="L18" s="79"/>
       <c r="M18" s="77"/>
@@ -2324,48 +2294,48 @@
       <c r="AE18" s="26"/>
     </row>
     <row r="19" spans="1:33" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="162"/>
+      <c r="A19" s="161"/>
       <c r="B19" s="63"/>
       <c r="C19" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="151">
+      <c r="D19" s="144">
         <v>7</v>
       </c>
-      <c r="E19" s="122" t="s">
+      <c r="E19" s="153" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="116"/>
-      <c r="G19" s="116"/>
-      <c r="H19" s="123"/>
-      <c r="I19" s="86" t="s">
-        <v>50</v>
-      </c>
-      <c r="J19" s="128"/>
-      <c r="K19" s="129"/>
-      <c r="L19" s="117"/>
-      <c r="M19" s="118"/>
-      <c r="N19" s="118"/>
-      <c r="O19" s="118"/>
-      <c r="P19" s="118"/>
-      <c r="Q19" s="118"/>
-      <c r="R19" s="118"/>
-      <c r="S19" s="118"/>
-      <c r="T19" s="118"/>
-      <c r="U19" s="118"/>
-      <c r="V19" s="118"/>
-      <c r="W19" s="118"/>
-      <c r="X19" s="118"/>
-      <c r="Y19" s="118"/>
-      <c r="Z19" s="118"/>
-      <c r="AA19" s="118"/>
-      <c r="AB19" s="118"/>
-      <c r="AC19" s="118"/>
+      <c r="F19" s="112"/>
+      <c r="G19" s="112"/>
+      <c r="H19" s="118"/>
+      <c r="I19" s="85" t="s">
+        <v>49</v>
+      </c>
+      <c r="J19" s="122"/>
+      <c r="K19" s="123"/>
+      <c r="L19" s="113"/>
+      <c r="M19" s="114"/>
+      <c r="N19" s="114"/>
+      <c r="O19" s="114"/>
+      <c r="P19" s="114"/>
+      <c r="Q19" s="114"/>
+      <c r="R19" s="114"/>
+      <c r="S19" s="114"/>
+      <c r="T19" s="114"/>
+      <c r="U19" s="114"/>
+      <c r="V19" s="114"/>
+      <c r="W19" s="114"/>
+      <c r="X19" s="114"/>
+      <c r="Y19" s="114"/>
+      <c r="Z19" s="114"/>
+      <c r="AA19" s="114"/>
+      <c r="AB19" s="114"/>
+      <c r="AC19" s="114"/>
       <c r="AD19" s="68"/>
       <c r="AE19" s="26"/>
     </row>
     <row r="20" spans="1:33" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="162"/>
+      <c r="A20" s="161"/>
       <c r="B20" s="62" t="str">
         <f>J5</f>
         <v>вторник</v>
@@ -2373,23 +2343,23 @@
       <c r="C20" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="151">
+      <c r="D20" s="144">
         <v>7</v>
       </c>
-      <c r="E20" s="107" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20" s="110"/>
-      <c r="G20" s="110"/>
-      <c r="H20" s="130"/>
-      <c r="I20" s="90"/>
-      <c r="J20" s="108" t="s">
-        <v>49</v>
-      </c>
-      <c r="K20" s="125"/>
-      <c r="L20" s="111"/>
-      <c r="M20" s="112"/>
-      <c r="N20" s="112"/>
+      <c r="E20" s="154" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="106"/>
+      <c r="G20" s="106"/>
+      <c r="H20" s="124"/>
+      <c r="I20" s="89"/>
+      <c r="J20" s="104" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" s="120"/>
+      <c r="L20" s="107"/>
+      <c r="M20" s="108"/>
+      <c r="N20" s="108"/>
       <c r="O20" s="78"/>
       <c r="P20" s="78"/>
       <c r="Q20" s="78"/>
@@ -2409,7 +2379,7 @@
       <c r="AE20" s="26"/>
     </row>
     <row r="21" spans="1:33" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="162"/>
+      <c r="A21" s="161"/>
       <c r="B21" s="62">
         <f>J6</f>
         <v>27</v>
@@ -2417,20 +2387,20 @@
       <c r="C21" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="151">
+      <c r="D21" s="144">
         <v>7</v>
       </c>
-      <c r="E21" s="82" t="s">
-        <v>58</v>
+      <c r="E21" s="80" t="s">
+        <v>74</v>
       </c>
       <c r="F21" s="81"/>
       <c r="G21" s="81"/>
       <c r="H21" s="80"/>
-      <c r="I21" s="83"/>
-      <c r="J21" s="85" t="s">
-        <v>49</v>
-      </c>
-      <c r="K21" s="92"/>
+      <c r="I21" s="82"/>
+      <c r="J21" s="84" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21" s="91"/>
       <c r="L21" s="79"/>
       <c r="M21" s="77"/>
       <c r="N21" s="77"/>
@@ -2453,48 +2423,48 @@
       <c r="AE21" s="26"/>
     </row>
     <row r="22" spans="1:33" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="162"/>
+      <c r="A22" s="161"/>
       <c r="B22" s="63"/>
       <c r="C22" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="151">
+      <c r="D22" s="144">
         <v>7</v>
       </c>
-      <c r="E22" s="126" t="s">
+      <c r="E22" s="155" t="s">
         <v>38</v>
       </c>
-      <c r="F22" s="116"/>
-      <c r="G22" s="116"/>
-      <c r="H22" s="132"/>
-      <c r="I22" s="123"/>
-      <c r="J22" s="86" t="s">
-        <v>49</v>
-      </c>
-      <c r="K22" s="133"/>
-      <c r="L22" s="117"/>
-      <c r="M22" s="118"/>
-      <c r="N22" s="118"/>
-      <c r="O22" s="118"/>
-      <c r="P22" s="118"/>
-      <c r="Q22" s="118"/>
-      <c r="R22" s="118"/>
-      <c r="S22" s="118"/>
-      <c r="T22" s="118"/>
-      <c r="U22" s="118"/>
-      <c r="V22" s="118"/>
-      <c r="W22" s="118"/>
-      <c r="X22" s="118"/>
-      <c r="Y22" s="118"/>
-      <c r="Z22" s="118"/>
-      <c r="AA22" s="118"/>
-      <c r="AB22" s="118"/>
-      <c r="AC22" s="118"/>
+      <c r="F22" s="112"/>
+      <c r="G22" s="112"/>
+      <c r="H22" s="126"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="K22" s="127"/>
+      <c r="L22" s="113"/>
+      <c r="M22" s="114"/>
+      <c r="N22" s="114"/>
+      <c r="O22" s="114"/>
+      <c r="P22" s="114"/>
+      <c r="Q22" s="114"/>
+      <c r="R22" s="114"/>
+      <c r="S22" s="114"/>
+      <c r="T22" s="114"/>
+      <c r="U22" s="114"/>
+      <c r="V22" s="114"/>
+      <c r="W22" s="114"/>
+      <c r="X22" s="114"/>
+      <c r="Y22" s="114"/>
+      <c r="Z22" s="114"/>
+      <c r="AA22" s="114"/>
+      <c r="AB22" s="114"/>
+      <c r="AC22" s="114"/>
       <c r="AD22" s="68"/>
       <c r="AE22" s="26"/>
     </row>
     <row r="23" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="162"/>
+      <c r="A23" s="161"/>
       <c r="B23" s="62" t="str">
         <f>K5</f>
         <v>среда</v>
@@ -2502,23 +2472,23 @@
       <c r="C23" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="151">
+      <c r="D23" s="144">
         <v>7</v>
       </c>
-      <c r="E23" s="119" t="s">
-        <v>41</v>
-      </c>
-      <c r="F23" s="111"/>
-      <c r="G23" s="111"/>
-      <c r="H23" s="111"/>
-      <c r="I23" s="111"/>
-      <c r="J23" s="93"/>
-      <c r="K23" s="108" t="s">
-        <v>51</v>
-      </c>
-      <c r="L23" s="131"/>
-      <c r="M23" s="112"/>
-      <c r="N23" s="112"/>
+      <c r="E23" s="152" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" s="107"/>
+      <c r="G23" s="107"/>
+      <c r="H23" s="107"/>
+      <c r="I23" s="107"/>
+      <c r="J23" s="92"/>
+      <c r="K23" s="104" t="s">
+        <v>50</v>
+      </c>
+      <c r="L23" s="125"/>
+      <c r="M23" s="108"/>
+      <c r="N23" s="108"/>
       <c r="O23" s="78"/>
       <c r="P23" s="78"/>
       <c r="Q23" s="78"/>
@@ -2538,7 +2508,7 @@
       <c r="AE23" s="26"/>
     </row>
     <row r="24" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="162"/>
+      <c r="A24" s="161"/>
       <c r="B24" s="62">
         <f>K6</f>
         <v>28</v>
@@ -2546,21 +2516,21 @@
       <c r="C24" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="D24" s="151">
+      <c r="D24" s="144">
         <v>7</v>
       </c>
-      <c r="E24" s="105" t="s">
-        <v>32</v>
+      <c r="E24" s="80" t="s">
+        <v>74</v>
       </c>
       <c r="F24" s="79"/>
       <c r="G24" s="79"/>
       <c r="H24" s="79"/>
       <c r="I24" s="79"/>
-      <c r="J24" s="94"/>
-      <c r="K24" s="85" t="s">
-        <v>51</v>
-      </c>
-      <c r="L24" s="95"/>
+      <c r="J24" s="93"/>
+      <c r="K24" s="84" t="s">
+        <v>50</v>
+      </c>
+      <c r="L24" s="94"/>
       <c r="M24" s="77"/>
       <c r="N24" s="77"/>
       <c r="O24" s="78"/>
@@ -2582,48 +2552,48 @@
       <c r="AE24" s="26"/>
     </row>
     <row r="25" spans="1:33" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="162"/>
+      <c r="A25" s="161"/>
       <c r="B25" s="63"/>
       <c r="C25" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="129">
+      <c r="D25" s="123">
         <v>7</v>
       </c>
-      <c r="E25" s="122" t="s">
+      <c r="E25" s="153" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="117"/>
-      <c r="G25" s="117"/>
-      <c r="H25" s="117"/>
-      <c r="I25" s="117"/>
-      <c r="J25" s="135"/>
-      <c r="K25" s="86" t="s">
-        <v>51</v>
-      </c>
-      <c r="L25" s="136"/>
-      <c r="M25" s="118"/>
-      <c r="N25" s="118"/>
-      <c r="O25" s="118"/>
-      <c r="P25" s="118"/>
-      <c r="Q25" s="118"/>
-      <c r="R25" s="118"/>
-      <c r="S25" s="118"/>
-      <c r="T25" s="118"/>
-      <c r="U25" s="118"/>
-      <c r="V25" s="118"/>
-      <c r="W25" s="118"/>
-      <c r="X25" s="118"/>
-      <c r="Y25" s="118"/>
-      <c r="Z25" s="118"/>
-      <c r="AA25" s="118"/>
-      <c r="AB25" s="118"/>
-      <c r="AC25" s="118"/>
+      <c r="F25" s="113"/>
+      <c r="G25" s="113"/>
+      <c r="H25" s="113"/>
+      <c r="I25" s="113"/>
+      <c r="J25" s="129"/>
+      <c r="K25" s="85" t="s">
+        <v>50</v>
+      </c>
+      <c r="L25" s="130"/>
+      <c r="M25" s="114"/>
+      <c r="N25" s="114"/>
+      <c r="O25" s="114"/>
+      <c r="P25" s="114"/>
+      <c r="Q25" s="114"/>
+      <c r="R25" s="114"/>
+      <c r="S25" s="114"/>
+      <c r="T25" s="114"/>
+      <c r="U25" s="114"/>
+      <c r="V25" s="114"/>
+      <c r="W25" s="114"/>
+      <c r="X25" s="114"/>
+      <c r="Y25" s="114"/>
+      <c r="Z25" s="114"/>
+      <c r="AA25" s="114"/>
+      <c r="AB25" s="114"/>
+      <c r="AC25" s="114"/>
       <c r="AD25" s="73"/>
       <c r="AE25" s="26"/>
     </row>
     <row r="26" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="162"/>
+      <c r="A26" s="161"/>
       <c r="B26" s="62" t="str">
         <f>L5</f>
         <v>четверг</v>
@@ -2631,43 +2601,43 @@
       <c r="C26" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="121">
+      <c r="D26" s="117">
         <v>7</v>
       </c>
-      <c r="E26" s="148" t="s">
-        <v>53</v>
-      </c>
-      <c r="F26" s="111"/>
-      <c r="G26" s="111"/>
-      <c r="H26" s="111"/>
-      <c r="I26" s="111"/>
-      <c r="J26" s="111"/>
-      <c r="K26" s="93"/>
-      <c r="L26" s="108" t="s">
-        <v>20</v>
-      </c>
-      <c r="M26" s="134"/>
-      <c r="N26" s="112"/>
-      <c r="O26" s="112"/>
-      <c r="P26" s="112"/>
-      <c r="Q26" s="112"/>
-      <c r="R26" s="112"/>
-      <c r="S26" s="112"/>
-      <c r="T26" s="112"/>
-      <c r="U26" s="112"/>
-      <c r="V26" s="112"/>
-      <c r="W26" s="112"/>
-      <c r="X26" s="112"/>
-      <c r="Y26" s="112"/>
-      <c r="Z26" s="112"/>
-      <c r="AA26" s="112"/>
-      <c r="AB26" s="112"/>
-      <c r="AC26" s="112"/>
+      <c r="E26" s="154" t="s">
+        <v>41</v>
+      </c>
+      <c r="F26" s="107"/>
+      <c r="G26" s="107"/>
+      <c r="H26" s="107"/>
+      <c r="I26" s="107"/>
+      <c r="J26" s="107"/>
+      <c r="K26" s="92"/>
+      <c r="L26" s="104" t="s">
+        <v>51</v>
+      </c>
+      <c r="M26" s="128"/>
+      <c r="N26" s="108"/>
+      <c r="O26" s="108"/>
+      <c r="P26" s="108"/>
+      <c r="Q26" s="108"/>
+      <c r="R26" s="108"/>
+      <c r="S26" s="108"/>
+      <c r="T26" s="108"/>
+      <c r="U26" s="108"/>
+      <c r="V26" s="108"/>
+      <c r="W26" s="108"/>
+      <c r="X26" s="108"/>
+      <c r="Y26" s="108"/>
+      <c r="Z26" s="108"/>
+      <c r="AA26" s="108"/>
+      <c r="AB26" s="108"/>
+      <c r="AC26" s="108"/>
       <c r="AD26" s="26"/>
       <c r="AE26" s="36"/>
     </row>
     <row r="27" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="162"/>
+      <c r="A27" s="161"/>
       <c r="B27" s="62">
         <f>L6</f>
         <v>29</v>
@@ -2678,19 +2648,19 @@
       <c r="D27" s="76">
         <v>7</v>
       </c>
-      <c r="E27" s="106" t="s">
-        <v>56</v>
+      <c r="E27" s="80" t="s">
+        <v>74</v>
       </c>
       <c r="F27" s="79"/>
       <c r="G27" s="79"/>
       <c r="H27" s="79"/>
       <c r="I27" s="79"/>
       <c r="J27" s="79"/>
-      <c r="K27" s="94"/>
-      <c r="L27" s="85" t="s">
-        <v>20</v>
-      </c>
-      <c r="M27" s="96"/>
+      <c r="K27" s="93"/>
+      <c r="L27" s="84" t="s">
+        <v>51</v>
+      </c>
+      <c r="M27" s="95"/>
       <c r="N27" s="77"/>
       <c r="O27" s="78"/>
       <c r="P27" s="78"/>
@@ -2711,48 +2681,50 @@
       <c r="AE27" s="36"/>
     </row>
     <row r="28" spans="1:33" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="162"/>
+      <c r="A28" s="161"/>
       <c r="B28" s="63"/>
       <c r="C28" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="D28" s="129">
+      <c r="D28" s="123">
         <v>7</v>
       </c>
-      <c r="E28" s="126" t="s">
+      <c r="E28" s="155" t="s">
         <v>38</v>
       </c>
-      <c r="F28" s="117"/>
-      <c r="G28" s="117"/>
-      <c r="H28" s="117"/>
-      <c r="I28" s="117"/>
-      <c r="J28" s="117"/>
-      <c r="K28" s="135"/>
-      <c r="L28" s="86" t="s">
-        <v>20</v>
-      </c>
-      <c r="M28" s="137"/>
-      <c r="N28" s="118"/>
-      <c r="O28" s="118"/>
-      <c r="P28" s="118"/>
-      <c r="Q28" s="118"/>
-      <c r="R28" s="118"/>
-      <c r="S28" s="118"/>
-      <c r="T28" s="118"/>
-      <c r="U28" s="118"/>
-      <c r="V28" s="118"/>
-      <c r="W28" s="118"/>
-      <c r="X28" s="118"/>
-      <c r="Y28" s="118"/>
-      <c r="Z28" s="118"/>
-      <c r="AA28" s="118"/>
-      <c r="AB28" s="118"/>
-      <c r="AC28" s="118"/>
+      <c r="F28" s="113"/>
+      <c r="G28" s="113"/>
+      <c r="H28" s="113"/>
+      <c r="I28" s="113"/>
+      <c r="J28" s="113"/>
+      <c r="K28" s="129"/>
+      <c r="L28" s="85" t="s">
+        <v>51</v>
+      </c>
+      <c r="M28" s="131"/>
+      <c r="N28" s="114"/>
+      <c r="O28" s="114"/>
+      <c r="P28" s="114"/>
+      <c r="Q28" s="114"/>
+      <c r="R28" s="114"/>
+      <c r="S28" s="114"/>
+      <c r="T28" s="114"/>
+      <c r="U28" s="114"/>
+      <c r="V28" s="114"/>
+      <c r="W28" s="114"/>
+      <c r="X28" s="114"/>
+      <c r="Y28" s="114"/>
+      <c r="Z28" s="114"/>
+      <c r="AA28" s="114"/>
+      <c r="AB28" s="114"/>
+      <c r="AC28" s="114"/>
       <c r="AD28" s="26"/>
       <c r="AE28" s="36"/>
     </row>
     <row r="29" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="162"/>
+      <c r="A29" s="161">
+        <v>4</v>
+      </c>
       <c r="B29" s="62" t="str">
         <f>M5</f>
         <v>пятница</v>
@@ -2760,23 +2732,23 @@
       <c r="C29" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="121">
-        <v>7</v>
-      </c>
-      <c r="E29" s="107" t="s">
+      <c r="D29" s="117">
+        <v>4</v>
+      </c>
+      <c r="E29" s="115" t="s">
         <v>33</v>
       </c>
-      <c r="F29" s="111"/>
-      <c r="G29" s="111"/>
-      <c r="H29" s="111"/>
-      <c r="I29" s="111"/>
-      <c r="J29" s="111"/>
-      <c r="K29" s="111"/>
-      <c r="L29" s="93"/>
-      <c r="M29" s="108" t="s">
-        <v>74</v>
-      </c>
-      <c r="N29" s="134"/>
+      <c r="F29" s="107"/>
+      <c r="G29" s="107"/>
+      <c r="H29" s="107"/>
+      <c r="I29" s="107"/>
+      <c r="J29" s="107"/>
+      <c r="K29" s="107"/>
+      <c r="L29" s="92"/>
+      <c r="M29" s="104" t="s">
+        <v>28</v>
+      </c>
+      <c r="N29" s="128"/>
       <c r="O29" s="78"/>
       <c r="P29" s="78"/>
       <c r="Q29" s="78"/>
@@ -2797,7 +2769,7 @@
       <c r="AF29" s="36"/>
     </row>
     <row r="30" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="162"/>
+      <c r="A30" s="161"/>
       <c r="B30" s="62">
         <f>M6</f>
         <v>30</v>
@@ -2805,11 +2777,11 @@
       <c r="C30" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="D30" s="151">
-        <v>7</v>
-      </c>
-      <c r="E30" s="82" t="s">
-        <v>58</v>
+      <c r="D30" s="144">
+        <v>4</v>
+      </c>
+      <c r="E30" s="80" t="s">
+        <v>74</v>
       </c>
       <c r="F30" s="79"/>
       <c r="G30" s="79"/>
@@ -2817,11 +2789,11 @@
       <c r="I30" s="79"/>
       <c r="J30" s="79"/>
       <c r="K30" s="79"/>
-      <c r="L30" s="94"/>
-      <c r="M30" s="85" t="s">
-        <v>74</v>
-      </c>
-      <c r="N30" s="96"/>
+      <c r="L30" s="93"/>
+      <c r="M30" s="84" t="s">
+        <v>62</v>
+      </c>
+      <c r="N30" s="95"/>
       <c r="O30" s="78"/>
       <c r="P30" s="78"/>
       <c r="Q30" s="78"/>
@@ -2842,49 +2814,49 @@
       <c r="AF30" s="36"/>
     </row>
     <row r="31" spans="1:33" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="162"/>
+      <c r="A31" s="161"/>
       <c r="B31" s="63"/>
       <c r="C31" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="D31" s="152">
-        <v>7</v>
-      </c>
-      <c r="E31" s="122" t="s">
+      <c r="D31" s="145">
+        <v>4</v>
+      </c>
+      <c r="E31" s="156" t="s">
         <v>17</v>
       </c>
-      <c r="F31" s="117"/>
-      <c r="G31" s="117"/>
-      <c r="H31" s="117"/>
-      <c r="I31" s="117"/>
-      <c r="J31" s="117"/>
-      <c r="K31" s="117"/>
-      <c r="L31" s="135"/>
-      <c r="M31" s="86" t="s">
-        <v>74</v>
-      </c>
-      <c r="N31" s="137"/>
-      <c r="O31" s="118"/>
-      <c r="P31" s="118"/>
-      <c r="Q31" s="118"/>
-      <c r="R31" s="118"/>
-      <c r="S31" s="118"/>
-      <c r="T31" s="118"/>
-      <c r="U31" s="118"/>
-      <c r="V31" s="118"/>
-      <c r="W31" s="118"/>
-      <c r="X31" s="118"/>
-      <c r="Y31" s="118"/>
-      <c r="Z31" s="118"/>
-      <c r="AA31" s="118"/>
-      <c r="AB31" s="118"/>
-      <c r="AC31" s="118"/>
+      <c r="F31" s="113"/>
+      <c r="G31" s="113"/>
+      <c r="H31" s="113"/>
+      <c r="I31" s="113"/>
+      <c r="J31" s="113"/>
+      <c r="K31" s="113"/>
+      <c r="L31" s="129"/>
+      <c r="M31" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="N31" s="131"/>
+      <c r="O31" s="114"/>
+      <c r="P31" s="114"/>
+      <c r="Q31" s="114"/>
+      <c r="R31" s="114"/>
+      <c r="S31" s="114"/>
+      <c r="T31" s="114"/>
+      <c r="U31" s="114"/>
+      <c r="V31" s="114"/>
+      <c r="W31" s="114"/>
+      <c r="X31" s="114"/>
+      <c r="Y31" s="114"/>
+      <c r="Z31" s="114"/>
+      <c r="AA31" s="114"/>
+      <c r="AB31" s="114"/>
+      <c r="AC31" s="114"/>
       <c r="AD31" s="26"/>
       <c r="AE31" s="26"/>
       <c r="AF31" s="36"/>
     </row>
     <row r="32" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="162"/>
+      <c r="A32" s="161"/>
       <c r="B32" s="62" t="str">
         <f>N5</f>
         <v>суббота</v>
@@ -2892,21 +2864,21 @@
       <c r="C32" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="D32" s="150">
-        <v>7</v>
-      </c>
-      <c r="E32" s="119" t="s">
+      <c r="D32" s="143">
+        <v>4</v>
+      </c>
+      <c r="E32" s="154" t="s">
         <v>41</v>
       </c>
-      <c r="F32" s="111"/>
-      <c r="G32" s="111"/>
-      <c r="H32" s="111"/>
-      <c r="I32" s="111"/>
-      <c r="J32" s="111"/>
-      <c r="K32" s="111"/>
-      <c r="L32" s="111"/>
-      <c r="M32" s="97"/>
-      <c r="N32" s="108" t="s">
+      <c r="F32" s="107"/>
+      <c r="G32" s="107"/>
+      <c r="H32" s="107"/>
+      <c r="I32" s="107"/>
+      <c r="J32" s="107"/>
+      <c r="K32" s="107"/>
+      <c r="L32" s="107"/>
+      <c r="M32" s="96"/>
+      <c r="N32" s="104" t="s">
         <v>28</v>
       </c>
       <c r="O32" s="78"/>
@@ -2929,7 +2901,7 @@
       <c r="AG32" s="36"/>
     </row>
     <row r="33" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="162"/>
+      <c r="A33" s="161"/>
       <c r="B33" s="62">
         <f>N6</f>
         <v>31</v>
@@ -2937,11 +2909,11 @@
       <c r="C33" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="D33" s="151">
-        <v>7</v>
-      </c>
-      <c r="E33" s="105" t="s">
-        <v>32</v>
+      <c r="D33" s="144">
+        <v>4</v>
+      </c>
+      <c r="E33" s="80" t="s">
+        <v>74</v>
       </c>
       <c r="F33" s="79"/>
       <c r="G33" s="79"/>
@@ -2950,9 +2922,9 @@
       <c r="J33" s="79"/>
       <c r="K33" s="79"/>
       <c r="L33" s="79"/>
-      <c r="M33" s="98"/>
-      <c r="N33" s="85" t="s">
-        <v>74</v>
+      <c r="M33" s="97"/>
+      <c r="N33" s="84" t="s">
+        <v>62</v>
       </c>
       <c r="O33" s="78"/>
       <c r="P33" s="78"/>
@@ -2974,46 +2946,46 @@
       <c r="AG33" s="36"/>
     </row>
     <row r="34" spans="1:33" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="162"/>
+      <c r="A34" s="161"/>
       <c r="B34" s="63"/>
       <c r="C34" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="D34" s="152">
-        <v>7</v>
-      </c>
-      <c r="E34" s="105" t="s">
-        <v>32</v>
-      </c>
-      <c r="F34" s="117"/>
-      <c r="G34" s="117"/>
-      <c r="H34" s="117"/>
-      <c r="I34" s="117"/>
-      <c r="J34" s="117"/>
-      <c r="K34" s="117"/>
-      <c r="L34" s="135"/>
-      <c r="M34" s="117"/>
-      <c r="N34" s="86" t="s">
-        <v>50</v>
-      </c>
-      <c r="O34" s="137"/>
-      <c r="P34" s="117"/>
-      <c r="Q34" s="117"/>
-      <c r="R34" s="117"/>
-      <c r="S34" s="117"/>
-      <c r="T34" s="117"/>
-      <c r="U34" s="117"/>
-      <c r="V34" s="117"/>
-      <c r="W34" s="117"/>
-      <c r="X34" s="117"/>
-      <c r="Y34" s="117"/>
-      <c r="Z34" s="117"/>
-      <c r="AA34" s="117"/>
-      <c r="AB34" s="117"/>
-      <c r="AC34" s="117"/>
+      <c r="D34" s="145">
+        <v>4</v>
+      </c>
+      <c r="E34" s="155" t="s">
+        <v>38</v>
+      </c>
+      <c r="F34" s="113"/>
+      <c r="G34" s="113"/>
+      <c r="H34" s="113"/>
+      <c r="I34" s="113"/>
+      <c r="J34" s="113"/>
+      <c r="K34" s="113"/>
+      <c r="L34" s="129"/>
+      <c r="M34" s="113"/>
+      <c r="N34" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="O34" s="131"/>
+      <c r="P34" s="113"/>
+      <c r="Q34" s="113"/>
+      <c r="R34" s="113"/>
+      <c r="S34" s="113"/>
+      <c r="T34" s="113"/>
+      <c r="U34" s="113"/>
+      <c r="V34" s="113"/>
+      <c r="W34" s="113"/>
+      <c r="X34" s="113"/>
+      <c r="Y34" s="113"/>
+      <c r="Z34" s="113"/>
+      <c r="AA34" s="113"/>
+      <c r="AB34" s="113"/>
+      <c r="AC34" s="113"/>
     </row>
     <row r="35" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="162"/>
+      <c r="A35" s="161"/>
       <c r="B35" s="62" t="str">
         <f>O5</f>
         <v>воскресенье</v>
@@ -3021,23 +2993,23 @@
       <c r="C35" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="D35" s="150">
-        <v>7</v>
-      </c>
-      <c r="E35" s="119" t="s">
-        <v>41</v>
-      </c>
-      <c r="F35" s="111"/>
-      <c r="G35" s="111"/>
-      <c r="H35" s="111"/>
-      <c r="I35" s="111"/>
-      <c r="J35" s="111"/>
-      <c r="K35" s="111"/>
-      <c r="L35" s="111"/>
-      <c r="M35" s="97"/>
-      <c r="N35" s="111"/>
-      <c r="O35" s="108" t="s">
-        <v>49</v>
+      <c r="D35" s="143">
+        <v>4</v>
+      </c>
+      <c r="E35" s="115" t="s">
+        <v>33</v>
+      </c>
+      <c r="F35" s="107"/>
+      <c r="G35" s="107"/>
+      <c r="H35" s="107"/>
+      <c r="I35" s="107"/>
+      <c r="J35" s="107"/>
+      <c r="K35" s="107"/>
+      <c r="L35" s="107"/>
+      <c r="M35" s="96"/>
+      <c r="N35" s="107"/>
+      <c r="O35" s="104" t="s">
+        <v>28</v>
       </c>
       <c r="P35" s="78"/>
       <c r="Q35" s="78"/>
@@ -3055,7 +3027,7 @@
       <c r="AC35" s="78"/>
     </row>
     <row r="36" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="162"/>
+      <c r="A36" s="161"/>
       <c r="B36" s="62">
         <f>O6</f>
         <v>1</v>
@@ -3063,11 +3035,11 @@
       <c r="C36" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="D36" s="151">
-        <v>7</v>
-      </c>
-      <c r="E36" s="119" t="s">
-        <v>41</v>
+      <c r="D36" s="144">
+        <v>4</v>
+      </c>
+      <c r="E36" s="80" t="s">
+        <v>74</v>
       </c>
       <c r="F36" s="79"/>
       <c r="G36" s="79"/>
@@ -3076,10 +3048,10 @@
       <c r="J36" s="79"/>
       <c r="K36" s="79"/>
       <c r="L36" s="79"/>
-      <c r="M36" s="98"/>
+      <c r="M36" s="97"/>
       <c r="N36" s="79"/>
-      <c r="O36" s="85" t="s">
-        <v>51</v>
+      <c r="O36" s="84" t="s">
+        <v>62</v>
       </c>
       <c r="P36" s="78"/>
       <c r="Q36" s="78"/>
@@ -3097,48 +3069,46 @@
       <c r="AC36" s="78"/>
     </row>
     <row r="37" spans="1:33" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="163"/>
+      <c r="A37" s="161"/>
       <c r="B37" s="63"/>
       <c r="C37" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="D37" s="152">
-        <v>7</v>
-      </c>
-      <c r="E37" s="119" t="s">
-        <v>41</v>
-      </c>
-      <c r="F37" s="117"/>
-      <c r="G37" s="117"/>
-      <c r="H37" s="117"/>
-      <c r="I37" s="117"/>
-      <c r="J37" s="117"/>
-      <c r="K37" s="117"/>
-      <c r="L37" s="117"/>
-      <c r="M37" s="117"/>
-      <c r="N37" s="117"/>
-      <c r="O37" s="86" t="s">
+      <c r="D37" s="145">
+        <v>4</v>
+      </c>
+      <c r="E37" s="156" t="s">
+        <v>17</v>
+      </c>
+      <c r="F37" s="113"/>
+      <c r="G37" s="113"/>
+      <c r="H37" s="113"/>
+      <c r="I37" s="113"/>
+      <c r="J37" s="113"/>
+      <c r="K37" s="113"/>
+      <c r="L37" s="113"/>
+      <c r="M37" s="113"/>
+      <c r="N37" s="113"/>
+      <c r="O37" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="P37" s="137"/>
-      <c r="Q37" s="117"/>
-      <c r="R37" s="117"/>
-      <c r="S37" s="117"/>
-      <c r="T37" s="117"/>
-      <c r="U37" s="117"/>
-      <c r="V37" s="117"/>
-      <c r="W37" s="117"/>
-      <c r="X37" s="117"/>
-      <c r="Y37" s="117"/>
-      <c r="Z37" s="117"/>
-      <c r="AA37" s="117"/>
-      <c r="AB37" s="117"/>
-      <c r="AC37" s="117"/>
+      <c r="P37" s="131"/>
+      <c r="Q37" s="113"/>
+      <c r="R37" s="113"/>
+      <c r="S37" s="113"/>
+      <c r="T37" s="113"/>
+      <c r="U37" s="113"/>
+      <c r="V37" s="113"/>
+      <c r="W37" s="113"/>
+      <c r="X37" s="113"/>
+      <c r="Y37" s="113"/>
+      <c r="Z37" s="113"/>
+      <c r="AA37" s="113"/>
+      <c r="AB37" s="113"/>
+      <c r="AC37" s="113"/>
     </row>
     <row r="38" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="162">
-        <v>4</v>
-      </c>
+      <c r="A38" s="161"/>
       <c r="B38" s="62" t="str">
         <f>P5</f>
         <v>понедельник</v>
@@ -3146,23 +3116,23 @@
       <c r="C38" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="150">
+      <c r="D38" s="143">
         <v>4</v>
       </c>
-      <c r="E38" s="119" t="s">
+      <c r="E38" s="154" t="s">
         <v>41</v>
       </c>
-      <c r="F38" s="111"/>
-      <c r="G38" s="111"/>
-      <c r="H38" s="111"/>
-      <c r="I38" s="111"/>
-      <c r="J38" s="111"/>
-      <c r="K38" s="111"/>
-      <c r="L38" s="111"/>
-      <c r="M38" s="97"/>
-      <c r="N38" s="111"/>
+      <c r="F38" s="107"/>
+      <c r="G38" s="107"/>
+      <c r="H38" s="107"/>
+      <c r="I38" s="107"/>
+      <c r="J38" s="107"/>
+      <c r="K38" s="107"/>
+      <c r="L38" s="107"/>
+      <c r="M38" s="96"/>
+      <c r="N38" s="107"/>
       <c r="O38" s="78"/>
-      <c r="P38" s="108" t="s">
+      <c r="P38" s="104" t="s">
         <v>28</v>
       </c>
       <c r="Q38" s="78"/>
@@ -3180,7 +3150,7 @@
       <c r="AC38" s="78"/>
     </row>
     <row r="39" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="162"/>
+      <c r="A39" s="161"/>
       <c r="B39" s="62">
         <f>P6</f>
         <v>2</v>
@@ -3188,11 +3158,11 @@
       <c r="C39" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="D39" s="151">
+      <c r="D39" s="144">
         <v>4</v>
       </c>
-      <c r="E39" s="119" t="s">
-        <v>41</v>
+      <c r="E39" s="80" t="s">
+        <v>74</v>
       </c>
       <c r="F39" s="79"/>
       <c r="G39" s="79"/>
@@ -3201,10 +3171,10 @@
       <c r="J39" s="79"/>
       <c r="K39" s="79"/>
       <c r="L39" s="79"/>
-      <c r="M39" s="98"/>
+      <c r="M39" s="97"/>
       <c r="N39" s="79"/>
       <c r="O39" s="78"/>
-      <c r="P39" s="85" t="s">
+      <c r="P39" s="84" t="s">
         <v>62</v>
       </c>
       <c r="Q39" s="78"/>
@@ -3222,46 +3192,46 @@
       <c r="AC39" s="78"/>
     </row>
     <row r="40" spans="1:33" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="162"/>
+      <c r="A40" s="161"/>
       <c r="B40" s="63"/>
       <c r="C40" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="D40" s="152">
+      <c r="D40" s="145">
         <v>4</v>
       </c>
-      <c r="E40" s="119" t="s">
-        <v>41</v>
-      </c>
-      <c r="F40" s="117"/>
-      <c r="G40" s="117"/>
-      <c r="H40" s="117"/>
-      <c r="I40" s="117"/>
-      <c r="J40" s="117"/>
-      <c r="K40" s="117"/>
-      <c r="L40" s="117"/>
-      <c r="M40" s="117"/>
-      <c r="N40" s="117"/>
-      <c r="O40" s="117"/>
-      <c r="P40" s="86" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q40" s="137"/>
-      <c r="R40" s="117"/>
-      <c r="S40" s="117"/>
-      <c r="T40" s="117"/>
-      <c r="U40" s="117"/>
-      <c r="V40" s="117"/>
-      <c r="W40" s="117"/>
-      <c r="X40" s="117"/>
-      <c r="Y40" s="117"/>
-      <c r="Z40" s="117"/>
-      <c r="AA40" s="117"/>
-      <c r="AB40" s="117"/>
-      <c r="AC40" s="117"/>
+      <c r="E40" s="155" t="s">
+        <v>38</v>
+      </c>
+      <c r="F40" s="113"/>
+      <c r="G40" s="113"/>
+      <c r="H40" s="113"/>
+      <c r="I40" s="113"/>
+      <c r="J40" s="113"/>
+      <c r="K40" s="113"/>
+      <c r="L40" s="113"/>
+      <c r="M40" s="113"/>
+      <c r="N40" s="113"/>
+      <c r="O40" s="113"/>
+      <c r="P40" s="85" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q40" s="131"/>
+      <c r="R40" s="113"/>
+      <c r="S40" s="113"/>
+      <c r="T40" s="113"/>
+      <c r="U40" s="113"/>
+      <c r="V40" s="113"/>
+      <c r="W40" s="113"/>
+      <c r="X40" s="113"/>
+      <c r="Y40" s="113"/>
+      <c r="Z40" s="113"/>
+      <c r="AA40" s="113"/>
+      <c r="AB40" s="113"/>
+      <c r="AC40" s="113"/>
     </row>
     <row r="41" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="162"/>
+      <c r="A41" s="161"/>
       <c r="B41" s="62" t="str">
         <f>Q5</f>
         <v>вторник</v>
@@ -3269,24 +3239,24 @@
       <c r="C41" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="D41" s="150">
+      <c r="D41" s="143">
         <v>4</v>
       </c>
-      <c r="E41" s="119" t="s">
-        <v>41</v>
-      </c>
-      <c r="F41" s="111"/>
-      <c r="G41" s="111"/>
-      <c r="H41" s="111"/>
-      <c r="I41" s="111"/>
-      <c r="J41" s="111"/>
-      <c r="K41" s="111"/>
-      <c r="L41" s="111"/>
-      <c r="M41" s="97"/>
-      <c r="N41" s="111"/>
+      <c r="E41" s="115" t="s">
+        <v>33</v>
+      </c>
+      <c r="F41" s="107"/>
+      <c r="G41" s="107"/>
+      <c r="H41" s="107"/>
+      <c r="I41" s="107"/>
+      <c r="J41" s="107"/>
+      <c r="K41" s="107"/>
+      <c r="L41" s="107"/>
+      <c r="M41" s="96"/>
+      <c r="N41" s="107"/>
       <c r="O41" s="78"/>
       <c r="P41" s="78"/>
-      <c r="Q41" s="108" t="s">
+      <c r="Q41" s="104" t="s">
         <v>28</v>
       </c>
       <c r="R41" s="78"/>
@@ -3303,7 +3273,7 @@
       <c r="AC41" s="78"/>
     </row>
     <row r="42" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="162"/>
+      <c r="A42" s="161"/>
       <c r="B42" s="62">
         <f>Q6</f>
         <v>3</v>
@@ -3311,11 +3281,11 @@
       <c r="C42" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="D42" s="151">
+      <c r="D42" s="144">
         <v>4</v>
       </c>
-      <c r="E42" s="119" t="s">
-        <v>41</v>
+      <c r="E42" s="80" t="s">
+        <v>74</v>
       </c>
       <c r="F42" s="79"/>
       <c r="G42" s="79"/>
@@ -3324,11 +3294,11 @@
       <c r="J42" s="79"/>
       <c r="K42" s="79"/>
       <c r="L42" s="79"/>
-      <c r="M42" s="98"/>
+      <c r="M42" s="97"/>
       <c r="N42" s="79"/>
       <c r="O42" s="78"/>
       <c r="P42" s="78"/>
-      <c r="Q42" s="85" t="s">
+      <c r="Q42" s="84" t="s">
         <v>62</v>
       </c>
       <c r="R42" s="78"/>
@@ -3345,46 +3315,46 @@
       <c r="AC42" s="78"/>
     </row>
     <row r="43" spans="1:33" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="162"/>
+      <c r="A43" s="161"/>
       <c r="B43" s="63"/>
       <c r="C43" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="D43" s="152">
+      <c r="D43" s="145">
         <v>4</v>
       </c>
-      <c r="E43" s="119" t="s">
-        <v>41</v>
-      </c>
-      <c r="F43" s="117"/>
-      <c r="G43" s="117"/>
-      <c r="H43" s="117"/>
-      <c r="I43" s="117"/>
-      <c r="J43" s="117"/>
-      <c r="K43" s="117"/>
-      <c r="L43" s="117"/>
-      <c r="M43" s="117"/>
-      <c r="N43" s="117"/>
-      <c r="O43" s="117"/>
-      <c r="P43" s="117"/>
-      <c r="Q43" s="86" t="s">
-        <v>49</v>
-      </c>
-      <c r="R43" s="137"/>
-      <c r="S43" s="117"/>
-      <c r="T43" s="117"/>
-      <c r="U43" s="117"/>
-      <c r="V43" s="117"/>
-      <c r="W43" s="117"/>
-      <c r="X43" s="117"/>
-      <c r="Y43" s="117"/>
-      <c r="Z43" s="117"/>
-      <c r="AA43" s="117"/>
-      <c r="AB43" s="117"/>
-      <c r="AC43" s="117"/>
+      <c r="E43" s="156" t="s">
+        <v>17</v>
+      </c>
+      <c r="F43" s="113"/>
+      <c r="G43" s="113"/>
+      <c r="H43" s="113"/>
+      <c r="I43" s="113"/>
+      <c r="J43" s="113"/>
+      <c r="K43" s="113"/>
+      <c r="L43" s="113"/>
+      <c r="M43" s="113"/>
+      <c r="N43" s="113"/>
+      <c r="O43" s="113"/>
+      <c r="P43" s="113"/>
+      <c r="Q43" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="R43" s="131"/>
+      <c r="S43" s="113"/>
+      <c r="T43" s="113"/>
+      <c r="U43" s="113"/>
+      <c r="V43" s="113"/>
+      <c r="W43" s="113"/>
+      <c r="X43" s="113"/>
+      <c r="Y43" s="113"/>
+      <c r="Z43" s="113"/>
+      <c r="AA43" s="113"/>
+      <c r="AB43" s="113"/>
+      <c r="AC43" s="113"/>
     </row>
     <row r="44" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="162"/>
+      <c r="A44" s="161"/>
       <c r="B44" s="62" t="str">
         <f>R5</f>
         <v>среда</v>
@@ -3392,25 +3362,25 @@
       <c r="C44" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="D44" s="150">
+      <c r="D44" s="143">
         <v>4</v>
       </c>
-      <c r="E44" s="119" t="s">
+      <c r="E44" s="154" t="s">
         <v>41</v>
       </c>
-      <c r="F44" s="111"/>
-      <c r="G44" s="111"/>
-      <c r="H44" s="111"/>
-      <c r="I44" s="111"/>
-      <c r="J44" s="111"/>
-      <c r="K44" s="111"/>
-      <c r="L44" s="111"/>
-      <c r="M44" s="97"/>
-      <c r="N44" s="111"/>
+      <c r="F44" s="107"/>
+      <c r="G44" s="107"/>
+      <c r="H44" s="107"/>
+      <c r="I44" s="107"/>
+      <c r="J44" s="107"/>
+      <c r="K44" s="107"/>
+      <c r="L44" s="107"/>
+      <c r="M44" s="96"/>
+      <c r="N44" s="107"/>
       <c r="O44" s="78"/>
       <c r="P44" s="78"/>
       <c r="Q44" s="78"/>
-      <c r="R44" s="108" t="s">
+      <c r="R44" s="104" t="s">
         <v>28</v>
       </c>
       <c r="S44" s="78"/>
@@ -3426,7 +3396,7 @@
       <c r="AC44" s="78"/>
     </row>
     <row r="45" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="162"/>
+      <c r="A45" s="161"/>
       <c r="B45" s="62">
         <f>R6</f>
         <v>4</v>
@@ -3434,11 +3404,11 @@
       <c r="C45" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="D45" s="151">
+      <c r="D45" s="144">
         <v>4</v>
       </c>
-      <c r="E45" s="119" t="s">
-        <v>41</v>
+      <c r="E45" s="80" t="s">
+        <v>74</v>
       </c>
       <c r="F45" s="79"/>
       <c r="G45" s="79"/>
@@ -3447,12 +3417,12 @@
       <c r="J45" s="79"/>
       <c r="K45" s="79"/>
       <c r="L45" s="79"/>
-      <c r="M45" s="98"/>
+      <c r="M45" s="97"/>
       <c r="N45" s="79"/>
       <c r="O45" s="78"/>
       <c r="P45" s="78"/>
       <c r="Q45" s="78"/>
-      <c r="R45" s="85" t="s">
+      <c r="R45" s="84" t="s">
         <v>62</v>
       </c>
       <c r="S45" s="78"/>
@@ -3468,46 +3438,46 @@
       <c r="AC45" s="78"/>
     </row>
     <row r="46" spans="1:33" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="162"/>
+      <c r="A46" s="161"/>
       <c r="B46" s="63"/>
       <c r="C46" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="D46" s="152">
+      <c r="D46" s="145">
         <v>4</v>
       </c>
-      <c r="E46" s="119" t="s">
-        <v>41</v>
-      </c>
-      <c r="F46" s="117"/>
-      <c r="G46" s="117"/>
-      <c r="H46" s="117"/>
-      <c r="I46" s="117"/>
-      <c r="J46" s="117"/>
-      <c r="K46" s="117"/>
-      <c r="L46" s="117"/>
-      <c r="M46" s="117"/>
-      <c r="N46" s="117"/>
-      <c r="O46" s="117"/>
-      <c r="P46" s="117"/>
-      <c r="Q46" s="117"/>
-      <c r="R46" s="86" t="s">
+      <c r="E46" s="155" t="s">
+        <v>38</v>
+      </c>
+      <c r="F46" s="113"/>
+      <c r="G46" s="113"/>
+      <c r="H46" s="113"/>
+      <c r="I46" s="113"/>
+      <c r="J46" s="113"/>
+      <c r="K46" s="113"/>
+      <c r="L46" s="113"/>
+      <c r="M46" s="113"/>
+      <c r="N46" s="113"/>
+      <c r="O46" s="113"/>
+      <c r="P46" s="113"/>
+      <c r="Q46" s="113"/>
+      <c r="R46" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="S46" s="137"/>
-      <c r="T46" s="117"/>
-      <c r="U46" s="117"/>
-      <c r="V46" s="117"/>
-      <c r="W46" s="117"/>
-      <c r="X46" s="117"/>
-      <c r="Y46" s="117"/>
-      <c r="Z46" s="117"/>
-      <c r="AA46" s="117"/>
-      <c r="AB46" s="117"/>
-      <c r="AC46" s="117"/>
+      <c r="S46" s="131"/>
+      <c r="T46" s="113"/>
+      <c r="U46" s="113"/>
+      <c r="V46" s="113"/>
+      <c r="W46" s="113"/>
+      <c r="X46" s="113"/>
+      <c r="Y46" s="113"/>
+      <c r="Z46" s="113"/>
+      <c r="AA46" s="113"/>
+      <c r="AB46" s="113"/>
+      <c r="AC46" s="113"/>
     </row>
     <row r="47" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="162"/>
+      <c r="A47" s="161"/>
       <c r="B47" s="62" t="str">
         <f>S5</f>
         <v>четверг</v>
@@ -3515,26 +3485,26 @@
       <c r="C47" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="D47" s="150">
+      <c r="D47" s="143">
         <v>4</v>
       </c>
-      <c r="E47" s="119" t="s">
-        <v>41</v>
-      </c>
-      <c r="F47" s="111"/>
-      <c r="G47" s="111"/>
-      <c r="H47" s="111"/>
-      <c r="I47" s="111"/>
-      <c r="J47" s="111"/>
-      <c r="K47" s="111"/>
-      <c r="L47" s="111"/>
-      <c r="M47" s="97"/>
-      <c r="N47" s="111"/>
+      <c r="E47" s="115" t="s">
+        <v>33</v>
+      </c>
+      <c r="F47" s="107"/>
+      <c r="G47" s="107"/>
+      <c r="H47" s="107"/>
+      <c r="I47" s="107"/>
+      <c r="J47" s="107"/>
+      <c r="K47" s="107"/>
+      <c r="L47" s="107"/>
+      <c r="M47" s="96"/>
+      <c r="N47" s="107"/>
       <c r="O47" s="78"/>
       <c r="P47" s="78"/>
       <c r="Q47" s="78"/>
       <c r="R47" s="78"/>
-      <c r="S47" s="108" t="s">
+      <c r="S47" s="104" t="s">
         <v>28</v>
       </c>
       <c r="T47" s="78"/>
@@ -3549,7 +3519,7 @@
       <c r="AC47" s="78"/>
     </row>
     <row r="48" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="162"/>
+      <c r="A48" s="161"/>
       <c r="B48" s="62">
         <f>S6</f>
         <v>5</v>
@@ -3557,11 +3527,11 @@
       <c r="C48" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="D48" s="151">
+      <c r="D48" s="144">
         <v>4</v>
       </c>
-      <c r="E48" s="119" t="s">
-        <v>41</v>
+      <c r="E48" s="80" t="s">
+        <v>74</v>
       </c>
       <c r="F48" s="79"/>
       <c r="G48" s="79"/>
@@ -3570,13 +3540,13 @@
       <c r="J48" s="79"/>
       <c r="K48" s="79"/>
       <c r="L48" s="79"/>
-      <c r="M48" s="98"/>
+      <c r="M48" s="97"/>
       <c r="N48" s="79"/>
       <c r="O48" s="78"/>
       <c r="P48" s="78"/>
       <c r="Q48" s="78"/>
       <c r="R48" s="78"/>
-      <c r="S48" s="85" t="s">
+      <c r="S48" s="84" t="s">
         <v>62</v>
       </c>
       <c r="T48" s="78"/>
@@ -3591,46 +3561,46 @@
       <c r="AC48" s="78"/>
     </row>
     <row r="49" spans="1:29" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="162"/>
+      <c r="A49" s="161"/>
       <c r="B49" s="63"/>
       <c r="C49" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="D49" s="152">
+      <c r="D49" s="145">
         <v>4</v>
       </c>
-      <c r="E49" s="119" t="s">
-        <v>41</v>
-      </c>
-      <c r="F49" s="117"/>
-      <c r="G49" s="117"/>
-      <c r="H49" s="117"/>
-      <c r="I49" s="117"/>
-      <c r="J49" s="117"/>
-      <c r="K49" s="117"/>
-      <c r="L49" s="117"/>
-      <c r="M49" s="117"/>
-      <c r="N49" s="117"/>
-      <c r="O49" s="117"/>
-      <c r="P49" s="117"/>
-      <c r="Q49" s="117"/>
-      <c r="R49" s="117"/>
-      <c r="S49" s="86" t="s">
-        <v>49</v>
-      </c>
-      <c r="T49" s="137"/>
-      <c r="U49" s="117"/>
-      <c r="V49" s="117"/>
-      <c r="W49" s="117"/>
-      <c r="X49" s="117"/>
-      <c r="Y49" s="117"/>
-      <c r="Z49" s="117"/>
-      <c r="AA49" s="117"/>
-      <c r="AB49" s="117"/>
-      <c r="AC49" s="117"/>
+      <c r="E49" s="156" t="s">
+        <v>17</v>
+      </c>
+      <c r="F49" s="113"/>
+      <c r="G49" s="113"/>
+      <c r="H49" s="113"/>
+      <c r="I49" s="113"/>
+      <c r="J49" s="113"/>
+      <c r="K49" s="113"/>
+      <c r="L49" s="113"/>
+      <c r="M49" s="113"/>
+      <c r="N49" s="113"/>
+      <c r="O49" s="113"/>
+      <c r="P49" s="113"/>
+      <c r="Q49" s="113"/>
+      <c r="R49" s="113"/>
+      <c r="S49" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="T49" s="131"/>
+      <c r="U49" s="113"/>
+      <c r="V49" s="113"/>
+      <c r="W49" s="113"/>
+      <c r="X49" s="113"/>
+      <c r="Y49" s="113"/>
+      <c r="Z49" s="113"/>
+      <c r="AA49" s="113"/>
+      <c r="AB49" s="113"/>
+      <c r="AC49" s="113"/>
     </row>
     <row r="50" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="162"/>
+      <c r="A50" s="161"/>
       <c r="B50" s="62" t="str">
         <f>T5</f>
         <v>пятница</v>
@@ -3638,27 +3608,27 @@
       <c r="C50" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="D50" s="150">
+      <c r="D50" s="143">
         <v>4</v>
       </c>
-      <c r="E50" s="119" t="s">
+      <c r="E50" s="154" t="s">
         <v>41</v>
       </c>
-      <c r="F50" s="111"/>
-      <c r="G50" s="111"/>
-      <c r="H50" s="111"/>
-      <c r="I50" s="111"/>
-      <c r="J50" s="111"/>
-      <c r="K50" s="111"/>
-      <c r="L50" s="111"/>
-      <c r="M50" s="97"/>
-      <c r="N50" s="111"/>
+      <c r="F50" s="107"/>
+      <c r="G50" s="107"/>
+      <c r="H50" s="107"/>
+      <c r="I50" s="107"/>
+      <c r="J50" s="107"/>
+      <c r="K50" s="107"/>
+      <c r="L50" s="107"/>
+      <c r="M50" s="96"/>
+      <c r="N50" s="107"/>
       <c r="O50" s="78"/>
       <c r="P50" s="78"/>
       <c r="Q50" s="78"/>
       <c r="R50" s="78"/>
       <c r="S50" s="78"/>
-      <c r="T50" s="108" t="s">
+      <c r="T50" s="104" t="s">
         <v>28</v>
       </c>
       <c r="U50" s="78"/>
@@ -3672,7 +3642,7 @@
       <c r="AC50" s="78"/>
     </row>
     <row r="51" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="162"/>
+      <c r="A51" s="161"/>
       <c r="B51" s="62">
         <f>T6</f>
         <v>6</v>
@@ -3680,11 +3650,11 @@
       <c r="C51" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="D51" s="151">
+      <c r="D51" s="144">
         <v>4</v>
       </c>
-      <c r="E51" s="119" t="s">
-        <v>41</v>
+      <c r="E51" s="80" t="s">
+        <v>74</v>
       </c>
       <c r="F51" s="79"/>
       <c r="G51" s="79"/>
@@ -3693,14 +3663,14 @@
       <c r="J51" s="79"/>
       <c r="K51" s="79"/>
       <c r="L51" s="79"/>
-      <c r="M51" s="98"/>
+      <c r="M51" s="97"/>
       <c r="N51" s="79"/>
       <c r="O51" s="78"/>
       <c r="P51" s="78"/>
       <c r="Q51" s="78"/>
       <c r="R51" s="78"/>
       <c r="S51" s="78"/>
-      <c r="T51" s="85" t="s">
+      <c r="T51" s="84" t="s">
         <v>62</v>
       </c>
       <c r="U51" s="78"/>
@@ -3714,46 +3684,46 @@
       <c r="AC51" s="78"/>
     </row>
     <row r="52" spans="1:29" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="162"/>
+      <c r="A52" s="161"/>
       <c r="B52" s="63"/>
       <c r="C52" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="D52" s="152">
+      <c r="D52" s="145">
         <v>4</v>
       </c>
-      <c r="E52" s="119" t="s">
-        <v>41</v>
-      </c>
-      <c r="F52" s="117"/>
-      <c r="G52" s="117"/>
-      <c r="H52" s="117"/>
-      <c r="I52" s="117"/>
-      <c r="J52" s="117"/>
-      <c r="K52" s="117"/>
-      <c r="L52" s="117"/>
-      <c r="M52" s="117"/>
-      <c r="N52" s="117"/>
-      <c r="O52" s="117"/>
-      <c r="P52" s="117"/>
-      <c r="Q52" s="117"/>
-      <c r="R52" s="117"/>
-      <c r="S52" s="117"/>
-      <c r="T52" s="86" t="s">
+      <c r="E52" s="155" t="s">
+        <v>38</v>
+      </c>
+      <c r="F52" s="113"/>
+      <c r="G52" s="113"/>
+      <c r="H52" s="113"/>
+      <c r="I52" s="113"/>
+      <c r="J52" s="113"/>
+      <c r="K52" s="113"/>
+      <c r="L52" s="113"/>
+      <c r="M52" s="113"/>
+      <c r="N52" s="113"/>
+      <c r="O52" s="113"/>
+      <c r="P52" s="113"/>
+      <c r="Q52" s="113"/>
+      <c r="R52" s="113"/>
+      <c r="S52" s="113"/>
+      <c r="T52" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="U52" s="137"/>
-      <c r="V52" s="117"/>
-      <c r="W52" s="117"/>
-      <c r="X52" s="117"/>
-      <c r="Y52" s="117"/>
-      <c r="Z52" s="117"/>
-      <c r="AA52" s="117"/>
-      <c r="AB52" s="117"/>
-      <c r="AC52" s="117"/>
+      <c r="U52" s="131"/>
+      <c r="V52" s="113"/>
+      <c r="W52" s="113"/>
+      <c r="X52" s="113"/>
+      <c r="Y52" s="113"/>
+      <c r="Z52" s="113"/>
+      <c r="AA52" s="113"/>
+      <c r="AB52" s="113"/>
+      <c r="AC52" s="113"/>
     </row>
     <row r="53" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="162"/>
+      <c r="A53" s="161"/>
       <c r="B53" s="62" t="str">
         <f>U5</f>
         <v>суббота</v>
@@ -3761,28 +3731,28 @@
       <c r="C53" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="D53" s="150">
+      <c r="D53" s="143">
         <v>4</v>
       </c>
-      <c r="E53" s="119" t="s">
-        <v>41</v>
-      </c>
-      <c r="F53" s="111"/>
-      <c r="G53" s="111"/>
-      <c r="H53" s="111"/>
-      <c r="I53" s="111"/>
-      <c r="J53" s="111"/>
-      <c r="K53" s="111"/>
-      <c r="L53" s="111"/>
-      <c r="M53" s="97"/>
-      <c r="N53" s="111"/>
+      <c r="E53" s="115" t="s">
+        <v>33</v>
+      </c>
+      <c r="F53" s="107"/>
+      <c r="G53" s="107"/>
+      <c r="H53" s="107"/>
+      <c r="I53" s="107"/>
+      <c r="J53" s="107"/>
+      <c r="K53" s="107"/>
+      <c r="L53" s="107"/>
+      <c r="M53" s="96"/>
+      <c r="N53" s="107"/>
       <c r="O53" s="78"/>
       <c r="P53" s="78"/>
       <c r="Q53" s="78"/>
       <c r="R53" s="78"/>
       <c r="S53" s="78"/>
       <c r="T53" s="78"/>
-      <c r="U53" s="108" t="s">
+      <c r="U53" s="104" t="s">
         <v>28</v>
       </c>
       <c r="V53" s="78"/>
@@ -3795,7 +3765,7 @@
       <c r="AC53" s="78"/>
     </row>
     <row r="54" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="162"/>
+      <c r="A54" s="161"/>
       <c r="B54" s="62">
         <f>U6</f>
         <v>7</v>
@@ -3803,11 +3773,11 @@
       <c r="C54" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="151">
+      <c r="D54" s="144">
         <v>4</v>
       </c>
-      <c r="E54" s="119" t="s">
-        <v>41</v>
+      <c r="E54" s="80" t="s">
+        <v>74</v>
       </c>
       <c r="F54" s="79"/>
       <c r="G54" s="79"/>
@@ -3816,7 +3786,7 @@
       <c r="J54" s="79"/>
       <c r="K54" s="79"/>
       <c r="L54" s="79"/>
-      <c r="M54" s="98"/>
+      <c r="M54" s="97"/>
       <c r="N54" s="79"/>
       <c r="O54" s="78"/>
       <c r="P54" s="78"/>
@@ -3824,7 +3794,7 @@
       <c r="R54" s="78"/>
       <c r="S54" s="78"/>
       <c r="T54" s="78"/>
-      <c r="U54" s="85" t="s">
+      <c r="U54" s="84" t="s">
         <v>62</v>
       </c>
       <c r="V54" s="78"/>
@@ -3837,46 +3807,46 @@
       <c r="AC54" s="78"/>
     </row>
     <row r="55" spans="1:29" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="162"/>
+      <c r="A55" s="161"/>
       <c r="B55" s="63"/>
       <c r="C55" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="D55" s="152">
+      <c r="D55" s="145">
         <v>4</v>
       </c>
-      <c r="E55" s="119" t="s">
-        <v>41</v>
-      </c>
-      <c r="F55" s="117"/>
-      <c r="G55" s="117"/>
-      <c r="H55" s="117"/>
-      <c r="I55" s="117"/>
-      <c r="J55" s="117"/>
-      <c r="K55" s="117"/>
-      <c r="L55" s="117"/>
-      <c r="M55" s="117"/>
-      <c r="N55" s="117"/>
-      <c r="O55" s="117"/>
-      <c r="P55" s="117"/>
-      <c r="Q55" s="117"/>
-      <c r="R55" s="117"/>
-      <c r="S55" s="117"/>
-      <c r="T55" s="117"/>
-      <c r="U55" s="86" t="s">
+      <c r="E55" s="156" t="s">
+        <v>17</v>
+      </c>
+      <c r="F55" s="113"/>
+      <c r="G55" s="113"/>
+      <c r="H55" s="113"/>
+      <c r="I55" s="113"/>
+      <c r="J55" s="113"/>
+      <c r="K55" s="113"/>
+      <c r="L55" s="113"/>
+      <c r="M55" s="113"/>
+      <c r="N55" s="113"/>
+      <c r="O55" s="113"/>
+      <c r="P55" s="113"/>
+      <c r="Q55" s="113"/>
+      <c r="R55" s="113"/>
+      <c r="S55" s="113"/>
+      <c r="T55" s="113"/>
+      <c r="U55" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="V55" s="137"/>
-      <c r="W55" s="117"/>
-      <c r="X55" s="117"/>
-      <c r="Y55" s="117"/>
-      <c r="Z55" s="117"/>
-      <c r="AA55" s="117"/>
-      <c r="AB55" s="117"/>
-      <c r="AC55" s="117"/>
+      <c r="V55" s="131"/>
+      <c r="W55" s="113"/>
+      <c r="X55" s="113"/>
+      <c r="Y55" s="113"/>
+      <c r="Z55" s="113"/>
+      <c r="AA55" s="113"/>
+      <c r="AB55" s="113"/>
+      <c r="AC55" s="113"/>
     </row>
     <row r="56" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="162"/>
+      <c r="A56" s="161"/>
       <c r="B56" s="62" t="str">
         <f>V5</f>
         <v>воскресенье</v>
@@ -3884,21 +3854,21 @@
       <c r="C56" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="D56" s="150">
+      <c r="D56" s="143">
         <v>4</v>
       </c>
-      <c r="E56" s="119" t="s">
+      <c r="E56" s="154" t="s">
         <v>41</v>
       </c>
-      <c r="F56" s="111"/>
-      <c r="G56" s="111"/>
-      <c r="H56" s="111"/>
-      <c r="I56" s="111"/>
-      <c r="J56" s="111"/>
-      <c r="K56" s="111"/>
-      <c r="L56" s="111"/>
-      <c r="M56" s="97"/>
-      <c r="N56" s="111"/>
+      <c r="F56" s="107"/>
+      <c r="G56" s="107"/>
+      <c r="H56" s="107"/>
+      <c r="I56" s="107"/>
+      <c r="J56" s="107"/>
+      <c r="K56" s="107"/>
+      <c r="L56" s="107"/>
+      <c r="M56" s="96"/>
+      <c r="N56" s="107"/>
       <c r="O56" s="78"/>
       <c r="P56" s="78"/>
       <c r="Q56" s="78"/>
@@ -3906,7 +3876,7 @@
       <c r="S56" s="78"/>
       <c r="T56" s="78"/>
       <c r="U56" s="78"/>
-      <c r="V56" s="108" t="s">
+      <c r="V56" s="104" t="s">
         <v>28</v>
       </c>
       <c r="W56" s="78"/>
@@ -3918,7 +3888,7 @@
       <c r="AC56" s="78"/>
     </row>
     <row r="57" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="162"/>
+      <c r="A57" s="161"/>
       <c r="B57" s="62">
         <f>V6</f>
         <v>8</v>
@@ -3926,11 +3896,11 @@
       <c r="C57" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="D57" s="151">
+      <c r="D57" s="144">
         <v>4</v>
       </c>
-      <c r="E57" s="119" t="s">
-        <v>41</v>
+      <c r="E57" s="80" t="s">
+        <v>74</v>
       </c>
       <c r="F57" s="79"/>
       <c r="G57" s="79"/>
@@ -3939,7 +3909,7 @@
       <c r="J57" s="79"/>
       <c r="K57" s="79"/>
       <c r="L57" s="79"/>
-      <c r="M57" s="98"/>
+      <c r="M57" s="97"/>
       <c r="N57" s="79"/>
       <c r="O57" s="78"/>
       <c r="P57" s="78"/>
@@ -3948,7 +3918,7 @@
       <c r="S57" s="78"/>
       <c r="T57" s="78"/>
       <c r="U57" s="78"/>
-      <c r="V57" s="85" t="s">
+      <c r="V57" s="84" t="s">
         <v>62</v>
       </c>
       <c r="W57" s="78"/>
@@ -3960,46 +3930,46 @@
       <c r="AC57" s="78"/>
     </row>
     <row r="58" spans="1:29" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="162"/>
+      <c r="A58" s="161"/>
       <c r="B58" s="63"/>
       <c r="C58" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="D58" s="152">
+      <c r="D58" s="145">
         <v>4</v>
       </c>
-      <c r="E58" s="119" t="s">
-        <v>41</v>
-      </c>
-      <c r="F58" s="117"/>
-      <c r="G58" s="117"/>
-      <c r="H58" s="117"/>
-      <c r="I58" s="117"/>
-      <c r="J58" s="117"/>
-      <c r="K58" s="117"/>
-      <c r="L58" s="117"/>
-      <c r="M58" s="117"/>
-      <c r="N58" s="117"/>
-      <c r="O58" s="117"/>
-      <c r="P58" s="117"/>
-      <c r="Q58" s="117"/>
-      <c r="R58" s="117"/>
-      <c r="S58" s="117"/>
-      <c r="T58" s="117"/>
-      <c r="U58" s="117"/>
-      <c r="V58" s="86" t="s">
-        <v>49</v>
-      </c>
-      <c r="W58" s="137"/>
-      <c r="X58" s="117"/>
-      <c r="Y58" s="117"/>
-      <c r="Z58" s="117"/>
-      <c r="AA58" s="117"/>
-      <c r="AB58" s="117"/>
-      <c r="AC58" s="117"/>
+      <c r="E58" s="155" t="s">
+        <v>38</v>
+      </c>
+      <c r="F58" s="113"/>
+      <c r="G58" s="113"/>
+      <c r="H58" s="113"/>
+      <c r="I58" s="113"/>
+      <c r="J58" s="113"/>
+      <c r="K58" s="113"/>
+      <c r="L58" s="113"/>
+      <c r="M58" s="113"/>
+      <c r="N58" s="113"/>
+      <c r="O58" s="113"/>
+      <c r="P58" s="113"/>
+      <c r="Q58" s="113"/>
+      <c r="R58" s="113"/>
+      <c r="S58" s="113"/>
+      <c r="T58" s="113"/>
+      <c r="U58" s="113"/>
+      <c r="V58" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="W58" s="131"/>
+      <c r="X58" s="113"/>
+      <c r="Y58" s="113"/>
+      <c r="Z58" s="113"/>
+      <c r="AA58" s="113"/>
+      <c r="AB58" s="113"/>
+      <c r="AC58" s="113"/>
     </row>
     <row r="59" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="162"/>
+      <c r="A59" s="161"/>
       <c r="B59" s="62" t="str">
         <f>W5</f>
         <v>понедельник</v>
@@ -4007,21 +3977,21 @@
       <c r="C59" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="D59" s="150">
+      <c r="D59" s="143">
         <v>4</v>
       </c>
-      <c r="E59" s="119" t="s">
-        <v>41</v>
-      </c>
-      <c r="F59" s="111"/>
-      <c r="G59" s="111"/>
-      <c r="H59" s="111"/>
-      <c r="I59" s="111"/>
-      <c r="J59" s="111"/>
-      <c r="K59" s="111"/>
-      <c r="L59" s="111"/>
-      <c r="M59" s="97"/>
-      <c r="N59" s="111"/>
+      <c r="E59" s="115" t="s">
+        <v>33</v>
+      </c>
+      <c r="F59" s="107"/>
+      <c r="G59" s="107"/>
+      <c r="H59" s="107"/>
+      <c r="I59" s="107"/>
+      <c r="J59" s="107"/>
+      <c r="K59" s="107"/>
+      <c r="L59" s="107"/>
+      <c r="M59" s="96"/>
+      <c r="N59" s="107"/>
       <c r="O59" s="78"/>
       <c r="P59" s="78"/>
       <c r="Q59" s="78"/>
@@ -4030,7 +4000,7 @@
       <c r="T59" s="78"/>
       <c r="U59" s="78"/>
       <c r="V59" s="78"/>
-      <c r="W59" s="108" t="s">
+      <c r="W59" s="104" t="s">
         <v>28</v>
       </c>
       <c r="X59" s="78"/>
@@ -4041,7 +4011,7 @@
       <c r="AC59" s="78"/>
     </row>
     <row r="60" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="162"/>
+      <c r="A60" s="161"/>
       <c r="B60" s="62">
         <f>W6</f>
         <v>9</v>
@@ -4049,11 +4019,11 @@
       <c r="C60" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="D60" s="151">
+      <c r="D60" s="144">
         <v>4</v>
       </c>
-      <c r="E60" s="119" t="s">
-        <v>41</v>
+      <c r="E60" s="80" t="s">
+        <v>74</v>
       </c>
       <c r="F60" s="79"/>
       <c r="G60" s="79"/>
@@ -4062,7 +4032,7 @@
       <c r="J60" s="79"/>
       <c r="K60" s="79"/>
       <c r="L60" s="79"/>
-      <c r="M60" s="98"/>
+      <c r="M60" s="97"/>
       <c r="N60" s="79"/>
       <c r="O60" s="78"/>
       <c r="P60" s="78"/>
@@ -4072,7 +4042,7 @@
       <c r="T60" s="78"/>
       <c r="U60" s="78"/>
       <c r="V60" s="78"/>
-      <c r="W60" s="85" t="s">
+      <c r="W60" s="84" t="s">
         <v>62</v>
       </c>
       <c r="X60" s="78"/>
@@ -4083,46 +4053,46 @@
       <c r="AC60" s="78"/>
     </row>
     <row r="61" spans="1:29" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="162"/>
+      <c r="A61" s="161"/>
       <c r="B61" s="63"/>
       <c r="C61" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="D61" s="152">
+      <c r="D61" s="145">
         <v>4</v>
       </c>
-      <c r="E61" s="119" t="s">
-        <v>41</v>
-      </c>
-      <c r="F61" s="117"/>
-      <c r="G61" s="117"/>
-      <c r="H61" s="117"/>
-      <c r="I61" s="117"/>
-      <c r="J61" s="117"/>
-      <c r="K61" s="117"/>
-      <c r="L61" s="117"/>
-      <c r="M61" s="117"/>
-      <c r="N61" s="117"/>
-      <c r="O61" s="117"/>
-      <c r="P61" s="117"/>
-      <c r="Q61" s="117"/>
-      <c r="R61" s="117"/>
-      <c r="S61" s="117"/>
-      <c r="T61" s="117"/>
-      <c r="U61" s="117"/>
-      <c r="V61" s="117"/>
-      <c r="W61" s="86" t="s">
-        <v>20</v>
-      </c>
-      <c r="X61" s="137"/>
-      <c r="Y61" s="117"/>
-      <c r="Z61" s="117"/>
-      <c r="AA61" s="117"/>
-      <c r="AB61" s="117"/>
-      <c r="AC61" s="117"/>
+      <c r="E61" s="156" t="s">
+        <v>17</v>
+      </c>
+      <c r="F61" s="113"/>
+      <c r="G61" s="113"/>
+      <c r="H61" s="113"/>
+      <c r="I61" s="113"/>
+      <c r="J61" s="113"/>
+      <c r="K61" s="113"/>
+      <c r="L61" s="113"/>
+      <c r="M61" s="113"/>
+      <c r="N61" s="113"/>
+      <c r="O61" s="113"/>
+      <c r="P61" s="113"/>
+      <c r="Q61" s="113"/>
+      <c r="R61" s="113"/>
+      <c r="S61" s="113"/>
+      <c r="T61" s="113"/>
+      <c r="U61" s="113"/>
+      <c r="V61" s="113"/>
+      <c r="W61" s="85" t="s">
+        <v>49</v>
+      </c>
+      <c r="X61" s="131"/>
+      <c r="Y61" s="113"/>
+      <c r="Z61" s="113"/>
+      <c r="AA61" s="113"/>
+      <c r="AB61" s="113"/>
+      <c r="AC61" s="113"/>
     </row>
     <row r="62" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="162"/>
+      <c r="A62" s="161"/>
       <c r="B62" s="62" t="str">
         <f>X5</f>
         <v>вторник</v>
@@ -4130,21 +4100,21 @@
       <c r="C62" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="D62" s="150">
+      <c r="D62" s="143">
         <v>4</v>
       </c>
-      <c r="E62" s="119" t="s">
+      <c r="E62" s="154" t="s">
         <v>41</v>
       </c>
-      <c r="F62" s="111"/>
-      <c r="G62" s="111"/>
-      <c r="H62" s="111"/>
-      <c r="I62" s="111"/>
-      <c r="J62" s="111"/>
-      <c r="K62" s="111"/>
-      <c r="L62" s="111"/>
-      <c r="M62" s="97"/>
-      <c r="N62" s="111"/>
+      <c r="F62" s="107"/>
+      <c r="G62" s="107"/>
+      <c r="H62" s="107"/>
+      <c r="I62" s="107"/>
+      <c r="J62" s="107"/>
+      <c r="K62" s="107"/>
+      <c r="L62" s="107"/>
+      <c r="M62" s="96"/>
+      <c r="N62" s="107"/>
       <c r="O62" s="78"/>
       <c r="P62" s="78"/>
       <c r="Q62" s="78"/>
@@ -4154,7 +4124,7 @@
       <c r="U62" s="78"/>
       <c r="V62" s="78"/>
       <c r="W62" s="78"/>
-      <c r="X62" s="108" t="s">
+      <c r="X62" s="104" t="s">
         <v>28</v>
       </c>
       <c r="Y62" s="78"/>
@@ -4164,7 +4134,7 @@
       <c r="AC62" s="78"/>
     </row>
     <row r="63" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="162"/>
+      <c r="A63" s="161"/>
       <c r="B63" s="62">
         <f>X6</f>
         <v>10</v>
@@ -4172,11 +4142,11 @@
       <c r="C63" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="D63" s="151">
+      <c r="D63" s="144">
         <v>4</v>
       </c>
-      <c r="E63" s="119" t="s">
-        <v>41</v>
+      <c r="E63" s="80" t="s">
+        <v>74</v>
       </c>
       <c r="F63" s="79"/>
       <c r="G63" s="79"/>
@@ -4185,7 +4155,7 @@
       <c r="J63" s="79"/>
       <c r="K63" s="79"/>
       <c r="L63" s="79"/>
-      <c r="M63" s="98"/>
+      <c r="M63" s="97"/>
       <c r="N63" s="79"/>
       <c r="O63" s="78"/>
       <c r="P63" s="78"/>
@@ -4196,7 +4166,7 @@
       <c r="U63" s="78"/>
       <c r="V63" s="78"/>
       <c r="W63" s="78"/>
-      <c r="X63" s="85" t="s">
+      <c r="X63" s="84" t="s">
         <v>62</v>
       </c>
       <c r="Y63" s="78"/>
@@ -4206,46 +4176,46 @@
       <c r="AC63" s="78"/>
     </row>
     <row r="64" spans="1:29" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="162"/>
+      <c r="A64" s="161"/>
       <c r="B64" s="63"/>
       <c r="C64" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="D64" s="152">
+      <c r="D64" s="145">
         <v>4</v>
       </c>
-      <c r="E64" s="119" t="s">
-        <v>41</v>
-      </c>
-      <c r="F64" s="117"/>
-      <c r="G64" s="117"/>
-      <c r="H64" s="117"/>
-      <c r="I64" s="117"/>
-      <c r="J64" s="117"/>
-      <c r="K64" s="117"/>
-      <c r="L64" s="117"/>
-      <c r="M64" s="117"/>
-      <c r="N64" s="117"/>
-      <c r="O64" s="117"/>
-      <c r="P64" s="117"/>
-      <c r="Q64" s="117"/>
-      <c r="R64" s="117"/>
-      <c r="S64" s="117"/>
-      <c r="T64" s="117"/>
-      <c r="U64" s="117"/>
-      <c r="V64" s="117"/>
-      <c r="W64" s="117"/>
-      <c r="X64" s="86" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y64" s="137"/>
-      <c r="Z64" s="117"/>
-      <c r="AA64" s="117"/>
-      <c r="AB64" s="117"/>
-      <c r="AC64" s="117"/>
+      <c r="E64" s="155" t="s">
+        <v>38</v>
+      </c>
+      <c r="F64" s="113"/>
+      <c r="G64" s="113"/>
+      <c r="H64" s="113"/>
+      <c r="I64" s="113"/>
+      <c r="J64" s="113"/>
+      <c r="K64" s="113"/>
+      <c r="L64" s="113"/>
+      <c r="M64" s="113"/>
+      <c r="N64" s="113"/>
+      <c r="O64" s="113"/>
+      <c r="P64" s="113"/>
+      <c r="Q64" s="113"/>
+      <c r="R64" s="113"/>
+      <c r="S64" s="113"/>
+      <c r="T64" s="113"/>
+      <c r="U64" s="113"/>
+      <c r="V64" s="113"/>
+      <c r="W64" s="113"/>
+      <c r="X64" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y64" s="131"/>
+      <c r="Z64" s="113"/>
+      <c r="AA64" s="113"/>
+      <c r="AB64" s="113"/>
+      <c r="AC64" s="113"/>
     </row>
     <row r="65" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="162"/>
+      <c r="A65" s="161"/>
       <c r="B65" s="62" t="str">
         <f>Y5</f>
         <v>среда</v>
@@ -4253,21 +4223,21 @@
       <c r="C65" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="D65" s="150">
+      <c r="D65" s="143">
         <v>4</v>
       </c>
-      <c r="E65" s="119" t="s">
-        <v>41</v>
-      </c>
-      <c r="F65" s="111"/>
-      <c r="G65" s="111"/>
-      <c r="H65" s="111"/>
-      <c r="I65" s="111"/>
-      <c r="J65" s="111"/>
-      <c r="K65" s="111"/>
-      <c r="L65" s="111"/>
-      <c r="M65" s="97"/>
-      <c r="N65" s="111"/>
+      <c r="E65" s="115" t="s">
+        <v>33</v>
+      </c>
+      <c r="F65" s="107"/>
+      <c r="G65" s="107"/>
+      <c r="H65" s="107"/>
+      <c r="I65" s="107"/>
+      <c r="J65" s="107"/>
+      <c r="K65" s="107"/>
+      <c r="L65" s="107"/>
+      <c r="M65" s="96"/>
+      <c r="N65" s="107"/>
       <c r="O65" s="78"/>
       <c r="P65" s="78"/>
       <c r="Q65" s="78"/>
@@ -4278,7 +4248,7 @@
       <c r="V65" s="78"/>
       <c r="W65" s="78"/>
       <c r="X65" s="78"/>
-      <c r="Y65" s="108" t="s">
+      <c r="Y65" s="104" t="s">
         <v>28</v>
       </c>
       <c r="Z65" s="78"/>
@@ -4287,7 +4257,7 @@
       <c r="AC65" s="78"/>
     </row>
     <row r="66" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="162"/>
+      <c r="A66" s="161"/>
       <c r="B66" s="62">
         <f>Y6</f>
         <v>11</v>
@@ -4295,11 +4265,11 @@
       <c r="C66" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="D66" s="151">
+      <c r="D66" s="144">
         <v>4</v>
       </c>
-      <c r="E66" s="119" t="s">
-        <v>41</v>
+      <c r="E66" s="80" t="s">
+        <v>74</v>
       </c>
       <c r="F66" s="79"/>
       <c r="G66" s="79"/>
@@ -4308,7 +4278,7 @@
       <c r="J66" s="79"/>
       <c r="K66" s="79"/>
       <c r="L66" s="79"/>
-      <c r="M66" s="98"/>
+      <c r="M66" s="97"/>
       <c r="N66" s="79"/>
       <c r="O66" s="78"/>
       <c r="P66" s="78"/>
@@ -4320,7 +4290,7 @@
       <c r="V66" s="78"/>
       <c r="W66" s="78"/>
       <c r="X66" s="78"/>
-      <c r="Y66" s="85" t="s">
+      <c r="Y66" s="84" t="s">
         <v>62</v>
       </c>
       <c r="Z66" s="78"/>
@@ -4329,46 +4299,46 @@
       <c r="AC66" s="78"/>
     </row>
     <row r="67" spans="1:29" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="162"/>
+      <c r="A67" s="161"/>
       <c r="B67" s="63"/>
       <c r="C67" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="D67" s="152">
+      <c r="D67" s="145">
         <v>4</v>
       </c>
-      <c r="E67" s="119" t="s">
-        <v>41</v>
-      </c>
-      <c r="F67" s="117"/>
-      <c r="G67" s="117"/>
-      <c r="H67" s="117"/>
-      <c r="I67" s="117"/>
-      <c r="J67" s="117"/>
-      <c r="K67" s="117"/>
-      <c r="L67" s="117"/>
-      <c r="M67" s="117"/>
-      <c r="N67" s="117"/>
-      <c r="O67" s="117"/>
-      <c r="P67" s="117"/>
-      <c r="Q67" s="117"/>
-      <c r="R67" s="117"/>
-      <c r="S67" s="117"/>
-      <c r="T67" s="117"/>
-      <c r="U67" s="117"/>
-      <c r="V67" s="117"/>
-      <c r="W67" s="117"/>
-      <c r="X67" s="117"/>
-      <c r="Y67" s="86" t="s">
+      <c r="E67" s="156" t="s">
+        <v>17</v>
+      </c>
+      <c r="F67" s="113"/>
+      <c r="G67" s="113"/>
+      <c r="H67" s="113"/>
+      <c r="I67" s="113"/>
+      <c r="J67" s="113"/>
+      <c r="K67" s="113"/>
+      <c r="L67" s="113"/>
+      <c r="M67" s="113"/>
+      <c r="N67" s="113"/>
+      <c r="O67" s="113"/>
+      <c r="P67" s="113"/>
+      <c r="Q67" s="113"/>
+      <c r="R67" s="113"/>
+      <c r="S67" s="113"/>
+      <c r="T67" s="113"/>
+      <c r="U67" s="113"/>
+      <c r="V67" s="113"/>
+      <c r="W67" s="113"/>
+      <c r="X67" s="113"/>
+      <c r="Y67" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="Z67" s="137"/>
-      <c r="AA67" s="117"/>
-      <c r="AB67" s="117"/>
-      <c r="AC67" s="117"/>
+      <c r="Z67" s="131"/>
+      <c r="AA67" s="113"/>
+      <c r="AB67" s="113"/>
+      <c r="AC67" s="113"/>
     </row>
     <row r="68" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="162"/>
+      <c r="A68" s="161"/>
       <c r="B68" s="62" t="str">
         <f>Z5</f>
         <v>четверг</v>
@@ -4376,21 +4346,21 @@
       <c r="C68" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="D68" s="150">
+      <c r="D68" s="143">
         <v>4</v>
       </c>
-      <c r="E68" s="119" t="s">
+      <c r="E68" s="154" t="s">
         <v>41</v>
       </c>
-      <c r="F68" s="111"/>
-      <c r="G68" s="111"/>
-      <c r="H68" s="111"/>
-      <c r="I68" s="111"/>
-      <c r="J68" s="111"/>
-      <c r="K68" s="111"/>
-      <c r="L68" s="111"/>
-      <c r="M68" s="97"/>
-      <c r="N68" s="111"/>
+      <c r="F68" s="107"/>
+      <c r="G68" s="107"/>
+      <c r="H68" s="107"/>
+      <c r="I68" s="107"/>
+      <c r="J68" s="107"/>
+      <c r="K68" s="107"/>
+      <c r="L68" s="107"/>
+      <c r="M68" s="96"/>
+      <c r="N68" s="107"/>
       <c r="O68" s="78"/>
       <c r="P68" s="78"/>
       <c r="Q68" s="78"/>
@@ -4402,7 +4372,7 @@
       <c r="W68" s="78"/>
       <c r="X68" s="78"/>
       <c r="Y68" s="78"/>
-      <c r="Z68" s="108" t="s">
+      <c r="Z68" s="104" t="s">
         <v>28</v>
       </c>
       <c r="AA68" s="78"/>
@@ -4410,7 +4380,7 @@
       <c r="AC68" s="78"/>
     </row>
     <row r="69" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="162"/>
+      <c r="A69" s="161"/>
       <c r="B69" s="62">
         <f>Z6</f>
         <v>12</v>
@@ -4418,11 +4388,11 @@
       <c r="C69" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="D69" s="151">
+      <c r="D69" s="144">
         <v>4</v>
       </c>
-      <c r="E69" s="119" t="s">
-        <v>41</v>
+      <c r="E69" s="80" t="s">
+        <v>74</v>
       </c>
       <c r="F69" s="79"/>
       <c r="G69" s="79"/>
@@ -4431,7 +4401,7 @@
       <c r="J69" s="79"/>
       <c r="K69" s="79"/>
       <c r="L69" s="79"/>
-      <c r="M69" s="98"/>
+      <c r="M69" s="97"/>
       <c r="N69" s="79"/>
       <c r="O69" s="78"/>
       <c r="P69" s="78"/>
@@ -4444,7 +4414,7 @@
       <c r="W69" s="78"/>
       <c r="X69" s="78"/>
       <c r="Y69" s="78"/>
-      <c r="Z69" s="85" t="s">
+      <c r="Z69" s="84" t="s">
         <v>62</v>
       </c>
       <c r="AA69" s="78"/>
@@ -4452,46 +4422,46 @@
       <c r="AC69" s="78"/>
     </row>
     <row r="70" spans="1:29" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="162"/>
+      <c r="A70" s="161"/>
       <c r="B70" s="63"/>
       <c r="C70" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="D70" s="152">
+      <c r="D70" s="145">
         <v>4</v>
       </c>
-      <c r="E70" s="119" t="s">
-        <v>41</v>
-      </c>
-      <c r="F70" s="117"/>
-      <c r="G70" s="117"/>
-      <c r="H70" s="117"/>
-      <c r="I70" s="117"/>
-      <c r="J70" s="117"/>
-      <c r="K70" s="117"/>
-      <c r="L70" s="117"/>
-      <c r="M70" s="117"/>
-      <c r="N70" s="117"/>
-      <c r="O70" s="117"/>
-      <c r="P70" s="117"/>
-      <c r="Q70" s="117"/>
-      <c r="R70" s="117"/>
-      <c r="S70" s="117"/>
-      <c r="T70" s="117"/>
-      <c r="U70" s="117"/>
-      <c r="V70" s="117"/>
-      <c r="W70" s="117"/>
-      <c r="X70" s="117"/>
-      <c r="Y70" s="117"/>
-      <c r="Z70" s="86" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA70" s="137"/>
-      <c r="AB70" s="117"/>
-      <c r="AC70" s="117"/>
+      <c r="E70" s="155" t="s">
+        <v>38</v>
+      </c>
+      <c r="F70" s="113"/>
+      <c r="G70" s="113"/>
+      <c r="H70" s="113"/>
+      <c r="I70" s="113"/>
+      <c r="J70" s="113"/>
+      <c r="K70" s="113"/>
+      <c r="L70" s="113"/>
+      <c r="M70" s="113"/>
+      <c r="N70" s="113"/>
+      <c r="O70" s="113"/>
+      <c r="P70" s="113"/>
+      <c r="Q70" s="113"/>
+      <c r="R70" s="113"/>
+      <c r="S70" s="113"/>
+      <c r="T70" s="113"/>
+      <c r="U70" s="113"/>
+      <c r="V70" s="113"/>
+      <c r="W70" s="113"/>
+      <c r="X70" s="113"/>
+      <c r="Y70" s="113"/>
+      <c r="Z70" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA70" s="131"/>
+      <c r="AB70" s="113"/>
+      <c r="AC70" s="113"/>
     </row>
     <row r="71" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="162"/>
+      <c r="A71" s="161"/>
       <c r="B71" s="62" t="str">
         <f>AA5</f>
         <v>пятница</v>
@@ -4499,21 +4469,21 @@
       <c r="C71" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="D71" s="150">
+      <c r="D71" s="143">
         <v>4</v>
       </c>
-      <c r="E71" s="119" t="s">
-        <v>41</v>
-      </c>
-      <c r="F71" s="111"/>
-      <c r="G71" s="111"/>
-      <c r="H71" s="111"/>
-      <c r="I71" s="111"/>
-      <c r="J71" s="111"/>
-      <c r="K71" s="111"/>
-      <c r="L71" s="111"/>
-      <c r="M71" s="97"/>
-      <c r="N71" s="111"/>
+      <c r="E71" s="115" t="s">
+        <v>33</v>
+      </c>
+      <c r="F71" s="107"/>
+      <c r="G71" s="107"/>
+      <c r="H71" s="107"/>
+      <c r="I71" s="107"/>
+      <c r="J71" s="107"/>
+      <c r="K71" s="107"/>
+      <c r="L71" s="107"/>
+      <c r="M71" s="96"/>
+      <c r="N71" s="107"/>
       <c r="O71" s="78"/>
       <c r="P71" s="78"/>
       <c r="Q71" s="78"/>
@@ -4526,14 +4496,14 @@
       <c r="X71" s="78"/>
       <c r="Y71" s="78"/>
       <c r="Z71" s="78"/>
-      <c r="AA71" s="108" t="s">
+      <c r="AA71" s="104" t="s">
         <v>28</v>
       </c>
       <c r="AB71" s="78"/>
       <c r="AC71" s="78"/>
     </row>
     <row r="72" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="162"/>
+      <c r="A72" s="161"/>
       <c r="B72" s="62">
         <f>AA6</f>
         <v>13</v>
@@ -4541,11 +4511,11 @@
       <c r="C72" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="D72" s="151">
+      <c r="D72" s="144">
         <v>4</v>
       </c>
-      <c r="E72" s="119" t="s">
-        <v>41</v>
+      <c r="E72" s="80" t="s">
+        <v>74</v>
       </c>
       <c r="F72" s="79"/>
       <c r="G72" s="79"/>
@@ -4554,7 +4524,7 @@
       <c r="J72" s="79"/>
       <c r="K72" s="79"/>
       <c r="L72" s="79"/>
-      <c r="M72" s="98"/>
+      <c r="M72" s="97"/>
       <c r="N72" s="79"/>
       <c r="O72" s="78"/>
       <c r="P72" s="78"/>
@@ -4568,53 +4538,53 @@
       <c r="X72" s="78"/>
       <c r="Y72" s="78"/>
       <c r="Z72" s="78"/>
-      <c r="AA72" s="85" t="s">
+      <c r="AA72" s="84" t="s">
         <v>62</v>
       </c>
       <c r="AB72" s="78"/>
       <c r="AC72" s="78"/>
     </row>
     <row r="73" spans="1:29" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="162"/>
+      <c r="A73" s="161"/>
       <c r="B73" s="63"/>
       <c r="C73" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="D73" s="152">
+      <c r="D73" s="145">
         <v>4</v>
       </c>
-      <c r="E73" s="119" t="s">
-        <v>41</v>
-      </c>
-      <c r="F73" s="117"/>
-      <c r="G73" s="117"/>
-      <c r="H73" s="117"/>
-      <c r="I73" s="117"/>
-      <c r="J73" s="117"/>
-      <c r="K73" s="117"/>
-      <c r="L73" s="117"/>
-      <c r="M73" s="117"/>
-      <c r="N73" s="117"/>
-      <c r="O73" s="117"/>
-      <c r="P73" s="117"/>
-      <c r="Q73" s="117"/>
-      <c r="R73" s="117"/>
-      <c r="S73" s="117"/>
-      <c r="T73" s="117"/>
-      <c r="U73" s="117"/>
-      <c r="V73" s="117"/>
-      <c r="W73" s="117"/>
-      <c r="X73" s="117"/>
-      <c r="Y73" s="117"/>
-      <c r="Z73" s="117"/>
-      <c r="AA73" s="86" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB73" s="137"/>
-      <c r="AC73" s="117"/>
+      <c r="E73" s="156" t="s">
+        <v>17</v>
+      </c>
+      <c r="F73" s="113"/>
+      <c r="G73" s="113"/>
+      <c r="H73" s="113"/>
+      <c r="I73" s="113"/>
+      <c r="J73" s="113"/>
+      <c r="K73" s="113"/>
+      <c r="L73" s="113"/>
+      <c r="M73" s="113"/>
+      <c r="N73" s="113"/>
+      <c r="O73" s="113"/>
+      <c r="P73" s="113"/>
+      <c r="Q73" s="113"/>
+      <c r="R73" s="113"/>
+      <c r="S73" s="113"/>
+      <c r="T73" s="113"/>
+      <c r="U73" s="113"/>
+      <c r="V73" s="113"/>
+      <c r="W73" s="113"/>
+      <c r="X73" s="113"/>
+      <c r="Y73" s="113"/>
+      <c r="Z73" s="113"/>
+      <c r="AA73" s="85" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB73" s="131"/>
+      <c r="AC73" s="113"/>
     </row>
     <row r="74" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="162"/>
+      <c r="A74" s="161"/>
       <c r="B74" s="62" t="str">
         <f>AB5</f>
         <v>суббота</v>
@@ -4622,21 +4592,21 @@
       <c r="C74" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="D74" s="150">
+      <c r="D74" s="143">
         <v>4</v>
       </c>
-      <c r="E74" s="119" t="s">
+      <c r="E74" s="154" t="s">
         <v>41</v>
       </c>
-      <c r="F74" s="111"/>
-      <c r="G74" s="111"/>
-      <c r="H74" s="111"/>
-      <c r="I74" s="111"/>
-      <c r="J74" s="111"/>
-      <c r="K74" s="111"/>
-      <c r="L74" s="111"/>
-      <c r="M74" s="97"/>
-      <c r="N74" s="111"/>
+      <c r="F74" s="107"/>
+      <c r="G74" s="107"/>
+      <c r="H74" s="107"/>
+      <c r="I74" s="107"/>
+      <c r="J74" s="107"/>
+      <c r="K74" s="107"/>
+      <c r="L74" s="107"/>
+      <c r="M74" s="96"/>
+      <c r="N74" s="107"/>
       <c r="O74" s="78"/>
       <c r="P74" s="78"/>
       <c r="Q74" s="78"/>
@@ -4650,13 +4620,13 @@
       <c r="Y74" s="78"/>
       <c r="Z74" s="78"/>
       <c r="AA74" s="78"/>
-      <c r="AB74" s="108" t="s">
+      <c r="AB74" s="104" t="s">
         <v>28</v>
       </c>
       <c r="AC74" s="78"/>
     </row>
     <row r="75" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="162"/>
+      <c r="A75" s="161"/>
       <c r="B75" s="62">
         <f>AB6</f>
         <v>14</v>
@@ -4664,11 +4634,11 @@
       <c r="C75" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="D75" s="151">
+      <c r="D75" s="144">
         <v>4</v>
       </c>
-      <c r="E75" s="119" t="s">
-        <v>41</v>
+      <c r="E75" s="80" t="s">
+        <v>74</v>
       </c>
       <c r="F75" s="79"/>
       <c r="G75" s="79"/>
@@ -4677,7 +4647,7 @@
       <c r="J75" s="79"/>
       <c r="K75" s="79"/>
       <c r="L75" s="79"/>
-      <c r="M75" s="98"/>
+      <c r="M75" s="97"/>
       <c r="N75" s="79"/>
       <c r="O75" s="78"/>
       <c r="P75" s="78"/>
@@ -4692,52 +4662,52 @@
       <c r="Y75" s="78"/>
       <c r="Z75" s="78"/>
       <c r="AA75" s="78"/>
-      <c r="AB75" s="85" t="s">
+      <c r="AB75" s="84" t="s">
         <v>62</v>
       </c>
       <c r="AC75" s="78"/>
     </row>
     <row r="76" spans="1:29" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="162"/>
+      <c r="A76" s="161"/>
       <c r="B76" s="63"/>
       <c r="C76" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="D76" s="152">
+      <c r="D76" s="145">
         <v>4</v>
       </c>
-      <c r="E76" s="119" t="s">
-        <v>41</v>
-      </c>
-      <c r="F76" s="117"/>
-      <c r="G76" s="117"/>
-      <c r="H76" s="117"/>
-      <c r="I76" s="117"/>
-      <c r="J76" s="117"/>
-      <c r="K76" s="117"/>
-      <c r="L76" s="117"/>
-      <c r="M76" s="117"/>
-      <c r="N76" s="117"/>
-      <c r="O76" s="117"/>
-      <c r="P76" s="117"/>
-      <c r="Q76" s="117"/>
-      <c r="R76" s="117"/>
-      <c r="S76" s="117"/>
-      <c r="T76" s="117"/>
-      <c r="U76" s="117"/>
-      <c r="V76" s="117"/>
-      <c r="W76" s="117"/>
-      <c r="X76" s="117"/>
-      <c r="Y76" s="117"/>
-      <c r="Z76" s="117"/>
-      <c r="AA76" s="117"/>
-      <c r="AB76" s="86" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC76" s="137"/>
+      <c r="E76" s="155" t="s">
+        <v>38</v>
+      </c>
+      <c r="F76" s="113"/>
+      <c r="G76" s="113"/>
+      <c r="H76" s="113"/>
+      <c r="I76" s="113"/>
+      <c r="J76" s="113"/>
+      <c r="K76" s="113"/>
+      <c r="L76" s="113"/>
+      <c r="M76" s="113"/>
+      <c r="N76" s="113"/>
+      <c r="O76" s="113"/>
+      <c r="P76" s="113"/>
+      <c r="Q76" s="113"/>
+      <c r="R76" s="113"/>
+      <c r="S76" s="113"/>
+      <c r="T76" s="113"/>
+      <c r="U76" s="113"/>
+      <c r="V76" s="113"/>
+      <c r="W76" s="113"/>
+      <c r="X76" s="113"/>
+      <c r="Y76" s="113"/>
+      <c r="Z76" s="113"/>
+      <c r="AA76" s="113"/>
+      <c r="AB76" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC76" s="131"/>
     </row>
     <row r="77" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="162"/>
+      <c r="A77" s="161"/>
       <c r="B77" s="62" t="str">
         <f>AC5</f>
         <v>воскресенье</v>
@@ -4745,21 +4715,17 @@
       <c r="C77" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="D77" s="150">
-        <v>4</v>
-      </c>
-      <c r="E77" s="119" t="s">
-        <v>41</v>
-      </c>
-      <c r="F77" s="111"/>
-      <c r="G77" s="111"/>
-      <c r="H77" s="111"/>
-      <c r="I77" s="111"/>
-      <c r="J77" s="111"/>
-      <c r="K77" s="111"/>
-      <c r="L77" s="111"/>
-      <c r="M77" s="97"/>
-      <c r="N77" s="111"/>
+      <c r="D77" s="143"/>
+      <c r="E77" s="124"/>
+      <c r="F77" s="107"/>
+      <c r="G77" s="107"/>
+      <c r="H77" s="107"/>
+      <c r="I77" s="107"/>
+      <c r="J77" s="107"/>
+      <c r="K77" s="107"/>
+      <c r="L77" s="107"/>
+      <c r="M77" s="96"/>
+      <c r="N77" s="107"/>
       <c r="O77" s="78"/>
       <c r="P77" s="78"/>
       <c r="Q77" s="78"/>
@@ -4774,9 +4740,7 @@
       <c r="Z77" s="78"/>
       <c r="AA77" s="78"/>
       <c r="AB77" s="78"/>
-      <c r="AC77" s="108" t="s">
-        <v>28</v>
-      </c>
+      <c r="AC77" s="104"/>
     </row>
     <row r="78" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="62">
@@ -4786,7 +4750,7 @@
       <c r="C78" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="D78" s="151"/>
+      <c r="D78" s="144"/>
       <c r="E78" s="80"/>
       <c r="F78" s="79"/>
       <c r="G78" s="79"/>
@@ -4795,7 +4759,7 @@
       <c r="J78" s="79"/>
       <c r="K78" s="79"/>
       <c r="L78" s="79"/>
-      <c r="M78" s="98"/>
+      <c r="M78" s="97"/>
       <c r="N78" s="79"/>
       <c r="O78" s="78"/>
       <c r="P78" s="78"/>
@@ -4811,15 +4775,15 @@
       <c r="Z78" s="78"/>
       <c r="AA78" s="78"/>
       <c r="AB78" s="78"/>
-      <c r="AC78" s="85"/>
+      <c r="AC78" s="84"/>
     </row>
     <row r="79" spans="1:29" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B79" s="63"/>
       <c r="C79" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="D79" s="152"/>
-      <c r="E79" s="132"/>
+      <c r="D79" s="145"/>
+      <c r="E79" s="126"/>
       <c r="F79" s="79"/>
       <c r="G79" s="79"/>
       <c r="H79" s="79"/>
@@ -4827,7 +4791,7 @@
       <c r="J79" s="79"/>
       <c r="K79" s="79"/>
       <c r="L79" s="79"/>
-      <c r="M79" s="98"/>
+      <c r="M79" s="97"/>
       <c r="N79" s="79"/>
       <c r="O79" s="78"/>
       <c r="P79" s="78"/>
@@ -4843,7 +4807,7 @@
       <c r="Z79" s="78"/>
       <c r="AA79" s="78"/>
       <c r="AB79" s="78"/>
-      <c r="AC79" s="86"/>
+      <c r="AC79" s="85"/>
     </row>
     <row r="80" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="81" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4855,10 +4819,10 @@
     <row r="87" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="A29:A77"/>
     <mergeCell ref="D2:J2"/>
     <mergeCell ref="F3:H3"/>
-    <mergeCell ref="A11:A37"/>
-    <mergeCell ref="A38:A77"/>
+    <mergeCell ref="A11:A28"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4881,8 +4845,8 @@
   </sheetPr>
   <dimension ref="A1:CP69"/>
   <sheetViews>
-    <sheetView showOutlineSymbols="0" defaultGridColor="0" view="pageBreakPreview" colorId="21" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+    <sheetView showOutlineSymbols="0" defaultGridColor="0" view="pageBreakPreview" topLeftCell="A4" colorId="21" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4987,10 +4951,10 @@
       <c r="N2" s="23"/>
       <c r="O2" s="23"/>
       <c r="P2" s="23"/>
-      <c r="Q2" s="149" t="s">
+      <c r="Q2" s="142" t="s">
         <v>71</v>
       </c>
-      <c r="R2" s="154">
+      <c r="R2" s="147">
         <f>График!C2</f>
         <v>2</v>
       </c>
@@ -5113,31 +5077,31 @@
       <c r="CP4" s="54"/>
     </row>
     <row r="5" spans="1:94" ht="35.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="172" t="s">
+      <c r="B5" s="170" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="172"/>
-      <c r="D5" s="172"/>
-      <c r="E5" s="172"/>
-      <c r="F5" s="172"/>
-      <c r="G5" s="172"/>
-      <c r="H5" s="172"/>
-      <c r="I5" s="174"/>
+      <c r="C5" s="170"/>
+      <c r="D5" s="170"/>
+      <c r="E5" s="170"/>
+      <c r="F5" s="170"/>
+      <c r="G5" s="170"/>
+      <c r="H5" s="170"/>
+      <c r="I5" s="172"/>
       <c r="J5" s="20">
         <v>1</v>
       </c>
-      <c r="K5" s="173" t="s">
+      <c r="K5" s="171" t="s">
         <v>70</v>
       </c>
-      <c r="L5" s="165"/>
-      <c r="M5" s="165"/>
-      <c r="N5" s="165"/>
-      <c r="O5" s="164" t="s">
+      <c r="L5" s="163"/>
+      <c r="M5" s="163"/>
+      <c r="N5" s="163"/>
+      <c r="O5" s="162" t="s">
         <v>57</v>
       </c>
-      <c r="P5" s="164"/>
-      <c r="Q5" s="164"/>
-      <c r="R5" s="164"/>
+      <c r="P5" s="162"/>
+      <c r="Q5" s="162"/>
+      <c r="R5" s="162"/>
       <c r="S5" s="17"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
@@ -5413,10 +5377,10 @@
       <c r="B8" s="19">
         <v>1</v>
       </c>
-      <c r="C8" s="167" t="s">
+      <c r="C8" s="165" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="167"/>
+      <c r="D8" s="165"/>
       <c r="E8" s="12">
         <f>SUM(G8,I8,K8)</f>
         <v>0</v>
@@ -5663,18 +5627,18 @@
       <c r="B11" s="58">
         <v>2</v>
       </c>
-      <c r="C11" s="165" t="s">
+      <c r="C11" s="163" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="165"/>
+      <c r="D11" s="163"/>
       <c r="E11" s="37"/>
-      <c r="F11" s="165" t="s">
+      <c r="F11" s="163" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="165"/>
-      <c r="H11" s="165"/>
-      <c r="I11" s="165"/>
-      <c r="J11" s="165"/>
+      <c r="G11" s="163"/>
+      <c r="H11" s="163"/>
+      <c r="I11" s="163"/>
+      <c r="J11" s="163"/>
       <c r="K11" s="54"/>
       <c r="L11" s="54"/>
       <c r="M11" s="54"/>
@@ -5773,7 +5737,9 @@
         <v>56</v>
       </c>
       <c r="L13" s="54"/>
-      <c r="M13" s="54"/>
+      <c r="M13" s="54" t="s">
+        <v>74</v>
+      </c>
       <c r="N13" s="54"/>
       <c r="O13" s="54"/>
       <c r="P13" s="54"/>
@@ -5810,10 +5776,10 @@
       <c r="B14" s="50">
         <v>3</v>
       </c>
-      <c r="C14" s="166" t="s">
+      <c r="C14" s="164" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="166"/>
+      <c r="D14" s="164"/>
       <c r="E14" s="12">
         <f>SUM(G14,I14,K14)</f>
         <v>0</v>
@@ -5836,8 +5802,12 @@
       <c r="K14" s="64">
         <v>0</v>
       </c>
-      <c r="L14" s="54"/>
-      <c r="M14" s="54"/>
+      <c r="L14" s="70" t="s">
+        <v>18</v>
+      </c>
+      <c r="M14" s="157">
+        <v>0</v>
+      </c>
       <c r="N14" s="54"/>
       <c r="O14" s="54"/>
       <c r="P14" s="54"/>
@@ -5964,18 +5934,18 @@
       <c r="B17" s="58">
         <v>4</v>
       </c>
-      <c r="C17" s="165" t="s">
+      <c r="C17" s="163" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="165"/>
+      <c r="D17" s="163"/>
       <c r="E17" s="37"/>
-      <c r="F17" s="165" t="s">
+      <c r="F17" s="163" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="165"/>
-      <c r="H17" s="165"/>
-      <c r="I17" s="165"/>
-      <c r="J17" s="165"/>
+      <c r="G17" s="163"/>
+      <c r="H17" s="163"/>
+      <c r="I17" s="163"/>
+      <c r="J17" s="163"/>
       <c r="K17" s="54"/>
       <c r="L17" s="54"/>
       <c r="M17" s="54"/>
@@ -6074,7 +6044,7 @@
         <v>53</v>
       </c>
       <c r="L19" s="54"/>
-      <c r="M19" s="103" t="s">
+      <c r="M19" s="102" t="s">
         <v>22</v>
       </c>
       <c r="N19" s="54"/>
@@ -6113,10 +6083,10 @@
       <c r="B20" s="24">
         <v>5</v>
       </c>
-      <c r="C20" s="169" t="s">
+      <c r="C20" s="167" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="169"/>
+      <c r="D20" s="167"/>
       <c r="E20" s="12">
         <f>SUM(G20,I20,K20)</f>
         <v>0</v>
@@ -6139,7 +6109,7 @@
       <c r="K20" s="7">
         <v>0</v>
       </c>
-      <c r="L20" s="104" t="s">
+      <c r="L20" s="103" t="s">
         <v>18</v>
       </c>
       <c r="M20" s="12">
@@ -6236,14 +6206,14 @@
       <c r="F22" s="57"/>
       <c r="G22" s="12"/>
       <c r="H22" s="57"/>
-      <c r="I22" s="170" t="s">
+      <c r="I22" s="168" t="s">
         <v>25</v>
       </c>
-      <c r="J22" s="170"/>
-      <c r="K22" s="171" t="s">
+      <c r="J22" s="168"/>
+      <c r="K22" s="169" t="s">
         <v>67</v>
       </c>
-      <c r="L22" s="171"/>
+      <c r="L22" s="169"/>
       <c r="M22" s="54"/>
       <c r="N22" s="54"/>
       <c r="O22" s="54"/>
@@ -6285,15 +6255,15 @@
       <c r="F23" s="54"/>
       <c r="G23" s="54"/>
       <c r="H23" s="2"/>
-      <c r="I23" s="170" t="s">
+      <c r="I23" s="168" t="s">
         <v>66</v>
       </c>
-      <c r="J23" s="170"/>
-      <c r="K23" s="170" t="s">
+      <c r="J23" s="168"/>
+      <c r="K23" s="168" t="s">
         <v>68</v>
       </c>
-      <c r="L23" s="170"/>
-      <c r="M23" s="170"/>
+      <c r="L23" s="168"/>
+      <c r="M23" s="168"/>
       <c r="N23" s="54"/>
       <c r="O23" s="54"/>
       <c r="P23" s="54"/>
@@ -6336,17 +6306,17 @@
       <c r="H24" s="54"/>
       <c r="I24" s="57"/>
       <c r="J24" s="54"/>
-      <c r="K24" s="171"/>
-      <c r="L24" s="171"/>
+      <c r="K24" s="169"/>
+      <c r="L24" s="169"/>
       <c r="M24" s="54"/>
       <c r="N24" s="54"/>
       <c r="O24" s="54"/>
       <c r="P24" s="54"/>
-      <c r="Q24" s="165" t="s">
+      <c r="Q24" s="163" t="s">
         <v>5</v>
       </c>
-      <c r="R24" s="165"/>
-      <c r="S24" s="165"/>
+      <c r="R24" s="163"/>
+      <c r="S24" s="163"/>
       <c r="T24" s="54" t="s">
         <v>2</v>
       </c>
@@ -6474,11 +6444,11 @@
       <c r="C27" s="9">
         <v>1</v>
       </c>
-      <c r="D27" s="168" t="s">
+      <c r="D27" s="166" t="s">
         <v>33</v>
       </c>
-      <c r="E27" s="168"/>
-      <c r="F27" s="168"/>
+      <c r="E27" s="166"/>
+      <c r="F27" s="166"/>
       <c r="G27" s="12">
         <v>40</v>
       </c>
@@ -6543,11 +6513,11 @@
       <c r="C28" s="9">
         <v>2</v>
       </c>
-      <c r="D28" s="167" t="s">
+      <c r="D28" s="165" t="s">
         <v>41</v>
       </c>
-      <c r="E28" s="167"/>
-      <c r="F28" s="167"/>
+      <c r="E28" s="165"/>
+      <c r="F28" s="165"/>
       <c r="G28" s="12">
         <v>40</v>
       </c>
@@ -6750,11 +6720,11 @@
       <c r="C31" s="9">
         <v>5</v>
       </c>
-      <c r="D31" s="165" t="s">
+      <c r="D31" s="163" t="s">
         <v>40</v>
       </c>
-      <c r="E31" s="165"/>
-      <c r="F31" s="165"/>
+      <c r="E31" s="163"/>
+      <c r="F31" s="163"/>
       <c r="G31" s="12">
         <v>100</v>
       </c>
@@ -6826,11 +6796,11 @@
       <c r="C32" s="9">
         <v>6</v>
       </c>
-      <c r="D32" s="165" t="s">
+      <c r="D32" s="163" t="s">
         <v>27</v>
       </c>
-      <c r="E32" s="165"/>
-      <c r="F32" s="165"/>
+      <c r="E32" s="163"/>
+      <c r="F32" s="163"/>
       <c r="G32" s="12">
         <v>2</v>
       </c>
@@ -6892,11 +6862,11 @@
       <c r="C33" s="9">
         <v>7</v>
       </c>
-      <c r="D33" s="165" t="s">
+      <c r="D33" s="163" t="s">
         <v>35</v>
       </c>
-      <c r="E33" s="165"/>
-      <c r="F33" s="165"/>
+      <c r="E33" s="163"/>
+      <c r="F33" s="163"/>
       <c r="G33" s="12"/>
       <c r="H33" s="57"/>
       <c r="I33" s="12"/>
@@ -6985,10 +6955,10 @@
       <c r="B35" s="58">
         <v>2</v>
       </c>
-      <c r="C35" s="165" t="s">
+      <c r="C35" s="163" t="s">
         <v>13</v>
       </c>
-      <c r="D35" s="165"/>
+      <c r="D35" s="163"/>
       <c r="E35" s="54"/>
       <c r="F35" s="54"/>
       <c r="G35" s="54"/>
@@ -7079,18 +7049,18 @@
       <c r="B37" s="50">
         <v>3</v>
       </c>
-      <c r="C37" s="166" t="s">
+      <c r="C37" s="164" t="s">
         <v>12</v>
       </c>
-      <c r="D37" s="166"/>
+      <c r="D37" s="164"/>
       <c r="E37" s="54"/>
-      <c r="F37" s="165" t="s">
+      <c r="F37" s="163" t="s">
         <v>7</v>
       </c>
-      <c r="G37" s="165"/>
-      <c r="H37" s="165"/>
-      <c r="I37" s="165"/>
-      <c r="J37" s="165"/>
+      <c r="G37" s="163"/>
+      <c r="H37" s="163"/>
+      <c r="I37" s="163"/>
+      <c r="J37" s="163"/>
       <c r="K37" s="54"/>
       <c r="L37" s="54"/>
       <c r="M37" s="54"/>
@@ -7131,11 +7101,11 @@
       <c r="C38" s="9">
         <v>1</v>
       </c>
-      <c r="D38" s="165" t="s">
+      <c r="D38" s="163" t="s">
         <v>15</v>
       </c>
-      <c r="E38" s="165"/>
-      <c r="F38" s="165"/>
+      <c r="E38" s="163"/>
+      <c r="F38" s="163"/>
       <c r="G38" s="12">
         <v>50</v>
       </c>
@@ -7354,11 +7324,11 @@
       <c r="C42" s="9">
         <v>5</v>
       </c>
-      <c r="D42" s="165" t="s">
+      <c r="D42" s="163" t="s">
         <v>21</v>
       </c>
-      <c r="E42" s="165"/>
-      <c r="F42" s="165"/>
+      <c r="E42" s="163"/>
+      <c r="F42" s="163"/>
       <c r="G42" s="12">
         <v>2</v>
       </c>
@@ -7401,11 +7371,11 @@
       <c r="C43" s="9">
         <v>6</v>
       </c>
-      <c r="D43" s="165" t="s">
+      <c r="D43" s="163" t="s">
         <v>8</v>
       </c>
-      <c r="E43" s="165"/>
-      <c r="F43" s="165"/>
+      <c r="E43" s="163"/>
+      <c r="F43" s="163"/>
       <c r="G43" s="14">
         <v>0.25</v>
       </c>
@@ -7450,11 +7420,11 @@
       <c r="C44" s="9">
         <v>7</v>
       </c>
-      <c r="D44" s="165" t="s">
+      <c r="D44" s="163" t="s">
         <v>35</v>
       </c>
-      <c r="E44" s="165"/>
-      <c r="F44" s="165"/>
+      <c r="E44" s="163"/>
+      <c r="F44" s="163"/>
       <c r="G44" s="54"/>
       <c r="H44" s="54"/>
       <c r="I44" s="54"/>
@@ -7499,10 +7469,10 @@
       <c r="B46" s="58">
         <v>4</v>
       </c>
-      <c r="C46" s="165" t="s">
+      <c r="C46" s="163" t="s">
         <v>13</v>
       </c>
-      <c r="D46" s="165"/>
+      <c r="D46" s="163"/>
       <c r="E46" s="54"/>
       <c r="F46" s="54"/>
       <c r="G46" s="54"/>
@@ -7549,10 +7519,10 @@
       <c r="B48" s="19">
         <v>5</v>
       </c>
-      <c r="C48" s="167" t="s">
+      <c r="C48" s="165" t="s">
         <v>48</v>
       </c>
-      <c r="D48" s="167"/>
+      <c r="D48" s="165"/>
       <c r="E48" s="54"/>
       <c r="F48" s="54"/>
       <c r="G48" s="54"/>
@@ -7577,11 +7547,11 @@
       <c r="C49" s="9">
         <v>1</v>
       </c>
-      <c r="D49" s="168" t="s">
+      <c r="D49" s="166" t="s">
         <v>17</v>
       </c>
-      <c r="E49" s="168"/>
-      <c r="F49" s="168"/>
+      <c r="E49" s="166"/>
+      <c r="F49" s="166"/>
       <c r="G49" s="12">
         <v>90</v>
       </c>
@@ -7624,11 +7594,11 @@
       <c r="C50" s="9">
         <v>2</v>
       </c>
-      <c r="D50" s="167" t="s">
+      <c r="D50" s="165" t="s">
         <v>38</v>
       </c>
-      <c r="E50" s="167"/>
-      <c r="F50" s="167"/>
+      <c r="E50" s="165"/>
+      <c r="F50" s="165"/>
       <c r="G50" s="12">
         <v>80</v>
       </c>
@@ -7718,11 +7688,11 @@
       <c r="C52" s="9">
         <v>4</v>
       </c>
-      <c r="D52" s="165" t="s">
+      <c r="D52" s="163" t="s">
         <v>19</v>
       </c>
-      <c r="E52" s="165"/>
-      <c r="F52" s="165"/>
+      <c r="E52" s="163"/>
+      <c r="F52" s="163"/>
       <c r="G52" s="12">
         <v>25</v>
       </c>
@@ -7765,11 +7735,11 @@
       <c r="C53" s="9">
         <v>5</v>
       </c>
-      <c r="D53" s="165" t="s">
+      <c r="D53" s="163" t="s">
         <v>4</v>
       </c>
-      <c r="E53" s="165"/>
-      <c r="F53" s="165"/>
+      <c r="E53" s="163"/>
+      <c r="F53" s="163"/>
       <c r="G53" s="12">
         <v>25</v>
       </c>
@@ -7812,11 +7782,11 @@
       <c r="C54" s="9">
         <v>6</v>
       </c>
-      <c r="D54" s="165" t="s">
+      <c r="D54" s="163" t="s">
         <v>34</v>
       </c>
-      <c r="E54" s="165"/>
-      <c r="F54" s="165"/>
+      <c r="E54" s="163"/>
+      <c r="F54" s="163"/>
       <c r="G54" s="12">
         <v>40</v>
       </c>
@@ -7859,11 +7829,11 @@
       <c r="C55" s="9">
         <v>7</v>
       </c>
-      <c r="D55" s="165" t="s">
+      <c r="D55" s="163" t="s">
         <v>27</v>
       </c>
-      <c r="E55" s="165"/>
-      <c r="F55" s="165"/>
+      <c r="E55" s="163"/>
+      <c r="F55" s="163"/>
       <c r="G55" s="12">
         <v>2</v>
       </c>
@@ -7906,11 +7876,11 @@
       <c r="C56" s="9">
         <v>8</v>
       </c>
-      <c r="D56" s="165" t="s">
+      <c r="D56" s="163" t="s">
         <v>35</v>
       </c>
-      <c r="E56" s="165"/>
-      <c r="F56" s="165"/>
+      <c r="E56" s="163"/>
+      <c r="F56" s="163"/>
       <c r="G56" s="54"/>
       <c r="H56" s="54"/>
       <c r="I56" s="54"/>
@@ -7976,17 +7946,17 @@
     </row>
     <row r="59" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="58"/>
-      <c r="C59" s="165" t="s">
+      <c r="C59" s="163" t="s">
         <v>1</v>
       </c>
-      <c r="D59" s="165"/>
-      <c r="E59" s="165"/>
-      <c r="F59" s="165"/>
-      <c r="G59" s="165"/>
-      <c r="H59" s="165"/>
-      <c r="I59" s="165"/>
-      <c r="J59" s="165"/>
-      <c r="K59" s="165"/>
+      <c r="D59" s="163"/>
+      <c r="E59" s="163"/>
+      <c r="F59" s="163"/>
+      <c r="G59" s="163"/>
+      <c r="H59" s="163"/>
+      <c r="I59" s="163"/>
+      <c r="J59" s="163"/>
+      <c r="K59" s="163"/>
       <c r="L59" s="54"/>
       <c r="M59" s="54"/>
       <c r="N59" s="54"/>
@@ -8027,11 +7997,11 @@
       <c r="C61" s="9">
         <v>1</v>
       </c>
-      <c r="D61" s="165" t="s">
+      <c r="D61" s="163" t="s">
         <v>37</v>
       </c>
-      <c r="E61" s="165"/>
-      <c r="F61" s="165"/>
+      <c r="E61" s="163"/>
+      <c r="F61" s="163"/>
       <c r="G61" s="12">
         <v>25</v>
       </c>
@@ -8098,11 +8068,11 @@
       <c r="C63" s="9">
         <v>3</v>
       </c>
-      <c r="D63" s="165" t="s">
+      <c r="D63" s="163" t="s">
         <v>35</v>
       </c>
-      <c r="E63" s="165"/>
-      <c r="F63" s="165"/>
+      <c r="E63" s="163"/>
+      <c r="F63" s="163"/>
       <c r="G63" s="27">
         <v>0.16</v>
       </c>
@@ -8126,8 +8096,8 @@
         <f>PRODUCT(G63,I63,K63)</f>
         <v>0.16</v>
       </c>
-      <c r="N63" s="164"/>
-      <c r="O63" s="164"/>
+      <c r="N63" s="162"/>
+      <c r="O63" s="162"/>
       <c r="P63" s="54"/>
       <c r="Q63" s="12">
         <f>M63</f>
@@ -8146,11 +8116,11 @@
       <c r="C64" s="32">
         <v>4</v>
       </c>
-      <c r="D64" s="165" t="s">
+      <c r="D64" s="163" t="s">
         <v>14</v>
       </c>
-      <c r="E64" s="165"/>
-      <c r="F64" s="165"/>
+      <c r="E64" s="163"/>
+      <c r="F64" s="163"/>
       <c r="G64" s="54"/>
       <c r="H64" s="54"/>
       <c r="I64" s="54"/>
@@ -8158,8 +8128,8 @@
       <c r="K64" s="54"/>
       <c r="L64" s="54"/>
       <c r="M64" s="54"/>
-      <c r="N64" s="164"/>
-      <c r="O64" s="164"/>
+      <c r="N64" s="162"/>
+      <c r="O64" s="162"/>
       <c r="P64" s="54"/>
       <c r="Q64" s="12">
         <v>1</v>
@@ -8177,11 +8147,11 @@
       <c r="C65" s="9">
         <v>5</v>
       </c>
-      <c r="D65" s="165" t="s">
+      <c r="D65" s="163" t="s">
         <v>3</v>
       </c>
-      <c r="E65" s="165"/>
-      <c r="F65" s="165"/>
+      <c r="E65" s="163"/>
+      <c r="F65" s="163"/>
       <c r="G65" s="54"/>
       <c r="H65" s="54"/>
       <c r="I65" s="54"/>
@@ -8201,76 +8171,76 @@
       <c r="U65" s="54"/>
       <c r="V65" s="54"/>
     </row>
-    <row r="66" spans="1:22" s="147" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="138"/>
-      <c r="B66" s="139"/>
-      <c r="C66" s="140">
+    <row r="66" spans="1:22" s="141" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="132"/>
+      <c r="B66" s="133"/>
+      <c r="C66" s="134">
         <v>6</v>
       </c>
-      <c r="D66" s="141" t="s">
+      <c r="D66" s="135" t="s">
         <v>64</v>
       </c>
-      <c r="E66" s="141"/>
-      <c r="F66" s="141"/>
-      <c r="G66" s="142">
+      <c r="E66" s="135"/>
+      <c r="F66" s="135"/>
+      <c r="G66" s="136">
         <v>10</v>
       </c>
-      <c r="H66" s="143" t="s">
+      <c r="H66" s="137" t="s">
         <v>42</v>
       </c>
-      <c r="I66" s="144">
+      <c r="I66" s="138">
         <v>1</v>
       </c>
-      <c r="J66" s="143" t="s">
+      <c r="J66" s="137" t="s">
         <v>42</v>
       </c>
-      <c r="K66" s="142">
+      <c r="K66" s="136">
         <f>J5</f>
         <v>1</v>
       </c>
-      <c r="L66" s="143" t="s">
-        <v>0</v>
-      </c>
-      <c r="M66" s="139">
+      <c r="L66" s="137" t="s">
+        <v>0</v>
+      </c>
+      <c r="M66" s="133">
         <f>PRODUCT(G66,I66,K66)</f>
         <v>10</v>
       </c>
-      <c r="N66" s="145"/>
-      <c r="O66" s="145"/>
-      <c r="P66" s="141"/>
+      <c r="N66" s="139"/>
+      <c r="O66" s="139"/>
+      <c r="P66" s="135"/>
       <c r="Q66" s="12">
         <f>M66</f>
         <v>10</v>
       </c>
-      <c r="R66" s="141"/>
-      <c r="S66" s="141"/>
-      <c r="T66" s="146"/>
-      <c r="U66" s="141"/>
-      <c r="V66" s="141"/>
-    </row>
-    <row r="67" spans="1:22" s="147" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="138"/>
-      <c r="B67" s="139"/>
-      <c r="C67" s="140"/>
-      <c r="D67" s="141"/>
-      <c r="E67" s="141"/>
-      <c r="F67" s="141"/>
-      <c r="G67" s="142"/>
-      <c r="H67" s="143"/>
-      <c r="I67" s="144"/>
-      <c r="J67" s="143"/>
-      <c r="K67" s="142"/>
-      <c r="L67" s="143"/>
-      <c r="M67" s="139"/>
-      <c r="N67" s="145"/>
-      <c r="O67" s="145"/>
-      <c r="P67" s="141"/>
+      <c r="R66" s="135"/>
+      <c r="S66" s="135"/>
+      <c r="T66" s="140"/>
+      <c r="U66" s="135"/>
+      <c r="V66" s="135"/>
+    </row>
+    <row r="67" spans="1:22" s="141" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="132"/>
+      <c r="B67" s="133"/>
+      <c r="C67" s="134"/>
+      <c r="D67" s="135"/>
+      <c r="E67" s="135"/>
+      <c r="F67" s="135"/>
+      <c r="G67" s="136"/>
+      <c r="H67" s="137"/>
+      <c r="I67" s="138"/>
+      <c r="J67" s="137"/>
+      <c r="K67" s="136"/>
+      <c r="L67" s="137"/>
+      <c r="M67" s="133"/>
+      <c r="N67" s="139"/>
+      <c r="O67" s="139"/>
+      <c r="P67" s="135"/>
       <c r="Q67" s="12"/>
-      <c r="R67" s="141"/>
-      <c r="S67" s="141"/>
-      <c r="T67" s="146"/>
-      <c r="U67" s="141"/>
-      <c r="V67" s="141"/>
+      <c r="R67" s="135"/>
+      <c r="S67" s="135"/>
+      <c r="T67" s="140"/>
+      <c r="U67" s="135"/>
+      <c r="V67" s="135"/>
     </row>
     <row r="68" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="58"/>

--- a/Исходный_Шаблон.xlsx
+++ b/Исходный_Шаблон.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\Repository\s.panin\daily_duty\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE8BC04-D70D-4958-A746-A068BA646735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FBE8BD8-CF5F-4573-87D6-6D30EF802A6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="721" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="721" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="График" sheetId="12" r:id="rId1"/>
@@ -1222,6 +1222,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1230,9 +1233,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1574,8 +1574,8 @@
   </sheetPr>
   <dimension ref="A1:AG87"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="0" defaultGridColor="0" view="pageBreakPreview" topLeftCell="A39" colorId="21" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="J50" sqref="J50"/>
+    <sheetView showOutlineSymbols="0" defaultGridColor="0" view="pageBreakPreview" topLeftCell="A10" colorId="21" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1596,17 +1596,17 @@
         <v>71</v>
       </c>
       <c r="C2" s="147">
-        <v>2</v>
-      </c>
-      <c r="D2" s="158" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="159" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="159"/>
-      <c r="F2" s="159"/>
-      <c r="G2" s="159"/>
-      <c r="H2" s="159"/>
-      <c r="I2" s="159"/>
-      <c r="J2" s="159"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="160"/>
+      <c r="J2" s="160"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="52"/>
@@ -1617,9 +1617,9 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="160"/>
-      <c r="G3" s="160"/>
-      <c r="H3" s="160"/>
+      <c r="F3" s="161"/>
+      <c r="G3" s="161"/>
+      <c r="H3" s="161"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -1738,10 +1738,10 @@
       </c>
       <c r="C6" s="67">
         <f>B6/D6</f>
-        <v>9.4285714285714288</v>
+        <v>11</v>
       </c>
       <c r="D6" s="10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6" s="49"/>
       <c r="F6" s="59">
@@ -1946,8 +1946,8 @@
       <c r="AE10" s="26"/>
     </row>
     <row r="11" spans="1:33" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="161">
-        <v>7</v>
+      <c r="A11" s="158">
+        <v>6</v>
       </c>
       <c r="B11" s="62" t="str">
         <f>G5</f>
@@ -1957,7 +1957,7 @@
         <v>23</v>
       </c>
       <c r="D11" s="143">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E11" s="152" t="s">
         <v>33</v>
@@ -1992,7 +1992,7 @@
       <c r="AE11" s="26"/>
     </row>
     <row r="12" spans="1:33" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="161"/>
+      <c r="A12" s="158"/>
       <c r="B12" s="62">
         <f>G6</f>
         <v>24</v>
@@ -2001,7 +2001,7 @@
         <v>47</v>
       </c>
       <c r="D12" s="144">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E12" s="80" t="s">
         <v>74</v>
@@ -2036,13 +2036,13 @@
       <c r="AE12" s="26"/>
     </row>
     <row r="13" spans="1:33" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="161"/>
+      <c r="A13" s="158"/>
       <c r="B13" s="63"/>
       <c r="C13" s="63" t="s">
         <v>48</v>
       </c>
       <c r="D13" s="144">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E13" s="153" t="s">
         <v>17</v>
@@ -2077,7 +2077,7 @@
       <c r="AE13" s="26"/>
     </row>
     <row r="14" spans="1:33" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="161"/>
+      <c r="A14" s="158"/>
       <c r="B14" s="62" t="str">
         <f>H5</f>
         <v>воскресенье</v>
@@ -2086,7 +2086,7 @@
         <v>23</v>
       </c>
       <c r="D14" s="144">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E14" s="154" t="s">
         <v>41</v>
@@ -2121,7 +2121,7 @@
       <c r="AE14" s="26"/>
     </row>
     <row r="15" spans="1:33" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="161"/>
+      <c r="A15" s="158"/>
       <c r="B15" s="62">
         <f>H6</f>
         <v>25</v>
@@ -2130,7 +2130,7 @@
         <v>47</v>
       </c>
       <c r="D15" s="144">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E15" s="80" t="s">
         <v>74</v>
@@ -2165,13 +2165,13 @@
       <c r="AE15" s="26"/>
     </row>
     <row r="16" spans="1:33" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="161"/>
+      <c r="A16" s="158"/>
       <c r="B16" s="63"/>
       <c r="C16" s="63" t="s">
         <v>48</v>
       </c>
       <c r="D16" s="144">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E16" s="155" t="s">
         <v>38</v>
@@ -2206,7 +2206,7 @@
       <c r="AE16" s="26"/>
     </row>
     <row r="17" spans="1:33" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="161"/>
+      <c r="A17" s="158"/>
       <c r="B17" s="62" t="str">
         <f>I5</f>
         <v>понедельник</v>
@@ -2215,7 +2215,7 @@
         <v>23</v>
       </c>
       <c r="D17" s="144">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E17" s="152" t="s">
         <v>33</v>
@@ -2250,7 +2250,7 @@
       <c r="AE17" s="26"/>
     </row>
     <row r="18" spans="1:33" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="161"/>
+      <c r="A18" s="158"/>
       <c r="B18" s="62">
         <f>I6</f>
         <v>26</v>
@@ -2259,7 +2259,7 @@
         <v>47</v>
       </c>
       <c r="D18" s="144">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E18" s="80" t="s">
         <v>74</v>
@@ -2294,13 +2294,13 @@
       <c r="AE18" s="26"/>
     </row>
     <row r="19" spans="1:33" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="161"/>
+      <c r="A19" s="158"/>
       <c r="B19" s="63"/>
       <c r="C19" s="63" t="s">
         <v>48</v>
       </c>
       <c r="D19" s="144">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E19" s="153" t="s">
         <v>17</v>
@@ -2335,7 +2335,7 @@
       <c r="AE19" s="26"/>
     </row>
     <row r="20" spans="1:33" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="161"/>
+      <c r="A20" s="158"/>
       <c r="B20" s="62" t="str">
         <f>J5</f>
         <v>вторник</v>
@@ -2344,7 +2344,7 @@
         <v>23</v>
       </c>
       <c r="D20" s="144">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E20" s="154" t="s">
         <v>41</v>
@@ -2379,7 +2379,7 @@
       <c r="AE20" s="26"/>
     </row>
     <row r="21" spans="1:33" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="161"/>
+      <c r="A21" s="158"/>
       <c r="B21" s="62">
         <f>J6</f>
         <v>27</v>
@@ -2388,7 +2388,7 @@
         <v>47</v>
       </c>
       <c r="D21" s="144">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E21" s="80" t="s">
         <v>74</v>
@@ -2423,13 +2423,13 @@
       <c r="AE21" s="26"/>
     </row>
     <row r="22" spans="1:33" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="161"/>
+      <c r="A22" s="158"/>
       <c r="B22" s="63"/>
       <c r="C22" s="63" t="s">
         <v>48</v>
       </c>
       <c r="D22" s="144">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E22" s="155" t="s">
         <v>38</v>
@@ -2464,7 +2464,7 @@
       <c r="AE22" s="26"/>
     </row>
     <row r="23" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="161"/>
+      <c r="A23" s="158"/>
       <c r="B23" s="62" t="str">
         <f>K5</f>
         <v>среда</v>
@@ -2473,7 +2473,7 @@
         <v>23</v>
       </c>
       <c r="D23" s="144">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E23" s="152" t="s">
         <v>33</v>
@@ -2508,7 +2508,7 @@
       <c r="AE23" s="26"/>
     </row>
     <row r="24" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="161"/>
+      <c r="A24" s="158"/>
       <c r="B24" s="62">
         <f>K6</f>
         <v>28</v>
@@ -2517,7 +2517,7 @@
         <v>47</v>
       </c>
       <c r="D24" s="144">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E24" s="80" t="s">
         <v>74</v>
@@ -2552,13 +2552,13 @@
       <c r="AE24" s="26"/>
     </row>
     <row r="25" spans="1:33" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="161"/>
+      <c r="A25" s="158"/>
       <c r="B25" s="63"/>
       <c r="C25" s="63" t="s">
         <v>48</v>
       </c>
       <c r="D25" s="123">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E25" s="153" t="s">
         <v>17</v>
@@ -2593,7 +2593,7 @@
       <c r="AE25" s="26"/>
     </row>
     <row r="26" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="161"/>
+      <c r="A26" s="158"/>
       <c r="B26" s="62" t="str">
         <f>L5</f>
         <v>четверг</v>
@@ -2602,7 +2602,7 @@
         <v>23</v>
       </c>
       <c r="D26" s="117">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E26" s="154" t="s">
         <v>41</v>
@@ -2637,7 +2637,7 @@
       <c r="AE26" s="36"/>
     </row>
     <row r="27" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="161"/>
+      <c r="A27" s="158"/>
       <c r="B27" s="62">
         <f>L6</f>
         <v>29</v>
@@ -2646,7 +2646,7 @@
         <v>47</v>
       </c>
       <c r="D27" s="76">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E27" s="80" t="s">
         <v>74</v>
@@ -2681,13 +2681,13 @@
       <c r="AE27" s="36"/>
     </row>
     <row r="28" spans="1:33" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="161"/>
+      <c r="A28" s="158"/>
       <c r="B28" s="63"/>
       <c r="C28" s="63" t="s">
         <v>48</v>
       </c>
       <c r="D28" s="123">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E28" s="155" t="s">
         <v>38</v>
@@ -2722,7 +2722,7 @@
       <c r="AE28" s="36"/>
     </row>
     <row r="29" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="161">
+      <c r="A29" s="158">
         <v>4</v>
       </c>
       <c r="B29" s="62" t="str">
@@ -2769,7 +2769,7 @@
       <c r="AF29" s="36"/>
     </row>
     <row r="30" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="161"/>
+      <c r="A30" s="158"/>
       <c r="B30" s="62">
         <f>M6</f>
         <v>30</v>
@@ -2791,7 +2791,7 @@
       <c r="K30" s="79"/>
       <c r="L30" s="93"/>
       <c r="M30" s="84" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="N30" s="95"/>
       <c r="O30" s="78"/>
@@ -2814,7 +2814,7 @@
       <c r="AF30" s="36"/>
     </row>
     <row r="31" spans="1:33" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="161"/>
+      <c r="A31" s="158"/>
       <c r="B31" s="63"/>
       <c r="C31" s="63" t="s">
         <v>48</v>
@@ -2833,7 +2833,7 @@
       <c r="K31" s="113"/>
       <c r="L31" s="129"/>
       <c r="M31" s="85" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N31" s="131"/>
       <c r="O31" s="114"/>
@@ -2856,7 +2856,7 @@
       <c r="AF31" s="36"/>
     </row>
     <row r="32" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="161"/>
+      <c r="A32" s="158"/>
       <c r="B32" s="62" t="str">
         <f>N5</f>
         <v>суббота</v>
@@ -2879,7 +2879,7 @@
       <c r="L32" s="107"/>
       <c r="M32" s="96"/>
       <c r="N32" s="104" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="O32" s="78"/>
       <c r="P32" s="78"/>
@@ -2901,7 +2901,7 @@
       <c r="AG32" s="36"/>
     </row>
     <row r="33" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="161"/>
+      <c r="A33" s="158"/>
       <c r="B33" s="62">
         <f>N6</f>
         <v>31</v>
@@ -2946,7 +2946,7 @@
       <c r="AG33" s="36"/>
     </row>
     <row r="34" spans="1:33" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="161"/>
+      <c r="A34" s="158"/>
       <c r="B34" s="63"/>
       <c r="C34" s="63" t="s">
         <v>48</v>
@@ -2966,7 +2966,7 @@
       <c r="L34" s="129"/>
       <c r="M34" s="113"/>
       <c r="N34" s="85" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="O34" s="131"/>
       <c r="P34" s="113"/>
@@ -2985,7 +2985,7 @@
       <c r="AC34" s="113"/>
     </row>
     <row r="35" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="161"/>
+      <c r="A35" s="158"/>
       <c r="B35" s="62" t="str">
         <f>O5</f>
         <v>воскресенье</v>
@@ -3009,7 +3009,7 @@
       <c r="M35" s="96"/>
       <c r="N35" s="107"/>
       <c r="O35" s="104" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="P35" s="78"/>
       <c r="Q35" s="78"/>
@@ -3027,7 +3027,7 @@
       <c r="AC35" s="78"/>
     </row>
     <row r="36" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="161"/>
+      <c r="A36" s="158"/>
       <c r="B36" s="62">
         <f>O6</f>
         <v>1</v>
@@ -3051,7 +3051,7 @@
       <c r="M36" s="97"/>
       <c r="N36" s="79"/>
       <c r="O36" s="84" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="P36" s="78"/>
       <c r="Q36" s="78"/>
@@ -3069,7 +3069,7 @@
       <c r="AC36" s="78"/>
     </row>
     <row r="37" spans="1:33" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="161"/>
+      <c r="A37" s="158"/>
       <c r="B37" s="63"/>
       <c r="C37" s="63" t="s">
         <v>48</v>
@@ -3090,7 +3090,7 @@
       <c r="M37" s="113"/>
       <c r="N37" s="113"/>
       <c r="O37" s="85" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="P37" s="131"/>
       <c r="Q37" s="113"/>
@@ -3108,7 +3108,7 @@
       <c r="AC37" s="113"/>
     </row>
     <row r="38" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="161"/>
+      <c r="A38" s="158"/>
       <c r="B38" s="62" t="str">
         <f>P5</f>
         <v>понедельник</v>
@@ -3133,7 +3133,7 @@
       <c r="N38" s="107"/>
       <c r="O38" s="78"/>
       <c r="P38" s="104" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="Q38" s="78"/>
       <c r="R38" s="78"/>
@@ -3150,7 +3150,7 @@
       <c r="AC38" s="78"/>
     </row>
     <row r="39" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="161"/>
+      <c r="A39" s="158"/>
       <c r="B39" s="62">
         <f>P6</f>
         <v>2</v>
@@ -3175,7 +3175,7 @@
       <c r="N39" s="79"/>
       <c r="O39" s="78"/>
       <c r="P39" s="84" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="Q39" s="78"/>
       <c r="R39" s="78"/>
@@ -3192,7 +3192,7 @@
       <c r="AC39" s="78"/>
     </row>
     <row r="40" spans="1:33" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="161"/>
+      <c r="A40" s="158"/>
       <c r="B40" s="63"/>
       <c r="C40" s="63" t="s">
         <v>48</v>
@@ -3214,7 +3214,7 @@
       <c r="N40" s="113"/>
       <c r="O40" s="113"/>
       <c r="P40" s="85" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="Q40" s="131"/>
       <c r="R40" s="113"/>
@@ -3231,7 +3231,7 @@
       <c r="AC40" s="113"/>
     </row>
     <row r="41" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="161"/>
+      <c r="A41" s="158"/>
       <c r="B41" s="62" t="str">
         <f>Q5</f>
         <v>вторник</v>
@@ -3273,7 +3273,7 @@
       <c r="AC41" s="78"/>
     </row>
     <row r="42" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="161"/>
+      <c r="A42" s="158"/>
       <c r="B42" s="62">
         <f>Q6</f>
         <v>3</v>
@@ -3299,7 +3299,7 @@
       <c r="O42" s="78"/>
       <c r="P42" s="78"/>
       <c r="Q42" s="84" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="R42" s="78"/>
       <c r="S42" s="78"/>
@@ -3315,7 +3315,7 @@
       <c r="AC42" s="78"/>
     </row>
     <row r="43" spans="1:33" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="161"/>
+      <c r="A43" s="158"/>
       <c r="B43" s="63"/>
       <c r="C43" s="63" t="s">
         <v>48</v>
@@ -3338,7 +3338,7 @@
       <c r="O43" s="113"/>
       <c r="P43" s="113"/>
       <c r="Q43" s="85" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="R43" s="131"/>
       <c r="S43" s="113"/>
@@ -3354,7 +3354,7 @@
       <c r="AC43" s="113"/>
     </row>
     <row r="44" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="161"/>
+      <c r="A44" s="158"/>
       <c r="B44" s="62" t="str">
         <f>R5</f>
         <v>среда</v>
@@ -3381,7 +3381,7 @@
       <c r="P44" s="78"/>
       <c r="Q44" s="78"/>
       <c r="R44" s="104" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="S44" s="78"/>
       <c r="T44" s="78"/>
@@ -3396,7 +3396,7 @@
       <c r="AC44" s="78"/>
     </row>
     <row r="45" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="161"/>
+      <c r="A45" s="158"/>
       <c r="B45" s="62">
         <f>R6</f>
         <v>4</v>
@@ -3438,7 +3438,7 @@
       <c r="AC45" s="78"/>
     </row>
     <row r="46" spans="1:33" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="161"/>
+      <c r="A46" s="158"/>
       <c r="B46" s="63"/>
       <c r="C46" s="63" t="s">
         <v>48</v>
@@ -3462,7 +3462,7 @@
       <c r="P46" s="113"/>
       <c r="Q46" s="113"/>
       <c r="R46" s="85" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="S46" s="131"/>
       <c r="T46" s="113"/>
@@ -3477,7 +3477,7 @@
       <c r="AC46" s="113"/>
     </row>
     <row r="47" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="161"/>
+      <c r="A47" s="158"/>
       <c r="B47" s="62" t="str">
         <f>S5</f>
         <v>четверг</v>
@@ -3505,7 +3505,7 @@
       <c r="Q47" s="78"/>
       <c r="R47" s="78"/>
       <c r="S47" s="104" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="T47" s="78"/>
       <c r="U47" s="78"/>
@@ -3519,7 +3519,7 @@
       <c r="AC47" s="78"/>
     </row>
     <row r="48" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="161"/>
+      <c r="A48" s="158"/>
       <c r="B48" s="62">
         <f>S6</f>
         <v>5</v>
@@ -3547,7 +3547,7 @@
       <c r="Q48" s="78"/>
       <c r="R48" s="78"/>
       <c r="S48" s="84" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="T48" s="78"/>
       <c r="U48" s="78"/>
@@ -3561,7 +3561,7 @@
       <c r="AC48" s="78"/>
     </row>
     <row r="49" spans="1:29" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="161"/>
+      <c r="A49" s="158"/>
       <c r="B49" s="63"/>
       <c r="C49" s="63" t="s">
         <v>48</v>
@@ -3586,7 +3586,7 @@
       <c r="Q49" s="113"/>
       <c r="R49" s="113"/>
       <c r="S49" s="85" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="T49" s="131"/>
       <c r="U49" s="113"/>
@@ -3600,7 +3600,7 @@
       <c r="AC49" s="113"/>
     </row>
     <row r="50" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="161"/>
+      <c r="A50" s="158"/>
       <c r="B50" s="62" t="str">
         <f>T5</f>
         <v>пятница</v>
@@ -3629,7 +3629,7 @@
       <c r="R50" s="78"/>
       <c r="S50" s="78"/>
       <c r="T50" s="104" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="U50" s="78"/>
       <c r="V50" s="78"/>
@@ -3642,7 +3642,7 @@
       <c r="AC50" s="78"/>
     </row>
     <row r="51" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="161"/>
+      <c r="A51" s="158"/>
       <c r="B51" s="62">
         <f>T6</f>
         <v>6</v>
@@ -3671,7 +3671,7 @@
       <c r="R51" s="78"/>
       <c r="S51" s="78"/>
       <c r="T51" s="84" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="U51" s="78"/>
       <c r="V51" s="78"/>
@@ -3684,7 +3684,7 @@
       <c r="AC51" s="78"/>
     </row>
     <row r="52" spans="1:29" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="161"/>
+      <c r="A52" s="158"/>
       <c r="B52" s="63"/>
       <c r="C52" s="63" t="s">
         <v>48</v>
@@ -3710,7 +3710,7 @@
       <c r="R52" s="113"/>
       <c r="S52" s="113"/>
       <c r="T52" s="85" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="U52" s="131"/>
       <c r="V52" s="113"/>
@@ -3723,7 +3723,7 @@
       <c r="AC52" s="113"/>
     </row>
     <row r="53" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="161"/>
+      <c r="A53" s="158"/>
       <c r="B53" s="62" t="str">
         <f>U5</f>
         <v>суббота</v>
@@ -3765,7 +3765,7 @@
       <c r="AC53" s="78"/>
     </row>
     <row r="54" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="161"/>
+      <c r="A54" s="158"/>
       <c r="B54" s="62">
         <f>U6</f>
         <v>7</v>
@@ -3795,7 +3795,7 @@
       <c r="S54" s="78"/>
       <c r="T54" s="78"/>
       <c r="U54" s="84" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="V54" s="78"/>
       <c r="W54" s="78"/>
@@ -3807,7 +3807,7 @@
       <c r="AC54" s="78"/>
     </row>
     <row r="55" spans="1:29" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="161"/>
+      <c r="A55" s="158"/>
       <c r="B55" s="63"/>
       <c r="C55" s="63" t="s">
         <v>48</v>
@@ -3834,7 +3834,7 @@
       <c r="S55" s="113"/>
       <c r="T55" s="113"/>
       <c r="U55" s="85" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="V55" s="131"/>
       <c r="W55" s="113"/>
@@ -3846,7 +3846,7 @@
       <c r="AC55" s="113"/>
     </row>
     <row r="56" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="161"/>
+      <c r="A56" s="158"/>
       <c r="B56" s="62" t="str">
         <f>V5</f>
         <v>воскресенье</v>
@@ -3877,7 +3877,7 @@
       <c r="T56" s="78"/>
       <c r="U56" s="78"/>
       <c r="V56" s="104" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="W56" s="78"/>
       <c r="X56" s="78"/>
@@ -3888,7 +3888,7 @@
       <c r="AC56" s="78"/>
     </row>
     <row r="57" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="161"/>
+      <c r="A57" s="158"/>
       <c r="B57" s="62">
         <f>V6</f>
         <v>8</v>
@@ -3930,7 +3930,7 @@
       <c r="AC57" s="78"/>
     </row>
     <row r="58" spans="1:29" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="161"/>
+      <c r="A58" s="158"/>
       <c r="B58" s="63"/>
       <c r="C58" s="63" t="s">
         <v>48</v>
@@ -3958,7 +3958,7 @@
       <c r="T58" s="113"/>
       <c r="U58" s="113"/>
       <c r="V58" s="85" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="W58" s="131"/>
       <c r="X58" s="113"/>
@@ -3969,7 +3969,7 @@
       <c r="AC58" s="113"/>
     </row>
     <row r="59" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="161"/>
+      <c r="A59" s="158"/>
       <c r="B59" s="62" t="str">
         <f>W5</f>
         <v>понедельник</v>
@@ -4001,7 +4001,7 @@
       <c r="U59" s="78"/>
       <c r="V59" s="78"/>
       <c r="W59" s="104" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="X59" s="78"/>
       <c r="Y59" s="78"/>
@@ -4011,7 +4011,7 @@
       <c r="AC59" s="78"/>
     </row>
     <row r="60" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="161"/>
+      <c r="A60" s="158"/>
       <c r="B60" s="62">
         <f>W6</f>
         <v>9</v>
@@ -4043,7 +4043,7 @@
       <c r="U60" s="78"/>
       <c r="V60" s="78"/>
       <c r="W60" s="84" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="X60" s="78"/>
       <c r="Y60" s="78"/>
@@ -4053,7 +4053,7 @@
       <c r="AC60" s="78"/>
     </row>
     <row r="61" spans="1:29" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="161"/>
+      <c r="A61" s="158"/>
       <c r="B61" s="63"/>
       <c r="C61" s="63" t="s">
         <v>48</v>
@@ -4092,7 +4092,7 @@
       <c r="AC61" s="113"/>
     </row>
     <row r="62" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="161"/>
+      <c r="A62" s="158"/>
       <c r="B62" s="62" t="str">
         <f>X5</f>
         <v>вторник</v>
@@ -4125,7 +4125,7 @@
       <c r="V62" s="78"/>
       <c r="W62" s="78"/>
       <c r="X62" s="104" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="Y62" s="78"/>
       <c r="Z62" s="78"/>
@@ -4134,7 +4134,7 @@
       <c r="AC62" s="78"/>
     </row>
     <row r="63" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="161"/>
+      <c r="A63" s="158"/>
       <c r="B63" s="62">
         <f>X6</f>
         <v>10</v>
@@ -4167,7 +4167,7 @@
       <c r="V63" s="78"/>
       <c r="W63" s="78"/>
       <c r="X63" s="84" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="Y63" s="78"/>
       <c r="Z63" s="78"/>
@@ -4176,7 +4176,7 @@
       <c r="AC63" s="78"/>
     </row>
     <row r="64" spans="1:29" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="161"/>
+      <c r="A64" s="158"/>
       <c r="B64" s="63"/>
       <c r="C64" s="63" t="s">
         <v>48</v>
@@ -4215,7 +4215,7 @@
       <c r="AC64" s="113"/>
     </row>
     <row r="65" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="161"/>
+      <c r="A65" s="158"/>
       <c r="B65" s="62" t="str">
         <f>Y5</f>
         <v>среда</v>
@@ -4257,7 +4257,7 @@
       <c r="AC65" s="78"/>
     </row>
     <row r="66" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="161"/>
+      <c r="A66" s="158"/>
       <c r="B66" s="62">
         <f>Y6</f>
         <v>11</v>
@@ -4291,7 +4291,7 @@
       <c r="W66" s="78"/>
       <c r="X66" s="78"/>
       <c r="Y66" s="84" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="Z66" s="78"/>
       <c r="AA66" s="78"/>
@@ -4299,7 +4299,7 @@
       <c r="AC66" s="78"/>
     </row>
     <row r="67" spans="1:29" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="161"/>
+      <c r="A67" s="158"/>
       <c r="B67" s="63"/>
       <c r="C67" s="63" t="s">
         <v>48</v>
@@ -4330,7 +4330,7 @@
       <c r="W67" s="113"/>
       <c r="X67" s="113"/>
       <c r="Y67" s="85" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="Z67" s="131"/>
       <c r="AA67" s="113"/>
@@ -4338,7 +4338,7 @@
       <c r="AC67" s="113"/>
     </row>
     <row r="68" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="161"/>
+      <c r="A68" s="158"/>
       <c r="B68" s="62" t="str">
         <f>Z5</f>
         <v>четверг</v>
@@ -4373,14 +4373,14 @@
       <c r="X68" s="78"/>
       <c r="Y68" s="78"/>
       <c r="Z68" s="104" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="AA68" s="78"/>
       <c r="AB68" s="78"/>
       <c r="AC68" s="78"/>
     </row>
     <row r="69" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="161"/>
+      <c r="A69" s="158"/>
       <c r="B69" s="62">
         <f>Z6</f>
         <v>12</v>
@@ -4422,7 +4422,7 @@
       <c r="AC69" s="78"/>
     </row>
     <row r="70" spans="1:29" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="161"/>
+      <c r="A70" s="158"/>
       <c r="B70" s="63"/>
       <c r="C70" s="63" t="s">
         <v>48</v>
@@ -4454,14 +4454,14 @@
       <c r="X70" s="113"/>
       <c r="Y70" s="113"/>
       <c r="Z70" s="85" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="AA70" s="131"/>
       <c r="AB70" s="113"/>
       <c r="AC70" s="113"/>
     </row>
     <row r="71" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="161"/>
+      <c r="A71" s="158"/>
       <c r="B71" s="62" t="str">
         <f>AA5</f>
         <v>пятница</v>
@@ -4497,13 +4497,13 @@
       <c r="Y71" s="78"/>
       <c r="Z71" s="78"/>
       <c r="AA71" s="104" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="AB71" s="78"/>
       <c r="AC71" s="78"/>
     </row>
     <row r="72" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="161"/>
+      <c r="A72" s="158"/>
       <c r="B72" s="62">
         <f>AA6</f>
         <v>13</v>
@@ -4539,13 +4539,13 @@
       <c r="Y72" s="78"/>
       <c r="Z72" s="78"/>
       <c r="AA72" s="84" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="AB72" s="78"/>
       <c r="AC72" s="78"/>
     </row>
     <row r="73" spans="1:29" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="161"/>
+      <c r="A73" s="158"/>
       <c r="B73" s="63"/>
       <c r="C73" s="63" t="s">
         <v>48</v>
@@ -4584,7 +4584,7 @@
       <c r="AC73" s="113"/>
     </row>
     <row r="74" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="161"/>
+      <c r="A74" s="158"/>
       <c r="B74" s="62" t="str">
         <f>AB5</f>
         <v>суббота</v>
@@ -4621,12 +4621,12 @@
       <c r="Z74" s="78"/>
       <c r="AA74" s="78"/>
       <c r="AB74" s="104" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="AC74" s="78"/>
     </row>
     <row r="75" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="161"/>
+      <c r="A75" s="158"/>
       <c r="B75" s="62">
         <f>AB6</f>
         <v>14</v>
@@ -4663,12 +4663,12 @@
       <c r="Z75" s="78"/>
       <c r="AA75" s="78"/>
       <c r="AB75" s="84" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="AC75" s="78"/>
     </row>
     <row r="76" spans="1:29" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="161"/>
+      <c r="A76" s="158"/>
       <c r="B76" s="63"/>
       <c r="C76" s="63" t="s">
         <v>48</v>
@@ -4707,7 +4707,7 @@
       <c r="AC76" s="131"/>
     </row>
     <row r="77" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="161"/>
+      <c r="A77" s="158"/>
       <c r="B77" s="62" t="str">
         <f>AC5</f>
         <v>воскресенье</v>
@@ -4845,8 +4845,8 @@
   </sheetPr>
   <dimension ref="A1:CP69"/>
   <sheetViews>
-    <sheetView showOutlineSymbols="0" defaultGridColor="0" view="pageBreakPreview" topLeftCell="A4" colorId="21" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" showOutlineSymbols="0" defaultGridColor="0" view="pageBreakPreview" topLeftCell="A10" colorId="21" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4956,7 +4956,7 @@
       </c>
       <c r="R2" s="147">
         <f>График!C2</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S2" s="23"/>
       <c r="T2" s="23"/>
@@ -5781,7 +5781,7 @@
       </c>
       <c r="D14" s="164"/>
       <c r="E14" s="12">
-        <f>SUM(G14,I14,K14)</f>
+        <f>SUM(G14,I14,K14,M14)</f>
         <v>0</v>
       </c>
       <c r="F14" s="57" t="s">
@@ -6450,7 +6450,7 @@
       <c r="E27" s="166"/>
       <c r="F27" s="166"/>
       <c r="G27" s="12">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H27" s="57" t="s">
         <v>42</v>
@@ -6519,7 +6519,7 @@
       <c r="E28" s="165"/>
       <c r="F28" s="165"/>
       <c r="G28" s="12">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H28" s="57" t="s">
         <v>42</v>
@@ -6588,7 +6588,7 @@
       <c r="E29" s="54"/>
       <c r="F29" s="54"/>
       <c r="G29" s="12">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H29" s="57" t="s">
         <v>42</v>
@@ -7107,7 +7107,7 @@
       <c r="E38" s="163"/>
       <c r="F38" s="163"/>
       <c r="G38" s="12">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H38" s="57" t="s">
         <v>42</v>

--- a/Исходный_Шаблон.xlsx
+++ b/Исходный_Шаблон.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\Repository\s.panin\daily_duty\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FBE8BD8-CF5F-4573-87D6-6D30EF802A6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF55B163-1EC8-462F-A001-5E9005ED0A9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="721" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="721" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="График" sheetId="12" r:id="rId1"/>
@@ -58,8 +58,66 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>User</author>
+  </authors>
+  <commentList>
+    <comment ref="M62" authorId="0" shapeId="0" xr:uid="{42DE989B-E2E6-4B18-ABAA-823F6E74C6E0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Заполняется вручную</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q64" authorId="0" shapeId="0" xr:uid="{0AD252B5-C923-4343-9F18-6E7FE5C18C29}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Заполняется вручную</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="76">
   <si>
     <t>=</t>
   </si>
@@ -286,6 +344,9 @@
   <si>
     <t>Без супа</t>
   </si>
+  <si>
+    <t>Чай</t>
+  </si>
 </sst>
 </file>
 
@@ -295,7 +356,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <name val="Tahoma"/>
@@ -387,6 +448,13 @@
       <sz val="12"/>
       <name val="Arial Cyr"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="13">
@@ -1235,25 +1303,25 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4839,14 +4907,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25F72E04-A8A8-404C-864F-A0F3787A9D22}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25F72E04-A8A8-404C-864F-A0F3787A9D22}">
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:CP69"/>
+  <dimension ref="A1:CP70"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="0" defaultGridColor="0" view="pageBreakPreview" topLeftCell="A10" colorId="21" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" showOutlineSymbols="0" defaultGridColor="0" view="pageBreakPreview" topLeftCell="A34" colorId="21" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="Q69" sqref="Q69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5077,31 +5145,31 @@
       <c r="CP4" s="54"/>
     </row>
     <row r="5" spans="1:94" ht="35.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="170" t="s">
+      <c r="B5" s="162" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="170"/>
-      <c r="D5" s="170"/>
-      <c r="E5" s="170"/>
-      <c r="F5" s="170"/>
-      <c r="G5" s="170"/>
-      <c r="H5" s="170"/>
-      <c r="I5" s="172"/>
+      <c r="C5" s="162"/>
+      <c r="D5" s="162"/>
+      <c r="E5" s="162"/>
+      <c r="F5" s="162"/>
+      <c r="G5" s="162"/>
+      <c r="H5" s="162"/>
+      <c r="I5" s="167"/>
       <c r="J5" s="20">
         <v>1</v>
       </c>
-      <c r="K5" s="171" t="s">
+      <c r="K5" s="163" t="s">
         <v>70</v>
       </c>
-      <c r="L5" s="163"/>
-      <c r="M5" s="163"/>
-      <c r="N5" s="163"/>
-      <c r="O5" s="162" t="s">
+      <c r="L5" s="164"/>
+      <c r="M5" s="164"/>
+      <c r="N5" s="164"/>
+      <c r="O5" s="165" t="s">
         <v>57</v>
       </c>
-      <c r="P5" s="162"/>
-      <c r="Q5" s="162"/>
-      <c r="R5" s="162"/>
+      <c r="P5" s="165"/>
+      <c r="Q5" s="165"/>
+      <c r="R5" s="165"/>
       <c r="S5" s="17"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
@@ -5377,10 +5445,10 @@
       <c r="B8" s="19">
         <v>1</v>
       </c>
-      <c r="C8" s="165" t="s">
+      <c r="C8" s="166" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="165"/>
+      <c r="D8" s="166"/>
       <c r="E8" s="12">
         <f>SUM(G8,I8,K8)</f>
         <v>0</v>
@@ -5627,18 +5695,18 @@
       <c r="B11" s="58">
         <v>2</v>
       </c>
-      <c r="C11" s="163" t="s">
+      <c r="C11" s="164" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="163"/>
+      <c r="D11" s="164"/>
       <c r="E11" s="37"/>
-      <c r="F11" s="163" t="s">
+      <c r="F11" s="164" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="163"/>
-      <c r="H11" s="163"/>
-      <c r="I11" s="163"/>
-      <c r="J11" s="163"/>
+      <c r="G11" s="164"/>
+      <c r="H11" s="164"/>
+      <c r="I11" s="164"/>
+      <c r="J11" s="164"/>
       <c r="K11" s="54"/>
       <c r="L11" s="54"/>
       <c r="M11" s="54"/>
@@ -5776,10 +5844,10 @@
       <c r="B14" s="50">
         <v>3</v>
       </c>
-      <c r="C14" s="164" t="s">
+      <c r="C14" s="169" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="164"/>
+      <c r="D14" s="169"/>
       <c r="E14" s="12">
         <f>SUM(G14,I14,K14,M14)</f>
         <v>0</v>
@@ -5934,18 +6002,18 @@
       <c r="B17" s="58">
         <v>4</v>
       </c>
-      <c r="C17" s="163" t="s">
+      <c r="C17" s="164" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="163"/>
+      <c r="D17" s="164"/>
       <c r="E17" s="37"/>
-      <c r="F17" s="163" t="s">
+      <c r="F17" s="164" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="163"/>
-      <c r="H17" s="163"/>
-      <c r="I17" s="163"/>
-      <c r="J17" s="163"/>
+      <c r="G17" s="164"/>
+      <c r="H17" s="164"/>
+      <c r="I17" s="164"/>
+      <c r="J17" s="164"/>
       <c r="K17" s="54"/>
       <c r="L17" s="54"/>
       <c r="M17" s="54"/>
@@ -6083,10 +6151,10 @@
       <c r="B20" s="24">
         <v>5</v>
       </c>
-      <c r="C20" s="167" t="s">
+      <c r="C20" s="170" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="167"/>
+      <c r="D20" s="170"/>
       <c r="E20" s="12">
         <f>SUM(G20,I20,K20)</f>
         <v>0</v>
@@ -6206,14 +6274,14 @@
       <c r="F22" s="57"/>
       <c r="G22" s="12"/>
       <c r="H22" s="57"/>
-      <c r="I22" s="168" t="s">
+      <c r="I22" s="171" t="s">
         <v>25</v>
       </c>
-      <c r="J22" s="168"/>
-      <c r="K22" s="169" t="s">
+      <c r="J22" s="171"/>
+      <c r="K22" s="172" t="s">
         <v>67</v>
       </c>
-      <c r="L22" s="169"/>
+      <c r="L22" s="172"/>
       <c r="M22" s="54"/>
       <c r="N22" s="54"/>
       <c r="O22" s="54"/>
@@ -6255,15 +6323,15 @@
       <c r="F23" s="54"/>
       <c r="G23" s="54"/>
       <c r="H23" s="2"/>
-      <c r="I23" s="168" t="s">
+      <c r="I23" s="171" t="s">
         <v>66</v>
       </c>
-      <c r="J23" s="168"/>
-      <c r="K23" s="168" t="s">
+      <c r="J23" s="171"/>
+      <c r="K23" s="171" t="s">
         <v>68</v>
       </c>
-      <c r="L23" s="168"/>
-      <c r="M23" s="168"/>
+      <c r="L23" s="171"/>
+      <c r="M23" s="171"/>
       <c r="N23" s="54"/>
       <c r="O23" s="54"/>
       <c r="P23" s="54"/>
@@ -6306,17 +6374,17 @@
       <c r="H24" s="54"/>
       <c r="I24" s="57"/>
       <c r="J24" s="54"/>
-      <c r="K24" s="169"/>
-      <c r="L24" s="169"/>
+      <c r="K24" s="172"/>
+      <c r="L24" s="172"/>
       <c r="M24" s="54"/>
       <c r="N24" s="54"/>
       <c r="O24" s="54"/>
       <c r="P24" s="54"/>
-      <c r="Q24" s="163" t="s">
+      <c r="Q24" s="164" t="s">
         <v>5</v>
       </c>
-      <c r="R24" s="163"/>
-      <c r="S24" s="163"/>
+      <c r="R24" s="164"/>
+      <c r="S24" s="164"/>
       <c r="T24" s="54" t="s">
         <v>2</v>
       </c>
@@ -6444,11 +6512,11 @@
       <c r="C27" s="9">
         <v>1</v>
       </c>
-      <c r="D27" s="166" t="s">
+      <c r="D27" s="168" t="s">
         <v>33</v>
       </c>
-      <c r="E27" s="166"/>
-      <c r="F27" s="166"/>
+      <c r="E27" s="168"/>
+      <c r="F27" s="168"/>
       <c r="G27" s="12">
         <v>80</v>
       </c>
@@ -6513,11 +6581,11 @@
       <c r="C28" s="9">
         <v>2</v>
       </c>
-      <c r="D28" s="165" t="s">
+      <c r="D28" s="166" t="s">
         <v>41</v>
       </c>
-      <c r="E28" s="165"/>
-      <c r="F28" s="165"/>
+      <c r="E28" s="166"/>
+      <c r="F28" s="166"/>
       <c r="G28" s="12">
         <v>80</v>
       </c>
@@ -6720,11 +6788,11 @@
       <c r="C31" s="9">
         <v>5</v>
       </c>
-      <c r="D31" s="163" t="s">
+      <c r="D31" s="164" t="s">
         <v>40</v>
       </c>
-      <c r="E31" s="163"/>
-      <c r="F31" s="163"/>
+      <c r="E31" s="164"/>
+      <c r="F31" s="164"/>
       <c r="G31" s="12">
         <v>100</v>
       </c>
@@ -6796,11 +6864,11 @@
       <c r="C32" s="9">
         <v>6</v>
       </c>
-      <c r="D32" s="163" t="s">
+      <c r="D32" s="164" t="s">
         <v>27</v>
       </c>
-      <c r="E32" s="163"/>
-      <c r="F32" s="163"/>
+      <c r="E32" s="164"/>
+      <c r="F32" s="164"/>
       <c r="G32" s="12">
         <v>2</v>
       </c>
@@ -6862,11 +6930,11 @@
       <c r="C33" s="9">
         <v>7</v>
       </c>
-      <c r="D33" s="163" t="s">
+      <c r="D33" s="164" t="s">
         <v>35</v>
       </c>
-      <c r="E33" s="163"/>
-      <c r="F33" s="163"/>
+      <c r="E33" s="164"/>
+      <c r="F33" s="164"/>
       <c r="G33" s="12"/>
       <c r="H33" s="57"/>
       <c r="I33" s="12"/>
@@ -6955,10 +7023,10 @@
       <c r="B35" s="58">
         <v>2</v>
       </c>
-      <c r="C35" s="163" t="s">
+      <c r="C35" s="164" t="s">
         <v>13</v>
       </c>
-      <c r="D35" s="163"/>
+      <c r="D35" s="164"/>
       <c r="E35" s="54"/>
       <c r="F35" s="54"/>
       <c r="G35" s="54"/>
@@ -7049,18 +7117,18 @@
       <c r="B37" s="50">
         <v>3</v>
       </c>
-      <c r="C37" s="164" t="s">
+      <c r="C37" s="169" t="s">
         <v>12</v>
       </c>
-      <c r="D37" s="164"/>
+      <c r="D37" s="169"/>
       <c r="E37" s="54"/>
-      <c r="F37" s="163" t="s">
+      <c r="F37" s="164" t="s">
         <v>7</v>
       </c>
-      <c r="G37" s="163"/>
-      <c r="H37" s="163"/>
-      <c r="I37" s="163"/>
-      <c r="J37" s="163"/>
+      <c r="G37" s="164"/>
+      <c r="H37" s="164"/>
+      <c r="I37" s="164"/>
+      <c r="J37" s="164"/>
       <c r="K37" s="54"/>
       <c r="L37" s="54"/>
       <c r="M37" s="54"/>
@@ -7101,11 +7169,11 @@
       <c r="C38" s="9">
         <v>1</v>
       </c>
-      <c r="D38" s="163" t="s">
+      <c r="D38" s="164" t="s">
         <v>15</v>
       </c>
-      <c r="E38" s="163"/>
-      <c r="F38" s="163"/>
+      <c r="E38" s="164"/>
+      <c r="F38" s="164"/>
       <c r="G38" s="12">
         <v>100</v>
       </c>
@@ -7324,11 +7392,11 @@
       <c r="C42" s="9">
         <v>5</v>
       </c>
-      <c r="D42" s="163" t="s">
+      <c r="D42" s="164" t="s">
         <v>21</v>
       </c>
-      <c r="E42" s="163"/>
-      <c r="F42" s="163"/>
+      <c r="E42" s="164"/>
+      <c r="F42" s="164"/>
       <c r="G42" s="12">
         <v>2</v>
       </c>
@@ -7371,11 +7439,11 @@
       <c r="C43" s="9">
         <v>6</v>
       </c>
-      <c r="D43" s="163" t="s">
+      <c r="D43" s="164" t="s">
         <v>8</v>
       </c>
-      <c r="E43" s="163"/>
-      <c r="F43" s="163"/>
+      <c r="E43" s="164"/>
+      <c r="F43" s="164"/>
       <c r="G43" s="14">
         <v>0.25</v>
       </c>
@@ -7420,11 +7488,11 @@
       <c r="C44" s="9">
         <v>7</v>
       </c>
-      <c r="D44" s="163" t="s">
+      <c r="D44" s="164" t="s">
         <v>35</v>
       </c>
-      <c r="E44" s="163"/>
-      <c r="F44" s="163"/>
+      <c r="E44" s="164"/>
+      <c r="F44" s="164"/>
       <c r="G44" s="54"/>
       <c r="H44" s="54"/>
       <c r="I44" s="54"/>
@@ -7469,10 +7537,10 @@
       <c r="B46" s="58">
         <v>4</v>
       </c>
-      <c r="C46" s="163" t="s">
+      <c r="C46" s="164" t="s">
         <v>13</v>
       </c>
-      <c r="D46" s="163"/>
+      <c r="D46" s="164"/>
       <c r="E46" s="54"/>
       <c r="F46" s="54"/>
       <c r="G46" s="54"/>
@@ -7519,10 +7587,10 @@
       <c r="B48" s="19">
         <v>5</v>
       </c>
-      <c r="C48" s="165" t="s">
+      <c r="C48" s="166" t="s">
         <v>48</v>
       </c>
-      <c r="D48" s="165"/>
+      <c r="D48" s="166"/>
       <c r="E48" s="54"/>
       <c r="F48" s="54"/>
       <c r="G48" s="54"/>
@@ -7547,11 +7615,11 @@
       <c r="C49" s="9">
         <v>1</v>
       </c>
-      <c r="D49" s="166" t="s">
+      <c r="D49" s="168" t="s">
         <v>17</v>
       </c>
-      <c r="E49" s="166"/>
-      <c r="F49" s="166"/>
+      <c r="E49" s="168"/>
+      <c r="F49" s="168"/>
       <c r="G49" s="12">
         <v>90</v>
       </c>
@@ -7594,11 +7662,11 @@
       <c r="C50" s="9">
         <v>2</v>
       </c>
-      <c r="D50" s="165" t="s">
+      <c r="D50" s="166" t="s">
         <v>38</v>
       </c>
-      <c r="E50" s="165"/>
-      <c r="F50" s="165"/>
+      <c r="E50" s="166"/>
+      <c r="F50" s="166"/>
       <c r="G50" s="12">
         <v>80</v>
       </c>
@@ -7688,11 +7756,11 @@
       <c r="C52" s="9">
         <v>4</v>
       </c>
-      <c r="D52" s="163" t="s">
+      <c r="D52" s="164" t="s">
         <v>19</v>
       </c>
-      <c r="E52" s="163"/>
-      <c r="F52" s="163"/>
+      <c r="E52" s="164"/>
+      <c r="F52" s="164"/>
       <c r="G52" s="12">
         <v>25</v>
       </c>
@@ -7735,11 +7803,11 @@
       <c r="C53" s="9">
         <v>5</v>
       </c>
-      <c r="D53" s="163" t="s">
+      <c r="D53" s="164" t="s">
         <v>4</v>
       </c>
-      <c r="E53" s="163"/>
-      <c r="F53" s="163"/>
+      <c r="E53" s="164"/>
+      <c r="F53" s="164"/>
       <c r="G53" s="12">
         <v>25</v>
       </c>
@@ -7782,11 +7850,11 @@
       <c r="C54" s="9">
         <v>6</v>
       </c>
-      <c r="D54" s="163" t="s">
+      <c r="D54" s="164" t="s">
         <v>34</v>
       </c>
-      <c r="E54" s="163"/>
-      <c r="F54" s="163"/>
+      <c r="E54" s="164"/>
+      <c r="F54" s="164"/>
       <c r="G54" s="12">
         <v>40</v>
       </c>
@@ -7829,11 +7897,11 @@
       <c r="C55" s="9">
         <v>7</v>
       </c>
-      <c r="D55" s="163" t="s">
+      <c r="D55" s="164" t="s">
         <v>27</v>
       </c>
-      <c r="E55" s="163"/>
-      <c r="F55" s="163"/>
+      <c r="E55" s="164"/>
+      <c r="F55" s="164"/>
       <c r="G55" s="12">
         <v>2</v>
       </c>
@@ -7876,11 +7944,11 @@
       <c r="C56" s="9">
         <v>8</v>
       </c>
-      <c r="D56" s="163" t="s">
+      <c r="D56" s="164" t="s">
         <v>35</v>
       </c>
-      <c r="E56" s="163"/>
-      <c r="F56" s="163"/>
+      <c r="E56" s="164"/>
+      <c r="F56" s="164"/>
       <c r="G56" s="54"/>
       <c r="H56" s="54"/>
       <c r="I56" s="54"/>
@@ -7946,17 +8014,17 @@
     </row>
     <row r="59" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="58"/>
-      <c r="C59" s="163" t="s">
+      <c r="C59" s="164" t="s">
         <v>1</v>
       </c>
-      <c r="D59" s="163"/>
-      <c r="E59" s="163"/>
-      <c r="F59" s="163"/>
-      <c r="G59" s="163"/>
-      <c r="H59" s="163"/>
-      <c r="I59" s="163"/>
-      <c r="J59" s="163"/>
-      <c r="K59" s="163"/>
+      <c r="D59" s="164"/>
+      <c r="E59" s="164"/>
+      <c r="F59" s="164"/>
+      <c r="G59" s="164"/>
+      <c r="H59" s="164"/>
+      <c r="I59" s="164"/>
+      <c r="J59" s="164"/>
+      <c r="K59" s="164"/>
       <c r="L59" s="54"/>
       <c r="M59" s="54"/>
       <c r="N59" s="54"/>
@@ -7997,19 +8065,20 @@
       <c r="C61" s="9">
         <v>1</v>
       </c>
-      <c r="D61" s="163" t="s">
+      <c r="D61" s="164" t="s">
         <v>37</v>
       </c>
-      <c r="E61" s="163"/>
-      <c r="F61" s="163"/>
+      <c r="E61" s="164"/>
+      <c r="F61" s="164"/>
       <c r="G61" s="12">
         <v>25</v>
       </c>
       <c r="H61" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="I61" s="14">
-        <v>0.66</v>
+      <c r="I61" s="12">
+        <f>$E$22</f>
+        <v>0</v>
       </c>
       <c r="J61" s="57" t="s">
         <v>42</v>
@@ -8023,12 +8092,12 @@
       </c>
       <c r="M61" s="58">
         <f>PRODUCT(G61,I61,K61)</f>
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="P61" s="54"/>
       <c r="Q61" s="12">
         <f>M61</f>
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="R61" s="54"/>
       <c r="S61" s="54"/>
@@ -8068,19 +8137,20 @@
       <c r="C63" s="9">
         <v>3</v>
       </c>
-      <c r="D63" s="163" t="s">
+      <c r="D63" s="164" t="s">
         <v>35</v>
       </c>
-      <c r="E63" s="163"/>
-      <c r="F63" s="163"/>
+      <c r="E63" s="164"/>
+      <c r="F63" s="164"/>
       <c r="G63" s="27">
         <v>0.16</v>
       </c>
       <c r="H63" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="I63" s="27">
-        <v>1</v>
+      <c r="I63" s="12">
+        <f>$E$22</f>
+        <v>0</v>
       </c>
       <c r="J63" s="57" t="s">
         <v>42</v>
@@ -8094,14 +8164,14 @@
       </c>
       <c r="M63" s="14">
         <f>PRODUCT(G63,I63,K63)</f>
-        <v>0.16</v>
-      </c>
-      <c r="N63" s="162"/>
-      <c r="O63" s="162"/>
+        <v>0</v>
+      </c>
+      <c r="N63" s="165"/>
+      <c r="O63" s="165"/>
       <c r="P63" s="54"/>
       <c r="Q63" s="12">
         <f>M63</f>
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="R63" s="54" t="s">
         <v>9</v>
@@ -8116,11 +8186,11 @@
       <c r="C64" s="32">
         <v>4</v>
       </c>
-      <c r="D64" s="163" t="s">
+      <c r="D64" s="164" t="s">
         <v>14</v>
       </c>
-      <c r="E64" s="163"/>
-      <c r="F64" s="163"/>
+      <c r="E64" s="164"/>
+      <c r="F64" s="164"/>
       <c r="G64" s="54"/>
       <c r="H64" s="54"/>
       <c r="I64" s="54"/>
@@ -8128,8 +8198,8 @@
       <c r="K64" s="54"/>
       <c r="L64" s="54"/>
       <c r="M64" s="54"/>
-      <c r="N64" s="162"/>
-      <c r="O64" s="162"/>
+      <c r="N64" s="165"/>
+      <c r="O64" s="165"/>
       <c r="P64" s="54"/>
       <c r="Q64" s="12">
         <v>1</v>
@@ -8147,11 +8217,11 @@
       <c r="C65" s="9">
         <v>5</v>
       </c>
-      <c r="D65" s="163" t="s">
+      <c r="D65" s="164" t="s">
         <v>3</v>
       </c>
-      <c r="E65" s="163"/>
-      <c r="F65" s="163"/>
+      <c r="E65" s="164"/>
+      <c r="F65" s="164"/>
       <c r="G65" s="54"/>
       <c r="H65" s="54"/>
       <c r="I65" s="54"/>
@@ -8188,8 +8258,9 @@
       <c r="H66" s="137" t="s">
         <v>42</v>
       </c>
-      <c r="I66" s="138">
-        <v>1</v>
+      <c r="I66" s="12">
+        <f>$E$22</f>
+        <v>0</v>
       </c>
       <c r="J66" s="137" t="s">
         <v>42</v>
@@ -8203,14 +8274,14 @@
       </c>
       <c r="M66" s="133">
         <f>PRODUCT(G66,I66,K66)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N66" s="139"/>
       <c r="O66" s="139"/>
       <c r="P66" s="135"/>
       <c r="Q66" s="12">
         <f>M66</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R66" s="135"/>
       <c r="S66" s="135"/>
@@ -8221,17 +8292,38 @@
     <row r="67" spans="1:22" s="141" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="132"/>
       <c r="B67" s="133"/>
-      <c r="C67" s="134"/>
-      <c r="D67" s="135"/>
+      <c r="C67" s="134">
+        <v>7</v>
+      </c>
+      <c r="D67" s="135" t="s">
+        <v>75</v>
+      </c>
       <c r="E67" s="135"/>
       <c r="F67" s="135"/>
-      <c r="G67" s="136"/>
-      <c r="H67" s="137"/>
-      <c r="I67" s="138"/>
-      <c r="J67" s="137"/>
-      <c r="K67" s="136"/>
-      <c r="L67" s="137"/>
-      <c r="M67" s="133"/>
+      <c r="G67" s="136">
+        <v>10</v>
+      </c>
+      <c r="H67" s="137" t="s">
+        <v>42</v>
+      </c>
+      <c r="I67" s="12">
+        <f>$E$22</f>
+        <v>0</v>
+      </c>
+      <c r="J67" s="137" t="s">
+        <v>42</v>
+      </c>
+      <c r="K67" s="136">
+        <f>J5</f>
+        <v>1</v>
+      </c>
+      <c r="L67" s="137" t="s">
+        <v>0</v>
+      </c>
+      <c r="M67" s="133">
+        <f>PRODUCT(G67,I67,K67)</f>
+        <v>0</v>
+      </c>
       <c r="N67" s="139"/>
       <c r="O67" s="139"/>
       <c r="P67" s="135"/>
@@ -8242,64 +8334,59 @@
       <c r="U67" s="135"/>
       <c r="V67" s="135"/>
     </row>
-    <row r="68" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="58"/>
-      <c r="C68" s="32"/>
-      <c r="D68" s="54"/>
-      <c r="E68" s="54"/>
-      <c r="F68" s="54"/>
-      <c r="G68" s="54"/>
-      <c r="H68" s="54"/>
-      <c r="I68" s="54"/>
-      <c r="J68" s="54"/>
-      <c r="K68" s="54"/>
-      <c r="L68" s="54"/>
-      <c r="M68" s="54"/>
-      <c r="N68" s="54"/>
-      <c r="O68" s="54"/>
-      <c r="P68" s="54"/>
-      <c r="Q68" s="12">
-        <f>SUM(Q27,Q28,M31,Q38,Q42,Q49,Q50,Q52,Q53,Q54,Q55,Q61,Q29,Q30,Q66)+Q51</f>
-        <v>26.5</v>
-      </c>
-      <c r="R68" s="54"/>
-      <c r="S68" s="54"/>
-      <c r="T68" s="45"/>
-      <c r="U68" s="54"/>
-      <c r="V68" s="54"/>
-    </row>
-    <row r="69" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" spans="1:22" s="141" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="132"/>
+      <c r="B68" s="133"/>
+      <c r="C68" s="134"/>
+      <c r="D68" s="135"/>
+      <c r="E68" s="135"/>
+      <c r="F68" s="135"/>
+      <c r="G68" s="136"/>
+      <c r="H68" s="137"/>
+      <c r="I68" s="138"/>
+      <c r="J68" s="137"/>
+      <c r="K68" s="136"/>
+      <c r="L68" s="137"/>
+      <c r="M68" s="133"/>
+      <c r="N68" s="139"/>
+      <c r="O68" s="139"/>
+      <c r="P68" s="135"/>
+      <c r="Q68" s="12"/>
+      <c r="R68" s="135"/>
+      <c r="S68" s="135"/>
+      <c r="T68" s="140"/>
+      <c r="U68" s="135"/>
+      <c r="V68" s="135"/>
+    </row>
+    <row r="69" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="58"/>
+      <c r="C69" s="32"/>
+      <c r="D69" s="54"/>
+      <c r="E69" s="54"/>
+      <c r="F69" s="54"/>
+      <c r="G69" s="54"/>
+      <c r="H69" s="54"/>
+      <c r="I69" s="54"/>
+      <c r="J69" s="54"/>
+      <c r="K69" s="54"/>
+      <c r="L69" s="54"/>
+      <c r="M69" s="54"/>
+      <c r="N69" s="54"/>
+      <c r="O69" s="54"/>
+      <c r="P69" s="54"/>
+      <c r="Q69" s="12">
+        <f>SUM(Q27,Q28,M31,Q38,Q42,M43,Q49,Q50,Q51,Q52,Q53,Q54,Q55,Q61,Q29,Q30,Q66,Q67)</f>
+        <v>0</v>
+      </c>
+      <c r="R69" s="54"/>
+      <c r="S69" s="54"/>
+      <c r="T69" s="45"/>
+      <c r="U69" s="54"/>
+      <c r="V69" s="54"/>
+    </row>
+    <row r="70" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="O5:R5"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="Q24:S24"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="F11:J11"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="D53:F53"/>
     <mergeCell ref="N63:O63"/>
     <mergeCell ref="D64:F64"/>
     <mergeCell ref="N64:O64"/>
@@ -8316,12 +8403,42 @@
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="F37:J37"/>
     <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="O5:R5"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="F5:I5"/>
   </mergeCells>
   <pageMargins left="0.3" right="0.28999999999999998" top="0.25" bottom="0.31" header="0.37" footer="0.31"/>
-  <pageSetup paperSize="9" scale="44" orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="43" orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="20" max="1048575" man="1"/>
   </colBreaks>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>